--- a/inst/Example/Mouse_Experiment_Example.xlsx
+++ b/inst/Example/Mouse_Experiment_Example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtcoll06\Box\Lab Docs\R projects\mouseR\inst\Example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD31B31-BD76-44F8-8A6F-1D0A70741DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C58C5F-9C7B-4E94-B270-F193293A2205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3637" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3637" uniqueCount="62">
   <si>
     <t>Mouse Weight</t>
   </si>
@@ -218,9 +218,6 @@
   </si>
   <si>
     <t>Order</t>
-  </si>
-  <si>
-    <t>M</t>
   </si>
   <si>
     <t>F</t>
@@ -953,7 +950,7 @@
   <dimension ref="A1:U39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1048,7 +1045,7 @@
         <v>18.400000000000002</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3" s="5">
         <v>23</v>
@@ -1109,7 +1106,7 @@
         <v>17.600000000000001</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" s="5">
         <v>22</v>
@@ -1170,7 +1167,7 @@
         <v>19.200000000000003</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E5" s="5">
         <v>24</v>
@@ -1209,7 +1206,7 @@
         <v>17.600000000000001</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E6" s="5">
         <v>22</v>
@@ -1270,7 +1267,7 @@
         <v>18.400000000000002</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7" s="5">
         <v>23</v>
@@ -1331,7 +1328,7 @@
         <v>16.8</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8" s="7">
         <v>21</v>
@@ -1368,7 +1365,7 @@
         <v>16.8</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E9" s="7">
         <v>21</v>
@@ -1429,7 +1426,7 @@
         <v>18.400000000000002</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E10" s="7">
         <v>23</v>
@@ -1490,7 +1487,7 @@
         <v>19.200000000000003</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11" s="7">
         <v>24</v>
@@ -1551,7 +1548,7 @@
         <v>18.400000000000002</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E12" s="7">
         <v>23</v>
@@ -1612,7 +1609,7 @@
         <v>17.600000000000001</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E13" s="9">
         <v>22</v>
@@ -1673,7 +1670,7 @@
         <v>19.200000000000003</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E14" s="9">
         <v>24</v>
@@ -1718,7 +1715,7 @@
         <v>23</v>
       </c>
       <c r="F15" s="9">
-        <v>22</v>
+        <v>22.6</v>
       </c>
       <c r="G15" s="9">
         <v>18</v>
@@ -1749,7 +1746,7 @@
         <v>18.400000000000002</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E16" s="9">
         <v>23</v>
@@ -1758,7 +1755,7 @@
         <v>22</v>
       </c>
       <c r="G16" s="9">
-        <v>18</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="H16" s="9">
         <v>19</v>
@@ -1810,7 +1807,7 @@
         <v>16.8</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" s="9">
         <v>21</v>
@@ -2786,7 +2783,7 @@
       </c>
       <c r="F34" s="15">
         <f t="shared" si="2"/>
-        <v>95.652173913043484</v>
+        <v>98.260869565217405</v>
       </c>
       <c r="G34" s="15">
         <f t="shared" si="3"/>
@@ -2860,7 +2857,7 @@
       </c>
       <c r="G35" s="15">
         <f t="shared" si="3"/>
-        <v>78.260869565217391</v>
+        <v>76.521739130434781</v>
       </c>
       <c r="H35" s="15">
         <f t="shared" si="4"/>
@@ -22714,59 +22711,59 @@
       </c>
       <c r="D2" s="114">
         <f ca="1">INT(9900000000*RAND()+100000000)</f>
-        <v>6520967166</v>
+        <v>6952430899</v>
       </c>
       <c r="E2" s="114">
         <f t="shared" ref="E2:F2" ca="1" si="0">INT(9900000000*RAND()+100000000)</f>
-        <v>1193658961</v>
+        <v>3655117768</v>
       </c>
       <c r="F2" s="114">
         <f t="shared" ca="1" si="0"/>
-        <v>2733511337</v>
+        <v>4213849284</v>
       </c>
       <c r="G2" s="114">
         <f ca="1">INT(990000000*RAND()+10000000)</f>
-        <v>662081327</v>
+        <v>77664258</v>
       </c>
       <c r="H2" s="114">
         <f ca="1">INT(900000000*RAND()+10000000)</f>
-        <v>670057860</v>
+        <v>655300424</v>
       </c>
       <c r="I2" s="114">
         <f ca="1">INT(750000000*RAND()+10000000)</f>
-        <v>85385435</v>
+        <v>563615077</v>
       </c>
       <c r="J2" s="114">
         <f ca="1">INT(75000000*RAND()+1000000)</f>
-        <v>47300302</v>
+        <v>14502892</v>
       </c>
       <c r="K2" s="114">
         <f ca="1">INT(750000*RAND()+10000)</f>
-        <v>475579</v>
+        <v>60691</v>
       </c>
       <c r="L2" s="114">
         <f t="shared" ref="L2" ca="1" si="1">INT(750000*RAND()+10000)</f>
-        <v>607998</v>
+        <v>407105</v>
       </c>
       <c r="M2" s="114">
         <f ca="1">INT(75000*RAND()+1000)</f>
-        <v>49514</v>
+        <v>54561</v>
       </c>
       <c r="N2" s="114">
         <f ca="1">INT(7500*RAND()+100)</f>
-        <v>4986</v>
+        <v>510</v>
       </c>
       <c r="O2" s="114">
         <f t="shared" ref="O2:Q2" ca="1" si="2">INT(7500*RAND()+100)</f>
-        <v>331</v>
+        <v>3908</v>
       </c>
       <c r="P2" s="114">
         <f t="shared" ca="1" si="2"/>
-        <v>6092</v>
+        <v>2453</v>
       </c>
       <c r="Q2" s="114">
         <f t="shared" ca="1" si="2"/>
-        <v>7511</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
@@ -22781,59 +22778,59 @@
       </c>
       <c r="D3" s="114">
         <f ca="1">INT(RAND()*(D2-2))</f>
-        <v>3039843809</v>
+        <v>4124738692</v>
       </c>
       <c r="E3" s="114">
         <f t="shared" ref="E3:Q3" ca="1" si="3">INT(RAND()*(E2-2))</f>
-        <v>66744879</v>
+        <v>2497914535</v>
       </c>
       <c r="F3" s="114">
         <f t="shared" ca="1" si="3"/>
-        <v>1696815127</v>
+        <v>1018324598</v>
       </c>
       <c r="G3" s="114">
         <f t="shared" ca="1" si="3"/>
-        <v>250888593</v>
+        <v>63339621</v>
       </c>
       <c r="H3" s="114">
         <f t="shared" ca="1" si="3"/>
-        <v>282308180</v>
+        <v>450572628</v>
       </c>
       <c r="I3" s="114">
         <f t="shared" ca="1" si="3"/>
-        <v>39745777</v>
+        <v>13484831</v>
       </c>
       <c r="J3" s="114">
         <f t="shared" ca="1" si="3"/>
-        <v>24215265</v>
+        <v>12986385</v>
       </c>
       <c r="K3" s="114">
         <f t="shared" ca="1" si="3"/>
-        <v>32901</v>
+        <v>23777</v>
       </c>
       <c r="L3" s="114">
         <f t="shared" ca="1" si="3"/>
-        <v>35444</v>
+        <v>384719</v>
       </c>
       <c r="M3" s="114">
         <f t="shared" ca="1" si="3"/>
-        <v>24197</v>
+        <v>35347</v>
       </c>
       <c r="N3" s="114">
         <f t="shared" ca="1" si="3"/>
-        <v>3004</v>
+        <v>3</v>
       </c>
       <c r="O3" s="114">
         <f t="shared" ca="1" si="3"/>
-        <v>259</v>
+        <v>1924</v>
       </c>
       <c r="P3" s="114">
         <f t="shared" ca="1" si="3"/>
-        <v>5463</v>
+        <v>425</v>
       </c>
       <c r="Q3" s="114">
         <f t="shared" ca="1" si="3"/>
-        <v>1702</v>
+        <v>2484</v>
       </c>
       <c r="S3" s="115"/>
       <c r="T3" s="115"/>
@@ -22851,59 +22848,59 @@
       </c>
       <c r="D4" s="114">
         <f ca="1">D2-D3</f>
-        <v>3481123357</v>
+        <v>2827692207</v>
       </c>
       <c r="E4" s="114">
         <f t="shared" ref="E4:Q4" ca="1" si="4">E2-E3</f>
-        <v>1126914082</v>
+        <v>1157203233</v>
       </c>
       <c r="F4" s="114">
         <f t="shared" ca="1" si="4"/>
-        <v>1036696210</v>
+        <v>3195524686</v>
       </c>
       <c r="G4" s="114">
         <f t="shared" ca="1" si="4"/>
-        <v>411192734</v>
+        <v>14324637</v>
       </c>
       <c r="H4" s="114">
         <f t="shared" ca="1" si="4"/>
-        <v>387749680</v>
+        <v>204727796</v>
       </c>
       <c r="I4" s="114">
         <f t="shared" ca="1" si="4"/>
-        <v>45639658</v>
+        <v>550130246</v>
       </c>
       <c r="J4" s="114">
         <f t="shared" ca="1" si="4"/>
-        <v>23085037</v>
+        <v>1516507</v>
       </c>
       <c r="K4" s="114">
         <f t="shared" ca="1" si="4"/>
-        <v>442678</v>
+        <v>36914</v>
       </c>
       <c r="L4" s="114">
         <f t="shared" ca="1" si="4"/>
-        <v>572554</v>
+        <v>22386</v>
       </c>
       <c r="M4" s="114">
         <f t="shared" ca="1" si="4"/>
-        <v>25317</v>
+        <v>19214</v>
       </c>
       <c r="N4" s="114">
         <f t="shared" ca="1" si="4"/>
-        <v>1982</v>
+        <v>507</v>
       </c>
       <c r="O4" s="114">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>1984</v>
       </c>
       <c r="P4" s="114">
         <f t="shared" ca="1" si="4"/>
-        <v>629</v>
+        <v>2028</v>
       </c>
       <c r="Q4" s="114">
         <f t="shared" ca="1" si="4"/>
-        <v>5809</v>
+        <v>706</v>
       </c>
       <c r="S4" s="116"/>
       <c r="T4" s="115"/>
@@ -22921,59 +22918,59 @@
       </c>
       <c r="D5" s="114">
         <f ca="1">INT(9900000000*RAND()+100000000)</f>
-        <v>2748442925</v>
+        <v>849307056</v>
       </c>
       <c r="E5" s="114">
         <f t="shared" ref="E5:F5" ca="1" si="5">INT(9900000000*RAND()+100000000)</f>
-        <v>1387858772</v>
+        <v>544086981</v>
       </c>
       <c r="F5" s="114">
         <f t="shared" ca="1" si="5"/>
-        <v>7886640362</v>
+        <v>6871446496</v>
       </c>
       <c r="G5" s="114">
         <f ca="1">INT(990000000*RAND()+10000000)</f>
-        <v>350344472</v>
+        <v>878249749</v>
       </c>
       <c r="H5" s="114">
         <f ca="1">INT(900000000*RAND()+10000000)</f>
-        <v>787077889</v>
+        <v>14645464</v>
       </c>
       <c r="I5" s="114">
         <f ca="1">INT(750000000*RAND()+10000000)</f>
-        <v>721060732</v>
+        <v>705549940</v>
       </c>
       <c r="J5" s="114">
         <f ca="1">INT(75000000*RAND()+1000000)</f>
-        <v>71845713</v>
+        <v>53425642</v>
       </c>
       <c r="K5" s="114">
         <f ca="1">INT(750000*RAND()+10000)</f>
-        <v>456066</v>
+        <v>687626</v>
       </c>
       <c r="L5" s="114">
         <f t="shared" ref="L5" ca="1" si="6">INT(750000*RAND()+10000)</f>
-        <v>527600</v>
+        <v>146058</v>
       </c>
       <c r="M5" s="114">
         <f ca="1">INT(75000*RAND()+1000)</f>
-        <v>26356</v>
+        <v>72556</v>
       </c>
       <c r="N5" s="114">
         <f ca="1">INT(7500*RAND()+100)</f>
-        <v>3785</v>
+        <v>2430</v>
       </c>
       <c r="O5" s="114">
         <f t="shared" ref="O5:Q5" ca="1" si="7">INT(7500*RAND()+100)</f>
-        <v>4787</v>
+        <v>4162</v>
       </c>
       <c r="P5" s="114">
         <f t="shared" ca="1" si="7"/>
-        <v>491</v>
+        <v>7522</v>
       </c>
       <c r="Q5" s="114">
         <f t="shared" ca="1" si="7"/>
-        <v>4263</v>
+        <v>6413</v>
       </c>
       <c r="S5" s="116"/>
     </row>
@@ -22989,59 +22986,59 @@
       </c>
       <c r="D6" s="114">
         <f ca="1">INT(RAND()*(D5-2))</f>
-        <v>2703287683</v>
+        <v>647357832</v>
       </c>
       <c r="E6" s="114">
         <f t="shared" ref="E6:Q6" ca="1" si="8">INT(RAND()*(E5-2))</f>
-        <v>1347766855</v>
+        <v>409778440</v>
       </c>
       <c r="F6" s="114">
         <f t="shared" ca="1" si="8"/>
-        <v>5957400632</v>
+        <v>5919777782</v>
       </c>
       <c r="G6" s="114">
         <f t="shared" ca="1" si="8"/>
-        <v>346902771</v>
+        <v>835030148</v>
       </c>
       <c r="H6" s="114">
         <f t="shared" ca="1" si="8"/>
-        <v>224610000</v>
+        <v>9949475</v>
       </c>
       <c r="I6" s="114">
         <f t="shared" ca="1" si="8"/>
-        <v>551450028</v>
+        <v>22295994</v>
       </c>
       <c r="J6" s="114">
         <f t="shared" ca="1" si="8"/>
-        <v>67512169</v>
+        <v>21654704</v>
       </c>
       <c r="K6" s="114">
         <f t="shared" ca="1" si="8"/>
-        <v>248856</v>
+        <v>112074</v>
       </c>
       <c r="L6" s="114">
         <f t="shared" ca="1" si="8"/>
-        <v>321451</v>
+        <v>83393</v>
       </c>
       <c r="M6" s="114">
         <f t="shared" ca="1" si="8"/>
-        <v>5562</v>
+        <v>16761</v>
       </c>
       <c r="N6" s="114">
         <f t="shared" ca="1" si="8"/>
-        <v>292</v>
+        <v>695</v>
       </c>
       <c r="O6" s="114">
         <f t="shared" ca="1" si="8"/>
-        <v>645</v>
+        <v>3577</v>
       </c>
       <c r="P6" s="114">
         <f t="shared" ca="1" si="8"/>
-        <v>283</v>
+        <v>4070</v>
       </c>
       <c r="Q6" s="114">
         <f t="shared" ca="1" si="8"/>
-        <v>3631</v>
+        <v>449</v>
       </c>
       <c r="S6" s="116"/>
     </row>
@@ -23057,59 +23054,59 @@
       </c>
       <c r="D7" s="114">
         <f ca="1">D5-D6</f>
-        <v>45155242</v>
+        <v>201949224</v>
       </c>
       <c r="E7" s="114">
         <f t="shared" ref="E7:Q7" ca="1" si="9">E5-E6</f>
-        <v>40091917</v>
+        <v>134308541</v>
       </c>
       <c r="F7" s="114">
         <f t="shared" ca="1" si="9"/>
-        <v>1929239730</v>
+        <v>951668714</v>
       </c>
       <c r="G7" s="114">
         <f t="shared" ca="1" si="9"/>
-        <v>3441701</v>
+        <v>43219601</v>
       </c>
       <c r="H7" s="114">
         <f t="shared" ca="1" si="9"/>
-        <v>562467889</v>
+        <v>4695989</v>
       </c>
       <c r="I7" s="114">
         <f t="shared" ca="1" si="9"/>
-        <v>169610704</v>
+        <v>683253946</v>
       </c>
       <c r="J7" s="114">
         <f t="shared" ca="1" si="9"/>
-        <v>4333544</v>
+        <v>31770938</v>
       </c>
       <c r="K7" s="114">
         <f t="shared" ca="1" si="9"/>
-        <v>207210</v>
+        <v>575552</v>
       </c>
       <c r="L7" s="114">
         <f t="shared" ca="1" si="9"/>
-        <v>206149</v>
+        <v>62665</v>
       </c>
       <c r="M7" s="114">
         <f t="shared" ca="1" si="9"/>
-        <v>20794</v>
+        <v>55795</v>
       </c>
       <c r="N7" s="114">
         <f t="shared" ca="1" si="9"/>
-        <v>3493</v>
+        <v>1735</v>
       </c>
       <c r="O7" s="114">
         <f t="shared" ca="1" si="9"/>
-        <v>4142</v>
+        <v>585</v>
       </c>
       <c r="P7" s="114">
         <f t="shared" ca="1" si="9"/>
-        <v>208</v>
+        <v>3452</v>
       </c>
       <c r="Q7" s="114">
         <f t="shared" ca="1" si="9"/>
-        <v>632</v>
+        <v>5964</v>
       </c>
       <c r="S7" s="116"/>
     </row>
@@ -23125,15 +23122,15 @@
       </c>
       <c r="D8" s="114">
         <f ca="1">INT(9900000000*RAND()+100000000)</f>
-        <v>6076922692</v>
+        <v>8992025512</v>
       </c>
       <c r="E8" s="114">
         <f t="shared" ref="E8:F8" ca="1" si="10">INT(9900000000*RAND()+100000000)</f>
-        <v>9595479353</v>
+        <v>1187811684</v>
       </c>
       <c r="F8" s="114">
         <f t="shared" ca="1" si="10"/>
-        <v>915387796</v>
+        <v>7012501490</v>
       </c>
       <c r="G8" s="114"/>
       <c r="H8" s="114"/>
@@ -23160,15 +23157,15 @@
       </c>
       <c r="D9" s="114">
         <f ca="1">INT(RAND()*(D8-2))</f>
-        <v>5884401150</v>
+        <v>5571813278</v>
       </c>
       <c r="E9" s="114">
         <f t="shared" ref="E9:F9" ca="1" si="11">INT(RAND()*(E8-2))</f>
-        <v>8438893481</v>
+        <v>1100116644</v>
       </c>
       <c r="F9" s="114">
         <f t="shared" ca="1" si="11"/>
-        <v>78820817</v>
+        <v>3521964199</v>
       </c>
       <c r="G9" s="114"/>
       <c r="H9" s="114"/>
@@ -23195,15 +23192,15 @@
       </c>
       <c r="D10" s="114">
         <f ca="1">D8-D9</f>
-        <v>192521542</v>
+        <v>3420212234</v>
       </c>
       <c r="E10" s="114">
         <f t="shared" ref="E10:F10" ca="1" si="12">E8-E9</f>
-        <v>1156585872</v>
+        <v>87695040</v>
       </c>
       <c r="F10" s="114">
         <f t="shared" ca="1" si="12"/>
-        <v>836566979</v>
+        <v>3490537291</v>
       </c>
       <c r="G10" s="114"/>
       <c r="H10" s="114"/>
@@ -23230,59 +23227,59 @@
       </c>
       <c r="D11" s="114">
         <f ca="1">INT(9900000000*RAND()+100000000)</f>
-        <v>6409281863</v>
+        <v>7557159442</v>
       </c>
       <c r="E11" s="114">
         <f t="shared" ref="E11:F11" ca="1" si="13">INT(9900000000*RAND()+100000000)</f>
-        <v>2246432214</v>
+        <v>9884981780</v>
       </c>
       <c r="F11" s="114">
         <f t="shared" ca="1" si="13"/>
-        <v>4096157617</v>
+        <v>3464089670</v>
       </c>
       <c r="G11" s="114">
         <f ca="1">INT(990000000*RAND()+10000000)</f>
-        <v>330167604</v>
+        <v>712739590</v>
       </c>
       <c r="H11" s="114">
         <f ca="1">INT(900000000*RAND()+10000000)</f>
-        <v>193827022</v>
+        <v>64887797</v>
       </c>
       <c r="I11" s="114">
         <f ca="1">INT(750000000*RAND()+10000000)</f>
-        <v>322891893</v>
+        <v>533776500</v>
       </c>
       <c r="J11" s="114">
         <f ca="1">INT(75000000*RAND()+1000000)</f>
-        <v>11645063</v>
+        <v>17535245</v>
       </c>
       <c r="K11" s="114">
         <f ca="1">INT(750000*RAND()+10000)</f>
-        <v>506539</v>
+        <v>393413</v>
       </c>
       <c r="L11" s="114">
         <f t="shared" ref="L11" ca="1" si="14">INT(750000*RAND()+10000)</f>
-        <v>162343</v>
+        <v>530994</v>
       </c>
       <c r="M11" s="114">
         <f ca="1">INT(75000*RAND()+1000)</f>
-        <v>26964</v>
+        <v>15457</v>
       </c>
       <c r="N11" s="114">
         <f ca="1">INT(7500*RAND()+100)</f>
-        <v>2269</v>
+        <v>7394</v>
       </c>
       <c r="O11" s="114">
         <f t="shared" ref="O11:Q11" ca="1" si="15">INT(7500*RAND()+100)</f>
-        <v>2179</v>
+        <v>6395</v>
       </c>
       <c r="P11" s="114">
         <f t="shared" ca="1" si="15"/>
-        <v>2220</v>
+        <v>6858</v>
       </c>
       <c r="Q11" s="114">
         <f t="shared" ca="1" si="15"/>
-        <v>7350</v>
+        <v>3124</v>
       </c>
       <c r="S11" s="116"/>
     </row>
@@ -23298,59 +23295,59 @@
       </c>
       <c r="D12" s="114">
         <f ca="1">INT(RAND()*(D11-2))</f>
-        <v>618092136</v>
+        <v>3595890174</v>
       </c>
       <c r="E12" s="114">
         <f t="shared" ref="E12:Q12" ca="1" si="16">INT(RAND()*(E11-2))</f>
-        <v>311435605</v>
+        <v>7859590876</v>
       </c>
       <c r="F12" s="114">
         <f t="shared" ca="1" si="16"/>
-        <v>1420444392</v>
+        <v>428057124</v>
       </c>
       <c r="G12" s="114">
         <f t="shared" ca="1" si="16"/>
-        <v>114008229</v>
+        <v>520786</v>
       </c>
       <c r="H12" s="114">
         <f t="shared" ca="1" si="16"/>
-        <v>72429268</v>
+        <v>20852509</v>
       </c>
       <c r="I12" s="114">
         <f t="shared" ca="1" si="16"/>
-        <v>130529758</v>
+        <v>273445166</v>
       </c>
       <c r="J12" s="114">
         <f t="shared" ca="1" si="16"/>
-        <v>6080816</v>
+        <v>16487860</v>
       </c>
       <c r="K12" s="114">
         <f t="shared" ca="1" si="16"/>
-        <v>458541</v>
+        <v>254977</v>
       </c>
       <c r="L12" s="114">
         <f t="shared" ca="1" si="16"/>
-        <v>33301</v>
+        <v>164253</v>
       </c>
       <c r="M12" s="114">
         <f t="shared" ca="1" si="16"/>
-        <v>1447</v>
+        <v>1354</v>
       </c>
       <c r="N12" s="114">
         <f t="shared" ca="1" si="16"/>
-        <v>959</v>
+        <v>5047</v>
       </c>
       <c r="O12" s="114">
         <f t="shared" ca="1" si="16"/>
-        <v>1020</v>
+        <v>1216</v>
       </c>
       <c r="P12" s="114">
         <f t="shared" ca="1" si="16"/>
-        <v>1289</v>
+        <v>3302</v>
       </c>
       <c r="Q12" s="114">
         <f t="shared" ca="1" si="16"/>
-        <v>1682</v>
+        <v>881</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -23365,59 +23362,59 @@
       </c>
       <c r="D13" s="114">
         <f ca="1">D11-D12</f>
-        <v>5791189727</v>
+        <v>3961269268</v>
       </c>
       <c r="E13" s="114">
         <f t="shared" ref="E13:Q13" ca="1" si="17">E11-E12</f>
-        <v>1934996609</v>
+        <v>2025390904</v>
       </c>
       <c r="F13" s="114">
         <f t="shared" ca="1" si="17"/>
-        <v>2675713225</v>
+        <v>3036032546</v>
       </c>
       <c r="G13" s="114">
         <f t="shared" ca="1" si="17"/>
-        <v>216159375</v>
+        <v>712218804</v>
       </c>
       <c r="H13" s="114">
         <f t="shared" ca="1" si="17"/>
-        <v>121397754</v>
+        <v>44035288</v>
       </c>
       <c r="I13" s="114">
         <f t="shared" ca="1" si="17"/>
-        <v>192362135</v>
+        <v>260331334</v>
       </c>
       <c r="J13" s="114">
         <f t="shared" ca="1" si="17"/>
-        <v>5564247</v>
+        <v>1047385</v>
       </c>
       <c r="K13" s="114">
         <f t="shared" ca="1" si="17"/>
-        <v>47998</v>
+        <v>138436</v>
       </c>
       <c r="L13" s="114">
         <f t="shared" ca="1" si="17"/>
-        <v>129042</v>
+        <v>366741</v>
       </c>
       <c r="M13" s="114">
         <f t="shared" ca="1" si="17"/>
-        <v>25517</v>
+        <v>14103</v>
       </c>
       <c r="N13" s="114">
         <f t="shared" ca="1" si="17"/>
-        <v>1310</v>
+        <v>2347</v>
       </c>
       <c r="O13" s="114">
         <f t="shared" ca="1" si="17"/>
-        <v>1159</v>
+        <v>5179</v>
       </c>
       <c r="P13" s="114">
         <f t="shared" ca="1" si="17"/>
-        <v>931</v>
+        <v>3556</v>
       </c>
       <c r="Q13" s="114">
         <f t="shared" ca="1" si="17"/>
-        <v>5668</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -23432,59 +23429,59 @@
       </c>
       <c r="D14" s="114">
         <f ca="1">INT(9900000000*RAND()+100000000)</f>
-        <v>8192742563</v>
+        <v>7143069596</v>
       </c>
       <c r="E14" s="114">
         <f t="shared" ref="E14:F14" ca="1" si="18">INT(9900000000*RAND()+100000000)</f>
-        <v>8472309738</v>
+        <v>8682523139</v>
       </c>
       <c r="F14" s="114">
         <f t="shared" ca="1" si="18"/>
-        <v>9122455390</v>
+        <v>9317903133</v>
       </c>
       <c r="G14" s="114">
         <f ca="1">INT(990000000*RAND()+10000000)</f>
-        <v>339157140</v>
+        <v>595344946</v>
       </c>
       <c r="H14" s="114">
         <f ca="1">INT(900000000*RAND()+10000000)</f>
-        <v>512620966</v>
+        <v>353237909</v>
       </c>
       <c r="I14" s="114">
         <f ca="1">INT(750000000*RAND()+10000000)</f>
-        <v>308261506</v>
+        <v>36685140</v>
       </c>
       <c r="J14" s="114">
         <f ca="1">INT(75000000*RAND()+1000000)</f>
-        <v>50898272</v>
+        <v>54235857</v>
       </c>
       <c r="K14" s="114">
         <f ca="1">INT(750000*RAND()+10000)</f>
-        <v>596392</v>
+        <v>678021</v>
       </c>
       <c r="L14" s="114">
         <f t="shared" ref="L14" ca="1" si="19">INT(750000*RAND()+10000)</f>
-        <v>67294</v>
+        <v>71924</v>
       </c>
       <c r="M14" s="114">
         <f ca="1">INT(75000*RAND()+1000)</f>
-        <v>23014</v>
+        <v>54920</v>
       </c>
       <c r="N14" s="114">
         <f ca="1">INT(7500*RAND()+100)</f>
-        <v>5789</v>
+        <v>4780</v>
       </c>
       <c r="O14" s="114">
         <f t="shared" ref="O14:Q14" ca="1" si="20">INT(7500*RAND()+100)</f>
-        <v>1066</v>
+        <v>2215</v>
       </c>
       <c r="P14" s="114">
         <f t="shared" ca="1" si="20"/>
-        <v>1599</v>
+        <v>6613</v>
       </c>
       <c r="Q14" s="114">
         <f t="shared" ca="1" si="20"/>
-        <v>7109</v>
+        <v>6397</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -23499,59 +23496,59 @@
       </c>
       <c r="D15" s="114">
         <f ca="1">INT(RAND()*(D14-2))</f>
-        <v>4997328210</v>
+        <v>482266130</v>
       </c>
       <c r="E15" s="114">
         <f t="shared" ref="E15:Q15" ca="1" si="21">INT(RAND()*(E14-2))</f>
-        <v>4215860369</v>
+        <v>412726579</v>
       </c>
       <c r="F15" s="114">
         <f t="shared" ca="1" si="21"/>
-        <v>778380179</v>
+        <v>5868742025</v>
       </c>
       <c r="G15" s="114">
         <f t="shared" ca="1" si="21"/>
-        <v>311482344</v>
+        <v>215473239</v>
       </c>
       <c r="H15" s="114">
         <f t="shared" ca="1" si="21"/>
-        <v>452892481</v>
+        <v>94396235</v>
       </c>
       <c r="I15" s="114">
         <f t="shared" ca="1" si="21"/>
-        <v>27793537</v>
+        <v>18008177</v>
       </c>
       <c r="J15" s="114">
         <f t="shared" ca="1" si="21"/>
-        <v>26195047</v>
+        <v>13778360</v>
       </c>
       <c r="K15" s="114">
         <f t="shared" ca="1" si="21"/>
-        <v>132591</v>
+        <v>200369</v>
       </c>
       <c r="L15" s="114">
         <f t="shared" ca="1" si="21"/>
-        <v>54175</v>
+        <v>42165</v>
       </c>
       <c r="M15" s="114">
         <f t="shared" ca="1" si="21"/>
-        <v>15416</v>
+        <v>34673</v>
       </c>
       <c r="N15" s="114">
         <f t="shared" ca="1" si="21"/>
-        <v>5358</v>
+        <v>1963</v>
       </c>
       <c r="O15" s="114">
         <f t="shared" ca="1" si="21"/>
-        <v>125</v>
+        <v>460</v>
       </c>
       <c r="P15" s="114">
         <f t="shared" ca="1" si="21"/>
-        <v>363</v>
+        <v>654</v>
       </c>
       <c r="Q15" s="114">
         <f t="shared" ca="1" si="21"/>
-        <v>4913</v>
+        <v>5787</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -23566,59 +23563,59 @@
       </c>
       <c r="D16" s="114">
         <f ca="1">D14-D15</f>
-        <v>3195414353</v>
+        <v>6660803466</v>
       </c>
       <c r="E16" s="114">
         <f t="shared" ref="E16:Q16" ca="1" si="22">E14-E15</f>
-        <v>4256449369</v>
+        <v>8269796560</v>
       </c>
       <c r="F16" s="114">
         <f t="shared" ca="1" si="22"/>
-        <v>8344075211</v>
+        <v>3449161108</v>
       </c>
       <c r="G16" s="114">
         <f t="shared" ca="1" si="22"/>
-        <v>27674796</v>
+        <v>379871707</v>
       </c>
       <c r="H16" s="114">
         <f t="shared" ca="1" si="22"/>
-        <v>59728485</v>
+        <v>258841674</v>
       </c>
       <c r="I16" s="114">
         <f t="shared" ca="1" si="22"/>
-        <v>280467969</v>
+        <v>18676963</v>
       </c>
       <c r="J16" s="114">
         <f t="shared" ca="1" si="22"/>
-        <v>24703225</v>
+        <v>40457497</v>
       </c>
       <c r="K16" s="114">
         <f t="shared" ca="1" si="22"/>
-        <v>463801</v>
+        <v>477652</v>
       </c>
       <c r="L16" s="114">
         <f t="shared" ca="1" si="22"/>
-        <v>13119</v>
+        <v>29759</v>
       </c>
       <c r="M16" s="114">
         <f t="shared" ca="1" si="22"/>
-        <v>7598</v>
+        <v>20247</v>
       </c>
       <c r="N16" s="114">
         <f t="shared" ca="1" si="22"/>
-        <v>431</v>
+        <v>2817</v>
       </c>
       <c r="O16" s="114">
         <f t="shared" ca="1" si="22"/>
-        <v>941</v>
+        <v>1755</v>
       </c>
       <c r="P16" s="114">
         <f t="shared" ca="1" si="22"/>
-        <v>1236</v>
+        <v>5959</v>
       </c>
       <c r="Q16" s="114">
         <f t="shared" ca="1" si="22"/>
-        <v>2196</v>
+        <v>610</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -23633,11 +23630,11 @@
       </c>
       <c r="D17" s="118">
         <f ca="1">INT(9900000000*RAND()+100000000)</f>
-        <v>3278759253</v>
+        <v>6754796537</v>
       </c>
       <c r="E17" s="118">
         <f t="shared" ref="E17" ca="1" si="23">INT(9900000000*RAND()+100000000)</f>
-        <v>2043007693</v>
+        <v>7890671705</v>
       </c>
       <c r="F17" s="118"/>
       <c r="G17" s="118"/>
@@ -23664,11 +23661,11 @@
       </c>
       <c r="D18" s="118">
         <f ca="1">INT(RAND()*(D17-2))</f>
-        <v>857897919</v>
+        <v>3529728159</v>
       </c>
       <c r="E18" s="118">
         <f t="shared" ref="E18" ca="1" si="24">INT(RAND()*(E17-2))</f>
-        <v>617898397</v>
+        <v>2202241562</v>
       </c>
       <c r="F18" s="118"/>
       <c r="G18" s="118"/>
@@ -23695,11 +23692,11 @@
       </c>
       <c r="D19" s="118">
         <f ca="1">D17-D18</f>
-        <v>2420861334</v>
+        <v>3225068378</v>
       </c>
       <c r="E19" s="118">
         <f t="shared" ref="E19" ca="1" si="25">E17-E18</f>
-        <v>1425109296</v>
+        <v>5688430143</v>
       </c>
       <c r="F19" s="118"/>
       <c r="G19" s="118"/>
@@ -23726,59 +23723,59 @@
       </c>
       <c r="D20" s="118">
         <f ca="1">INT(9900000000*RAND()+100000000)</f>
-        <v>7439850853</v>
+        <v>4709870848</v>
       </c>
       <c r="E20" s="118">
         <f t="shared" ref="E20:F20" ca="1" si="26">INT(9900000000*RAND()+100000000)</f>
-        <v>4181213543</v>
+        <v>5611442394</v>
       </c>
       <c r="F20" s="118">
         <f t="shared" ca="1" si="26"/>
-        <v>387073111</v>
+        <v>1992809170</v>
       </c>
       <c r="G20" s="118">
         <f ca="1">INT(990000000*RAND()+10000000)</f>
-        <v>666215135</v>
+        <v>282149969</v>
       </c>
       <c r="H20" s="118">
         <f ca="1">INT(900000000*RAND()+10000000)</f>
-        <v>118267347</v>
+        <v>694899879</v>
       </c>
       <c r="I20" s="118">
         <f ca="1">INT(750000000*RAND()+10000000)</f>
-        <v>446661148</v>
+        <v>352974624</v>
       </c>
       <c r="J20" s="118">
         <f ca="1">INT(75000000*RAND()+1000000)</f>
-        <v>55148294</v>
+        <v>33090019</v>
       </c>
       <c r="K20" s="118">
         <f ca="1">INT(750000*RAND()+10000)</f>
-        <v>270973</v>
+        <v>224502</v>
       </c>
       <c r="L20" s="118">
         <f t="shared" ref="L20" ca="1" si="27">INT(750000*RAND()+10000)</f>
-        <v>593110</v>
+        <v>135293</v>
       </c>
       <c r="M20" s="118">
         <f ca="1">INT(75000*RAND()+1000)</f>
-        <v>1497</v>
+        <v>18495</v>
       </c>
       <c r="N20" s="118">
         <f ca="1">INT(7500*RAND()+100)</f>
-        <v>6064</v>
+        <v>2635</v>
       </c>
       <c r="O20" s="118">
         <f t="shared" ref="O20:Q20" ca="1" si="28">INT(7500*RAND()+100)</f>
-        <v>1738</v>
+        <v>117</v>
       </c>
       <c r="P20" s="118">
         <f t="shared" ca="1" si="28"/>
-        <v>366</v>
+        <v>1905</v>
       </c>
       <c r="Q20" s="118">
         <f t="shared" ca="1" si="28"/>
-        <v>3293</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -23793,59 +23790,59 @@
       </c>
       <c r="D21" s="118">
         <f ca="1">INT(RAND()*(D20-2))</f>
-        <v>2440289939</v>
+        <v>4036693582</v>
       </c>
       <c r="E21" s="118">
         <f t="shared" ref="E21:Q21" ca="1" si="29">INT(RAND()*(E20-2))</f>
-        <v>1734168057</v>
+        <v>2277077361</v>
       </c>
       <c r="F21" s="118">
         <f t="shared" ca="1" si="29"/>
-        <v>307566140</v>
+        <v>1828230634</v>
       </c>
       <c r="G21" s="118">
         <f t="shared" ca="1" si="29"/>
-        <v>548215378</v>
+        <v>257725481</v>
       </c>
       <c r="H21" s="118">
         <f t="shared" ca="1" si="29"/>
-        <v>91380997</v>
+        <v>17231680</v>
       </c>
       <c r="I21" s="118">
         <f t="shared" ca="1" si="29"/>
-        <v>320882570</v>
+        <v>197044960</v>
       </c>
       <c r="J21" s="118">
         <f t="shared" ca="1" si="29"/>
-        <v>579052</v>
+        <v>15755100</v>
       </c>
       <c r="K21" s="118">
         <f t="shared" ca="1" si="29"/>
-        <v>170109</v>
+        <v>16890</v>
       </c>
       <c r="L21" s="118">
         <f t="shared" ca="1" si="29"/>
-        <v>280117</v>
+        <v>86678</v>
       </c>
       <c r="M21" s="118">
         <f t="shared" ca="1" si="29"/>
-        <v>1189</v>
+        <v>830</v>
       </c>
       <c r="N21" s="118">
         <f t="shared" ca="1" si="29"/>
-        <v>2388</v>
+        <v>1283</v>
       </c>
       <c r="O21" s="118">
         <f t="shared" ca="1" si="29"/>
-        <v>300</v>
+        <v>54</v>
       </c>
       <c r="P21" s="118">
         <f t="shared" ca="1" si="29"/>
-        <v>29</v>
+        <v>1566</v>
       </c>
       <c r="Q21" s="118">
         <f t="shared" ca="1" si="29"/>
-        <v>2879</v>
+        <v>578</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -23860,59 +23857,59 @@
       </c>
       <c r="D22" s="118">
         <f ca="1">D20-D21</f>
-        <v>4999560914</v>
+        <v>673177266</v>
       </c>
       <c r="E22" s="118">
         <f t="shared" ref="E22:Q22" ca="1" si="30">E20-E21</f>
-        <v>2447045486</v>
+        <v>3334365033</v>
       </c>
       <c r="F22" s="118">
         <f t="shared" ca="1" si="30"/>
-        <v>79506971</v>
+        <v>164578536</v>
       </c>
       <c r="G22" s="118">
         <f t="shared" ca="1" si="30"/>
-        <v>117999757</v>
+        <v>24424488</v>
       </c>
       <c r="H22" s="118">
         <f t="shared" ca="1" si="30"/>
-        <v>26886350</v>
+        <v>677668199</v>
       </c>
       <c r="I22" s="118">
         <f t="shared" ca="1" si="30"/>
-        <v>125778578</v>
+        <v>155929664</v>
       </c>
       <c r="J22" s="118">
         <f t="shared" ca="1" si="30"/>
-        <v>54569242</v>
+        <v>17334919</v>
       </c>
       <c r="K22" s="118">
         <f t="shared" ca="1" si="30"/>
-        <v>100864</v>
+        <v>207612</v>
       </c>
       <c r="L22" s="118">
         <f t="shared" ca="1" si="30"/>
-        <v>312993</v>
+        <v>48615</v>
       </c>
       <c r="M22" s="118">
         <f t="shared" ca="1" si="30"/>
-        <v>308</v>
+        <v>17665</v>
       </c>
       <c r="N22" s="118">
         <f t="shared" ca="1" si="30"/>
-        <v>3676</v>
+        <v>1352</v>
       </c>
       <c r="O22" s="118">
         <f t="shared" ca="1" si="30"/>
-        <v>1438</v>
+        <v>63</v>
       </c>
       <c r="P22" s="118">
         <f t="shared" ca="1" si="30"/>
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q22" s="118">
         <f t="shared" ca="1" si="30"/>
-        <v>414</v>
+        <v>913</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -23927,59 +23924,59 @@
       </c>
       <c r="D23" s="118">
         <f ca="1">INT(9900000000*RAND()+100000000)</f>
-        <v>3011050405</v>
+        <v>2200845328</v>
       </c>
       <c r="E23" s="118">
         <f t="shared" ref="E23:F23" ca="1" si="31">INT(9900000000*RAND()+100000000)</f>
-        <v>750591620</v>
+        <v>7356930666</v>
       </c>
       <c r="F23" s="118">
         <f t="shared" ca="1" si="31"/>
-        <v>8735384507</v>
+        <v>3745826494</v>
       </c>
       <c r="G23" s="118">
         <f ca="1">INT(990000000*RAND()+10000000)</f>
-        <v>32275394</v>
+        <v>425981179</v>
       </c>
       <c r="H23" s="118">
         <f ca="1">INT(900000000*RAND()+10000000)</f>
-        <v>81876615</v>
+        <v>904161111</v>
       </c>
       <c r="I23" s="118">
         <f ca="1">INT(750000000*RAND()+10000000)</f>
-        <v>243270371</v>
+        <v>688705991</v>
       </c>
       <c r="J23" s="118">
         <f ca="1">INT(75000000*RAND()+1000000)</f>
-        <v>37804103</v>
+        <v>35946259</v>
       </c>
       <c r="K23" s="118">
         <f ca="1">INT(750000*RAND()+10000)</f>
-        <v>53007</v>
+        <v>736647</v>
       </c>
       <c r="L23" s="118">
         <f t="shared" ref="L23" ca="1" si="32">INT(750000*RAND()+10000)</f>
-        <v>326978</v>
+        <v>272499</v>
       </c>
       <c r="M23" s="118">
         <f ca="1">INT(75000*RAND()+1000)</f>
-        <v>38556</v>
+        <v>67806</v>
       </c>
       <c r="N23" s="118">
         <f ca="1">INT(7500*RAND()+100)</f>
-        <v>4920</v>
+        <v>5036</v>
       </c>
       <c r="O23" s="118">
         <f t="shared" ref="O23:Q23" ca="1" si="33">INT(7500*RAND()+100)</f>
-        <v>363</v>
+        <v>6353</v>
       </c>
       <c r="P23" s="118">
         <f t="shared" ca="1" si="33"/>
-        <v>786</v>
+        <v>3346</v>
       </c>
       <c r="Q23" s="118">
         <f t="shared" ca="1" si="33"/>
-        <v>983</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -23994,59 +23991,59 @@
       </c>
       <c r="D24" s="118">
         <f ca="1">INT(RAND()*(D23-2))</f>
-        <v>2246606269</v>
+        <v>376190219</v>
       </c>
       <c r="E24" s="118">
         <f t="shared" ref="E24:Q24" ca="1" si="34">INT(RAND()*(E23-2))</f>
-        <v>25962943</v>
+        <v>5998899267</v>
       </c>
       <c r="F24" s="118">
         <f t="shared" ca="1" si="34"/>
-        <v>6265865614</v>
+        <v>1347800599</v>
       </c>
       <c r="G24" s="118">
         <f t="shared" ca="1" si="34"/>
-        <v>5044600</v>
+        <v>127244222</v>
       </c>
       <c r="H24" s="118">
         <f t="shared" ca="1" si="34"/>
-        <v>36980739</v>
+        <v>842293511</v>
       </c>
       <c r="I24" s="118">
         <f t="shared" ca="1" si="34"/>
-        <v>50431955</v>
+        <v>479924451</v>
       </c>
       <c r="J24" s="118">
         <f t="shared" ca="1" si="34"/>
-        <v>8050206</v>
+        <v>31916789</v>
       </c>
       <c r="K24" s="118">
         <f t="shared" ca="1" si="34"/>
-        <v>46468</v>
+        <v>233717</v>
       </c>
       <c r="L24" s="118">
         <f t="shared" ca="1" si="34"/>
-        <v>141628</v>
+        <v>251284</v>
       </c>
       <c r="M24" s="118">
         <f t="shared" ca="1" si="34"/>
-        <v>1207</v>
+        <v>60809</v>
       </c>
       <c r="N24" s="118">
         <f t="shared" ca="1" si="34"/>
-        <v>3446</v>
+        <v>2042</v>
       </c>
       <c r="O24" s="118">
         <f t="shared" ca="1" si="34"/>
-        <v>65</v>
+        <v>3780</v>
       </c>
       <c r="P24" s="118">
         <f t="shared" ca="1" si="34"/>
-        <v>94</v>
+        <v>263</v>
       </c>
       <c r="Q24" s="118">
         <f t="shared" ca="1" si="34"/>
-        <v>136</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -24061,59 +24058,59 @@
       </c>
       <c r="D25" s="118">
         <f ca="1">D23-D24</f>
-        <v>764444136</v>
+        <v>1824655109</v>
       </c>
       <c r="E25" s="118">
         <f t="shared" ref="E25:Q25" ca="1" si="35">E23-E24</f>
-        <v>724628677</v>
+        <v>1358031399</v>
       </c>
       <c r="F25" s="118">
         <f t="shared" ca="1" si="35"/>
-        <v>2469518893</v>
+        <v>2398025895</v>
       </c>
       <c r="G25" s="118">
         <f t="shared" ca="1" si="35"/>
-        <v>27230794</v>
+        <v>298736957</v>
       </c>
       <c r="H25" s="118">
         <f t="shared" ca="1" si="35"/>
-        <v>44895876</v>
+        <v>61867600</v>
       </c>
       <c r="I25" s="118">
         <f t="shared" ca="1" si="35"/>
-        <v>192838416</v>
+        <v>208781540</v>
       </c>
       <c r="J25" s="118">
         <f t="shared" ca="1" si="35"/>
-        <v>29753897</v>
+        <v>4029470</v>
       </c>
       <c r="K25" s="118">
         <f t="shared" ca="1" si="35"/>
-        <v>6539</v>
+        <v>502930</v>
       </c>
       <c r="L25" s="118">
         <f t="shared" ca="1" si="35"/>
-        <v>185350</v>
+        <v>21215</v>
       </c>
       <c r="M25" s="118">
         <f t="shared" ca="1" si="35"/>
-        <v>37349</v>
+        <v>6997</v>
       </c>
       <c r="N25" s="118">
         <f t="shared" ca="1" si="35"/>
-        <v>1474</v>
+        <v>2994</v>
       </c>
       <c r="O25" s="118">
         <f t="shared" ca="1" si="35"/>
-        <v>298</v>
+        <v>2573</v>
       </c>
       <c r="P25" s="118">
         <f t="shared" ca="1" si="35"/>
-        <v>692</v>
+        <v>3083</v>
       </c>
       <c r="Q25" s="118">
         <f t="shared" ca="1" si="35"/>
-        <v>847</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -24128,59 +24125,59 @@
       </c>
       <c r="D26" s="118">
         <f ca="1">INT(9900000000*RAND()+100000000)</f>
-        <v>2019151678</v>
+        <v>3323752813</v>
       </c>
       <c r="E26" s="118">
         <f t="shared" ref="E26:F26" ca="1" si="36">INT(9900000000*RAND()+100000000)</f>
-        <v>9302520480</v>
+        <v>5821463061</v>
       </c>
       <c r="F26" s="118">
         <f t="shared" ca="1" si="36"/>
-        <v>4482621179</v>
+        <v>9714186314</v>
       </c>
       <c r="G26" s="118">
         <f ca="1">INT(990000000*RAND()+10000000)</f>
-        <v>709086135</v>
+        <v>532331525</v>
       </c>
       <c r="H26" s="118">
         <f ca="1">INT(900000000*RAND()+10000000)</f>
-        <v>375439715</v>
+        <v>505436669</v>
       </c>
       <c r="I26" s="118">
         <f ca="1">INT(750000000*RAND()+10000000)</f>
-        <v>13910026</v>
+        <v>498766944</v>
       </c>
       <c r="J26" s="118">
         <f ca="1">INT(75000000*RAND()+1000000)</f>
-        <v>53204539</v>
+        <v>57785321</v>
       </c>
       <c r="K26" s="118">
         <f ca="1">INT(750000*RAND()+10000)</f>
-        <v>227258</v>
+        <v>207206</v>
       </c>
       <c r="L26" s="118">
         <f t="shared" ref="L26" ca="1" si="37">INT(750000*RAND()+10000)</f>
-        <v>625450</v>
+        <v>634918</v>
       </c>
       <c r="M26" s="118">
         <f ca="1">INT(75000*RAND()+1000)</f>
-        <v>1971</v>
+        <v>55560</v>
       </c>
       <c r="N26" s="118">
         <f ca="1">INT(7500*RAND()+100)</f>
-        <v>1839</v>
+        <v>203</v>
       </c>
       <c r="O26" s="118">
         <f t="shared" ref="O26:Q26" ca="1" si="38">INT(7500*RAND()+100)</f>
-        <v>147</v>
+        <v>2053</v>
       </c>
       <c r="P26" s="118">
         <f t="shared" ca="1" si="38"/>
-        <v>2743</v>
+        <v>2072</v>
       </c>
       <c r="Q26" s="118">
         <f t="shared" ca="1" si="38"/>
-        <v>2792</v>
+        <v>753</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -24195,59 +24192,59 @@
       </c>
       <c r="D27" s="118">
         <f ca="1">INT(RAND()*(D26-2))</f>
-        <v>1026820627</v>
+        <v>731971988</v>
       </c>
       <c r="E27" s="118">
         <f t="shared" ref="E27:Q27" ca="1" si="39">INT(RAND()*(E26-2))</f>
-        <v>9099446057</v>
+        <v>4069588390</v>
       </c>
       <c r="F27" s="118">
         <f t="shared" ca="1" si="39"/>
-        <v>2649098467</v>
+        <v>9324159211</v>
       </c>
       <c r="G27" s="118">
         <f t="shared" ca="1" si="39"/>
-        <v>249913920</v>
+        <v>114707791</v>
       </c>
       <c r="H27" s="118">
         <f t="shared" ca="1" si="39"/>
-        <v>153041381</v>
+        <v>481347846</v>
       </c>
       <c r="I27" s="118">
         <f t="shared" ca="1" si="39"/>
-        <v>2084729</v>
+        <v>352481904</v>
       </c>
       <c r="J27" s="118">
         <f t="shared" ca="1" si="39"/>
-        <v>46488652</v>
+        <v>17911742</v>
       </c>
       <c r="K27" s="118">
         <f t="shared" ca="1" si="39"/>
-        <v>142401</v>
+        <v>202093</v>
       </c>
       <c r="L27" s="118">
         <f t="shared" ca="1" si="39"/>
-        <v>181290</v>
+        <v>163936</v>
       </c>
       <c r="M27" s="118">
         <f t="shared" ca="1" si="39"/>
-        <v>1001</v>
+        <v>20521</v>
       </c>
       <c r="N27" s="118">
         <f t="shared" ca="1" si="39"/>
-        <v>1236</v>
+        <v>18</v>
       </c>
       <c r="O27" s="118">
         <f t="shared" ca="1" si="39"/>
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="P27" s="118">
         <f t="shared" ca="1" si="39"/>
-        <v>598</v>
+        <v>282</v>
       </c>
       <c r="Q27" s="118">
         <f t="shared" ca="1" si="39"/>
-        <v>1978</v>
+        <v>600</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -24262,59 +24259,59 @@
       </c>
       <c r="D28" s="118">
         <f ca="1">D26-D27</f>
-        <v>992331051</v>
+        <v>2591780825</v>
       </c>
       <c r="E28" s="118">
         <f t="shared" ref="E28:Q28" ca="1" si="40">E26-E27</f>
-        <v>203074423</v>
+        <v>1751874671</v>
       </c>
       <c r="F28" s="118">
         <f t="shared" ca="1" si="40"/>
-        <v>1833522712</v>
+        <v>390027103</v>
       </c>
       <c r="G28" s="118">
         <f t="shared" ca="1" si="40"/>
-        <v>459172215</v>
+        <v>417623734</v>
       </c>
       <c r="H28" s="118">
         <f t="shared" ca="1" si="40"/>
-        <v>222398334</v>
+        <v>24088823</v>
       </c>
       <c r="I28" s="118">
         <f t="shared" ca="1" si="40"/>
-        <v>11825297</v>
+        <v>146285040</v>
       </c>
       <c r="J28" s="118">
         <f t="shared" ca="1" si="40"/>
-        <v>6715887</v>
+        <v>39873579</v>
       </c>
       <c r="K28" s="118">
         <f t="shared" ca="1" si="40"/>
-        <v>84857</v>
+        <v>5113</v>
       </c>
       <c r="L28" s="118">
         <f t="shared" ca="1" si="40"/>
-        <v>444160</v>
+        <v>470982</v>
       </c>
       <c r="M28" s="118">
         <f t="shared" ca="1" si="40"/>
-        <v>970</v>
+        <v>35039</v>
       </c>
       <c r="N28" s="118">
         <f t="shared" ca="1" si="40"/>
-        <v>603</v>
+        <v>185</v>
       </c>
       <c r="O28" s="118">
         <f t="shared" ca="1" si="40"/>
-        <v>38</v>
+        <v>1914</v>
       </c>
       <c r="P28" s="118">
         <f t="shared" ca="1" si="40"/>
-        <v>2145</v>
+        <v>1790</v>
       </c>
       <c r="Q28" s="118">
         <f t="shared" ca="1" si="40"/>
-        <v>814</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
@@ -24329,59 +24326,59 @@
       </c>
       <c r="D29" s="118">
         <f ca="1">INT(9900000000*RAND()+100000000)</f>
-        <v>6295764683</v>
+        <v>7837977773</v>
       </c>
       <c r="E29" s="118">
         <f t="shared" ref="E29:F29" ca="1" si="41">INT(9900000000*RAND()+100000000)</f>
-        <v>1871078601</v>
+        <v>2882269240</v>
       </c>
       <c r="F29" s="118">
         <f t="shared" ca="1" si="41"/>
-        <v>3770086340</v>
+        <v>177390287</v>
       </c>
       <c r="G29" s="118">
         <f ca="1">INT(990000000*RAND()+10000000)</f>
-        <v>384091637</v>
+        <v>920036262</v>
       </c>
       <c r="H29" s="118">
         <f ca="1">INT(900000000*RAND()+10000000)</f>
-        <v>280328877</v>
+        <v>292259883</v>
       </c>
       <c r="I29" s="118">
         <f ca="1">INT(750000000*RAND()+10000000)</f>
-        <v>752104166</v>
+        <v>161952820</v>
       </c>
       <c r="J29" s="118">
         <f ca="1">INT(75000000*RAND()+1000000)</f>
-        <v>11949248</v>
+        <v>65554010</v>
       </c>
       <c r="K29" s="118">
         <f ca="1">INT(750000*RAND()+10000)</f>
-        <v>717039</v>
+        <v>466118</v>
       </c>
       <c r="L29" s="118">
         <f t="shared" ref="L29" ca="1" si="42">INT(750000*RAND()+10000)</f>
-        <v>374757</v>
+        <v>654625</v>
       </c>
       <c r="M29" s="118">
         <f ca="1">INT(75000*RAND()+1000)</f>
-        <v>34616</v>
+        <v>47003</v>
       </c>
       <c r="N29" s="118">
         <f ca="1">INT(7500*RAND()+100)</f>
-        <v>826</v>
+        <v>4479</v>
       </c>
       <c r="O29" s="118">
         <f t="shared" ref="O29:Q29" ca="1" si="43">INT(7500*RAND()+100)</f>
-        <v>6255</v>
+        <v>3968</v>
       </c>
       <c r="P29" s="118">
         <f t="shared" ca="1" si="43"/>
-        <v>1052</v>
+        <v>1102</v>
       </c>
       <c r="Q29" s="118">
         <f t="shared" ca="1" si="43"/>
-        <v>466</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
@@ -24396,59 +24393,59 @@
       </c>
       <c r="D30" s="118">
         <f ca="1">INT(RAND()*(D29-2))</f>
-        <v>2576229134</v>
+        <v>63213325</v>
       </c>
       <c r="E30" s="118">
         <f t="shared" ref="E30:Q30" ca="1" si="44">INT(RAND()*(E29-2))</f>
-        <v>1667319697</v>
+        <v>1738019167</v>
       </c>
       <c r="F30" s="118">
         <f t="shared" ca="1" si="44"/>
-        <v>2753791331</v>
+        <v>99459732</v>
       </c>
       <c r="G30" s="118">
         <f t="shared" ca="1" si="44"/>
-        <v>199453073</v>
+        <v>147895409</v>
       </c>
       <c r="H30" s="118">
         <f t="shared" ca="1" si="44"/>
-        <v>91383606</v>
+        <v>173379478</v>
       </c>
       <c r="I30" s="118">
         <f t="shared" ca="1" si="44"/>
-        <v>350773462</v>
+        <v>36744655</v>
       </c>
       <c r="J30" s="118">
         <f t="shared" ca="1" si="44"/>
-        <v>6437333</v>
+        <v>30103613</v>
       </c>
       <c r="K30" s="118">
         <f t="shared" ca="1" si="44"/>
-        <v>80772</v>
+        <v>57664</v>
       </c>
       <c r="L30" s="118">
         <f t="shared" ca="1" si="44"/>
-        <v>29707</v>
+        <v>277229</v>
       </c>
       <c r="M30" s="118">
         <f t="shared" ca="1" si="44"/>
-        <v>33555</v>
+        <v>14139</v>
       </c>
       <c r="N30" s="118">
         <f t="shared" ca="1" si="44"/>
-        <v>47</v>
+        <v>1015</v>
       </c>
       <c r="O30" s="118">
         <f t="shared" ca="1" si="44"/>
-        <v>661</v>
+        <v>2799</v>
       </c>
       <c r="P30" s="118">
         <f t="shared" ca="1" si="44"/>
-        <v>328</v>
+        <v>152</v>
       </c>
       <c r="Q30" s="118">
         <f t="shared" ca="1" si="44"/>
-        <v>100</v>
+        <v>892</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -24463,59 +24460,59 @@
       </c>
       <c r="D31" s="118">
         <f ca="1">D29-D30</f>
-        <v>3719535549</v>
+        <v>7774764448</v>
       </c>
       <c r="E31" s="118">
         <f t="shared" ref="E31:Q31" ca="1" si="45">E29-E30</f>
-        <v>203758904</v>
+        <v>1144250073</v>
       </c>
       <c r="F31" s="118">
         <f t="shared" ca="1" si="45"/>
-        <v>1016295009</v>
+        <v>77930555</v>
       </c>
       <c r="G31" s="118">
         <f t="shared" ca="1" si="45"/>
-        <v>184638564</v>
+        <v>772140853</v>
       </c>
       <c r="H31" s="118">
         <f t="shared" ca="1" si="45"/>
-        <v>188945271</v>
+        <v>118880405</v>
       </c>
       <c r="I31" s="118">
         <f t="shared" ca="1" si="45"/>
-        <v>401330704</v>
+        <v>125208165</v>
       </c>
       <c r="J31" s="118">
         <f t="shared" ca="1" si="45"/>
-        <v>5511915</v>
+        <v>35450397</v>
       </c>
       <c r="K31" s="118">
         <f t="shared" ca="1" si="45"/>
-        <v>636267</v>
+        <v>408454</v>
       </c>
       <c r="L31" s="118">
         <f t="shared" ca="1" si="45"/>
-        <v>345050</v>
+        <v>377396</v>
       </c>
       <c r="M31" s="118">
         <f t="shared" ca="1" si="45"/>
-        <v>1061</v>
+        <v>32864</v>
       </c>
       <c r="N31" s="118">
         <f t="shared" ca="1" si="45"/>
-        <v>779</v>
+        <v>3464</v>
       </c>
       <c r="O31" s="118">
         <f t="shared" ca="1" si="45"/>
-        <v>5594</v>
+        <v>1169</v>
       </c>
       <c r="P31" s="118">
         <f t="shared" ca="1" si="45"/>
-        <v>724</v>
+        <v>950</v>
       </c>
       <c r="Q31" s="118">
         <f t="shared" ca="1" si="45"/>
-        <v>366</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -24530,59 +24527,59 @@
       </c>
       <c r="D32" s="117">
         <f ca="1">INT(9900000000*RAND()+100000000)</f>
-        <v>8194135293</v>
+        <v>2152542062</v>
       </c>
       <c r="E32" s="117">
         <f t="shared" ref="E32:F32" ca="1" si="46">INT(9900000000*RAND()+100000000)</f>
-        <v>1207361896</v>
+        <v>1446253386</v>
       </c>
       <c r="F32" s="117">
         <f t="shared" ca="1" si="46"/>
-        <v>2123892552</v>
+        <v>1477523443</v>
       </c>
       <c r="G32" s="117">
         <f ca="1">INT(990000000*RAND()+10000000)</f>
-        <v>147835096</v>
+        <v>46276580</v>
       </c>
       <c r="H32" s="117">
         <f ca="1">INT(900000000*RAND()+10000000)</f>
-        <v>546729130</v>
+        <v>800629759</v>
       </c>
       <c r="I32" s="117">
         <f ca="1">INT(750000000*RAND()+10000000)</f>
-        <v>740320377</v>
+        <v>335289954</v>
       </c>
       <c r="J32" s="117">
         <f ca="1">INT(75000000*RAND()+1000000)</f>
-        <v>1340433</v>
+        <v>22318065</v>
       </c>
       <c r="K32" s="117">
         <f ca="1">INT(750000*RAND()+10000)</f>
-        <v>230795</v>
+        <v>366912</v>
       </c>
       <c r="L32" s="117">
         <f t="shared" ref="L32" ca="1" si="47">INT(750000*RAND()+10000)</f>
-        <v>554917</v>
+        <v>74149</v>
       </c>
       <c r="M32" s="117">
         <f ca="1">INT(75000*RAND()+1000)</f>
-        <v>57629</v>
+        <v>18292</v>
       </c>
       <c r="N32" s="117">
         <f ca="1">INT(7500*RAND()+100)</f>
-        <v>7212</v>
+        <v>1885</v>
       </c>
       <c r="O32" s="117">
         <f t="shared" ref="O32:Q32" ca="1" si="48">INT(7500*RAND()+100)</f>
-        <v>7442</v>
+        <v>5689</v>
       </c>
       <c r="P32" s="117">
         <f t="shared" ca="1" si="48"/>
-        <v>531</v>
+        <v>3362</v>
       </c>
       <c r="Q32" s="117">
         <f t="shared" ca="1" si="48"/>
-        <v>6933</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
@@ -24597,59 +24594,59 @@
       </c>
       <c r="D33" s="117">
         <f ca="1">INT(RAND()*(D32-2))</f>
-        <v>7666566741</v>
+        <v>219717011</v>
       </c>
       <c r="E33" s="117">
         <f t="shared" ref="E33:Q33" ca="1" si="49">INT(RAND()*(E32-2))</f>
-        <v>899691218</v>
+        <v>1118779569</v>
       </c>
       <c r="F33" s="117">
         <f t="shared" ca="1" si="49"/>
-        <v>1747548765</v>
+        <v>1110528857</v>
       </c>
       <c r="G33" s="117">
         <f t="shared" ca="1" si="49"/>
-        <v>127938161</v>
+        <v>21332330</v>
       </c>
       <c r="H33" s="117">
         <f t="shared" ca="1" si="49"/>
-        <v>37660753</v>
+        <v>100050992</v>
       </c>
       <c r="I33" s="117">
         <f t="shared" ca="1" si="49"/>
-        <v>325020855</v>
+        <v>249256951</v>
       </c>
       <c r="J33" s="117">
         <f t="shared" ca="1" si="49"/>
-        <v>234189</v>
+        <v>11463209</v>
       </c>
       <c r="K33" s="117">
         <f t="shared" ca="1" si="49"/>
-        <v>62426</v>
+        <v>127439</v>
       </c>
       <c r="L33" s="117">
         <f t="shared" ca="1" si="49"/>
-        <v>50537</v>
+        <v>9002</v>
       </c>
       <c r="M33" s="117">
         <f t="shared" ca="1" si="49"/>
-        <v>46898</v>
+        <v>5445</v>
       </c>
       <c r="N33" s="117">
         <f t="shared" ca="1" si="49"/>
-        <v>952</v>
+        <v>726</v>
       </c>
       <c r="O33" s="117">
         <f t="shared" ca="1" si="49"/>
-        <v>77</v>
+        <v>1905</v>
       </c>
       <c r="P33" s="117">
         <f t="shared" ca="1" si="49"/>
-        <v>431</v>
+        <v>3099</v>
       </c>
       <c r="Q33" s="117">
         <f t="shared" ca="1" si="49"/>
-        <v>4012</v>
+        <v>399</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
@@ -24664,59 +24661,59 @@
       </c>
       <c r="D34" s="117">
         <f ca="1">D32-D33</f>
-        <v>527568552</v>
+        <v>1932825051</v>
       </c>
       <c r="E34" s="117">
         <f t="shared" ref="E34:Q34" ca="1" si="50">E32-E33</f>
-        <v>307670678</v>
+        <v>327473817</v>
       </c>
       <c r="F34" s="117">
         <f t="shared" ca="1" si="50"/>
-        <v>376343787</v>
+        <v>366994586</v>
       </c>
       <c r="G34" s="117">
         <f t="shared" ca="1" si="50"/>
-        <v>19896935</v>
+        <v>24944250</v>
       </c>
       <c r="H34" s="117">
         <f t="shared" ca="1" si="50"/>
-        <v>509068377</v>
+        <v>700578767</v>
       </c>
       <c r="I34" s="117">
         <f t="shared" ca="1" si="50"/>
-        <v>415299522</v>
+        <v>86033003</v>
       </c>
       <c r="J34" s="117">
         <f t="shared" ca="1" si="50"/>
-        <v>1106244</v>
+        <v>10854856</v>
       </c>
       <c r="K34" s="117">
         <f t="shared" ca="1" si="50"/>
-        <v>168369</v>
+        <v>239473</v>
       </c>
       <c r="L34" s="117">
         <f t="shared" ca="1" si="50"/>
-        <v>504380</v>
+        <v>65147</v>
       </c>
       <c r="M34" s="117">
         <f t="shared" ca="1" si="50"/>
-        <v>10731</v>
+        <v>12847</v>
       </c>
       <c r="N34" s="117">
         <f t="shared" ca="1" si="50"/>
-        <v>6260</v>
+        <v>1159</v>
       </c>
       <c r="O34" s="117">
         <f t="shared" ca="1" si="50"/>
-        <v>7365</v>
+        <v>3784</v>
       </c>
       <c r="P34" s="117">
         <f t="shared" ca="1" si="50"/>
-        <v>100</v>
+        <v>263</v>
       </c>
       <c r="Q34" s="117">
         <f t="shared" ca="1" si="50"/>
-        <v>2921</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
@@ -24731,15 +24728,15 @@
       </c>
       <c r="D35" s="117">
         <f ca="1">INT(9900000000*RAND()+100000000)</f>
-        <v>1853126126</v>
+        <v>8341735721</v>
       </c>
       <c r="E35" s="117">
         <f t="shared" ref="E35:F35" ca="1" si="51">INT(9900000000*RAND()+100000000)</f>
-        <v>7035329323</v>
+        <v>7449379671</v>
       </c>
       <c r="F35" s="117">
         <f t="shared" ca="1" si="51"/>
-        <v>9637327187</v>
+        <v>9589890776</v>
       </c>
       <c r="G35" s="117"/>
       <c r="H35" s="117"/>
@@ -24765,15 +24762,15 @@
       </c>
       <c r="D36" s="117">
         <f ca="1">INT(RAND()*(D35-2))</f>
-        <v>863747114</v>
+        <v>1211813724</v>
       </c>
       <c r="E36" s="117">
         <f t="shared" ref="E36:F36" ca="1" si="52">INT(RAND()*(E35-2))</f>
-        <v>3632239247</v>
+        <v>5155779209</v>
       </c>
       <c r="F36" s="117">
         <f t="shared" ca="1" si="52"/>
-        <v>8816870759</v>
+        <v>8480250742</v>
       </c>
       <c r="G36" s="117"/>
       <c r="H36" s="117"/>
@@ -24799,15 +24796,15 @@
       </c>
       <c r="D37" s="117">
         <f ca="1">D35-D36</f>
-        <v>989379012</v>
+        <v>7129921997</v>
       </c>
       <c r="E37" s="117">
         <f t="shared" ref="E37:F37" ca="1" si="53">E35-E36</f>
-        <v>3403090076</v>
+        <v>2293600462</v>
       </c>
       <c r="F37" s="117">
         <f t="shared" ca="1" si="53"/>
-        <v>820456428</v>
+        <v>1109640034</v>
       </c>
       <c r="G37" s="117"/>
       <c r="H37" s="117"/>
@@ -24833,11 +24830,11 @@
       </c>
       <c r="D38" s="117">
         <f ca="1">INT(9900000000*RAND()+100000000)</f>
-        <v>1709201263</v>
+        <v>846729733</v>
       </c>
       <c r="E38" s="117">
         <f t="shared" ref="E38" ca="1" si="54">INT(9900000000*RAND()+100000000)</f>
-        <v>6155412028</v>
+        <v>7785139371</v>
       </c>
       <c r="F38" s="117"/>
       <c r="G38" s="117"/>
@@ -24864,11 +24861,11 @@
       </c>
       <c r="D39" s="117">
         <f ca="1">INT(RAND()*(D38-2))</f>
-        <v>575360043</v>
+        <v>796710435</v>
       </c>
       <c r="E39" s="117">
         <f t="shared" ref="E39" ca="1" si="55">INT(RAND()*(E38-2))</f>
-        <v>652845913</v>
+        <v>5195891019</v>
       </c>
       <c r="F39" s="117"/>
       <c r="G39" s="117"/>
@@ -24895,11 +24892,11 @@
       </c>
       <c r="D40" s="117">
         <f ca="1">D38-D39</f>
-        <v>1133841220</v>
+        <v>50019298</v>
       </c>
       <c r="E40" s="117">
         <f t="shared" ref="E40" ca="1" si="56">E38-E39</f>
-        <v>5502566115</v>
+        <v>2589248352</v>
       </c>
       <c r="F40" s="117"/>
       <c r="G40" s="117"/>
@@ -24926,59 +24923,59 @@
       </c>
       <c r="D41" s="117">
         <f ca="1">INT(9900000000*RAND()+100000000)</f>
-        <v>6098995435</v>
+        <v>3891206364</v>
       </c>
       <c r="E41" s="117">
         <f t="shared" ref="E41:F41" ca="1" si="57">INT(9900000000*RAND()+100000000)</f>
-        <v>7122955640</v>
+        <v>1031384588</v>
       </c>
       <c r="F41" s="117">
         <f t="shared" ca="1" si="57"/>
-        <v>6196063373</v>
+        <v>7984163064</v>
       </c>
       <c r="G41" s="117">
         <f ca="1">INT(990000000*RAND()+10000000)</f>
-        <v>410597230</v>
+        <v>211320728</v>
       </c>
       <c r="H41" s="117">
         <f ca="1">INT(900000000*RAND()+10000000)</f>
-        <v>339201150</v>
+        <v>703967855</v>
       </c>
       <c r="I41" s="117">
         <f ca="1">INT(750000000*RAND()+10000000)</f>
-        <v>482892514</v>
+        <v>428304766</v>
       </c>
       <c r="J41" s="117">
         <f ca="1">INT(75000000*RAND()+1000000)</f>
-        <v>15898552</v>
+        <v>10047982</v>
       </c>
       <c r="K41" s="117">
         <f ca="1">INT(750000*RAND()+10000)</f>
-        <v>262185</v>
+        <v>253359</v>
       </c>
       <c r="L41" s="117">
         <f t="shared" ref="L41" ca="1" si="58">INT(750000*RAND()+10000)</f>
-        <v>321674</v>
+        <v>675437</v>
       </c>
       <c r="M41" s="117">
         <f ca="1">INT(75000*RAND()+1000)</f>
-        <v>27627</v>
+        <v>62459</v>
       </c>
       <c r="N41" s="117">
         <f ca="1">INT(7500*RAND()+100)</f>
-        <v>1774</v>
+        <v>2244</v>
       </c>
       <c r="O41" s="117">
         <f t="shared" ref="O41:Q41" ca="1" si="59">INT(7500*RAND()+100)</f>
-        <v>4961</v>
+        <v>4008</v>
       </c>
       <c r="P41" s="117">
         <f t="shared" ca="1" si="59"/>
-        <v>974</v>
+        <v>7296</v>
       </c>
       <c r="Q41" s="117">
         <f t="shared" ca="1" si="59"/>
-        <v>763</v>
+        <v>3980</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
@@ -24993,59 +24990,59 @@
       </c>
       <c r="D42" s="117">
         <f ca="1">INT(RAND()*(D41-2))</f>
-        <v>5517608328</v>
+        <v>580287873</v>
       </c>
       <c r="E42" s="117">
         <f t="shared" ref="E42:Q42" ca="1" si="60">INT(RAND()*(E41-2))</f>
-        <v>4600386861</v>
+        <v>500681401</v>
       </c>
       <c r="F42" s="117">
         <f t="shared" ca="1" si="60"/>
-        <v>2176612981</v>
+        <v>6521328108</v>
       </c>
       <c r="G42" s="117">
         <f t="shared" ca="1" si="60"/>
-        <v>210653829</v>
+        <v>9116414</v>
       </c>
       <c r="H42" s="117">
         <f t="shared" ca="1" si="60"/>
-        <v>168967789</v>
+        <v>435439244</v>
       </c>
       <c r="I42" s="117">
         <f t="shared" ca="1" si="60"/>
-        <v>478694991</v>
+        <v>352955651</v>
       </c>
       <c r="J42" s="117">
         <f t="shared" ca="1" si="60"/>
-        <v>2217807</v>
+        <v>4085473</v>
       </c>
       <c r="K42" s="117">
         <f t="shared" ca="1" si="60"/>
-        <v>24772</v>
+        <v>103384</v>
       </c>
       <c r="L42" s="117">
         <f t="shared" ca="1" si="60"/>
-        <v>147096</v>
+        <v>275291</v>
       </c>
       <c r="M42" s="117">
         <f t="shared" ca="1" si="60"/>
-        <v>26138</v>
+        <v>59039</v>
       </c>
       <c r="N42" s="117">
         <f t="shared" ca="1" si="60"/>
-        <v>588</v>
+        <v>2241</v>
       </c>
       <c r="O42" s="117">
         <f t="shared" ca="1" si="60"/>
-        <v>26</v>
+        <v>2414</v>
       </c>
       <c r="P42" s="117">
         <f t="shared" ca="1" si="60"/>
-        <v>757</v>
+        <v>3625</v>
       </c>
       <c r="Q42" s="117">
         <f t="shared" ca="1" si="60"/>
-        <v>261</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
@@ -25060,59 +25057,59 @@
       </c>
       <c r="D43" s="117">
         <f ca="1">D41-D42</f>
-        <v>581387107</v>
+        <v>3310918491</v>
       </c>
       <c r="E43" s="117">
         <f t="shared" ref="E43:Q43" ca="1" si="61">E41-E42</f>
-        <v>2522568779</v>
+        <v>530703187</v>
       </c>
       <c r="F43" s="117">
         <f t="shared" ca="1" si="61"/>
-        <v>4019450392</v>
+        <v>1462834956</v>
       </c>
       <c r="G43" s="117">
         <f t="shared" ca="1" si="61"/>
-        <v>199943401</v>
+        <v>202204314</v>
       </c>
       <c r="H43" s="117">
         <f t="shared" ca="1" si="61"/>
-        <v>170233361</v>
+        <v>268528611</v>
       </c>
       <c r="I43" s="117">
         <f t="shared" ca="1" si="61"/>
-        <v>4197523</v>
+        <v>75349115</v>
       </c>
       <c r="J43" s="117">
         <f t="shared" ca="1" si="61"/>
-        <v>13680745</v>
+        <v>5962509</v>
       </c>
       <c r="K43" s="117">
         <f t="shared" ca="1" si="61"/>
-        <v>237413</v>
+        <v>149975</v>
       </c>
       <c r="L43" s="117">
         <f t="shared" ca="1" si="61"/>
-        <v>174578</v>
+        <v>400146</v>
       </c>
       <c r="M43" s="117">
         <f t="shared" ca="1" si="61"/>
-        <v>1489</v>
+        <v>3420</v>
       </c>
       <c r="N43" s="117">
         <f t="shared" ca="1" si="61"/>
-        <v>1186</v>
+        <v>3</v>
       </c>
       <c r="O43" s="117">
         <f t="shared" ca="1" si="61"/>
-        <v>4935</v>
+        <v>1594</v>
       </c>
       <c r="P43" s="117">
         <f t="shared" ca="1" si="61"/>
-        <v>217</v>
+        <v>3671</v>
       </c>
       <c r="Q43" s="117">
         <f t="shared" ca="1" si="61"/>
-        <v>502</v>
+        <v>3939</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
@@ -25127,59 +25124,59 @@
       </c>
       <c r="D44" s="117">
         <f ca="1">INT(9900000000*RAND()+100000000)</f>
-        <v>118653084</v>
+        <v>2348224861</v>
       </c>
       <c r="E44" s="117">
         <f t="shared" ref="E44:F44" ca="1" si="62">INT(9900000000*RAND()+100000000)</f>
-        <v>5499015011</v>
+        <v>5099339354</v>
       </c>
       <c r="F44" s="117">
         <f t="shared" ca="1" si="62"/>
-        <v>7114359334</v>
+        <v>5417986938</v>
       </c>
       <c r="G44" s="117">
         <f ca="1">INT(990000000*RAND()+10000000)</f>
-        <v>19542711</v>
+        <v>849135440</v>
       </c>
       <c r="H44" s="117">
         <f ca="1">INT(900000000*RAND()+10000000)</f>
-        <v>680957877</v>
+        <v>16628378</v>
       </c>
       <c r="I44" s="117">
         <f ca="1">INT(750000000*RAND()+10000000)</f>
-        <v>730324754</v>
+        <v>289509531</v>
       </c>
       <c r="J44" s="117">
         <f ca="1">INT(75000000*RAND()+1000000)</f>
-        <v>54428717</v>
+        <v>43298121</v>
       </c>
       <c r="K44" s="117">
         <f ca="1">INT(750000*RAND()+10000)</f>
-        <v>658903</v>
+        <v>604097</v>
       </c>
       <c r="L44" s="117">
         <f t="shared" ref="L44" ca="1" si="63">INT(750000*RAND()+10000)</f>
-        <v>240676</v>
+        <v>437234</v>
       </c>
       <c r="M44" s="117">
         <f ca="1">INT(75000*RAND()+1000)</f>
-        <v>5281</v>
+        <v>70845</v>
       </c>
       <c r="N44" s="117">
         <f ca="1">INT(7500*RAND()+100)</f>
-        <v>1581</v>
+        <v>4402</v>
       </c>
       <c r="O44" s="117">
         <f t="shared" ref="O44:Q44" ca="1" si="64">INT(7500*RAND()+100)</f>
-        <v>2396</v>
+        <v>3396</v>
       </c>
       <c r="P44" s="117">
         <f t="shared" ca="1" si="64"/>
-        <v>2504</v>
+        <v>6159</v>
       </c>
       <c r="Q44" s="117">
         <f t="shared" ca="1" si="64"/>
-        <v>4555</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
@@ -25194,59 +25191,59 @@
       </c>
       <c r="D45" s="117">
         <f ca="1">INT(RAND()*(D44-2))</f>
-        <v>111146343</v>
+        <v>1626809411</v>
       </c>
       <c r="E45" s="117">
         <f t="shared" ref="E45:Q45" ca="1" si="65">INT(RAND()*(E44-2))</f>
-        <v>2409716421</v>
+        <v>2300591144</v>
       </c>
       <c r="F45" s="117">
         <f t="shared" ca="1" si="65"/>
-        <v>1843636117</v>
+        <v>3349820708</v>
       </c>
       <c r="G45" s="117">
         <f t="shared" ca="1" si="65"/>
-        <v>10508490</v>
+        <v>390637326</v>
       </c>
       <c r="H45" s="117">
         <f t="shared" ca="1" si="65"/>
-        <v>137675681</v>
+        <v>7538719</v>
       </c>
       <c r="I45" s="117">
         <f t="shared" ca="1" si="65"/>
-        <v>627577791</v>
+        <v>285663487</v>
       </c>
       <c r="J45" s="117">
         <f t="shared" ca="1" si="65"/>
-        <v>20366827</v>
+        <v>14502775</v>
       </c>
       <c r="K45" s="117">
         <f t="shared" ca="1" si="65"/>
-        <v>416863</v>
+        <v>388199</v>
       </c>
       <c r="L45" s="117">
         <f t="shared" ca="1" si="65"/>
-        <v>143302</v>
+        <v>24274</v>
       </c>
       <c r="M45" s="117">
         <f t="shared" ca="1" si="65"/>
-        <v>1818</v>
+        <v>42705</v>
       </c>
       <c r="N45" s="117">
         <f t="shared" ca="1" si="65"/>
-        <v>128</v>
+        <v>2028</v>
       </c>
       <c r="O45" s="117">
         <f t="shared" ca="1" si="65"/>
-        <v>190</v>
+        <v>2730</v>
       </c>
       <c r="P45" s="117">
         <f t="shared" ca="1" si="65"/>
-        <v>1591</v>
+        <v>611</v>
       </c>
       <c r="Q45" s="117">
         <f t="shared" ca="1" si="65"/>
-        <v>2294</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
@@ -25261,59 +25258,59 @@
       </c>
       <c r="D46" s="117">
         <f ca="1">D44-D45</f>
-        <v>7506741</v>
+        <v>721415450</v>
       </c>
       <c r="E46" s="117">
         <f t="shared" ref="E46:Q46" ca="1" si="66">E44-E45</f>
-        <v>3089298590</v>
+        <v>2798748210</v>
       </c>
       <c r="F46" s="117">
         <f t="shared" ca="1" si="66"/>
-        <v>5270723217</v>
+        <v>2068166230</v>
       </c>
       <c r="G46" s="117">
         <f t="shared" ca="1" si="66"/>
-        <v>9034221</v>
+        <v>458498114</v>
       </c>
       <c r="H46" s="117">
         <f t="shared" ca="1" si="66"/>
-        <v>543282196</v>
+        <v>9089659</v>
       </c>
       <c r="I46" s="117">
         <f t="shared" ca="1" si="66"/>
-        <v>102746963</v>
+        <v>3846044</v>
       </c>
       <c r="J46" s="117">
         <f t="shared" ca="1" si="66"/>
-        <v>34061890</v>
+        <v>28795346</v>
       </c>
       <c r="K46" s="117">
         <f t="shared" ca="1" si="66"/>
-        <v>242040</v>
+        <v>215898</v>
       </c>
       <c r="L46" s="117">
         <f t="shared" ca="1" si="66"/>
-        <v>97374</v>
+        <v>412960</v>
       </c>
       <c r="M46" s="117">
         <f t="shared" ca="1" si="66"/>
-        <v>3463</v>
+        <v>28140</v>
       </c>
       <c r="N46" s="117">
         <f t="shared" ca="1" si="66"/>
-        <v>1453</v>
+        <v>2374</v>
       </c>
       <c r="O46" s="117">
         <f t="shared" ca="1" si="66"/>
-        <v>2206</v>
+        <v>666</v>
       </c>
       <c r="P46" s="117">
         <f t="shared" ca="1" si="66"/>
-        <v>913</v>
+        <v>5548</v>
       </c>
       <c r="Q46" s="117">
         <f t="shared" ca="1" si="66"/>
-        <v>2261</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/inst/Example/Mouse_Experiment_Example.xlsx
+++ b/inst/Example/Mouse_Experiment_Example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtcoll06\Box\Lab Docs\R projects\mouseR\inst\Example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C58C5F-9C7B-4E94-B270-F193293A2205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C018D58F-B5BC-49A9-856B-C12622CCE488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3637" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3637" uniqueCount="63">
   <si>
     <t>Mouse Weight</t>
   </si>
@@ -218,6 +218,9 @@
   </si>
   <si>
     <t>Order</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
   <si>
     <t>F</t>
@@ -950,7 +953,7 @@
   <dimension ref="A1:U39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1206,7 +1209,7 @@
         <v>17.600000000000001</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E6" s="5">
         <v>22</v>
@@ -1267,7 +1270,7 @@
         <v>18.400000000000002</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E7" s="5">
         <v>23</v>
@@ -1426,7 +1429,7 @@
         <v>18.400000000000002</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E10" s="7">
         <v>23</v>
@@ -1487,7 +1490,7 @@
         <v>19.200000000000003</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E11" s="7">
         <v>24</v>
@@ -1548,7 +1551,7 @@
         <v>18.400000000000002</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E12" s="7">
         <v>23</v>
@@ -1746,7 +1749,7 @@
         <v>18.400000000000002</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E16" s="9">
         <v>23</v>
@@ -1807,7 +1810,7 @@
         <v>16.8</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E17" s="9">
         <v>21</v>
@@ -22711,59 +22714,59 @@
       </c>
       <c r="D2" s="114">
         <f ca="1">INT(9900000000*RAND()+100000000)</f>
-        <v>6952430899</v>
+        <v>3244774054</v>
       </c>
       <c r="E2" s="114">
         <f t="shared" ref="E2:F2" ca="1" si="0">INT(9900000000*RAND()+100000000)</f>
-        <v>3655117768</v>
+        <v>2433896897</v>
       </c>
       <c r="F2" s="114">
         <f t="shared" ca="1" si="0"/>
-        <v>4213849284</v>
+        <v>849795982</v>
       </c>
       <c r="G2" s="114">
         <f ca="1">INT(990000000*RAND()+10000000)</f>
-        <v>77664258</v>
+        <v>510150503</v>
       </c>
       <c r="H2" s="114">
         <f ca="1">INT(900000000*RAND()+10000000)</f>
-        <v>655300424</v>
+        <v>501790441</v>
       </c>
       <c r="I2" s="114">
         <f ca="1">INT(750000000*RAND()+10000000)</f>
-        <v>563615077</v>
+        <v>258132269</v>
       </c>
       <c r="J2" s="114">
         <f ca="1">INT(75000000*RAND()+1000000)</f>
-        <v>14502892</v>
+        <v>26200666</v>
       </c>
       <c r="K2" s="114">
         <f ca="1">INT(750000*RAND()+10000)</f>
-        <v>60691</v>
+        <v>138822</v>
       </c>
       <c r="L2" s="114">
         <f t="shared" ref="L2" ca="1" si="1">INT(750000*RAND()+10000)</f>
-        <v>407105</v>
+        <v>543659</v>
       </c>
       <c r="M2" s="114">
         <f ca="1">INT(75000*RAND()+1000)</f>
-        <v>54561</v>
+        <v>71324</v>
       </c>
       <c r="N2" s="114">
         <f ca="1">INT(7500*RAND()+100)</f>
-        <v>510</v>
+        <v>4257</v>
       </c>
       <c r="O2" s="114">
         <f t="shared" ref="O2:Q2" ca="1" si="2">INT(7500*RAND()+100)</f>
-        <v>3908</v>
+        <v>3015</v>
       </c>
       <c r="P2" s="114">
         <f t="shared" ca="1" si="2"/>
-        <v>2453</v>
+        <v>3971</v>
       </c>
       <c r="Q2" s="114">
         <f t="shared" ca="1" si="2"/>
-        <v>3190</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
@@ -22778,59 +22781,59 @@
       </c>
       <c r="D3" s="114">
         <f ca="1">INT(RAND()*(D2-2))</f>
-        <v>4124738692</v>
+        <v>1866100448</v>
       </c>
       <c r="E3" s="114">
         <f t="shared" ref="E3:Q3" ca="1" si="3">INT(RAND()*(E2-2))</f>
-        <v>2497914535</v>
+        <v>1772051777</v>
       </c>
       <c r="F3" s="114">
         <f t="shared" ca="1" si="3"/>
-        <v>1018324598</v>
+        <v>478708891</v>
       </c>
       <c r="G3" s="114">
         <f t="shared" ca="1" si="3"/>
-        <v>63339621</v>
+        <v>227676191</v>
       </c>
       <c r="H3" s="114">
         <f t="shared" ca="1" si="3"/>
-        <v>450572628</v>
+        <v>139247929</v>
       </c>
       <c r="I3" s="114">
         <f t="shared" ca="1" si="3"/>
-        <v>13484831</v>
+        <v>218385704</v>
       </c>
       <c r="J3" s="114">
         <f t="shared" ca="1" si="3"/>
-        <v>12986385</v>
+        <v>8984316</v>
       </c>
       <c r="K3" s="114">
         <f t="shared" ca="1" si="3"/>
-        <v>23777</v>
+        <v>137389</v>
       </c>
       <c r="L3" s="114">
         <f t="shared" ca="1" si="3"/>
-        <v>384719</v>
+        <v>402533</v>
       </c>
       <c r="M3" s="114">
         <f t="shared" ca="1" si="3"/>
-        <v>35347</v>
+        <v>43013</v>
       </c>
       <c r="N3" s="114">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2706</v>
       </c>
       <c r="O3" s="114">
         <f t="shared" ca="1" si="3"/>
-        <v>1924</v>
+        <v>1970</v>
       </c>
       <c r="P3" s="114">
         <f t="shared" ca="1" si="3"/>
-        <v>425</v>
+        <v>2326</v>
       </c>
       <c r="Q3" s="114">
         <f t="shared" ca="1" si="3"/>
-        <v>2484</v>
+        <v>547</v>
       </c>
       <c r="S3" s="115"/>
       <c r="T3" s="115"/>
@@ -22848,59 +22851,59 @@
       </c>
       <c r="D4" s="114">
         <f ca="1">D2-D3</f>
-        <v>2827692207</v>
+        <v>1378673606</v>
       </c>
       <c r="E4" s="114">
         <f t="shared" ref="E4:Q4" ca="1" si="4">E2-E3</f>
-        <v>1157203233</v>
+        <v>661845120</v>
       </c>
       <c r="F4" s="114">
         <f t="shared" ca="1" si="4"/>
-        <v>3195524686</v>
+        <v>371087091</v>
       </c>
       <c r="G4" s="114">
         <f t="shared" ca="1" si="4"/>
-        <v>14324637</v>
+        <v>282474312</v>
       </c>
       <c r="H4" s="114">
         <f t="shared" ca="1" si="4"/>
-        <v>204727796</v>
+        <v>362542512</v>
       </c>
       <c r="I4" s="114">
         <f t="shared" ca="1" si="4"/>
-        <v>550130246</v>
+        <v>39746565</v>
       </c>
       <c r="J4" s="114">
         <f t="shared" ca="1" si="4"/>
-        <v>1516507</v>
+        <v>17216350</v>
       </c>
       <c r="K4" s="114">
         <f t="shared" ca="1" si="4"/>
-        <v>36914</v>
+        <v>1433</v>
       </c>
       <c r="L4" s="114">
         <f t="shared" ca="1" si="4"/>
-        <v>22386</v>
+        <v>141126</v>
       </c>
       <c r="M4" s="114">
         <f t="shared" ca="1" si="4"/>
-        <v>19214</v>
+        <v>28311</v>
       </c>
       <c r="N4" s="114">
         <f t="shared" ca="1" si="4"/>
-        <v>507</v>
+        <v>1551</v>
       </c>
       <c r="O4" s="114">
         <f t="shared" ca="1" si="4"/>
-        <v>1984</v>
+        <v>1045</v>
       </c>
       <c r="P4" s="114">
         <f t="shared" ca="1" si="4"/>
-        <v>2028</v>
+        <v>1645</v>
       </c>
       <c r="Q4" s="114">
         <f t="shared" ca="1" si="4"/>
-        <v>706</v>
+        <v>544</v>
       </c>
       <c r="S4" s="116"/>
       <c r="T4" s="115"/>
@@ -22918,59 +22921,59 @@
       </c>
       <c r="D5" s="114">
         <f ca="1">INT(9900000000*RAND()+100000000)</f>
-        <v>849307056</v>
+        <v>2744554531</v>
       </c>
       <c r="E5" s="114">
         <f t="shared" ref="E5:F5" ca="1" si="5">INT(9900000000*RAND()+100000000)</f>
-        <v>544086981</v>
+        <v>1918564556</v>
       </c>
       <c r="F5" s="114">
         <f t="shared" ca="1" si="5"/>
-        <v>6871446496</v>
+        <v>6605642262</v>
       </c>
       <c r="G5" s="114">
         <f ca="1">INT(990000000*RAND()+10000000)</f>
-        <v>878249749</v>
+        <v>753364989</v>
       </c>
       <c r="H5" s="114">
         <f ca="1">INT(900000000*RAND()+10000000)</f>
-        <v>14645464</v>
+        <v>560785236</v>
       </c>
       <c r="I5" s="114">
         <f ca="1">INT(750000000*RAND()+10000000)</f>
-        <v>705549940</v>
+        <v>218587219</v>
       </c>
       <c r="J5" s="114">
         <f ca="1">INT(75000000*RAND()+1000000)</f>
-        <v>53425642</v>
+        <v>50955941</v>
       </c>
       <c r="K5" s="114">
         <f ca="1">INT(750000*RAND()+10000)</f>
-        <v>687626</v>
+        <v>63766</v>
       </c>
       <c r="L5" s="114">
         <f t="shared" ref="L5" ca="1" si="6">INT(750000*RAND()+10000)</f>
-        <v>146058</v>
+        <v>354773</v>
       </c>
       <c r="M5" s="114">
         <f ca="1">INT(75000*RAND()+1000)</f>
-        <v>72556</v>
+        <v>30949</v>
       </c>
       <c r="N5" s="114">
         <f ca="1">INT(7500*RAND()+100)</f>
-        <v>2430</v>
+        <v>3534</v>
       </c>
       <c r="O5" s="114">
         <f t="shared" ref="O5:Q5" ca="1" si="7">INT(7500*RAND()+100)</f>
-        <v>4162</v>
+        <v>960</v>
       </c>
       <c r="P5" s="114">
         <f t="shared" ca="1" si="7"/>
-        <v>7522</v>
+        <v>2890</v>
       </c>
       <c r="Q5" s="114">
         <f t="shared" ca="1" si="7"/>
-        <v>6413</v>
+        <v>6896</v>
       </c>
       <c r="S5" s="116"/>
     </row>
@@ -22986,59 +22989,59 @@
       </c>
       <c r="D6" s="114">
         <f ca="1">INT(RAND()*(D5-2))</f>
-        <v>647357832</v>
+        <v>2327097828</v>
       </c>
       <c r="E6" s="114">
         <f t="shared" ref="E6:Q6" ca="1" si="8">INT(RAND()*(E5-2))</f>
-        <v>409778440</v>
+        <v>159707456</v>
       </c>
       <c r="F6" s="114">
         <f t="shared" ca="1" si="8"/>
-        <v>5919777782</v>
+        <v>3481536172</v>
       </c>
       <c r="G6" s="114">
         <f t="shared" ca="1" si="8"/>
-        <v>835030148</v>
+        <v>29422411</v>
       </c>
       <c r="H6" s="114">
         <f t="shared" ca="1" si="8"/>
-        <v>9949475</v>
+        <v>478707804</v>
       </c>
       <c r="I6" s="114">
         <f t="shared" ca="1" si="8"/>
-        <v>22295994</v>
+        <v>179025245</v>
       </c>
       <c r="J6" s="114">
         <f t="shared" ca="1" si="8"/>
-        <v>21654704</v>
+        <v>49420819</v>
       </c>
       <c r="K6" s="114">
         <f t="shared" ca="1" si="8"/>
-        <v>112074</v>
+        <v>44781</v>
       </c>
       <c r="L6" s="114">
         <f t="shared" ca="1" si="8"/>
-        <v>83393</v>
+        <v>20586</v>
       </c>
       <c r="M6" s="114">
         <f t="shared" ca="1" si="8"/>
-        <v>16761</v>
+        <v>2718</v>
       </c>
       <c r="N6" s="114">
         <f t="shared" ca="1" si="8"/>
-        <v>695</v>
+        <v>1588</v>
       </c>
       <c r="O6" s="114">
         <f t="shared" ca="1" si="8"/>
-        <v>3577</v>
+        <v>331</v>
       </c>
       <c r="P6" s="114">
         <f t="shared" ca="1" si="8"/>
-        <v>4070</v>
+        <v>2359</v>
       </c>
       <c r="Q6" s="114">
         <f t="shared" ca="1" si="8"/>
-        <v>449</v>
+        <v>1049</v>
       </c>
       <c r="S6" s="116"/>
     </row>
@@ -23054,59 +23057,59 @@
       </c>
       <c r="D7" s="114">
         <f ca="1">D5-D6</f>
-        <v>201949224</v>
+        <v>417456703</v>
       </c>
       <c r="E7" s="114">
         <f t="shared" ref="E7:Q7" ca="1" si="9">E5-E6</f>
-        <v>134308541</v>
+        <v>1758857100</v>
       </c>
       <c r="F7" s="114">
         <f t="shared" ca="1" si="9"/>
-        <v>951668714</v>
+        <v>3124106090</v>
       </c>
       <c r="G7" s="114">
         <f t="shared" ca="1" si="9"/>
-        <v>43219601</v>
+        <v>723942578</v>
       </c>
       <c r="H7" s="114">
         <f t="shared" ca="1" si="9"/>
-        <v>4695989</v>
+        <v>82077432</v>
       </c>
       <c r="I7" s="114">
         <f t="shared" ca="1" si="9"/>
-        <v>683253946</v>
+        <v>39561974</v>
       </c>
       <c r="J7" s="114">
         <f t="shared" ca="1" si="9"/>
-        <v>31770938</v>
+        <v>1535122</v>
       </c>
       <c r="K7" s="114">
         <f t="shared" ca="1" si="9"/>
-        <v>575552</v>
+        <v>18985</v>
       </c>
       <c r="L7" s="114">
         <f t="shared" ca="1" si="9"/>
-        <v>62665</v>
+        <v>334187</v>
       </c>
       <c r="M7" s="114">
         <f t="shared" ca="1" si="9"/>
-        <v>55795</v>
+        <v>28231</v>
       </c>
       <c r="N7" s="114">
         <f t="shared" ca="1" si="9"/>
-        <v>1735</v>
+        <v>1946</v>
       </c>
       <c r="O7" s="114">
         <f t="shared" ca="1" si="9"/>
-        <v>585</v>
+        <v>629</v>
       </c>
       <c r="P7" s="114">
         <f t="shared" ca="1" si="9"/>
-        <v>3452</v>
+        <v>531</v>
       </c>
       <c r="Q7" s="114">
         <f t="shared" ca="1" si="9"/>
-        <v>5964</v>
+        <v>5847</v>
       </c>
       <c r="S7" s="116"/>
     </row>
@@ -23122,15 +23125,15 @@
       </c>
       <c r="D8" s="114">
         <f ca="1">INT(9900000000*RAND()+100000000)</f>
-        <v>8992025512</v>
+        <v>4818920551</v>
       </c>
       <c r="E8" s="114">
         <f t="shared" ref="E8:F8" ca="1" si="10">INT(9900000000*RAND()+100000000)</f>
-        <v>1187811684</v>
+        <v>3817633542</v>
       </c>
       <c r="F8" s="114">
         <f t="shared" ca="1" si="10"/>
-        <v>7012501490</v>
+        <v>9789393941</v>
       </c>
       <c r="G8" s="114"/>
       <c r="H8" s="114"/>
@@ -23157,15 +23160,15 @@
       </c>
       <c r="D9" s="114">
         <f ca="1">INT(RAND()*(D8-2))</f>
-        <v>5571813278</v>
+        <v>3801240225</v>
       </c>
       <c r="E9" s="114">
         <f t="shared" ref="E9:F9" ca="1" si="11">INT(RAND()*(E8-2))</f>
-        <v>1100116644</v>
+        <v>929471574</v>
       </c>
       <c r="F9" s="114">
         <f t="shared" ca="1" si="11"/>
-        <v>3521964199</v>
+        <v>5314224389</v>
       </c>
       <c r="G9" s="114"/>
       <c r="H9" s="114"/>
@@ -23192,15 +23195,15 @@
       </c>
       <c r="D10" s="114">
         <f ca="1">D8-D9</f>
-        <v>3420212234</v>
+        <v>1017680326</v>
       </c>
       <c r="E10" s="114">
         <f t="shared" ref="E10:F10" ca="1" si="12">E8-E9</f>
-        <v>87695040</v>
+        <v>2888161968</v>
       </c>
       <c r="F10" s="114">
         <f t="shared" ca="1" si="12"/>
-        <v>3490537291</v>
+        <v>4475169552</v>
       </c>
       <c r="G10" s="114"/>
       <c r="H10" s="114"/>
@@ -23227,59 +23230,59 @@
       </c>
       <c r="D11" s="114">
         <f ca="1">INT(9900000000*RAND()+100000000)</f>
-        <v>7557159442</v>
+        <v>868253373</v>
       </c>
       <c r="E11" s="114">
         <f t="shared" ref="E11:F11" ca="1" si="13">INT(9900000000*RAND()+100000000)</f>
-        <v>9884981780</v>
+        <v>2720876602</v>
       </c>
       <c r="F11" s="114">
         <f t="shared" ca="1" si="13"/>
-        <v>3464089670</v>
+        <v>1955685174</v>
       </c>
       <c r="G11" s="114">
         <f ca="1">INT(990000000*RAND()+10000000)</f>
-        <v>712739590</v>
+        <v>193379043</v>
       </c>
       <c r="H11" s="114">
         <f ca="1">INT(900000000*RAND()+10000000)</f>
-        <v>64887797</v>
+        <v>694501899</v>
       </c>
       <c r="I11" s="114">
         <f ca="1">INT(750000000*RAND()+10000000)</f>
-        <v>533776500</v>
+        <v>140629645</v>
       </c>
       <c r="J11" s="114">
         <f ca="1">INT(75000000*RAND()+1000000)</f>
-        <v>17535245</v>
+        <v>5072801</v>
       </c>
       <c r="K11" s="114">
         <f ca="1">INT(750000*RAND()+10000)</f>
-        <v>393413</v>
+        <v>342491</v>
       </c>
       <c r="L11" s="114">
         <f t="shared" ref="L11" ca="1" si="14">INT(750000*RAND()+10000)</f>
-        <v>530994</v>
+        <v>181165</v>
       </c>
       <c r="M11" s="114">
         <f ca="1">INT(75000*RAND()+1000)</f>
-        <v>15457</v>
+        <v>10416</v>
       </c>
       <c r="N11" s="114">
         <f ca="1">INT(7500*RAND()+100)</f>
-        <v>7394</v>
+        <v>4372</v>
       </c>
       <c r="O11" s="114">
         <f t="shared" ref="O11:Q11" ca="1" si="15">INT(7500*RAND()+100)</f>
-        <v>6395</v>
+        <v>3814</v>
       </c>
       <c r="P11" s="114">
         <f t="shared" ca="1" si="15"/>
-        <v>6858</v>
+        <v>5624</v>
       </c>
       <c r="Q11" s="114">
         <f t="shared" ca="1" si="15"/>
-        <v>3124</v>
+        <v>4398</v>
       </c>
       <c r="S11" s="116"/>
     </row>
@@ -23295,59 +23298,59 @@
       </c>
       <c r="D12" s="114">
         <f ca="1">INT(RAND()*(D11-2))</f>
-        <v>3595890174</v>
+        <v>639965019</v>
       </c>
       <c r="E12" s="114">
         <f t="shared" ref="E12:Q12" ca="1" si="16">INT(RAND()*(E11-2))</f>
-        <v>7859590876</v>
+        <v>96693841</v>
       </c>
       <c r="F12" s="114">
         <f t="shared" ca="1" si="16"/>
-        <v>428057124</v>
+        <v>1737864740</v>
       </c>
       <c r="G12" s="114">
         <f t="shared" ca="1" si="16"/>
-        <v>520786</v>
+        <v>39904964</v>
       </c>
       <c r="H12" s="114">
         <f t="shared" ca="1" si="16"/>
-        <v>20852509</v>
+        <v>396171262</v>
       </c>
       <c r="I12" s="114">
         <f t="shared" ca="1" si="16"/>
-        <v>273445166</v>
+        <v>118881417</v>
       </c>
       <c r="J12" s="114">
         <f t="shared" ca="1" si="16"/>
-        <v>16487860</v>
+        <v>2395829</v>
       </c>
       <c r="K12" s="114">
         <f t="shared" ca="1" si="16"/>
-        <v>254977</v>
+        <v>152633</v>
       </c>
       <c r="L12" s="114">
         <f t="shared" ca="1" si="16"/>
-        <v>164253</v>
+        <v>33020</v>
       </c>
       <c r="M12" s="114">
         <f t="shared" ca="1" si="16"/>
-        <v>1354</v>
+        <v>9554</v>
       </c>
       <c r="N12" s="114">
         <f t="shared" ca="1" si="16"/>
-        <v>5047</v>
+        <v>2950</v>
       </c>
       <c r="O12" s="114">
         <f t="shared" ca="1" si="16"/>
-        <v>1216</v>
+        <v>440</v>
       </c>
       <c r="P12" s="114">
         <f t="shared" ca="1" si="16"/>
-        <v>3302</v>
+        <v>4234</v>
       </c>
       <c r="Q12" s="114">
         <f t="shared" ca="1" si="16"/>
-        <v>881</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -23362,59 +23365,59 @@
       </c>
       <c r="D13" s="114">
         <f ca="1">D11-D12</f>
-        <v>3961269268</v>
+        <v>228288354</v>
       </c>
       <c r="E13" s="114">
         <f t="shared" ref="E13:Q13" ca="1" si="17">E11-E12</f>
-        <v>2025390904</v>
+        <v>2624182761</v>
       </c>
       <c r="F13" s="114">
         <f t="shared" ca="1" si="17"/>
-        <v>3036032546</v>
+        <v>217820434</v>
       </c>
       <c r="G13" s="114">
         <f t="shared" ca="1" si="17"/>
-        <v>712218804</v>
+        <v>153474079</v>
       </c>
       <c r="H13" s="114">
         <f t="shared" ca="1" si="17"/>
-        <v>44035288</v>
+        <v>298330637</v>
       </c>
       <c r="I13" s="114">
         <f t="shared" ca="1" si="17"/>
-        <v>260331334</v>
+        <v>21748228</v>
       </c>
       <c r="J13" s="114">
         <f t="shared" ca="1" si="17"/>
-        <v>1047385</v>
+        <v>2676972</v>
       </c>
       <c r="K13" s="114">
         <f t="shared" ca="1" si="17"/>
-        <v>138436</v>
+        <v>189858</v>
       </c>
       <c r="L13" s="114">
         <f t="shared" ca="1" si="17"/>
-        <v>366741</v>
+        <v>148145</v>
       </c>
       <c r="M13" s="114">
         <f t="shared" ca="1" si="17"/>
-        <v>14103</v>
+        <v>862</v>
       </c>
       <c r="N13" s="114">
         <f t="shared" ca="1" si="17"/>
-        <v>2347</v>
+        <v>1422</v>
       </c>
       <c r="O13" s="114">
         <f t="shared" ca="1" si="17"/>
-        <v>5179</v>
+        <v>3374</v>
       </c>
       <c r="P13" s="114">
         <f t="shared" ca="1" si="17"/>
-        <v>3556</v>
+        <v>1390</v>
       </c>
       <c r="Q13" s="114">
         <f t="shared" ca="1" si="17"/>
-        <v>2243</v>
+        <v>3306</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -23429,59 +23432,59 @@
       </c>
       <c r="D14" s="114">
         <f ca="1">INT(9900000000*RAND()+100000000)</f>
-        <v>7143069596</v>
+        <v>4873926384</v>
       </c>
       <c r="E14" s="114">
         <f t="shared" ref="E14:F14" ca="1" si="18">INT(9900000000*RAND()+100000000)</f>
-        <v>8682523139</v>
+        <v>8529298672</v>
       </c>
       <c r="F14" s="114">
         <f t="shared" ca="1" si="18"/>
-        <v>9317903133</v>
+        <v>6391590048</v>
       </c>
       <c r="G14" s="114">
         <f ca="1">INT(990000000*RAND()+10000000)</f>
-        <v>595344946</v>
+        <v>945850829</v>
       </c>
       <c r="H14" s="114">
         <f ca="1">INT(900000000*RAND()+10000000)</f>
-        <v>353237909</v>
+        <v>429666464</v>
       </c>
       <c r="I14" s="114">
         <f ca="1">INT(750000000*RAND()+10000000)</f>
-        <v>36685140</v>
+        <v>149297387</v>
       </c>
       <c r="J14" s="114">
         <f ca="1">INT(75000000*RAND()+1000000)</f>
-        <v>54235857</v>
+        <v>12597076</v>
       </c>
       <c r="K14" s="114">
         <f ca="1">INT(750000*RAND()+10000)</f>
-        <v>678021</v>
+        <v>595216</v>
       </c>
       <c r="L14" s="114">
         <f t="shared" ref="L14" ca="1" si="19">INT(750000*RAND()+10000)</f>
-        <v>71924</v>
+        <v>393262</v>
       </c>
       <c r="M14" s="114">
         <f ca="1">INT(75000*RAND()+1000)</f>
-        <v>54920</v>
+        <v>21707</v>
       </c>
       <c r="N14" s="114">
         <f ca="1">INT(7500*RAND()+100)</f>
-        <v>4780</v>
+        <v>5499</v>
       </c>
       <c r="O14" s="114">
         <f t="shared" ref="O14:Q14" ca="1" si="20">INT(7500*RAND()+100)</f>
-        <v>2215</v>
+        <v>2906</v>
       </c>
       <c r="P14" s="114">
         <f t="shared" ca="1" si="20"/>
-        <v>6613</v>
+        <v>4741</v>
       </c>
       <c r="Q14" s="114">
         <f t="shared" ca="1" si="20"/>
-        <v>6397</v>
+        <v>632</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -23496,59 +23499,59 @@
       </c>
       <c r="D15" s="114">
         <f ca="1">INT(RAND()*(D14-2))</f>
-        <v>482266130</v>
+        <v>4047682952</v>
       </c>
       <c r="E15" s="114">
         <f t="shared" ref="E15:Q15" ca="1" si="21">INT(RAND()*(E14-2))</f>
-        <v>412726579</v>
+        <v>4029500659</v>
       </c>
       <c r="F15" s="114">
         <f t="shared" ca="1" si="21"/>
-        <v>5868742025</v>
+        <v>3217964263</v>
       </c>
       <c r="G15" s="114">
         <f t="shared" ca="1" si="21"/>
-        <v>215473239</v>
+        <v>426243384</v>
       </c>
       <c r="H15" s="114">
         <f t="shared" ca="1" si="21"/>
-        <v>94396235</v>
+        <v>370001442</v>
       </c>
       <c r="I15" s="114">
         <f t="shared" ca="1" si="21"/>
-        <v>18008177</v>
+        <v>123493415</v>
       </c>
       <c r="J15" s="114">
         <f t="shared" ca="1" si="21"/>
-        <v>13778360</v>
+        <v>9363256</v>
       </c>
       <c r="K15" s="114">
         <f t="shared" ca="1" si="21"/>
-        <v>200369</v>
+        <v>7455</v>
       </c>
       <c r="L15" s="114">
         <f t="shared" ca="1" si="21"/>
-        <v>42165</v>
+        <v>343155</v>
       </c>
       <c r="M15" s="114">
         <f t="shared" ca="1" si="21"/>
-        <v>34673</v>
+        <v>18384</v>
       </c>
       <c r="N15" s="114">
         <f t="shared" ca="1" si="21"/>
-        <v>1963</v>
+        <v>87</v>
       </c>
       <c r="O15" s="114">
         <f t="shared" ca="1" si="21"/>
-        <v>460</v>
+        <v>1591</v>
       </c>
       <c r="P15" s="114">
         <f t="shared" ca="1" si="21"/>
-        <v>654</v>
+        <v>4149</v>
       </c>
       <c r="Q15" s="114">
         <f t="shared" ca="1" si="21"/>
-        <v>5787</v>
+        <v>544</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -23563,59 +23566,59 @@
       </c>
       <c r="D16" s="114">
         <f ca="1">D14-D15</f>
-        <v>6660803466</v>
+        <v>826243432</v>
       </c>
       <c r="E16" s="114">
         <f t="shared" ref="E16:Q16" ca="1" si="22">E14-E15</f>
-        <v>8269796560</v>
+        <v>4499798013</v>
       </c>
       <c r="F16" s="114">
         <f t="shared" ca="1" si="22"/>
-        <v>3449161108</v>
+        <v>3173625785</v>
       </c>
       <c r="G16" s="114">
         <f t="shared" ca="1" si="22"/>
-        <v>379871707</v>
+        <v>519607445</v>
       </c>
       <c r="H16" s="114">
         <f t="shared" ca="1" si="22"/>
-        <v>258841674</v>
+        <v>59665022</v>
       </c>
       <c r="I16" s="114">
         <f t="shared" ca="1" si="22"/>
-        <v>18676963</v>
+        <v>25803972</v>
       </c>
       <c r="J16" s="114">
         <f t="shared" ca="1" si="22"/>
-        <v>40457497</v>
+        <v>3233820</v>
       </c>
       <c r="K16" s="114">
         <f t="shared" ca="1" si="22"/>
-        <v>477652</v>
+        <v>587761</v>
       </c>
       <c r="L16" s="114">
         <f t="shared" ca="1" si="22"/>
-        <v>29759</v>
+        <v>50107</v>
       </c>
       <c r="M16" s="114">
         <f t="shared" ca="1" si="22"/>
-        <v>20247</v>
+        <v>3323</v>
       </c>
       <c r="N16" s="114">
         <f t="shared" ca="1" si="22"/>
-        <v>2817</v>
+        <v>5412</v>
       </c>
       <c r="O16" s="114">
         <f t="shared" ca="1" si="22"/>
-        <v>1755</v>
+        <v>1315</v>
       </c>
       <c r="P16" s="114">
         <f t="shared" ca="1" si="22"/>
-        <v>5959</v>
+        <v>592</v>
       </c>
       <c r="Q16" s="114">
         <f t="shared" ca="1" si="22"/>
-        <v>610</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -23630,11 +23633,11 @@
       </c>
       <c r="D17" s="118">
         <f ca="1">INT(9900000000*RAND()+100000000)</f>
-        <v>6754796537</v>
+        <v>6424894722</v>
       </c>
       <c r="E17" s="118">
         <f t="shared" ref="E17" ca="1" si="23">INT(9900000000*RAND()+100000000)</f>
-        <v>7890671705</v>
+        <v>9855288883</v>
       </c>
       <c r="F17" s="118"/>
       <c r="G17" s="118"/>
@@ -23661,11 +23664,11 @@
       </c>
       <c r="D18" s="118">
         <f ca="1">INT(RAND()*(D17-2))</f>
-        <v>3529728159</v>
+        <v>1201987248</v>
       </c>
       <c r="E18" s="118">
         <f t="shared" ref="E18" ca="1" si="24">INT(RAND()*(E17-2))</f>
-        <v>2202241562</v>
+        <v>5507458364</v>
       </c>
       <c r="F18" s="118"/>
       <c r="G18" s="118"/>
@@ -23692,11 +23695,11 @@
       </c>
       <c r="D19" s="118">
         <f ca="1">D17-D18</f>
-        <v>3225068378</v>
+        <v>5222907474</v>
       </c>
       <c r="E19" s="118">
         <f t="shared" ref="E19" ca="1" si="25">E17-E18</f>
-        <v>5688430143</v>
+        <v>4347830519</v>
       </c>
       <c r="F19" s="118"/>
       <c r="G19" s="118"/>
@@ -23723,59 +23726,59 @@
       </c>
       <c r="D20" s="118">
         <f ca="1">INT(9900000000*RAND()+100000000)</f>
-        <v>4709870848</v>
+        <v>7397242429</v>
       </c>
       <c r="E20" s="118">
         <f t="shared" ref="E20:F20" ca="1" si="26">INT(9900000000*RAND()+100000000)</f>
-        <v>5611442394</v>
+        <v>6575282495</v>
       </c>
       <c r="F20" s="118">
         <f t="shared" ca="1" si="26"/>
-        <v>1992809170</v>
+        <v>311652274</v>
       </c>
       <c r="G20" s="118">
         <f ca="1">INT(990000000*RAND()+10000000)</f>
-        <v>282149969</v>
+        <v>407144037</v>
       </c>
       <c r="H20" s="118">
         <f ca="1">INT(900000000*RAND()+10000000)</f>
-        <v>694899879</v>
+        <v>26393615</v>
       </c>
       <c r="I20" s="118">
         <f ca="1">INT(750000000*RAND()+10000000)</f>
-        <v>352974624</v>
+        <v>189318686</v>
       </c>
       <c r="J20" s="118">
         <f ca="1">INT(75000000*RAND()+1000000)</f>
-        <v>33090019</v>
+        <v>15028535</v>
       </c>
       <c r="K20" s="118">
         <f ca="1">INT(750000*RAND()+10000)</f>
-        <v>224502</v>
+        <v>133823</v>
       </c>
       <c r="L20" s="118">
         <f t="shared" ref="L20" ca="1" si="27">INT(750000*RAND()+10000)</f>
-        <v>135293</v>
+        <v>230823</v>
       </c>
       <c r="M20" s="118">
         <f ca="1">INT(75000*RAND()+1000)</f>
-        <v>18495</v>
+        <v>13904</v>
       </c>
       <c r="N20" s="118">
         <f ca="1">INT(7500*RAND()+100)</f>
-        <v>2635</v>
+        <v>3425</v>
       </c>
       <c r="O20" s="118">
         <f t="shared" ref="O20:Q20" ca="1" si="28">INT(7500*RAND()+100)</f>
-        <v>117</v>
+        <v>3946</v>
       </c>
       <c r="P20" s="118">
         <f t="shared" ca="1" si="28"/>
-        <v>1905</v>
+        <v>5146</v>
       </c>
       <c r="Q20" s="118">
         <f t="shared" ca="1" si="28"/>
-        <v>1491</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -23790,59 +23793,59 @@
       </c>
       <c r="D21" s="118">
         <f ca="1">INT(RAND()*(D20-2))</f>
-        <v>4036693582</v>
+        <v>3309130550</v>
       </c>
       <c r="E21" s="118">
         <f t="shared" ref="E21:Q21" ca="1" si="29">INT(RAND()*(E20-2))</f>
-        <v>2277077361</v>
+        <v>80671662</v>
       </c>
       <c r="F21" s="118">
         <f t="shared" ca="1" si="29"/>
-        <v>1828230634</v>
+        <v>128965899</v>
       </c>
       <c r="G21" s="118">
         <f t="shared" ca="1" si="29"/>
-        <v>257725481</v>
+        <v>215020469</v>
       </c>
       <c r="H21" s="118">
         <f t="shared" ca="1" si="29"/>
-        <v>17231680</v>
+        <v>12836963</v>
       </c>
       <c r="I21" s="118">
         <f t="shared" ca="1" si="29"/>
-        <v>197044960</v>
+        <v>71571202</v>
       </c>
       <c r="J21" s="118">
         <f t="shared" ca="1" si="29"/>
-        <v>15755100</v>
+        <v>14997988</v>
       </c>
       <c r="K21" s="118">
         <f t="shared" ca="1" si="29"/>
-        <v>16890</v>
+        <v>69901</v>
       </c>
       <c r="L21" s="118">
         <f t="shared" ca="1" si="29"/>
-        <v>86678</v>
+        <v>31773</v>
       </c>
       <c r="M21" s="118">
         <f t="shared" ca="1" si="29"/>
-        <v>830</v>
+        <v>13681</v>
       </c>
       <c r="N21" s="118">
         <f t="shared" ca="1" si="29"/>
-        <v>1283</v>
+        <v>554</v>
       </c>
       <c r="O21" s="118">
         <f t="shared" ca="1" si="29"/>
-        <v>54</v>
+        <v>3748</v>
       </c>
       <c r="P21" s="118">
         <f t="shared" ca="1" si="29"/>
-        <v>1566</v>
+        <v>807</v>
       </c>
       <c r="Q21" s="118">
         <f t="shared" ca="1" si="29"/>
-        <v>578</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -23857,59 +23860,59 @@
       </c>
       <c r="D22" s="118">
         <f ca="1">D20-D21</f>
-        <v>673177266</v>
+        <v>4088111879</v>
       </c>
       <c r="E22" s="118">
         <f t="shared" ref="E22:Q22" ca="1" si="30">E20-E21</f>
-        <v>3334365033</v>
+        <v>6494610833</v>
       </c>
       <c r="F22" s="118">
         <f t="shared" ca="1" si="30"/>
-        <v>164578536</v>
+        <v>182686375</v>
       </c>
       <c r="G22" s="118">
         <f t="shared" ca="1" si="30"/>
-        <v>24424488</v>
+        <v>192123568</v>
       </c>
       <c r="H22" s="118">
         <f t="shared" ca="1" si="30"/>
-        <v>677668199</v>
+        <v>13556652</v>
       </c>
       <c r="I22" s="118">
         <f t="shared" ca="1" si="30"/>
-        <v>155929664</v>
+        <v>117747484</v>
       </c>
       <c r="J22" s="118">
         <f t="shared" ca="1" si="30"/>
-        <v>17334919</v>
+        <v>30547</v>
       </c>
       <c r="K22" s="118">
         <f t="shared" ca="1" si="30"/>
-        <v>207612</v>
+        <v>63922</v>
       </c>
       <c r="L22" s="118">
         <f t="shared" ca="1" si="30"/>
-        <v>48615</v>
+        <v>199050</v>
       </c>
       <c r="M22" s="118">
         <f t="shared" ca="1" si="30"/>
-        <v>17665</v>
+        <v>223</v>
       </c>
       <c r="N22" s="118">
         <f t="shared" ca="1" si="30"/>
-        <v>1352</v>
+        <v>2871</v>
       </c>
       <c r="O22" s="118">
         <f t="shared" ca="1" si="30"/>
-        <v>63</v>
+        <v>198</v>
       </c>
       <c r="P22" s="118">
         <f t="shared" ca="1" si="30"/>
-        <v>339</v>
+        <v>4339</v>
       </c>
       <c r="Q22" s="118">
         <f t="shared" ca="1" si="30"/>
-        <v>913</v>
+        <v>848</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -23924,59 +23927,59 @@
       </c>
       <c r="D23" s="118">
         <f ca="1">INT(9900000000*RAND()+100000000)</f>
-        <v>2200845328</v>
+        <v>4793970593</v>
       </c>
       <c r="E23" s="118">
         <f t="shared" ref="E23:F23" ca="1" si="31">INT(9900000000*RAND()+100000000)</f>
-        <v>7356930666</v>
+        <v>882261628</v>
       </c>
       <c r="F23" s="118">
         <f t="shared" ca="1" si="31"/>
-        <v>3745826494</v>
+        <v>2260010871</v>
       </c>
       <c r="G23" s="118">
         <f ca="1">INT(990000000*RAND()+10000000)</f>
-        <v>425981179</v>
+        <v>822134967</v>
       </c>
       <c r="H23" s="118">
         <f ca="1">INT(900000000*RAND()+10000000)</f>
-        <v>904161111</v>
+        <v>662684105</v>
       </c>
       <c r="I23" s="118">
         <f ca="1">INT(750000000*RAND()+10000000)</f>
-        <v>688705991</v>
+        <v>306793490</v>
       </c>
       <c r="J23" s="118">
         <f ca="1">INT(75000000*RAND()+1000000)</f>
-        <v>35946259</v>
+        <v>44912568</v>
       </c>
       <c r="K23" s="118">
         <f ca="1">INT(750000*RAND()+10000)</f>
-        <v>736647</v>
+        <v>563368</v>
       </c>
       <c r="L23" s="118">
         <f t="shared" ref="L23" ca="1" si="32">INT(750000*RAND()+10000)</f>
-        <v>272499</v>
+        <v>199169</v>
       </c>
       <c r="M23" s="118">
         <f ca="1">INT(75000*RAND()+1000)</f>
-        <v>67806</v>
+        <v>46291</v>
       </c>
       <c r="N23" s="118">
         <f ca="1">INT(7500*RAND()+100)</f>
-        <v>5036</v>
+        <v>3990</v>
       </c>
       <c r="O23" s="118">
         <f t="shared" ref="O23:Q23" ca="1" si="33">INT(7500*RAND()+100)</f>
-        <v>6353</v>
+        <v>4452</v>
       </c>
       <c r="P23" s="118">
         <f t="shared" ca="1" si="33"/>
-        <v>3346</v>
+        <v>5608</v>
       </c>
       <c r="Q23" s="118">
         <f t="shared" ca="1" si="33"/>
-        <v>2913</v>
+        <v>5634</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -23991,59 +23994,59 @@
       </c>
       <c r="D24" s="118">
         <f ca="1">INT(RAND()*(D23-2))</f>
-        <v>376190219</v>
+        <v>3972308643</v>
       </c>
       <c r="E24" s="118">
         <f t="shared" ref="E24:Q24" ca="1" si="34">INT(RAND()*(E23-2))</f>
-        <v>5998899267</v>
+        <v>193596138</v>
       </c>
       <c r="F24" s="118">
         <f t="shared" ca="1" si="34"/>
-        <v>1347800599</v>
+        <v>1538377973</v>
       </c>
       <c r="G24" s="118">
         <f t="shared" ca="1" si="34"/>
-        <v>127244222</v>
+        <v>116564454</v>
       </c>
       <c r="H24" s="118">
         <f t="shared" ca="1" si="34"/>
-        <v>842293511</v>
+        <v>450199488</v>
       </c>
       <c r="I24" s="118">
         <f t="shared" ca="1" si="34"/>
-        <v>479924451</v>
+        <v>118273600</v>
       </c>
       <c r="J24" s="118">
         <f t="shared" ca="1" si="34"/>
-        <v>31916789</v>
+        <v>24663322</v>
       </c>
       <c r="K24" s="118">
         <f t="shared" ca="1" si="34"/>
-        <v>233717</v>
+        <v>319305</v>
       </c>
       <c r="L24" s="118">
         <f t="shared" ca="1" si="34"/>
-        <v>251284</v>
+        <v>70933</v>
       </c>
       <c r="M24" s="118">
         <f t="shared" ca="1" si="34"/>
-        <v>60809</v>
+        <v>27134</v>
       </c>
       <c r="N24" s="118">
         <f t="shared" ca="1" si="34"/>
-        <v>2042</v>
+        <v>1590</v>
       </c>
       <c r="O24" s="118">
         <f t="shared" ca="1" si="34"/>
-        <v>3780</v>
+        <v>3378</v>
       </c>
       <c r="P24" s="118">
         <f t="shared" ca="1" si="34"/>
-        <v>263</v>
+        <v>3143</v>
       </c>
       <c r="Q24" s="118">
         <f t="shared" ca="1" si="34"/>
-        <v>51</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -24058,59 +24061,59 @@
       </c>
       <c r="D25" s="118">
         <f ca="1">D23-D24</f>
-        <v>1824655109</v>
+        <v>821661950</v>
       </c>
       <c r="E25" s="118">
         <f t="shared" ref="E25:Q25" ca="1" si="35">E23-E24</f>
-        <v>1358031399</v>
+        <v>688665490</v>
       </c>
       <c r="F25" s="118">
         <f t="shared" ca="1" si="35"/>
-        <v>2398025895</v>
+        <v>721632898</v>
       </c>
       <c r="G25" s="118">
         <f t="shared" ca="1" si="35"/>
-        <v>298736957</v>
+        <v>705570513</v>
       </c>
       <c r="H25" s="118">
         <f t="shared" ca="1" si="35"/>
-        <v>61867600</v>
+        <v>212484617</v>
       </c>
       <c r="I25" s="118">
         <f t="shared" ca="1" si="35"/>
-        <v>208781540</v>
+        <v>188519890</v>
       </c>
       <c r="J25" s="118">
         <f t="shared" ca="1" si="35"/>
-        <v>4029470</v>
+        <v>20249246</v>
       </c>
       <c r="K25" s="118">
         <f t="shared" ca="1" si="35"/>
-        <v>502930</v>
+        <v>244063</v>
       </c>
       <c r="L25" s="118">
         <f t="shared" ca="1" si="35"/>
-        <v>21215</v>
+        <v>128236</v>
       </c>
       <c r="M25" s="118">
         <f t="shared" ca="1" si="35"/>
-        <v>6997</v>
+        <v>19157</v>
       </c>
       <c r="N25" s="118">
         <f t="shared" ca="1" si="35"/>
-        <v>2994</v>
+        <v>2400</v>
       </c>
       <c r="O25" s="118">
         <f t="shared" ca="1" si="35"/>
-        <v>2573</v>
+        <v>1074</v>
       </c>
       <c r="P25" s="118">
         <f t="shared" ca="1" si="35"/>
-        <v>3083</v>
+        <v>2465</v>
       </c>
       <c r="Q25" s="118">
         <f t="shared" ca="1" si="35"/>
-        <v>2862</v>
+        <v>4096</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -24125,59 +24128,59 @@
       </c>
       <c r="D26" s="118">
         <f ca="1">INT(9900000000*RAND()+100000000)</f>
-        <v>3323752813</v>
+        <v>1164082783</v>
       </c>
       <c r="E26" s="118">
         <f t="shared" ref="E26:F26" ca="1" si="36">INT(9900000000*RAND()+100000000)</f>
-        <v>5821463061</v>
+        <v>3941316583</v>
       </c>
       <c r="F26" s="118">
         <f t="shared" ca="1" si="36"/>
-        <v>9714186314</v>
+        <v>6557998936</v>
       </c>
       <c r="G26" s="118">
         <f ca="1">INT(990000000*RAND()+10000000)</f>
-        <v>532331525</v>
+        <v>699179439</v>
       </c>
       <c r="H26" s="118">
         <f ca="1">INT(900000000*RAND()+10000000)</f>
-        <v>505436669</v>
+        <v>274888092</v>
       </c>
       <c r="I26" s="118">
         <f ca="1">INT(750000000*RAND()+10000000)</f>
-        <v>498766944</v>
+        <v>443087117</v>
       </c>
       <c r="J26" s="118">
         <f ca="1">INT(75000000*RAND()+1000000)</f>
-        <v>57785321</v>
+        <v>37969426</v>
       </c>
       <c r="K26" s="118">
         <f ca="1">INT(750000*RAND()+10000)</f>
-        <v>207206</v>
+        <v>100181</v>
       </c>
       <c r="L26" s="118">
         <f t="shared" ref="L26" ca="1" si="37">INT(750000*RAND()+10000)</f>
-        <v>634918</v>
+        <v>718938</v>
       </c>
       <c r="M26" s="118">
         <f ca="1">INT(75000*RAND()+1000)</f>
-        <v>55560</v>
+        <v>17961</v>
       </c>
       <c r="N26" s="118">
         <f ca="1">INT(7500*RAND()+100)</f>
-        <v>203</v>
+        <v>5697</v>
       </c>
       <c r="O26" s="118">
         <f t="shared" ref="O26:Q26" ca="1" si="38">INT(7500*RAND()+100)</f>
-        <v>2053</v>
+        <v>2397</v>
       </c>
       <c r="P26" s="118">
         <f t="shared" ca="1" si="38"/>
-        <v>2072</v>
+        <v>6931</v>
       </c>
       <c r="Q26" s="118">
         <f t="shared" ca="1" si="38"/>
-        <v>753</v>
+        <v>3734</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -24192,59 +24195,59 @@
       </c>
       <c r="D27" s="118">
         <f ca="1">INT(RAND()*(D26-2))</f>
-        <v>731971988</v>
+        <v>781102040</v>
       </c>
       <c r="E27" s="118">
         <f t="shared" ref="E27:Q27" ca="1" si="39">INT(RAND()*(E26-2))</f>
-        <v>4069588390</v>
+        <v>2976933113</v>
       </c>
       <c r="F27" s="118">
         <f t="shared" ca="1" si="39"/>
-        <v>9324159211</v>
+        <v>6333668584</v>
       </c>
       <c r="G27" s="118">
         <f t="shared" ca="1" si="39"/>
-        <v>114707791</v>
+        <v>199164965</v>
       </c>
       <c r="H27" s="118">
         <f t="shared" ca="1" si="39"/>
-        <v>481347846</v>
+        <v>21580569</v>
       </c>
       <c r="I27" s="118">
         <f t="shared" ca="1" si="39"/>
-        <v>352481904</v>
+        <v>283121298</v>
       </c>
       <c r="J27" s="118">
         <f t="shared" ca="1" si="39"/>
-        <v>17911742</v>
+        <v>20345191</v>
       </c>
       <c r="K27" s="118">
         <f t="shared" ca="1" si="39"/>
-        <v>202093</v>
+        <v>8730</v>
       </c>
       <c r="L27" s="118">
         <f t="shared" ca="1" si="39"/>
-        <v>163936</v>
+        <v>330978</v>
       </c>
       <c r="M27" s="118">
         <f t="shared" ca="1" si="39"/>
-        <v>20521</v>
+        <v>3427</v>
       </c>
       <c r="N27" s="118">
         <f t="shared" ca="1" si="39"/>
-        <v>18</v>
+        <v>444</v>
       </c>
       <c r="O27" s="118">
         <f t="shared" ca="1" si="39"/>
-        <v>139</v>
+        <v>422</v>
       </c>
       <c r="P27" s="118">
         <f t="shared" ca="1" si="39"/>
-        <v>282</v>
+        <v>5185</v>
       </c>
       <c r="Q27" s="118">
         <f t="shared" ca="1" si="39"/>
-        <v>600</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -24259,59 +24262,59 @@
       </c>
       <c r="D28" s="118">
         <f ca="1">D26-D27</f>
-        <v>2591780825</v>
+        <v>382980743</v>
       </c>
       <c r="E28" s="118">
         <f t="shared" ref="E28:Q28" ca="1" si="40">E26-E27</f>
-        <v>1751874671</v>
+        <v>964383470</v>
       </c>
       <c r="F28" s="118">
         <f t="shared" ca="1" si="40"/>
-        <v>390027103</v>
+        <v>224330352</v>
       </c>
       <c r="G28" s="118">
         <f t="shared" ca="1" si="40"/>
-        <v>417623734</v>
+        <v>500014474</v>
       </c>
       <c r="H28" s="118">
         <f t="shared" ca="1" si="40"/>
-        <v>24088823</v>
+        <v>253307523</v>
       </c>
       <c r="I28" s="118">
         <f t="shared" ca="1" si="40"/>
-        <v>146285040</v>
+        <v>159965819</v>
       </c>
       <c r="J28" s="118">
         <f t="shared" ca="1" si="40"/>
-        <v>39873579</v>
+        <v>17624235</v>
       </c>
       <c r="K28" s="118">
         <f t="shared" ca="1" si="40"/>
-        <v>5113</v>
+        <v>91451</v>
       </c>
       <c r="L28" s="118">
         <f t="shared" ca="1" si="40"/>
-        <v>470982</v>
+        <v>387960</v>
       </c>
       <c r="M28" s="118">
         <f t="shared" ca="1" si="40"/>
-        <v>35039</v>
+        <v>14534</v>
       </c>
       <c r="N28" s="118">
         <f t="shared" ca="1" si="40"/>
-        <v>185</v>
+        <v>5253</v>
       </c>
       <c r="O28" s="118">
         <f t="shared" ca="1" si="40"/>
-        <v>1914</v>
+        <v>1975</v>
       </c>
       <c r="P28" s="118">
         <f t="shared" ca="1" si="40"/>
-        <v>1790</v>
+        <v>1746</v>
       </c>
       <c r="Q28" s="118">
         <f t="shared" ca="1" si="40"/>
-        <v>153</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
@@ -24326,59 +24329,59 @@
       </c>
       <c r="D29" s="118">
         <f ca="1">INT(9900000000*RAND()+100000000)</f>
-        <v>7837977773</v>
+        <v>1189950390</v>
       </c>
       <c r="E29" s="118">
         <f t="shared" ref="E29:F29" ca="1" si="41">INT(9900000000*RAND()+100000000)</f>
-        <v>2882269240</v>
+        <v>3789897831</v>
       </c>
       <c r="F29" s="118">
         <f t="shared" ca="1" si="41"/>
-        <v>177390287</v>
+        <v>1993177980</v>
       </c>
       <c r="G29" s="118">
         <f ca="1">INT(990000000*RAND()+10000000)</f>
-        <v>920036262</v>
+        <v>621261101</v>
       </c>
       <c r="H29" s="118">
         <f ca="1">INT(900000000*RAND()+10000000)</f>
-        <v>292259883</v>
+        <v>152345717</v>
       </c>
       <c r="I29" s="118">
         <f ca="1">INT(750000000*RAND()+10000000)</f>
-        <v>161952820</v>
+        <v>583356125</v>
       </c>
       <c r="J29" s="118">
         <f ca="1">INT(75000000*RAND()+1000000)</f>
-        <v>65554010</v>
+        <v>34109179</v>
       </c>
       <c r="K29" s="118">
         <f ca="1">INT(750000*RAND()+10000)</f>
-        <v>466118</v>
+        <v>340273</v>
       </c>
       <c r="L29" s="118">
         <f t="shared" ref="L29" ca="1" si="42">INT(750000*RAND()+10000)</f>
-        <v>654625</v>
+        <v>205290</v>
       </c>
       <c r="M29" s="118">
         <f ca="1">INT(75000*RAND()+1000)</f>
-        <v>47003</v>
+        <v>30765</v>
       </c>
       <c r="N29" s="118">
         <f ca="1">INT(7500*RAND()+100)</f>
-        <v>4479</v>
+        <v>440</v>
       </c>
       <c r="O29" s="118">
         <f t="shared" ref="O29:Q29" ca="1" si="43">INT(7500*RAND()+100)</f>
-        <v>3968</v>
+        <v>4801</v>
       </c>
       <c r="P29" s="118">
         <f t="shared" ca="1" si="43"/>
-        <v>1102</v>
+        <v>5384</v>
       </c>
       <c r="Q29" s="118">
         <f t="shared" ca="1" si="43"/>
-        <v>2319</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
@@ -24393,59 +24396,59 @@
       </c>
       <c r="D30" s="118">
         <f ca="1">INT(RAND()*(D29-2))</f>
-        <v>63213325</v>
+        <v>583824117</v>
       </c>
       <c r="E30" s="118">
         <f t="shared" ref="E30:Q30" ca="1" si="44">INT(RAND()*(E29-2))</f>
-        <v>1738019167</v>
+        <v>3718078970</v>
       </c>
       <c r="F30" s="118">
         <f t="shared" ca="1" si="44"/>
-        <v>99459732</v>
+        <v>564693292</v>
       </c>
       <c r="G30" s="118">
         <f t="shared" ca="1" si="44"/>
-        <v>147895409</v>
+        <v>444064362</v>
       </c>
       <c r="H30" s="118">
         <f t="shared" ca="1" si="44"/>
-        <v>173379478</v>
+        <v>116171465</v>
       </c>
       <c r="I30" s="118">
         <f t="shared" ca="1" si="44"/>
-        <v>36744655</v>
+        <v>93317467</v>
       </c>
       <c r="J30" s="118">
         <f t="shared" ca="1" si="44"/>
-        <v>30103613</v>
+        <v>12257124</v>
       </c>
       <c r="K30" s="118">
         <f t="shared" ca="1" si="44"/>
-        <v>57664</v>
+        <v>310300</v>
       </c>
       <c r="L30" s="118">
         <f t="shared" ca="1" si="44"/>
-        <v>277229</v>
+        <v>139998</v>
       </c>
       <c r="M30" s="118">
         <f t="shared" ca="1" si="44"/>
-        <v>14139</v>
+        <v>14935</v>
       </c>
       <c r="N30" s="118">
         <f t="shared" ca="1" si="44"/>
-        <v>1015</v>
+        <v>110</v>
       </c>
       <c r="O30" s="118">
         <f t="shared" ca="1" si="44"/>
-        <v>2799</v>
+        <v>1398</v>
       </c>
       <c r="P30" s="118">
         <f t="shared" ca="1" si="44"/>
-        <v>152</v>
+        <v>2946</v>
       </c>
       <c r="Q30" s="118">
         <f t="shared" ca="1" si="44"/>
-        <v>892</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -24460,59 +24463,59 @@
       </c>
       <c r="D31" s="118">
         <f ca="1">D29-D30</f>
-        <v>7774764448</v>
+        <v>606126273</v>
       </c>
       <c r="E31" s="118">
         <f t="shared" ref="E31:Q31" ca="1" si="45">E29-E30</f>
-        <v>1144250073</v>
+        <v>71818861</v>
       </c>
       <c r="F31" s="118">
         <f t="shared" ca="1" si="45"/>
-        <v>77930555</v>
+        <v>1428484688</v>
       </c>
       <c r="G31" s="118">
         <f t="shared" ca="1" si="45"/>
-        <v>772140853</v>
+        <v>177196739</v>
       </c>
       <c r="H31" s="118">
         <f t="shared" ca="1" si="45"/>
-        <v>118880405</v>
+        <v>36174252</v>
       </c>
       <c r="I31" s="118">
         <f t="shared" ca="1" si="45"/>
-        <v>125208165</v>
+        <v>490038658</v>
       </c>
       <c r="J31" s="118">
         <f t="shared" ca="1" si="45"/>
-        <v>35450397</v>
+        <v>21852055</v>
       </c>
       <c r="K31" s="118">
         <f t="shared" ca="1" si="45"/>
-        <v>408454</v>
+        <v>29973</v>
       </c>
       <c r="L31" s="118">
         <f t="shared" ca="1" si="45"/>
-        <v>377396</v>
+        <v>65292</v>
       </c>
       <c r="M31" s="118">
         <f t="shared" ca="1" si="45"/>
-        <v>32864</v>
+        <v>15830</v>
       </c>
       <c r="N31" s="118">
         <f t="shared" ca="1" si="45"/>
-        <v>3464</v>
+        <v>330</v>
       </c>
       <c r="O31" s="118">
         <f t="shared" ca="1" si="45"/>
-        <v>1169</v>
+        <v>3403</v>
       </c>
       <c r="P31" s="118">
         <f t="shared" ca="1" si="45"/>
-        <v>950</v>
+        <v>2438</v>
       </c>
       <c r="Q31" s="118">
         <f t="shared" ca="1" si="45"/>
-        <v>1427</v>
+        <v>875</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -24527,59 +24530,59 @@
       </c>
       <c r="D32" s="117">
         <f ca="1">INT(9900000000*RAND()+100000000)</f>
-        <v>2152542062</v>
+        <v>8870645992</v>
       </c>
       <c r="E32" s="117">
         <f t="shared" ref="E32:F32" ca="1" si="46">INT(9900000000*RAND()+100000000)</f>
-        <v>1446253386</v>
+        <v>9038321366</v>
       </c>
       <c r="F32" s="117">
         <f t="shared" ca="1" si="46"/>
-        <v>1477523443</v>
+        <v>260894303</v>
       </c>
       <c r="G32" s="117">
         <f ca="1">INT(990000000*RAND()+10000000)</f>
-        <v>46276580</v>
+        <v>24816936</v>
       </c>
       <c r="H32" s="117">
         <f ca="1">INT(900000000*RAND()+10000000)</f>
-        <v>800629759</v>
+        <v>144451112</v>
       </c>
       <c r="I32" s="117">
         <f ca="1">INT(750000000*RAND()+10000000)</f>
-        <v>335289954</v>
+        <v>59340428</v>
       </c>
       <c r="J32" s="117">
         <f ca="1">INT(75000000*RAND()+1000000)</f>
-        <v>22318065</v>
+        <v>73866513</v>
       </c>
       <c r="K32" s="117">
         <f ca="1">INT(750000*RAND()+10000)</f>
-        <v>366912</v>
+        <v>68263</v>
       </c>
       <c r="L32" s="117">
         <f t="shared" ref="L32" ca="1" si="47">INT(750000*RAND()+10000)</f>
-        <v>74149</v>
+        <v>368131</v>
       </c>
       <c r="M32" s="117">
         <f ca="1">INT(75000*RAND()+1000)</f>
-        <v>18292</v>
+        <v>34473</v>
       </c>
       <c r="N32" s="117">
         <f ca="1">INT(7500*RAND()+100)</f>
-        <v>1885</v>
+        <v>6740</v>
       </c>
       <c r="O32" s="117">
         <f t="shared" ref="O32:Q32" ca="1" si="48">INT(7500*RAND()+100)</f>
-        <v>5689</v>
+        <v>1559</v>
       </c>
       <c r="P32" s="117">
         <f t="shared" ca="1" si="48"/>
-        <v>3362</v>
+        <v>1258</v>
       </c>
       <c r="Q32" s="117">
         <f t="shared" ca="1" si="48"/>
-        <v>2459</v>
+        <v>6281</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
@@ -24594,59 +24597,59 @@
       </c>
       <c r="D33" s="117">
         <f ca="1">INT(RAND()*(D32-2))</f>
-        <v>219717011</v>
+        <v>6474119809</v>
       </c>
       <c r="E33" s="117">
         <f t="shared" ref="E33:Q33" ca="1" si="49">INT(RAND()*(E32-2))</f>
-        <v>1118779569</v>
+        <v>6087218487</v>
       </c>
       <c r="F33" s="117">
         <f t="shared" ca="1" si="49"/>
-        <v>1110528857</v>
+        <v>255243637</v>
       </c>
       <c r="G33" s="117">
         <f t="shared" ca="1" si="49"/>
-        <v>21332330</v>
+        <v>21504911</v>
       </c>
       <c r="H33" s="117">
         <f t="shared" ca="1" si="49"/>
-        <v>100050992</v>
+        <v>68320829</v>
       </c>
       <c r="I33" s="117">
         <f t="shared" ca="1" si="49"/>
-        <v>249256951</v>
+        <v>58942747</v>
       </c>
       <c r="J33" s="117">
         <f t="shared" ca="1" si="49"/>
-        <v>11463209</v>
+        <v>5395964</v>
       </c>
       <c r="K33" s="117">
         <f t="shared" ca="1" si="49"/>
-        <v>127439</v>
+        <v>3021</v>
       </c>
       <c r="L33" s="117">
         <f t="shared" ca="1" si="49"/>
-        <v>9002</v>
+        <v>269629</v>
       </c>
       <c r="M33" s="117">
         <f t="shared" ca="1" si="49"/>
-        <v>5445</v>
+        <v>9703</v>
       </c>
       <c r="N33" s="117">
         <f t="shared" ca="1" si="49"/>
-        <v>726</v>
+        <v>4174</v>
       </c>
       <c r="O33" s="117">
         <f t="shared" ca="1" si="49"/>
-        <v>1905</v>
+        <v>114</v>
       </c>
       <c r="P33" s="117">
         <f t="shared" ca="1" si="49"/>
-        <v>3099</v>
+        <v>273</v>
       </c>
       <c r="Q33" s="117">
         <f t="shared" ca="1" si="49"/>
-        <v>399</v>
+        <v>5643</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
@@ -24661,59 +24664,59 @@
       </c>
       <c r="D34" s="117">
         <f ca="1">D32-D33</f>
-        <v>1932825051</v>
+        <v>2396526183</v>
       </c>
       <c r="E34" s="117">
         <f t="shared" ref="E34:Q34" ca="1" si="50">E32-E33</f>
-        <v>327473817</v>
+        <v>2951102879</v>
       </c>
       <c r="F34" s="117">
         <f t="shared" ca="1" si="50"/>
-        <v>366994586</v>
+        <v>5650666</v>
       </c>
       <c r="G34" s="117">
         <f t="shared" ca="1" si="50"/>
-        <v>24944250</v>
+        <v>3312025</v>
       </c>
       <c r="H34" s="117">
         <f t="shared" ca="1" si="50"/>
-        <v>700578767</v>
+        <v>76130283</v>
       </c>
       <c r="I34" s="117">
         <f t="shared" ca="1" si="50"/>
-        <v>86033003</v>
+        <v>397681</v>
       </c>
       <c r="J34" s="117">
         <f t="shared" ca="1" si="50"/>
-        <v>10854856</v>
+        <v>68470549</v>
       </c>
       <c r="K34" s="117">
         <f t="shared" ca="1" si="50"/>
-        <v>239473</v>
+        <v>65242</v>
       </c>
       <c r="L34" s="117">
         <f t="shared" ca="1" si="50"/>
-        <v>65147</v>
+        <v>98502</v>
       </c>
       <c r="M34" s="117">
         <f t="shared" ca="1" si="50"/>
-        <v>12847</v>
+        <v>24770</v>
       </c>
       <c r="N34" s="117">
         <f t="shared" ca="1" si="50"/>
-        <v>1159</v>
+        <v>2566</v>
       </c>
       <c r="O34" s="117">
         <f t="shared" ca="1" si="50"/>
-        <v>3784</v>
+        <v>1445</v>
       </c>
       <c r="P34" s="117">
         <f t="shared" ca="1" si="50"/>
-        <v>263</v>
+        <v>985</v>
       </c>
       <c r="Q34" s="117">
         <f t="shared" ca="1" si="50"/>
-        <v>2060</v>
+        <v>638</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
@@ -24728,15 +24731,15 @@
       </c>
       <c r="D35" s="117">
         <f ca="1">INT(9900000000*RAND()+100000000)</f>
-        <v>8341735721</v>
+        <v>5376819146</v>
       </c>
       <c r="E35" s="117">
         <f t="shared" ref="E35:F35" ca="1" si="51">INT(9900000000*RAND()+100000000)</f>
-        <v>7449379671</v>
+        <v>148851524</v>
       </c>
       <c r="F35" s="117">
         <f t="shared" ca="1" si="51"/>
-        <v>9589890776</v>
+        <v>2104917764</v>
       </c>
       <c r="G35" s="117"/>
       <c r="H35" s="117"/>
@@ -24762,15 +24765,15 @@
       </c>
       <c r="D36" s="117">
         <f ca="1">INT(RAND()*(D35-2))</f>
-        <v>1211813724</v>
+        <v>4339824205</v>
       </c>
       <c r="E36" s="117">
         <f t="shared" ref="E36:F36" ca="1" si="52">INT(RAND()*(E35-2))</f>
-        <v>5155779209</v>
+        <v>125008314</v>
       </c>
       <c r="F36" s="117">
         <f t="shared" ca="1" si="52"/>
-        <v>8480250742</v>
+        <v>265052477</v>
       </c>
       <c r="G36" s="117"/>
       <c r="H36" s="117"/>
@@ -24796,15 +24799,15 @@
       </c>
       <c r="D37" s="117">
         <f ca="1">D35-D36</f>
-        <v>7129921997</v>
+        <v>1036994941</v>
       </c>
       <c r="E37" s="117">
         <f t="shared" ref="E37:F37" ca="1" si="53">E35-E36</f>
-        <v>2293600462</v>
+        <v>23843210</v>
       </c>
       <c r="F37" s="117">
         <f t="shared" ca="1" si="53"/>
-        <v>1109640034</v>
+        <v>1839865287</v>
       </c>
       <c r="G37" s="117"/>
       <c r="H37" s="117"/>
@@ -24830,11 +24833,11 @@
       </c>
       <c r="D38" s="117">
         <f ca="1">INT(9900000000*RAND()+100000000)</f>
-        <v>846729733</v>
+        <v>2227008810</v>
       </c>
       <c r="E38" s="117">
         <f t="shared" ref="E38" ca="1" si="54">INT(9900000000*RAND()+100000000)</f>
-        <v>7785139371</v>
+        <v>8917330302</v>
       </c>
       <c r="F38" s="117"/>
       <c r="G38" s="117"/>
@@ -24861,11 +24864,11 @@
       </c>
       <c r="D39" s="117">
         <f ca="1">INT(RAND()*(D38-2))</f>
-        <v>796710435</v>
+        <v>1315385157</v>
       </c>
       <c r="E39" s="117">
         <f t="shared" ref="E39" ca="1" si="55">INT(RAND()*(E38-2))</f>
-        <v>5195891019</v>
+        <v>3738877531</v>
       </c>
       <c r="F39" s="117"/>
       <c r="G39" s="117"/>
@@ -24892,11 +24895,11 @@
       </c>
       <c r="D40" s="117">
         <f ca="1">D38-D39</f>
-        <v>50019298</v>
+        <v>911623653</v>
       </c>
       <c r="E40" s="117">
         <f t="shared" ref="E40" ca="1" si="56">E38-E39</f>
-        <v>2589248352</v>
+        <v>5178452771</v>
       </c>
       <c r="F40" s="117"/>
       <c r="G40" s="117"/>
@@ -24923,59 +24926,59 @@
       </c>
       <c r="D41" s="117">
         <f ca="1">INT(9900000000*RAND()+100000000)</f>
-        <v>3891206364</v>
+        <v>5119672167</v>
       </c>
       <c r="E41" s="117">
         <f t="shared" ref="E41:F41" ca="1" si="57">INT(9900000000*RAND()+100000000)</f>
-        <v>1031384588</v>
+        <v>9976727879</v>
       </c>
       <c r="F41" s="117">
         <f t="shared" ca="1" si="57"/>
-        <v>7984163064</v>
+        <v>8699077740</v>
       </c>
       <c r="G41" s="117">
         <f ca="1">INT(990000000*RAND()+10000000)</f>
-        <v>211320728</v>
+        <v>437290257</v>
       </c>
       <c r="H41" s="117">
         <f ca="1">INT(900000000*RAND()+10000000)</f>
-        <v>703967855</v>
+        <v>76236767</v>
       </c>
       <c r="I41" s="117">
         <f ca="1">INT(750000000*RAND()+10000000)</f>
-        <v>428304766</v>
+        <v>39140574</v>
       </c>
       <c r="J41" s="117">
         <f ca="1">INT(75000000*RAND()+1000000)</f>
-        <v>10047982</v>
+        <v>33065564</v>
       </c>
       <c r="K41" s="117">
         <f ca="1">INT(750000*RAND()+10000)</f>
-        <v>253359</v>
+        <v>191078</v>
       </c>
       <c r="L41" s="117">
         <f t="shared" ref="L41" ca="1" si="58">INT(750000*RAND()+10000)</f>
-        <v>675437</v>
+        <v>69312</v>
       </c>
       <c r="M41" s="117">
         <f ca="1">INT(75000*RAND()+1000)</f>
-        <v>62459</v>
+        <v>7869</v>
       </c>
       <c r="N41" s="117">
         <f ca="1">INT(7500*RAND()+100)</f>
-        <v>2244</v>
+        <v>6245</v>
       </c>
       <c r="O41" s="117">
         <f t="shared" ref="O41:Q41" ca="1" si="59">INT(7500*RAND()+100)</f>
-        <v>4008</v>
+        <v>7370</v>
       </c>
       <c r="P41" s="117">
         <f t="shared" ca="1" si="59"/>
-        <v>7296</v>
+        <v>5276</v>
       </c>
       <c r="Q41" s="117">
         <f t="shared" ca="1" si="59"/>
-        <v>3980</v>
+        <v>6022</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
@@ -24990,59 +24993,59 @@
       </c>
       <c r="D42" s="117">
         <f ca="1">INT(RAND()*(D41-2))</f>
-        <v>580287873</v>
+        <v>2204790024</v>
       </c>
       <c r="E42" s="117">
         <f t="shared" ref="E42:Q42" ca="1" si="60">INT(RAND()*(E41-2))</f>
-        <v>500681401</v>
+        <v>7880318158</v>
       </c>
       <c r="F42" s="117">
         <f t="shared" ca="1" si="60"/>
-        <v>6521328108</v>
+        <v>3938692868</v>
       </c>
       <c r="G42" s="117">
         <f t="shared" ca="1" si="60"/>
-        <v>9116414</v>
+        <v>178356923</v>
       </c>
       <c r="H42" s="117">
         <f t="shared" ca="1" si="60"/>
-        <v>435439244</v>
+        <v>51942372</v>
       </c>
       <c r="I42" s="117">
         <f t="shared" ca="1" si="60"/>
-        <v>352955651</v>
+        <v>21300910</v>
       </c>
       <c r="J42" s="117">
         <f t="shared" ca="1" si="60"/>
-        <v>4085473</v>
+        <v>3998363</v>
       </c>
       <c r="K42" s="117">
         <f t="shared" ca="1" si="60"/>
-        <v>103384</v>
+        <v>51375</v>
       </c>
       <c r="L42" s="117">
         <f t="shared" ca="1" si="60"/>
-        <v>275291</v>
+        <v>55020</v>
       </c>
       <c r="M42" s="117">
         <f t="shared" ca="1" si="60"/>
-        <v>59039</v>
+        <v>5022</v>
       </c>
       <c r="N42" s="117">
         <f t="shared" ca="1" si="60"/>
-        <v>2241</v>
+        <v>2506</v>
       </c>
       <c r="O42" s="117">
         <f t="shared" ca="1" si="60"/>
-        <v>2414</v>
+        <v>5917</v>
       </c>
       <c r="P42" s="117">
         <f t="shared" ca="1" si="60"/>
-        <v>3625</v>
+        <v>3412</v>
       </c>
       <c r="Q42" s="117">
         <f t="shared" ca="1" si="60"/>
-        <v>41</v>
+        <v>719</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
@@ -25057,59 +25060,59 @@
       </c>
       <c r="D43" s="117">
         <f ca="1">D41-D42</f>
-        <v>3310918491</v>
+        <v>2914882143</v>
       </c>
       <c r="E43" s="117">
         <f t="shared" ref="E43:Q43" ca="1" si="61">E41-E42</f>
-        <v>530703187</v>
+        <v>2096409721</v>
       </c>
       <c r="F43" s="117">
         <f t="shared" ca="1" si="61"/>
-        <v>1462834956</v>
+        <v>4760384872</v>
       </c>
       <c r="G43" s="117">
         <f t="shared" ca="1" si="61"/>
-        <v>202204314</v>
+        <v>258933334</v>
       </c>
       <c r="H43" s="117">
         <f t="shared" ca="1" si="61"/>
-        <v>268528611</v>
+        <v>24294395</v>
       </c>
       <c r="I43" s="117">
         <f t="shared" ca="1" si="61"/>
-        <v>75349115</v>
+        <v>17839664</v>
       </c>
       <c r="J43" s="117">
         <f t="shared" ca="1" si="61"/>
-        <v>5962509</v>
+        <v>29067201</v>
       </c>
       <c r="K43" s="117">
         <f t="shared" ca="1" si="61"/>
-        <v>149975</v>
+        <v>139703</v>
       </c>
       <c r="L43" s="117">
         <f t="shared" ca="1" si="61"/>
-        <v>400146</v>
+        <v>14292</v>
       </c>
       <c r="M43" s="117">
         <f t="shared" ca="1" si="61"/>
-        <v>3420</v>
+        <v>2847</v>
       </c>
       <c r="N43" s="117">
         <f t="shared" ca="1" si="61"/>
-        <v>3</v>
+        <v>3739</v>
       </c>
       <c r="O43" s="117">
         <f t="shared" ca="1" si="61"/>
-        <v>1594</v>
+        <v>1453</v>
       </c>
       <c r="P43" s="117">
         <f t="shared" ca="1" si="61"/>
-        <v>3671</v>
+        <v>1864</v>
       </c>
       <c r="Q43" s="117">
         <f t="shared" ca="1" si="61"/>
-        <v>3939</v>
+        <v>5303</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
@@ -25124,59 +25127,59 @@
       </c>
       <c r="D44" s="117">
         <f ca="1">INT(9900000000*RAND()+100000000)</f>
-        <v>2348224861</v>
+        <v>1596390067</v>
       </c>
       <c r="E44" s="117">
         <f t="shared" ref="E44:F44" ca="1" si="62">INT(9900000000*RAND()+100000000)</f>
-        <v>5099339354</v>
+        <v>5110867383</v>
       </c>
       <c r="F44" s="117">
         <f t="shared" ca="1" si="62"/>
-        <v>5417986938</v>
+        <v>5833448649</v>
       </c>
       <c r="G44" s="117">
         <f ca="1">INT(990000000*RAND()+10000000)</f>
-        <v>849135440</v>
+        <v>485926517</v>
       </c>
       <c r="H44" s="117">
         <f ca="1">INT(900000000*RAND()+10000000)</f>
-        <v>16628378</v>
+        <v>150327211</v>
       </c>
       <c r="I44" s="117">
         <f ca="1">INT(750000000*RAND()+10000000)</f>
-        <v>289509531</v>
+        <v>44129284</v>
       </c>
       <c r="J44" s="117">
         <f ca="1">INT(75000000*RAND()+1000000)</f>
-        <v>43298121</v>
+        <v>72242804</v>
       </c>
       <c r="K44" s="117">
         <f ca="1">INT(750000*RAND()+10000)</f>
-        <v>604097</v>
+        <v>223294</v>
       </c>
       <c r="L44" s="117">
         <f t="shared" ref="L44" ca="1" si="63">INT(750000*RAND()+10000)</f>
-        <v>437234</v>
+        <v>109149</v>
       </c>
       <c r="M44" s="117">
         <f ca="1">INT(75000*RAND()+1000)</f>
-        <v>70845</v>
+        <v>57890</v>
       </c>
       <c r="N44" s="117">
         <f ca="1">INT(7500*RAND()+100)</f>
-        <v>4402</v>
+        <v>6617</v>
       </c>
       <c r="O44" s="117">
         <f t="shared" ref="O44:Q44" ca="1" si="64">INT(7500*RAND()+100)</f>
-        <v>3396</v>
+        <v>6146</v>
       </c>
       <c r="P44" s="117">
         <f t="shared" ca="1" si="64"/>
-        <v>6159</v>
+        <v>4739</v>
       </c>
       <c r="Q44" s="117">
         <f t="shared" ca="1" si="64"/>
-        <v>1770</v>
+        <v>7166</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
@@ -25191,59 +25194,59 @@
       </c>
       <c r="D45" s="117">
         <f ca="1">INT(RAND()*(D44-2))</f>
-        <v>1626809411</v>
+        <v>273881409</v>
       </c>
       <c r="E45" s="117">
         <f t="shared" ref="E45:Q45" ca="1" si="65">INT(RAND()*(E44-2))</f>
-        <v>2300591144</v>
+        <v>2374483327</v>
       </c>
       <c r="F45" s="117">
         <f t="shared" ca="1" si="65"/>
-        <v>3349820708</v>
+        <v>30038904</v>
       </c>
       <c r="G45" s="117">
         <f t="shared" ca="1" si="65"/>
-        <v>390637326</v>
+        <v>230986062</v>
       </c>
       <c r="H45" s="117">
         <f t="shared" ca="1" si="65"/>
-        <v>7538719</v>
+        <v>106828396</v>
       </c>
       <c r="I45" s="117">
         <f t="shared" ca="1" si="65"/>
-        <v>285663487</v>
+        <v>42725957</v>
       </c>
       <c r="J45" s="117">
         <f t="shared" ca="1" si="65"/>
-        <v>14502775</v>
+        <v>1547963</v>
       </c>
       <c r="K45" s="117">
         <f t="shared" ca="1" si="65"/>
-        <v>388199</v>
+        <v>81090</v>
       </c>
       <c r="L45" s="117">
         <f t="shared" ca="1" si="65"/>
-        <v>24274</v>
+        <v>95957</v>
       </c>
       <c r="M45" s="117">
         <f t="shared" ca="1" si="65"/>
-        <v>42705</v>
+        <v>22449</v>
       </c>
       <c r="N45" s="117">
         <f t="shared" ca="1" si="65"/>
-        <v>2028</v>
+        <v>369</v>
       </c>
       <c r="O45" s="117">
         <f t="shared" ca="1" si="65"/>
-        <v>2730</v>
+        <v>1829</v>
       </c>
       <c r="P45" s="117">
         <f t="shared" ca="1" si="65"/>
-        <v>611</v>
+        <v>2850</v>
       </c>
       <c r="Q45" s="117">
         <f t="shared" ca="1" si="65"/>
-        <v>1571</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
@@ -25258,59 +25261,59 @@
       </c>
       <c r="D46" s="117">
         <f ca="1">D44-D45</f>
-        <v>721415450</v>
+        <v>1322508658</v>
       </c>
       <c r="E46" s="117">
         <f t="shared" ref="E46:Q46" ca="1" si="66">E44-E45</f>
-        <v>2798748210</v>
+        <v>2736384056</v>
       </c>
       <c r="F46" s="117">
         <f t="shared" ca="1" si="66"/>
-        <v>2068166230</v>
+        <v>5803409745</v>
       </c>
       <c r="G46" s="117">
         <f t="shared" ca="1" si="66"/>
-        <v>458498114</v>
+        <v>254940455</v>
       </c>
       <c r="H46" s="117">
         <f t="shared" ca="1" si="66"/>
-        <v>9089659</v>
+        <v>43498815</v>
       </c>
       <c r="I46" s="117">
         <f t="shared" ca="1" si="66"/>
-        <v>3846044</v>
+        <v>1403327</v>
       </c>
       <c r="J46" s="117">
         <f t="shared" ca="1" si="66"/>
-        <v>28795346</v>
+        <v>70694841</v>
       </c>
       <c r="K46" s="117">
         <f t="shared" ca="1" si="66"/>
-        <v>215898</v>
+        <v>142204</v>
       </c>
       <c r="L46" s="117">
         <f t="shared" ca="1" si="66"/>
-        <v>412960</v>
+        <v>13192</v>
       </c>
       <c r="M46" s="117">
         <f t="shared" ca="1" si="66"/>
-        <v>28140</v>
+        <v>35441</v>
       </c>
       <c r="N46" s="117">
         <f t="shared" ca="1" si="66"/>
-        <v>2374</v>
+        <v>6248</v>
       </c>
       <c r="O46" s="117">
         <f t="shared" ca="1" si="66"/>
-        <v>666</v>
+        <v>4317</v>
       </c>
       <c r="P46" s="117">
         <f t="shared" ca="1" si="66"/>
-        <v>5548</v>
+        <v>1889</v>
       </c>
       <c r="Q46" s="117">
         <f t="shared" ca="1" si="66"/>
-        <v>199</v>
+        <v>5649</v>
       </c>
     </row>
   </sheetData>

--- a/inst/Example/Mouse_Experiment_Example.xlsx
+++ b/inst/Example/Mouse_Experiment_Example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtcoll06\Box\Lab Docs\R projects\mouseR\inst\Example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B73AE9-220F-4B0C-AE95-13CDF4327843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C7E1A8-D184-4636-9B7F-198ACC36754E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mouse Weights" sheetId="1" r:id="rId1"/>
@@ -953,7 +953,7 @@
   <dimension ref="A1:U39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3005,7 +3005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E1051"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -20683,7 +20683,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -22638,8 +22640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F38" sqref="F38:Q40"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22713,59 +22715,45 @@
         <v>40</v>
       </c>
       <c r="D2" s="114">
-        <f ca="1">INT(9900000000*RAND()+100000000)</f>
         <v>8308675210</v>
       </c>
       <c r="E2" s="114">
-        <f t="shared" ref="E2:F2" ca="1" si="0">INT(9900000000*RAND()+100000000)</f>
         <v>8550848858</v>
       </c>
       <c r="F2" s="114">
-        <f t="shared" ca="1" si="0"/>
         <v>2679540019</v>
       </c>
       <c r="G2" s="114">
-        <f ca="1">INT(990000000*RAND()+10000000)</f>
         <v>126459606</v>
       </c>
       <c r="H2" s="114">
-        <f ca="1">INT(900000000*RAND()+10000000)</f>
         <v>38504541</v>
       </c>
       <c r="I2" s="114">
-        <f ca="1">INT(750000000*RAND()+10000000)</f>
         <v>450642720</v>
       </c>
       <c r="J2" s="114">
-        <f ca="1">INT(75000000*RAND()+1000000)</f>
         <v>12649435</v>
       </c>
       <c r="K2" s="114">
-        <f ca="1">INT(750000*RAND()+10000)</f>
         <v>671770</v>
       </c>
       <c r="L2" s="114">
-        <f t="shared" ref="L2" ca="1" si="1">INT(750000*RAND()+10000)</f>
         <v>503126</v>
       </c>
       <c r="M2" s="114">
-        <f ca="1">INT(75000*RAND()+1000)</f>
         <v>10287</v>
       </c>
       <c r="N2" s="114">
-        <f ca="1">INT(7500*RAND()+100)</f>
         <v>1355</v>
       </c>
       <c r="O2" s="114">
-        <f t="shared" ref="O2:Q2" ca="1" si="2">INT(7500*RAND()+100)</f>
         <v>5303</v>
       </c>
       <c r="P2" s="114">
-        <f t="shared" ca="1" si="2"/>
         <v>6049</v>
       </c>
       <c r="Q2" s="114">
-        <f t="shared" ca="1" si="2"/>
         <v>781</v>
       </c>
     </row>
@@ -22780,59 +22768,45 @@
         <v>41</v>
       </c>
       <c r="D3" s="114">
-        <f ca="1">INT(RAND()*(D2-2))</f>
         <v>7274912955</v>
       </c>
       <c r="E3" s="114">
-        <f t="shared" ref="E3:Q3" ca="1" si="3">INT(RAND()*(E2-2))</f>
         <v>47278949</v>
       </c>
       <c r="F3" s="114">
-        <f t="shared" ca="1" si="3"/>
         <v>1581884113</v>
       </c>
       <c r="G3" s="114">
-        <f t="shared" ca="1" si="3"/>
         <v>23359481</v>
       </c>
       <c r="H3" s="114">
-        <f t="shared" ca="1" si="3"/>
         <v>38208405</v>
       </c>
       <c r="I3" s="114">
-        <f t="shared" ca="1" si="3"/>
         <v>240738389</v>
       </c>
       <c r="J3" s="114">
-        <f t="shared" ca="1" si="3"/>
         <v>5275064</v>
       </c>
       <c r="K3" s="114">
-        <f t="shared" ca="1" si="3"/>
         <v>335910</v>
       </c>
       <c r="L3" s="114">
-        <f t="shared" ca="1" si="3"/>
         <v>345034</v>
       </c>
       <c r="M3" s="114">
-        <f t="shared" ca="1" si="3"/>
         <v>7979</v>
       </c>
       <c r="N3" s="114">
-        <f t="shared" ca="1" si="3"/>
         <v>1079</v>
       </c>
       <c r="O3" s="114">
-        <f t="shared" ca="1" si="3"/>
         <v>225</v>
       </c>
       <c r="P3" s="114">
-        <f t="shared" ca="1" si="3"/>
         <v>3104</v>
       </c>
       <c r="Q3" s="114">
-        <f t="shared" ca="1" si="3"/>
         <v>361</v>
       </c>
       <c r="S3" s="115"/>
@@ -22850,59 +22824,45 @@
         <v>42</v>
       </c>
       <c r="D4" s="114">
-        <f ca="1">D2-D3</f>
         <v>1033762255</v>
       </c>
       <c r="E4" s="114">
-        <f t="shared" ref="E4:Q4" ca="1" si="4">E2-E3</f>
         <v>8503569909</v>
       </c>
       <c r="F4" s="114">
-        <f t="shared" ca="1" si="4"/>
         <v>1097655906</v>
       </c>
       <c r="G4" s="114">
-        <f t="shared" ca="1" si="4"/>
         <v>103100125</v>
       </c>
       <c r="H4" s="114">
-        <f t="shared" ca="1" si="4"/>
         <v>296136</v>
       </c>
       <c r="I4" s="114">
-        <f t="shared" ca="1" si="4"/>
         <v>209904331</v>
       </c>
       <c r="J4" s="114">
-        <f t="shared" ca="1" si="4"/>
         <v>7374371</v>
       </c>
       <c r="K4" s="114">
-        <f t="shared" ca="1" si="4"/>
         <v>335860</v>
       </c>
       <c r="L4" s="114">
-        <f t="shared" ca="1" si="4"/>
         <v>158092</v>
       </c>
       <c r="M4" s="114">
-        <f t="shared" ca="1" si="4"/>
         <v>2308</v>
       </c>
       <c r="N4" s="114">
-        <f t="shared" ca="1" si="4"/>
         <v>276</v>
       </c>
       <c r="O4" s="114">
-        <f t="shared" ca="1" si="4"/>
         <v>5078</v>
       </c>
       <c r="P4" s="114">
-        <f t="shared" ca="1" si="4"/>
         <v>2945</v>
       </c>
       <c r="Q4" s="114">
-        <f t="shared" ca="1" si="4"/>
         <v>420</v>
       </c>
       <c r="S4" s="116"/>
@@ -22920,59 +22880,45 @@
         <v>40</v>
       </c>
       <c r="D5" s="114">
-        <f ca="1">INT(9900000000*RAND()+100000000)</f>
         <v>3038538496</v>
       </c>
       <c r="E5" s="114">
-        <f t="shared" ref="E5:F5" ca="1" si="5">INT(9900000000*RAND()+100000000)</f>
         <v>2239828092</v>
       </c>
       <c r="F5" s="114">
-        <f t="shared" ca="1" si="5"/>
         <v>1226542531</v>
       </c>
       <c r="G5" s="114">
-        <f ca="1">INT(990000000*RAND()+10000000)</f>
         <v>389099305</v>
       </c>
       <c r="H5" s="114">
-        <f ca="1">INT(900000000*RAND()+10000000)</f>
         <v>411030547</v>
       </c>
       <c r="I5" s="114">
-        <f ca="1">INT(750000000*RAND()+10000000)</f>
         <v>317626321</v>
       </c>
       <c r="J5" s="114">
-        <f ca="1">INT(75000000*RAND()+1000000)</f>
         <v>69654484</v>
       </c>
       <c r="K5" s="114">
-        <f ca="1">INT(750000*RAND()+10000)</f>
         <v>645703</v>
       </c>
       <c r="L5" s="114">
-        <f t="shared" ref="L5" ca="1" si="6">INT(750000*RAND()+10000)</f>
         <v>88327</v>
       </c>
       <c r="M5" s="114">
-        <f ca="1">INT(75000*RAND()+1000)</f>
         <v>49209</v>
       </c>
       <c r="N5" s="114">
-        <f ca="1">INT(7500*RAND()+100)</f>
         <v>1745</v>
       </c>
       <c r="O5" s="114">
-        <f t="shared" ref="O5:Q5" ca="1" si="7">INT(7500*RAND()+100)</f>
         <v>237</v>
       </c>
       <c r="P5" s="114">
-        <f t="shared" ca="1" si="7"/>
         <v>2742</v>
       </c>
       <c r="Q5" s="114">
-        <f t="shared" ca="1" si="7"/>
         <v>6959</v>
       </c>
       <c r="S5" s="116"/>
@@ -22988,59 +22934,45 @@
         <v>41</v>
       </c>
       <c r="D6" s="114">
-        <f ca="1">INT(RAND()*(D5-2))</f>
         <v>1118204805</v>
       </c>
       <c r="E6" s="114">
-        <f t="shared" ref="E6:Q6" ca="1" si="8">INT(RAND()*(E5-2))</f>
         <v>886728026</v>
       </c>
       <c r="F6" s="114">
-        <f t="shared" ca="1" si="8"/>
         <v>416635557</v>
       </c>
       <c r="G6" s="114">
-        <f t="shared" ca="1" si="8"/>
         <v>184902339</v>
       </c>
       <c r="H6" s="114">
-        <f t="shared" ca="1" si="8"/>
         <v>248881323</v>
       </c>
       <c r="I6" s="114">
-        <f t="shared" ca="1" si="8"/>
         <v>165718853</v>
       </c>
       <c r="J6" s="114">
-        <f t="shared" ca="1" si="8"/>
         <v>6245971</v>
       </c>
       <c r="K6" s="114">
-        <f t="shared" ca="1" si="8"/>
         <v>39963</v>
       </c>
       <c r="L6" s="114">
-        <f t="shared" ca="1" si="8"/>
         <v>84762</v>
       </c>
       <c r="M6" s="114">
-        <f t="shared" ca="1" si="8"/>
         <v>3425</v>
       </c>
       <c r="N6" s="114">
-        <f t="shared" ca="1" si="8"/>
         <v>924</v>
       </c>
       <c r="O6" s="114">
-        <f t="shared" ca="1" si="8"/>
         <v>29</v>
       </c>
       <c r="P6" s="114">
-        <f t="shared" ca="1" si="8"/>
         <v>194</v>
       </c>
       <c r="Q6" s="114">
-        <f t="shared" ca="1" si="8"/>
         <v>803</v>
       </c>
       <c r="S6" s="116"/>
@@ -23056,59 +22988,45 @@
         <v>42</v>
       </c>
       <c r="D7" s="114">
-        <f ca="1">D5-D6</f>
         <v>1920333691</v>
       </c>
       <c r="E7" s="114">
-        <f t="shared" ref="E7:Q7" ca="1" si="9">E5-E6</f>
         <v>1353100066</v>
       </c>
       <c r="F7" s="114">
-        <f t="shared" ca="1" si="9"/>
         <v>809906974</v>
       </c>
       <c r="G7" s="114">
-        <f t="shared" ca="1" si="9"/>
         <v>204196966</v>
       </c>
       <c r="H7" s="114">
-        <f t="shared" ca="1" si="9"/>
         <v>162149224</v>
       </c>
       <c r="I7" s="114">
-        <f t="shared" ca="1" si="9"/>
         <v>151907468</v>
       </c>
       <c r="J7" s="114">
-        <f t="shared" ca="1" si="9"/>
         <v>63408513</v>
       </c>
       <c r="K7" s="114">
-        <f t="shared" ca="1" si="9"/>
         <v>605740</v>
       </c>
       <c r="L7" s="114">
-        <f t="shared" ca="1" si="9"/>
         <v>3565</v>
       </c>
       <c r="M7" s="114">
-        <f t="shared" ca="1" si="9"/>
         <v>45784</v>
       </c>
       <c r="N7" s="114">
-        <f t="shared" ca="1" si="9"/>
         <v>821</v>
       </c>
       <c r="O7" s="114">
-        <f t="shared" ca="1" si="9"/>
         <v>208</v>
       </c>
       <c r="P7" s="114">
-        <f t="shared" ca="1" si="9"/>
         <v>2548</v>
       </c>
       <c r="Q7" s="114">
-        <f t="shared" ca="1" si="9"/>
         <v>6156</v>
       </c>
       <c r="S7" s="116"/>
@@ -23124,15 +23042,12 @@
         <v>40</v>
       </c>
       <c r="D8" s="114">
-        <f ca="1">INT(9900000000*RAND()+100000000)</f>
         <v>5859902088</v>
       </c>
       <c r="E8" s="114">
-        <f t="shared" ref="E8:F8" ca="1" si="10">INT(9900000000*RAND()+100000000)</f>
         <v>1991671510</v>
       </c>
       <c r="F8" s="114">
-        <f t="shared" ca="1" si="10"/>
         <v>4910566674</v>
       </c>
       <c r="G8" s="114"/>
@@ -23159,15 +23074,12 @@
         <v>41</v>
       </c>
       <c r="D9" s="114">
-        <f ca="1">INT(RAND()*(D8-2))</f>
         <v>2409781132</v>
       </c>
       <c r="E9" s="114">
-        <f t="shared" ref="E9:F9" ca="1" si="11">INT(RAND()*(E8-2))</f>
         <v>581144042</v>
       </c>
       <c r="F9" s="114">
-        <f t="shared" ca="1" si="11"/>
         <v>2809781851</v>
       </c>
       <c r="G9" s="114"/>
@@ -23194,15 +23106,12 @@
         <v>42</v>
       </c>
       <c r="D10" s="114">
-        <f ca="1">D8-D9</f>
         <v>3450120956</v>
       </c>
       <c r="E10" s="114">
-        <f t="shared" ref="E10:F10" ca="1" si="12">E8-E9</f>
         <v>1410527468</v>
       </c>
       <c r="F10" s="114">
-        <f t="shared" ca="1" si="12"/>
         <v>2100784823</v>
       </c>
       <c r="G10" s="114"/>
@@ -23229,59 +23138,45 @@
         <v>40</v>
       </c>
       <c r="D11" s="114">
-        <f ca="1">INT(9900000000*RAND()+100000000)</f>
         <v>6188843567</v>
       </c>
       <c r="E11" s="114">
-        <f t="shared" ref="E11:F11" ca="1" si="13">INT(9900000000*RAND()+100000000)</f>
         <v>2436361049</v>
       </c>
       <c r="F11" s="114">
-        <f t="shared" ca="1" si="13"/>
         <v>6380988475</v>
       </c>
       <c r="G11" s="114">
-        <f ca="1">INT(990000000*RAND()+10000000)</f>
         <v>202614001</v>
       </c>
       <c r="H11" s="114">
-        <f ca="1">INT(900000000*RAND()+10000000)</f>
         <v>242716403</v>
       </c>
       <c r="I11" s="114">
-        <f ca="1">INT(750000000*RAND()+10000000)</f>
         <v>524114347</v>
       </c>
       <c r="J11" s="114">
-        <f ca="1">INT(75000000*RAND()+1000000)</f>
         <v>12733894</v>
       </c>
       <c r="K11" s="114">
-        <f ca="1">INT(750000*RAND()+10000)</f>
         <v>644515</v>
       </c>
       <c r="L11" s="114">
-        <f t="shared" ref="L11" ca="1" si="14">INT(750000*RAND()+10000)</f>
         <v>689742</v>
       </c>
       <c r="M11" s="114">
-        <f ca="1">INT(75000*RAND()+1000)</f>
         <v>58676</v>
       </c>
       <c r="N11" s="114">
-        <f ca="1">INT(7500*RAND()+100)</f>
         <v>6173</v>
       </c>
       <c r="O11" s="114">
-        <f t="shared" ref="O11:Q11" ca="1" si="15">INT(7500*RAND()+100)</f>
         <v>1173</v>
       </c>
       <c r="P11" s="114">
-        <f t="shared" ca="1" si="15"/>
         <v>1764</v>
       </c>
       <c r="Q11" s="114">
-        <f t="shared" ca="1" si="15"/>
         <v>1951</v>
       </c>
       <c r="S11" s="116"/>
@@ -23297,59 +23192,45 @@
         <v>41</v>
       </c>
       <c r="D12" s="114">
-        <f ca="1">INT(RAND()*(D11-2))</f>
         <v>5840613100</v>
       </c>
       <c r="E12" s="114">
-        <f t="shared" ref="E12:Q12" ca="1" si="16">INT(RAND()*(E11-2))</f>
         <v>2420993843</v>
       </c>
       <c r="F12" s="114">
-        <f t="shared" ca="1" si="16"/>
         <v>30993343</v>
       </c>
       <c r="G12" s="114">
-        <f t="shared" ca="1" si="16"/>
         <v>196080655</v>
       </c>
       <c r="H12" s="114">
-        <f t="shared" ca="1" si="16"/>
         <v>204223420</v>
       </c>
       <c r="I12" s="114">
-        <f t="shared" ca="1" si="16"/>
         <v>357474703</v>
       </c>
       <c r="J12" s="114">
-        <f t="shared" ca="1" si="16"/>
         <v>368639</v>
       </c>
       <c r="K12" s="114">
-        <f t="shared" ca="1" si="16"/>
         <v>467918</v>
       </c>
       <c r="L12" s="114">
-        <f t="shared" ca="1" si="16"/>
         <v>258432</v>
       </c>
       <c r="M12" s="114">
-        <f t="shared" ca="1" si="16"/>
         <v>46252</v>
       </c>
       <c r="N12" s="114">
-        <f t="shared" ca="1" si="16"/>
         <v>635</v>
       </c>
       <c r="O12" s="114">
-        <f t="shared" ca="1" si="16"/>
         <v>112</v>
       </c>
       <c r="P12" s="114">
-        <f t="shared" ca="1" si="16"/>
         <v>799</v>
       </c>
       <c r="Q12" s="114">
-        <f t="shared" ca="1" si="16"/>
         <v>15</v>
       </c>
     </row>
@@ -23364,59 +23245,45 @@
         <v>42</v>
       </c>
       <c r="D13" s="114">
-        <f ca="1">D11-D12</f>
         <v>348230467</v>
       </c>
       <c r="E13" s="114">
-        <f t="shared" ref="E13:Q13" ca="1" si="17">E11-E12</f>
         <v>15367206</v>
       </c>
       <c r="F13" s="114">
-        <f t="shared" ca="1" si="17"/>
         <v>6349995132</v>
       </c>
       <c r="G13" s="114">
-        <f t="shared" ca="1" si="17"/>
         <v>6533346</v>
       </c>
       <c r="H13" s="114">
-        <f t="shared" ca="1" si="17"/>
         <v>38492983</v>
       </c>
       <c r="I13" s="114">
-        <f t="shared" ca="1" si="17"/>
         <v>166639644</v>
       </c>
       <c r="J13" s="114">
-        <f t="shared" ca="1" si="17"/>
         <v>12365255</v>
       </c>
       <c r="K13" s="114">
-        <f t="shared" ca="1" si="17"/>
         <v>176597</v>
       </c>
       <c r="L13" s="114">
-        <f t="shared" ca="1" si="17"/>
         <v>431310</v>
       </c>
       <c r="M13" s="114">
-        <f t="shared" ca="1" si="17"/>
         <v>12424</v>
       </c>
       <c r="N13" s="114">
-        <f t="shared" ca="1" si="17"/>
         <v>5538</v>
       </c>
       <c r="O13" s="114">
-        <f t="shared" ca="1" si="17"/>
         <v>1061</v>
       </c>
       <c r="P13" s="114">
-        <f t="shared" ca="1" si="17"/>
         <v>965</v>
       </c>
       <c r="Q13" s="114">
-        <f t="shared" ca="1" si="17"/>
         <v>1936</v>
       </c>
     </row>
@@ -23431,59 +23298,45 @@
         <v>40</v>
       </c>
       <c r="D14" s="114">
-        <f ca="1">INT(9900000000*RAND()+100000000)</f>
         <v>8453085524</v>
       </c>
       <c r="E14" s="114">
-        <f t="shared" ref="E14:F14" ca="1" si="18">INT(9900000000*RAND()+100000000)</f>
         <v>5593842630</v>
       </c>
       <c r="F14" s="114">
-        <f t="shared" ca="1" si="18"/>
         <v>9798358464</v>
       </c>
       <c r="G14" s="114">
-        <f ca="1">INT(990000000*RAND()+10000000)</f>
         <v>484284528</v>
       </c>
       <c r="H14" s="114">
-        <f ca="1">INT(900000000*RAND()+10000000)</f>
         <v>676911243</v>
       </c>
       <c r="I14" s="114">
-        <f ca="1">INT(750000000*RAND()+10000000)</f>
         <v>472860470</v>
       </c>
       <c r="J14" s="114">
-        <f ca="1">INT(75000000*RAND()+1000000)</f>
         <v>66742808</v>
       </c>
       <c r="K14" s="114">
-        <f ca="1">INT(750000*RAND()+10000)</f>
         <v>536775</v>
       </c>
       <c r="L14" s="114">
-        <f t="shared" ref="L14" ca="1" si="19">INT(750000*RAND()+10000)</f>
         <v>295867</v>
       </c>
       <c r="M14" s="114">
-        <f ca="1">INT(75000*RAND()+1000)</f>
         <v>31247</v>
       </c>
       <c r="N14" s="114">
-        <f ca="1">INT(7500*RAND()+100)</f>
         <v>1716</v>
       </c>
       <c r="O14" s="114">
-        <f t="shared" ref="O14:Q14" ca="1" si="20">INT(7500*RAND()+100)</f>
         <v>2372</v>
       </c>
       <c r="P14" s="114">
-        <f t="shared" ca="1" si="20"/>
         <v>6282</v>
       </c>
       <c r="Q14" s="114">
-        <f t="shared" ca="1" si="20"/>
         <v>760</v>
       </c>
     </row>
@@ -23498,59 +23351,45 @@
         <v>41</v>
       </c>
       <c r="D15" s="114">
-        <f ca="1">INT(RAND()*(D14-2))</f>
         <v>2143978592</v>
       </c>
       <c r="E15" s="114">
-        <f t="shared" ref="E15:Q15" ca="1" si="21">INT(RAND()*(E14-2))</f>
         <v>5073896297</v>
       </c>
       <c r="F15" s="114">
-        <f t="shared" ca="1" si="21"/>
         <v>2900086606</v>
       </c>
       <c r="G15" s="114">
-        <f t="shared" ca="1" si="21"/>
         <v>418884104</v>
       </c>
       <c r="H15" s="114">
-        <f t="shared" ca="1" si="21"/>
         <v>68298530</v>
       </c>
       <c r="I15" s="114">
-        <f t="shared" ca="1" si="21"/>
         <v>23479203</v>
       </c>
       <c r="J15" s="114">
-        <f t="shared" ca="1" si="21"/>
         <v>6423341</v>
       </c>
       <c r="K15" s="114">
-        <f t="shared" ca="1" si="21"/>
         <v>224328</v>
       </c>
       <c r="L15" s="114">
-        <f t="shared" ca="1" si="21"/>
         <v>169780</v>
       </c>
       <c r="M15" s="114">
-        <f t="shared" ca="1" si="21"/>
         <v>10428</v>
       </c>
       <c r="N15" s="114">
-        <f t="shared" ca="1" si="21"/>
         <v>914</v>
       </c>
       <c r="O15" s="114">
-        <f t="shared" ca="1" si="21"/>
         <v>833</v>
       </c>
       <c r="P15" s="114">
-        <f t="shared" ca="1" si="21"/>
         <v>853</v>
       </c>
       <c r="Q15" s="114">
-        <f t="shared" ca="1" si="21"/>
         <v>249</v>
       </c>
     </row>
@@ -23565,59 +23404,45 @@
         <v>42</v>
       </c>
       <c r="D16" s="114">
-        <f ca="1">D14-D15</f>
         <v>6309106932</v>
       </c>
       <c r="E16" s="114">
-        <f t="shared" ref="E16:Q16" ca="1" si="22">E14-E15</f>
         <v>519946333</v>
       </c>
       <c r="F16" s="114">
-        <f t="shared" ca="1" si="22"/>
         <v>6898271858</v>
       </c>
       <c r="G16" s="114">
-        <f t="shared" ca="1" si="22"/>
         <v>65400424</v>
       </c>
       <c r="H16" s="114">
-        <f t="shared" ca="1" si="22"/>
         <v>608612713</v>
       </c>
       <c r="I16" s="114">
-        <f t="shared" ca="1" si="22"/>
         <v>449381267</v>
       </c>
       <c r="J16" s="114">
-        <f t="shared" ca="1" si="22"/>
         <v>60319467</v>
       </c>
       <c r="K16" s="114">
-        <f t="shared" ca="1" si="22"/>
         <v>312447</v>
       </c>
       <c r="L16" s="114">
-        <f t="shared" ca="1" si="22"/>
         <v>126087</v>
       </c>
       <c r="M16" s="114">
-        <f t="shared" ca="1" si="22"/>
         <v>20819</v>
       </c>
       <c r="N16" s="114">
-        <f t="shared" ca="1" si="22"/>
         <v>802</v>
       </c>
       <c r="O16" s="114">
-        <f t="shared" ca="1" si="22"/>
         <v>1539</v>
       </c>
       <c r="P16" s="114">
-        <f t="shared" ca="1" si="22"/>
         <v>5429</v>
       </c>
       <c r="Q16" s="114">
-        <f t="shared" ca="1" si="22"/>
         <v>511</v>
       </c>
     </row>
@@ -23632,11 +23457,9 @@
         <v>40</v>
       </c>
       <c r="D17" s="118">
-        <f ca="1">INT(9900000000*RAND()+100000000)</f>
         <v>1628898054</v>
       </c>
       <c r="E17" s="118">
-        <f t="shared" ref="E17" ca="1" si="23">INT(9900000000*RAND()+100000000)</f>
         <v>5634564769</v>
       </c>
       <c r="F17" s="118"/>
@@ -23663,11 +23486,9 @@
         <v>41</v>
       </c>
       <c r="D18" s="118">
-        <f ca="1">INT(RAND()*(D17-2))</f>
         <v>112566164</v>
       </c>
       <c r="E18" s="118">
-        <f t="shared" ref="E18" ca="1" si="24">INT(RAND()*(E17-2))</f>
         <v>1768483995</v>
       </c>
       <c r="F18" s="118"/>
@@ -23694,11 +23515,9 @@
         <v>42</v>
       </c>
       <c r="D19" s="118">
-        <f ca="1">D17-D18</f>
         <v>1516331890</v>
       </c>
       <c r="E19" s="118">
-        <f t="shared" ref="E19" ca="1" si="25">E17-E18</f>
         <v>3866080774</v>
       </c>
       <c r="F19" s="118"/>
@@ -23725,59 +23544,45 @@
         <v>40</v>
       </c>
       <c r="D20" s="118">
-        <f ca="1">INT(9900000000*RAND()+100000000)</f>
         <v>3786122204</v>
       </c>
       <c r="E20" s="118">
-        <f t="shared" ref="E20:F20" ca="1" si="26">INT(9900000000*RAND()+100000000)</f>
         <v>2345708291</v>
       </c>
       <c r="F20" s="118">
-        <f t="shared" ca="1" si="26"/>
         <v>8800118128</v>
       </c>
       <c r="G20" s="118">
-        <f ca="1">INT(990000000*RAND()+10000000)</f>
         <v>587708974</v>
       </c>
       <c r="H20" s="118">
-        <f ca="1">INT(900000000*RAND()+10000000)</f>
         <v>647566519</v>
       </c>
       <c r="I20" s="118">
-        <f ca="1">INT(750000000*RAND()+10000000)</f>
         <v>233169522</v>
       </c>
       <c r="J20" s="118">
-        <f ca="1">INT(75000000*RAND()+1000000)</f>
         <v>36781347</v>
       </c>
       <c r="K20" s="118">
-        <f ca="1">INT(750000*RAND()+10000)</f>
         <v>280637</v>
       </c>
       <c r="L20" s="118">
-        <f t="shared" ref="L20" ca="1" si="27">INT(750000*RAND()+10000)</f>
         <v>12493</v>
       </c>
       <c r="M20" s="118">
-        <f ca="1">INT(75000*RAND()+1000)</f>
         <v>26322</v>
       </c>
       <c r="N20" s="118">
-        <f ca="1">INT(7500*RAND()+100)</f>
         <v>6222</v>
       </c>
       <c r="O20" s="118">
-        <f t="shared" ref="O20:Q20" ca="1" si="28">INT(7500*RAND()+100)</f>
         <v>4813</v>
       </c>
       <c r="P20" s="118">
-        <f t="shared" ca="1" si="28"/>
         <v>3381</v>
       </c>
       <c r="Q20" s="118">
-        <f t="shared" ca="1" si="28"/>
         <v>2170</v>
       </c>
     </row>
@@ -23792,59 +23597,45 @@
         <v>41</v>
       </c>
       <c r="D21" s="118">
-        <f ca="1">INT(RAND()*(D20-2))</f>
         <v>1995933968</v>
       </c>
       <c r="E21" s="118">
-        <f t="shared" ref="E21:Q21" ca="1" si="29">INT(RAND()*(E20-2))</f>
         <v>208121848</v>
       </c>
       <c r="F21" s="118">
-        <f t="shared" ca="1" si="29"/>
         <v>6769885075</v>
       </c>
       <c r="G21" s="118">
-        <f t="shared" ca="1" si="29"/>
         <v>305409422</v>
       </c>
       <c r="H21" s="118">
-        <f t="shared" ca="1" si="29"/>
         <v>394290761</v>
       </c>
       <c r="I21" s="118">
-        <f t="shared" ca="1" si="29"/>
         <v>86428131</v>
       </c>
       <c r="J21" s="118">
-        <f t="shared" ca="1" si="29"/>
         <v>23097963</v>
       </c>
       <c r="K21" s="118">
-        <f t="shared" ca="1" si="29"/>
         <v>99872</v>
       </c>
       <c r="L21" s="118">
-        <f t="shared" ca="1" si="29"/>
         <v>10516</v>
       </c>
       <c r="M21" s="118">
-        <f t="shared" ca="1" si="29"/>
         <v>21604</v>
       </c>
       <c r="N21" s="118">
-        <f t="shared" ca="1" si="29"/>
         <v>4752</v>
       </c>
       <c r="O21" s="118">
-        <f t="shared" ca="1" si="29"/>
         <v>4570</v>
       </c>
       <c r="P21" s="118">
-        <f t="shared" ca="1" si="29"/>
         <v>2079</v>
       </c>
       <c r="Q21" s="118">
-        <f t="shared" ca="1" si="29"/>
         <v>970</v>
       </c>
     </row>
@@ -23859,59 +23650,45 @@
         <v>42</v>
       </c>
       <c r="D22" s="118">
-        <f ca="1">D20-D21</f>
         <v>1790188236</v>
       </c>
       <c r="E22" s="118">
-        <f t="shared" ref="E22:Q22" ca="1" si="30">E20-E21</f>
         <v>2137586443</v>
       </c>
       <c r="F22" s="118">
-        <f t="shared" ca="1" si="30"/>
         <v>2030233053</v>
       </c>
       <c r="G22" s="118">
-        <f t="shared" ca="1" si="30"/>
         <v>282299552</v>
       </c>
       <c r="H22" s="118">
-        <f t="shared" ca="1" si="30"/>
         <v>253275758</v>
       </c>
       <c r="I22" s="118">
-        <f t="shared" ca="1" si="30"/>
         <v>146741391</v>
       </c>
       <c r="J22" s="118">
-        <f t="shared" ca="1" si="30"/>
         <v>13683384</v>
       </c>
       <c r="K22" s="118">
-        <f t="shared" ca="1" si="30"/>
         <v>180765</v>
       </c>
       <c r="L22" s="118">
-        <f t="shared" ca="1" si="30"/>
         <v>1977</v>
       </c>
       <c r="M22" s="118">
-        <f t="shared" ca="1" si="30"/>
         <v>4718</v>
       </c>
       <c r="N22" s="118">
-        <f t="shared" ca="1" si="30"/>
         <v>1470</v>
       </c>
       <c r="O22" s="118">
-        <f t="shared" ca="1" si="30"/>
         <v>243</v>
       </c>
       <c r="P22" s="118">
-        <f t="shared" ca="1" si="30"/>
         <v>1302</v>
       </c>
       <c r="Q22" s="118">
-        <f t="shared" ca="1" si="30"/>
         <v>1200</v>
       </c>
     </row>
@@ -23926,59 +23703,45 @@
         <v>40</v>
       </c>
       <c r="D23" s="118">
-        <f ca="1">INT(9900000000*RAND()+100000000)</f>
         <v>5423728712</v>
       </c>
       <c r="E23" s="118">
-        <f t="shared" ref="E23:F23" ca="1" si="31">INT(9900000000*RAND()+100000000)</f>
         <v>7790017094</v>
       </c>
       <c r="F23" s="118">
-        <f t="shared" ca="1" si="31"/>
         <v>2446700489</v>
       </c>
       <c r="G23" s="118">
-        <f ca="1">INT(990000000*RAND()+10000000)</f>
         <v>377590316</v>
       </c>
       <c r="H23" s="118">
-        <f ca="1">INT(900000000*RAND()+10000000)</f>
         <v>405112896</v>
       </c>
       <c r="I23" s="118">
-        <f ca="1">INT(750000000*RAND()+10000000)</f>
         <v>155035103</v>
       </c>
       <c r="J23" s="118">
-        <f ca="1">INT(75000000*RAND()+1000000)</f>
         <v>4626829</v>
       </c>
       <c r="K23" s="118">
-        <f ca="1">INT(750000*RAND()+10000)</f>
         <v>627772</v>
       </c>
       <c r="L23" s="118">
-        <f t="shared" ref="L23" ca="1" si="32">INT(750000*RAND()+10000)</f>
         <v>612755</v>
       </c>
       <c r="M23" s="118">
-        <f ca="1">INT(75000*RAND()+1000)</f>
         <v>16710</v>
       </c>
       <c r="N23" s="118">
-        <f ca="1">INT(7500*RAND()+100)</f>
         <v>6781</v>
       </c>
       <c r="O23" s="118">
-        <f t="shared" ref="O23:Q23" ca="1" si="33">INT(7500*RAND()+100)</f>
         <v>4743</v>
       </c>
       <c r="P23" s="118">
-        <f t="shared" ca="1" si="33"/>
         <v>7291</v>
       </c>
       <c r="Q23" s="118">
-        <f t="shared" ca="1" si="33"/>
         <v>7152</v>
       </c>
     </row>
@@ -23993,59 +23756,45 @@
         <v>41</v>
       </c>
       <c r="D24" s="118">
-        <f ca="1">INT(RAND()*(D23-2))</f>
         <v>3329929039</v>
       </c>
       <c r="E24" s="118">
-        <f t="shared" ref="E24:Q24" ca="1" si="34">INT(RAND()*(E23-2))</f>
         <v>191623554</v>
       </c>
       <c r="F24" s="118">
-        <f t="shared" ca="1" si="34"/>
         <v>1504033649</v>
       </c>
       <c r="G24" s="118">
-        <f t="shared" ca="1" si="34"/>
         <v>105405184</v>
       </c>
       <c r="H24" s="118">
-        <f t="shared" ca="1" si="34"/>
         <v>388558910</v>
       </c>
       <c r="I24" s="118">
-        <f t="shared" ca="1" si="34"/>
         <v>131798264</v>
       </c>
       <c r="J24" s="118">
-        <f t="shared" ca="1" si="34"/>
         <v>2944381</v>
       </c>
       <c r="K24" s="118">
-        <f t="shared" ca="1" si="34"/>
         <v>148580</v>
       </c>
       <c r="L24" s="118">
-        <f t="shared" ca="1" si="34"/>
         <v>518988</v>
       </c>
       <c r="M24" s="118">
-        <f t="shared" ca="1" si="34"/>
         <v>10470</v>
       </c>
       <c r="N24" s="118">
-        <f t="shared" ca="1" si="34"/>
         <v>5236</v>
       </c>
       <c r="O24" s="118">
-        <f t="shared" ca="1" si="34"/>
         <v>2414</v>
       </c>
       <c r="P24" s="118">
-        <f t="shared" ca="1" si="34"/>
         <v>5424</v>
       </c>
       <c r="Q24" s="118">
-        <f t="shared" ca="1" si="34"/>
         <v>6267</v>
       </c>
     </row>
@@ -24060,59 +23809,45 @@
         <v>42</v>
       </c>
       <c r="D25" s="118">
-        <f ca="1">D23-D24</f>
         <v>2093799673</v>
       </c>
       <c r="E25" s="118">
-        <f t="shared" ref="E25:Q25" ca="1" si="35">E23-E24</f>
         <v>7598393540</v>
       </c>
       <c r="F25" s="118">
-        <f t="shared" ca="1" si="35"/>
         <v>942666840</v>
       </c>
       <c r="G25" s="118">
-        <f t="shared" ca="1" si="35"/>
         <v>272185132</v>
       </c>
       <c r="H25" s="118">
-        <f t="shared" ca="1" si="35"/>
         <v>16553986</v>
       </c>
       <c r="I25" s="118">
-        <f t="shared" ca="1" si="35"/>
         <v>23236839</v>
       </c>
       <c r="J25" s="118">
-        <f t="shared" ca="1" si="35"/>
         <v>1682448</v>
       </c>
       <c r="K25" s="118">
-        <f t="shared" ca="1" si="35"/>
         <v>479192</v>
       </c>
       <c r="L25" s="118">
-        <f t="shared" ca="1" si="35"/>
         <v>93767</v>
       </c>
       <c r="M25" s="118">
-        <f t="shared" ca="1" si="35"/>
         <v>6240</v>
       </c>
       <c r="N25" s="118">
-        <f t="shared" ca="1" si="35"/>
         <v>1545</v>
       </c>
       <c r="O25" s="118">
-        <f t="shared" ca="1" si="35"/>
         <v>2329</v>
       </c>
       <c r="P25" s="118">
-        <f t="shared" ca="1" si="35"/>
         <v>1867</v>
       </c>
       <c r="Q25" s="118">
-        <f t="shared" ca="1" si="35"/>
         <v>885</v>
       </c>
     </row>
@@ -24127,59 +23862,45 @@
         <v>40</v>
       </c>
       <c r="D26" s="118">
-        <f ca="1">INT(9900000000*RAND()+100000000)</f>
         <v>6149555963</v>
       </c>
       <c r="E26" s="118">
-        <f t="shared" ref="E26:F26" ca="1" si="36">INT(9900000000*RAND()+100000000)</f>
         <v>7487759743</v>
       </c>
       <c r="F26" s="118">
-        <f t="shared" ca="1" si="36"/>
         <v>4199842311</v>
       </c>
       <c r="G26" s="118">
-        <f ca="1">INT(990000000*RAND()+10000000)</f>
         <v>110033443</v>
       </c>
       <c r="H26" s="118">
-        <f ca="1">INT(900000000*RAND()+10000000)</f>
         <v>577826557</v>
       </c>
       <c r="I26" s="118">
-        <f ca="1">INT(750000000*RAND()+10000000)</f>
         <v>693246880</v>
       </c>
       <c r="J26" s="118">
-        <f ca="1">INT(75000000*RAND()+1000000)</f>
         <v>37986128</v>
       </c>
       <c r="K26" s="118">
-        <f ca="1">INT(750000*RAND()+10000)</f>
         <v>590728</v>
       </c>
       <c r="L26" s="118">
-        <f t="shared" ref="L26" ca="1" si="37">INT(750000*RAND()+10000)</f>
         <v>119849</v>
       </c>
       <c r="M26" s="118">
-        <f ca="1">INT(75000*RAND()+1000)</f>
         <v>16096</v>
       </c>
       <c r="N26" s="118">
-        <f ca="1">INT(7500*RAND()+100)</f>
         <v>5514</v>
       </c>
       <c r="O26" s="118">
-        <f t="shared" ref="O26:Q26" ca="1" si="38">INT(7500*RAND()+100)</f>
         <v>1703</v>
       </c>
       <c r="P26" s="118">
-        <f t="shared" ca="1" si="38"/>
         <v>5635</v>
       </c>
       <c r="Q26" s="118">
-        <f t="shared" ca="1" si="38"/>
         <v>2266</v>
       </c>
     </row>
@@ -24194,59 +23915,45 @@
         <v>41</v>
       </c>
       <c r="D27" s="118">
-        <f ca="1">INT(RAND()*(D26-2))</f>
         <v>4149010767</v>
       </c>
       <c r="E27" s="118">
-        <f t="shared" ref="E27:Q27" ca="1" si="39">INT(RAND()*(E26-2))</f>
         <v>365437252</v>
       </c>
       <c r="F27" s="118">
-        <f t="shared" ca="1" si="39"/>
         <v>1251601983</v>
       </c>
       <c r="G27" s="118">
-        <f t="shared" ca="1" si="39"/>
         <v>93512520</v>
       </c>
       <c r="H27" s="118">
-        <f t="shared" ca="1" si="39"/>
         <v>93465598</v>
       </c>
       <c r="I27" s="118">
-        <f t="shared" ca="1" si="39"/>
         <v>119212360</v>
       </c>
       <c r="J27" s="118">
-        <f t="shared" ca="1" si="39"/>
         <v>18665885</v>
       </c>
       <c r="K27" s="118">
-        <f t="shared" ca="1" si="39"/>
         <v>367686</v>
       </c>
       <c r="L27" s="118">
-        <f t="shared" ca="1" si="39"/>
         <v>6231</v>
       </c>
       <c r="M27" s="118">
-        <f t="shared" ca="1" si="39"/>
         <v>9332</v>
       </c>
       <c r="N27" s="118">
-        <f t="shared" ca="1" si="39"/>
         <v>3990</v>
       </c>
       <c r="O27" s="118">
-        <f t="shared" ca="1" si="39"/>
         <v>1549</v>
       </c>
       <c r="P27" s="118">
-        <f t="shared" ca="1" si="39"/>
         <v>4250</v>
       </c>
       <c r="Q27" s="118">
-        <f t="shared" ca="1" si="39"/>
         <v>941</v>
       </c>
     </row>
@@ -24261,59 +23968,45 @@
         <v>42</v>
       </c>
       <c r="D28" s="118">
-        <f ca="1">D26-D27</f>
         <v>2000545196</v>
       </c>
       <c r="E28" s="118">
-        <f t="shared" ref="E28:Q28" ca="1" si="40">E26-E27</f>
         <v>7122322491</v>
       </c>
       <c r="F28" s="118">
-        <f t="shared" ca="1" si="40"/>
         <v>2948240328</v>
       </c>
       <c r="G28" s="118">
-        <f t="shared" ca="1" si="40"/>
         <v>16520923</v>
       </c>
       <c r="H28" s="118">
-        <f t="shared" ca="1" si="40"/>
         <v>484360959</v>
       </c>
       <c r="I28" s="118">
-        <f t="shared" ca="1" si="40"/>
         <v>574034520</v>
       </c>
       <c r="J28" s="118">
-        <f t="shared" ca="1" si="40"/>
         <v>19320243</v>
       </c>
       <c r="K28" s="118">
-        <f t="shared" ca="1" si="40"/>
         <v>223042</v>
       </c>
       <c r="L28" s="118">
-        <f t="shared" ca="1" si="40"/>
         <v>113618</v>
       </c>
       <c r="M28" s="118">
-        <f t="shared" ca="1" si="40"/>
         <v>6764</v>
       </c>
       <c r="N28" s="118">
-        <f t="shared" ca="1" si="40"/>
         <v>1524</v>
       </c>
       <c r="O28" s="118">
-        <f t="shared" ca="1" si="40"/>
         <v>154</v>
       </c>
       <c r="P28" s="118">
-        <f t="shared" ca="1" si="40"/>
         <v>1385</v>
       </c>
       <c r="Q28" s="118">
-        <f t="shared" ca="1" si="40"/>
         <v>1325</v>
       </c>
     </row>
@@ -24328,59 +24021,45 @@
         <v>40</v>
       </c>
       <c r="D29" s="118">
-        <f ca="1">INT(9900000000*RAND()+100000000)</f>
         <v>9155736453</v>
       </c>
       <c r="E29" s="118">
-        <f t="shared" ref="E29:F29" ca="1" si="41">INT(9900000000*RAND()+100000000)</f>
         <v>5752635947</v>
       </c>
       <c r="F29" s="118">
-        <f t="shared" ca="1" si="41"/>
         <v>7292719783</v>
       </c>
       <c r="G29" s="118">
-        <f ca="1">INT(990000000*RAND()+10000000)</f>
         <v>244857096</v>
       </c>
       <c r="H29" s="118">
-        <f ca="1">INT(900000000*RAND()+10000000)</f>
         <v>678047717</v>
       </c>
       <c r="I29" s="118">
-        <f ca="1">INT(750000000*RAND()+10000000)</f>
         <v>494177993</v>
       </c>
       <c r="J29" s="118">
-        <f ca="1">INT(75000000*RAND()+1000000)</f>
         <v>37013192</v>
       </c>
       <c r="K29" s="118">
-        <f ca="1">INT(750000*RAND()+10000)</f>
         <v>594706</v>
       </c>
       <c r="L29" s="118">
-        <f t="shared" ref="L29" ca="1" si="42">INT(750000*RAND()+10000)</f>
         <v>385046</v>
       </c>
       <c r="M29" s="118">
-        <f ca="1">INT(75000*RAND()+1000)</f>
         <v>60277</v>
       </c>
       <c r="N29" s="118">
-        <f ca="1">INT(7500*RAND()+100)</f>
         <v>5286</v>
       </c>
       <c r="O29" s="118">
-        <f t="shared" ref="O29:Q29" ca="1" si="43">INT(7500*RAND()+100)</f>
         <v>3631</v>
       </c>
       <c r="P29" s="118">
-        <f t="shared" ca="1" si="43"/>
         <v>3773</v>
       </c>
       <c r="Q29" s="118">
-        <f t="shared" ca="1" si="43"/>
         <v>2687</v>
       </c>
     </row>
@@ -24395,59 +24074,45 @@
         <v>41</v>
       </c>
       <c r="D30" s="118">
-        <f ca="1">INT(RAND()*(D29-2))</f>
         <v>8675902052</v>
       </c>
       <c r="E30" s="118">
-        <f t="shared" ref="E30:Q30" ca="1" si="44">INT(RAND()*(E29-2))</f>
         <v>3600276976</v>
       </c>
       <c r="F30" s="118">
-        <f t="shared" ca="1" si="44"/>
         <v>2626599057</v>
       </c>
       <c r="G30" s="118">
-        <f t="shared" ca="1" si="44"/>
         <v>65079162</v>
       </c>
       <c r="H30" s="118">
-        <f t="shared" ca="1" si="44"/>
         <v>106128804</v>
       </c>
       <c r="I30" s="118">
-        <f t="shared" ca="1" si="44"/>
         <v>169207720</v>
       </c>
       <c r="J30" s="118">
-        <f t="shared" ca="1" si="44"/>
         <v>33325185</v>
       </c>
       <c r="K30" s="118">
-        <f t="shared" ca="1" si="44"/>
         <v>7472</v>
       </c>
       <c r="L30" s="118">
-        <f t="shared" ca="1" si="44"/>
         <v>193005</v>
       </c>
       <c r="M30" s="118">
-        <f t="shared" ca="1" si="44"/>
         <v>58844</v>
       </c>
       <c r="N30" s="118">
-        <f t="shared" ca="1" si="44"/>
         <v>5148</v>
       </c>
       <c r="O30" s="118">
-        <f t="shared" ca="1" si="44"/>
         <v>670</v>
       </c>
       <c r="P30" s="118">
-        <f t="shared" ca="1" si="44"/>
         <v>212</v>
       </c>
       <c r="Q30" s="118">
-        <f t="shared" ca="1" si="44"/>
         <v>2217</v>
       </c>
     </row>
@@ -24462,59 +24127,45 @@
         <v>42</v>
       </c>
       <c r="D31" s="118">
-        <f ca="1">D29-D30</f>
         <v>479834401</v>
       </c>
       <c r="E31" s="118">
-        <f t="shared" ref="E31:Q31" ca="1" si="45">E29-E30</f>
         <v>2152358971</v>
       </c>
       <c r="F31" s="118">
-        <f t="shared" ca="1" si="45"/>
         <v>4666120726</v>
       </c>
       <c r="G31" s="118">
-        <f t="shared" ca="1" si="45"/>
         <v>179777934</v>
       </c>
       <c r="H31" s="118">
-        <f t="shared" ca="1" si="45"/>
         <v>571918913</v>
       </c>
       <c r="I31" s="118">
-        <f t="shared" ca="1" si="45"/>
         <v>324970273</v>
       </c>
       <c r="J31" s="118">
-        <f t="shared" ca="1" si="45"/>
         <v>3688007</v>
       </c>
       <c r="K31" s="118">
-        <f t="shared" ca="1" si="45"/>
         <v>587234</v>
       </c>
       <c r="L31" s="118">
-        <f t="shared" ca="1" si="45"/>
         <v>192041</v>
       </c>
       <c r="M31" s="118">
-        <f t="shared" ca="1" si="45"/>
         <v>1433</v>
       </c>
       <c r="N31" s="118">
-        <f t="shared" ca="1" si="45"/>
         <v>138</v>
       </c>
       <c r="O31" s="118">
-        <f t="shared" ca="1" si="45"/>
         <v>2961</v>
       </c>
       <c r="P31" s="118">
-        <f t="shared" ca="1" si="45"/>
         <v>3561</v>
       </c>
       <c r="Q31" s="118">
-        <f t="shared" ca="1" si="45"/>
         <v>470</v>
       </c>
     </row>
@@ -24529,59 +24180,45 @@
         <v>40</v>
       </c>
       <c r="D32" s="117">
-        <f ca="1">INT(9900000000*RAND()+100000000)</f>
         <v>3154480294</v>
       </c>
       <c r="E32" s="117">
-        <f t="shared" ref="E32:F32" ca="1" si="46">INT(9900000000*RAND()+100000000)</f>
         <v>2924686262</v>
       </c>
       <c r="F32" s="117">
-        <f t="shared" ca="1" si="46"/>
         <v>819599958</v>
       </c>
       <c r="G32" s="117">
-        <f ca="1">INT(990000000*RAND()+10000000)</f>
         <v>306262281</v>
       </c>
       <c r="H32" s="117">
-        <f ca="1">INT(900000000*RAND()+10000000)</f>
         <v>283715027</v>
       </c>
       <c r="I32" s="117">
-        <f ca="1">INT(750000000*RAND()+10000000)</f>
         <v>16634309</v>
       </c>
       <c r="J32" s="117">
-        <f ca="1">INT(75000000*RAND()+1000000)</f>
         <v>34123101</v>
       </c>
       <c r="K32" s="117">
-        <f ca="1">INT(750000*RAND()+10000)</f>
         <v>193490</v>
       </c>
       <c r="L32" s="117">
-        <f t="shared" ref="L32" ca="1" si="47">INT(750000*RAND()+10000)</f>
         <v>248133</v>
       </c>
       <c r="M32" s="117">
-        <f ca="1">INT(75000*RAND()+1000)</f>
         <v>58139</v>
       </c>
       <c r="N32" s="117">
-        <f ca="1">INT(7500*RAND()+100)</f>
         <v>727</v>
       </c>
       <c r="O32" s="117">
-        <f t="shared" ref="O32:Q32" ca="1" si="48">INT(7500*RAND()+100)</f>
         <v>5739</v>
       </c>
       <c r="P32" s="117">
-        <f t="shared" ca="1" si="48"/>
         <v>3625</v>
       </c>
       <c r="Q32" s="117">
-        <f t="shared" ca="1" si="48"/>
         <v>1726</v>
       </c>
     </row>
@@ -24596,59 +24233,45 @@
         <v>41</v>
       </c>
       <c r="D33" s="117">
-        <f ca="1">INT(RAND()*(D32-2))</f>
         <v>3062313022</v>
       </c>
       <c r="E33" s="117">
-        <f t="shared" ref="E33:Q33" ca="1" si="49">INT(RAND()*(E32-2))</f>
         <v>1753790607</v>
       </c>
       <c r="F33" s="117">
-        <f t="shared" ca="1" si="49"/>
         <v>494754045</v>
       </c>
       <c r="G33" s="117">
-        <f t="shared" ca="1" si="49"/>
         <v>168937824</v>
       </c>
       <c r="H33" s="117">
-        <f t="shared" ca="1" si="49"/>
         <v>79971984</v>
       </c>
       <c r="I33" s="117">
-        <f t="shared" ca="1" si="49"/>
         <v>11069332</v>
       </c>
       <c r="J33" s="117">
-        <f t="shared" ca="1" si="49"/>
         <v>1292408</v>
       </c>
       <c r="K33" s="117">
-        <f t="shared" ca="1" si="49"/>
         <v>97428</v>
       </c>
       <c r="L33" s="117">
-        <f t="shared" ca="1" si="49"/>
         <v>63222</v>
       </c>
       <c r="M33" s="117">
-        <f t="shared" ca="1" si="49"/>
         <v>23728</v>
       </c>
       <c r="N33" s="117">
-        <f t="shared" ca="1" si="49"/>
         <v>306</v>
       </c>
       <c r="O33" s="117">
-        <f t="shared" ca="1" si="49"/>
         <v>162</v>
       </c>
       <c r="P33" s="117">
-        <f t="shared" ca="1" si="49"/>
         <v>3354</v>
       </c>
       <c r="Q33" s="117">
-        <f t="shared" ca="1" si="49"/>
         <v>362</v>
       </c>
     </row>
@@ -24663,59 +24286,45 @@
         <v>42</v>
       </c>
       <c r="D34" s="117">
-        <f ca="1">D32-D33</f>
         <v>92167272</v>
       </c>
       <c r="E34" s="117">
-        <f t="shared" ref="E34:Q34" ca="1" si="50">E32-E33</f>
         <v>1170895655</v>
       </c>
       <c r="F34" s="117">
-        <f t="shared" ca="1" si="50"/>
         <v>324845913</v>
       </c>
       <c r="G34" s="117">
-        <f t="shared" ca="1" si="50"/>
         <v>137324457</v>
       </c>
       <c r="H34" s="117">
-        <f t="shared" ca="1" si="50"/>
         <v>203743043</v>
       </c>
       <c r="I34" s="117">
-        <f t="shared" ca="1" si="50"/>
         <v>5564977</v>
       </c>
       <c r="J34" s="117">
-        <f t="shared" ca="1" si="50"/>
         <v>32830693</v>
       </c>
       <c r="K34" s="117">
-        <f t="shared" ca="1" si="50"/>
         <v>96062</v>
       </c>
       <c r="L34" s="117">
-        <f t="shared" ca="1" si="50"/>
         <v>184911</v>
       </c>
       <c r="M34" s="117">
-        <f t="shared" ca="1" si="50"/>
         <v>34411</v>
       </c>
       <c r="N34" s="117">
-        <f t="shared" ca="1" si="50"/>
         <v>421</v>
       </c>
       <c r="O34" s="117">
-        <f t="shared" ca="1" si="50"/>
         <v>5577</v>
       </c>
       <c r="P34" s="117">
-        <f t="shared" ca="1" si="50"/>
         <v>271</v>
       </c>
       <c r="Q34" s="117">
-        <f t="shared" ca="1" si="50"/>
         <v>1364</v>
       </c>
     </row>
@@ -24730,15 +24339,12 @@
         <v>40</v>
       </c>
       <c r="D35" s="117">
-        <f ca="1">INT(9900000000*RAND()+100000000)</f>
         <v>8520868244</v>
       </c>
       <c r="E35" s="117">
-        <f t="shared" ref="E35:F35" ca="1" si="51">INT(9900000000*RAND()+100000000)</f>
         <v>1237958186</v>
       </c>
       <c r="F35" s="117">
-        <f t="shared" ca="1" si="51"/>
         <v>5062906506</v>
       </c>
       <c r="G35" s="117"/>
@@ -24764,15 +24370,12 @@
         <v>41</v>
       </c>
       <c r="D36" s="117">
-        <f ca="1">INT(RAND()*(D35-2))</f>
         <v>5991780101</v>
       </c>
       <c r="E36" s="117">
-        <f t="shared" ref="E36:F36" ca="1" si="52">INT(RAND()*(E35-2))</f>
         <v>637690188</v>
       </c>
       <c r="F36" s="117">
-        <f t="shared" ca="1" si="52"/>
         <v>2895081547</v>
       </c>
       <c r="G36" s="117"/>
@@ -24798,15 +24401,12 @@
         <v>42</v>
       </c>
       <c r="D37" s="117">
-        <f ca="1">D35-D36</f>
         <v>2529088143</v>
       </c>
       <c r="E37" s="117">
-        <f t="shared" ref="E37:F37" ca="1" si="53">E35-E36</f>
         <v>600267998</v>
       </c>
       <c r="F37" s="117">
-        <f t="shared" ca="1" si="53"/>
         <v>2167824959</v>
       </c>
       <c r="G37" s="117"/>
@@ -24832,11 +24432,9 @@
         <v>40</v>
       </c>
       <c r="D38" s="117">
-        <f ca="1">INT(9900000000*RAND()+100000000)</f>
         <v>5438414826</v>
       </c>
       <c r="E38" s="117">
-        <f t="shared" ref="E38" ca="1" si="54">INT(9900000000*RAND()+100000000)</f>
         <v>292374118</v>
       </c>
       <c r="F38" s="117"/>
@@ -24863,11 +24461,9 @@
         <v>41</v>
       </c>
       <c r="D39" s="117">
-        <f ca="1">INT(RAND()*(D38-2))</f>
         <v>420756964</v>
       </c>
       <c r="E39" s="117">
-        <f t="shared" ref="E39" ca="1" si="55">INT(RAND()*(E38-2))</f>
         <v>84358764</v>
       </c>
       <c r="F39" s="117"/>
@@ -24894,11 +24490,9 @@
         <v>42</v>
       </c>
       <c r="D40" s="117">
-        <f ca="1">D38-D39</f>
         <v>5017657862</v>
       </c>
       <c r="E40" s="117">
-        <f t="shared" ref="E40" ca="1" si="56">E38-E39</f>
         <v>208015354</v>
       </c>
       <c r="F40" s="117"/>
@@ -24925,59 +24519,45 @@
         <v>40</v>
       </c>
       <c r="D41" s="117">
-        <f ca="1">INT(9900000000*RAND()+100000000)</f>
         <v>2199736958</v>
       </c>
       <c r="E41" s="117">
-        <f t="shared" ref="E41:F41" ca="1" si="57">INT(9900000000*RAND()+100000000)</f>
         <v>4307807432</v>
       </c>
       <c r="F41" s="117">
-        <f t="shared" ca="1" si="57"/>
         <v>6248373031</v>
       </c>
       <c r="G41" s="117">
-        <f ca="1">INT(990000000*RAND()+10000000)</f>
         <v>121973127</v>
       </c>
       <c r="H41" s="117">
-        <f ca="1">INT(900000000*RAND()+10000000)</f>
         <v>146958800</v>
       </c>
       <c r="I41" s="117">
-        <f ca="1">INT(750000000*RAND()+10000000)</f>
         <v>610518419</v>
       </c>
       <c r="J41" s="117">
-        <f ca="1">INT(75000000*RAND()+1000000)</f>
         <v>69146393</v>
       </c>
       <c r="K41" s="117">
-        <f ca="1">INT(750000*RAND()+10000)</f>
         <v>35239</v>
       </c>
       <c r="L41" s="117">
-        <f t="shared" ref="L41" ca="1" si="58">INT(750000*RAND()+10000)</f>
         <v>486411</v>
       </c>
       <c r="M41" s="117">
-        <f ca="1">INT(75000*RAND()+1000)</f>
         <v>68701</v>
       </c>
       <c r="N41" s="117">
-        <f ca="1">INT(7500*RAND()+100)</f>
         <v>4629</v>
       </c>
       <c r="O41" s="117">
-        <f t="shared" ref="O41:Q41" ca="1" si="59">INT(7500*RAND()+100)</f>
         <v>1155</v>
       </c>
       <c r="P41" s="117">
-        <f t="shared" ca="1" si="59"/>
         <v>2866</v>
       </c>
       <c r="Q41" s="117">
-        <f t="shared" ca="1" si="59"/>
         <v>6094</v>
       </c>
     </row>
@@ -24992,59 +24572,45 @@
         <v>41</v>
       </c>
       <c r="D42" s="117">
-        <f ca="1">INT(RAND()*(D41-2))</f>
         <v>1474087112</v>
       </c>
       <c r="E42" s="117">
-        <f t="shared" ref="E42:Q42" ca="1" si="60">INT(RAND()*(E41-2))</f>
         <v>1893378395</v>
       </c>
       <c r="F42" s="117">
-        <f t="shared" ca="1" si="60"/>
         <v>3921632758</v>
       </c>
       <c r="G42" s="117">
-        <f t="shared" ca="1" si="60"/>
         <v>52002377</v>
       </c>
       <c r="H42" s="117">
-        <f t="shared" ca="1" si="60"/>
         <v>114072440</v>
       </c>
       <c r="I42" s="117">
-        <f t="shared" ca="1" si="60"/>
         <v>596118376</v>
       </c>
       <c r="J42" s="117">
-        <f t="shared" ca="1" si="60"/>
         <v>49539802</v>
       </c>
       <c r="K42" s="117">
-        <f t="shared" ca="1" si="60"/>
         <v>20469</v>
       </c>
       <c r="L42" s="117">
-        <f t="shared" ca="1" si="60"/>
         <v>291387</v>
       </c>
       <c r="M42" s="117">
-        <f t="shared" ca="1" si="60"/>
         <v>65847</v>
       </c>
       <c r="N42" s="117">
-        <f t="shared" ca="1" si="60"/>
         <v>3401</v>
       </c>
       <c r="O42" s="117">
-        <f t="shared" ca="1" si="60"/>
         <v>257</v>
       </c>
       <c r="P42" s="117">
-        <f t="shared" ca="1" si="60"/>
         <v>1840</v>
       </c>
       <c r="Q42" s="117">
-        <f t="shared" ca="1" si="60"/>
         <v>3287</v>
       </c>
     </row>
@@ -25059,59 +24625,45 @@
         <v>42</v>
       </c>
       <c r="D43" s="117">
-        <f ca="1">D41-D42</f>
         <v>725649846</v>
       </c>
       <c r="E43" s="117">
-        <f t="shared" ref="E43:Q43" ca="1" si="61">E41-E42</f>
         <v>2414429037</v>
       </c>
       <c r="F43" s="117">
-        <f t="shared" ca="1" si="61"/>
         <v>2326740273</v>
       </c>
       <c r="G43" s="117">
-        <f t="shared" ca="1" si="61"/>
         <v>69970750</v>
       </c>
       <c r="H43" s="117">
-        <f t="shared" ca="1" si="61"/>
         <v>32886360</v>
       </c>
       <c r="I43" s="117">
-        <f t="shared" ca="1" si="61"/>
         <v>14400043</v>
       </c>
       <c r="J43" s="117">
-        <f t="shared" ca="1" si="61"/>
         <v>19606591</v>
       </c>
       <c r="K43" s="117">
-        <f t="shared" ca="1" si="61"/>
         <v>14770</v>
       </c>
       <c r="L43" s="117">
-        <f t="shared" ca="1" si="61"/>
         <v>195024</v>
       </c>
       <c r="M43" s="117">
-        <f t="shared" ca="1" si="61"/>
         <v>2854</v>
       </c>
       <c r="N43" s="117">
-        <f t="shared" ca="1" si="61"/>
         <v>1228</v>
       </c>
       <c r="O43" s="117">
-        <f t="shared" ca="1" si="61"/>
         <v>898</v>
       </c>
       <c r="P43" s="117">
-        <f t="shared" ca="1" si="61"/>
         <v>1026</v>
       </c>
       <c r="Q43" s="117">
-        <f t="shared" ca="1" si="61"/>
         <v>2807</v>
       </c>
     </row>
@@ -25126,59 +24678,45 @@
         <v>40</v>
       </c>
       <c r="D44" s="117">
-        <f ca="1">INT(9900000000*RAND()+100000000)</f>
         <v>1641109540</v>
       </c>
       <c r="E44" s="117">
-        <f t="shared" ref="E44:F44" ca="1" si="62">INT(9900000000*RAND()+100000000)</f>
         <v>5216057028</v>
       </c>
       <c r="F44" s="117">
-        <f t="shared" ca="1" si="62"/>
         <v>984427371</v>
       </c>
       <c r="G44" s="117">
-        <f ca="1">INT(990000000*RAND()+10000000)</f>
         <v>621998503</v>
       </c>
       <c r="H44" s="117">
-        <f ca="1">INT(900000000*RAND()+10000000)</f>
         <v>778268763</v>
       </c>
       <c r="I44" s="117">
-        <f ca="1">INT(750000000*RAND()+10000000)</f>
         <v>496383620</v>
       </c>
       <c r="J44" s="117">
-        <f ca="1">INT(75000000*RAND()+1000000)</f>
         <v>51419365</v>
       </c>
       <c r="K44" s="117">
-        <f ca="1">INT(750000*RAND()+10000)</f>
         <v>441682</v>
       </c>
       <c r="L44" s="117">
-        <f t="shared" ref="L44" ca="1" si="63">INT(750000*RAND()+10000)</f>
         <v>748363</v>
       </c>
       <c r="M44" s="117">
-        <f ca="1">INT(75000*RAND()+1000)</f>
         <v>22985</v>
       </c>
       <c r="N44" s="117">
-        <f ca="1">INT(7500*RAND()+100)</f>
         <v>6250</v>
       </c>
       <c r="O44" s="117">
-        <f t="shared" ref="O44:Q44" ca="1" si="64">INT(7500*RAND()+100)</f>
         <v>2243</v>
       </c>
       <c r="P44" s="117">
-        <f t="shared" ca="1" si="64"/>
         <v>6007</v>
       </c>
       <c r="Q44" s="117">
-        <f t="shared" ca="1" si="64"/>
         <v>2090</v>
       </c>
     </row>
@@ -25193,59 +24731,45 @@
         <v>41</v>
       </c>
       <c r="D45" s="117">
-        <f ca="1">INT(RAND()*(D44-2))</f>
         <v>113696276</v>
       </c>
       <c r="E45" s="117">
-        <f t="shared" ref="E45:Q45" ca="1" si="65">INT(RAND()*(E44-2))</f>
         <v>4324883232</v>
       </c>
       <c r="F45" s="117">
-        <f t="shared" ca="1" si="65"/>
         <v>892861090</v>
       </c>
       <c r="G45" s="117">
-        <f t="shared" ca="1" si="65"/>
         <v>601952850</v>
       </c>
       <c r="H45" s="117">
-        <f t="shared" ca="1" si="65"/>
         <v>444256209</v>
       </c>
       <c r="I45" s="117">
-        <f t="shared" ca="1" si="65"/>
         <v>322360097</v>
       </c>
       <c r="J45" s="117">
-        <f t="shared" ca="1" si="65"/>
         <v>22517915</v>
       </c>
       <c r="K45" s="117">
-        <f t="shared" ca="1" si="65"/>
         <v>91506</v>
       </c>
       <c r="L45" s="117">
-        <f t="shared" ca="1" si="65"/>
         <v>377962</v>
       </c>
       <c r="M45" s="117">
-        <f t="shared" ca="1" si="65"/>
         <v>17822</v>
       </c>
       <c r="N45" s="117">
-        <f t="shared" ca="1" si="65"/>
         <v>2550</v>
       </c>
       <c r="O45" s="117">
-        <f t="shared" ca="1" si="65"/>
         <v>1529</v>
       </c>
       <c r="P45" s="117">
-        <f t="shared" ca="1" si="65"/>
         <v>918</v>
       </c>
       <c r="Q45" s="117">
-        <f t="shared" ca="1" si="65"/>
         <v>752</v>
       </c>
     </row>
@@ -25260,59 +24784,45 @@
         <v>42</v>
       </c>
       <c r="D46" s="117">
-        <f ca="1">D44-D45</f>
         <v>1527413264</v>
       </c>
       <c r="E46" s="117">
-        <f t="shared" ref="E46:Q46" ca="1" si="66">E44-E45</f>
         <v>891173796</v>
       </c>
       <c r="F46" s="117">
-        <f t="shared" ca="1" si="66"/>
         <v>91566281</v>
       </c>
       <c r="G46" s="117">
-        <f t="shared" ca="1" si="66"/>
         <v>20045653</v>
       </c>
       <c r="H46" s="117">
-        <f t="shared" ca="1" si="66"/>
         <v>334012554</v>
       </c>
       <c r="I46" s="117">
-        <f t="shared" ca="1" si="66"/>
         <v>174023523</v>
       </c>
       <c r="J46" s="117">
-        <f t="shared" ca="1" si="66"/>
         <v>28901450</v>
       </c>
       <c r="K46" s="117">
-        <f t="shared" ca="1" si="66"/>
         <v>350176</v>
       </c>
       <c r="L46" s="117">
-        <f t="shared" ca="1" si="66"/>
         <v>370401</v>
       </c>
       <c r="M46" s="117">
-        <f t="shared" ca="1" si="66"/>
         <v>5163</v>
       </c>
       <c r="N46" s="117">
-        <f t="shared" ca="1" si="66"/>
         <v>3700</v>
       </c>
       <c r="O46" s="117">
-        <f t="shared" ca="1" si="66"/>
         <v>714</v>
       </c>
       <c r="P46" s="117">
-        <f t="shared" ca="1" si="66"/>
         <v>5089</v>
       </c>
       <c r="Q46" s="117">
-        <f t="shared" ca="1" si="66"/>
         <v>1338</v>
       </c>
     </row>

--- a/inst/Example/Mouse_Experiment_Example.xlsx
+++ b/inst/Example/Mouse_Experiment_Example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtcoll06\Box\Lab Docs\R projects\mouseR\inst\Example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C7E1A8-D184-4636-9B7F-198ACC36754E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D8C218-3CA1-49F7-9BE6-713ACC68C868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mouse Weights" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3637" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3608" uniqueCount="63">
   <si>
     <t>Mouse Weight</t>
   </si>
@@ -334,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -609,6 +609,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -953,7 +956,7 @@
   <dimension ref="A1:U39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -990,50 +993,50 @@
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="128">
+        <v>-1</v>
+      </c>
+      <c r="F2" s="128">
+        <v>0</v>
+      </c>
+      <c r="G2" s="128">
+        <v>1</v>
+      </c>
+      <c r="H2" s="128">
+        <v>2</v>
+      </c>
+      <c r="I2" s="128">
+        <v>3</v>
+      </c>
+      <c r="J2" s="128">
+        <v>4</v>
+      </c>
+      <c r="K2" s="128">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="L2" s="128">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="M2" s="128">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="N2" s="128">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="O2" s="128">
         <v>9</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="P2" s="128">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="Q2" s="128">
         <v>11</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="R2" s="128">
         <v>12</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="S2" s="128">
         <v>13</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -20420,213 +20423,27 @@
     </row>
   </sheetData>
   <mergeCells count="252">
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="C42:C46"/>
-    <mergeCell ref="C47:C51"/>
-    <mergeCell ref="C52:C56"/>
-    <mergeCell ref="C57:C61"/>
-    <mergeCell ref="C62:C66"/>
-    <mergeCell ref="C67:C71"/>
-    <mergeCell ref="C72:C76"/>
-    <mergeCell ref="C77:C81"/>
-    <mergeCell ref="C82:C86"/>
-    <mergeCell ref="C87:C91"/>
-    <mergeCell ref="C92:C96"/>
-    <mergeCell ref="C97:C101"/>
-    <mergeCell ref="C102:C106"/>
-    <mergeCell ref="C107:C111"/>
-    <mergeCell ref="C112:C116"/>
-    <mergeCell ref="C117:C121"/>
-    <mergeCell ref="C122:C126"/>
-    <mergeCell ref="C127:C131"/>
-    <mergeCell ref="C132:C136"/>
-    <mergeCell ref="C137:C141"/>
-    <mergeCell ref="C142:C146"/>
-    <mergeCell ref="C147:C151"/>
-    <mergeCell ref="C152:C156"/>
-    <mergeCell ref="C157:C161"/>
-    <mergeCell ref="C162:C166"/>
-    <mergeCell ref="C167:C171"/>
-    <mergeCell ref="C172:C176"/>
-    <mergeCell ref="C177:C181"/>
-    <mergeCell ref="C182:C186"/>
-    <mergeCell ref="C187:C191"/>
-    <mergeCell ref="C192:C196"/>
-    <mergeCell ref="C197:C201"/>
-    <mergeCell ref="C202:C206"/>
-    <mergeCell ref="C207:C211"/>
-    <mergeCell ref="C212:C216"/>
-    <mergeCell ref="C217:C221"/>
-    <mergeCell ref="C222:C226"/>
-    <mergeCell ref="C227:C231"/>
-    <mergeCell ref="C232:C236"/>
-    <mergeCell ref="C237:C241"/>
-    <mergeCell ref="C242:C246"/>
-    <mergeCell ref="C247:C251"/>
-    <mergeCell ref="C252:C256"/>
-    <mergeCell ref="C257:C261"/>
-    <mergeCell ref="C262:C266"/>
-    <mergeCell ref="C267:C271"/>
-    <mergeCell ref="C272:C276"/>
-    <mergeCell ref="C277:C281"/>
-    <mergeCell ref="C282:C286"/>
-    <mergeCell ref="C287:C291"/>
-    <mergeCell ref="C292:C296"/>
-    <mergeCell ref="C297:C301"/>
-    <mergeCell ref="C302:C306"/>
-    <mergeCell ref="C307:C311"/>
-    <mergeCell ref="C312:C316"/>
-    <mergeCell ref="C317:C321"/>
-    <mergeCell ref="C322:C326"/>
-    <mergeCell ref="C327:C331"/>
-    <mergeCell ref="C332:C336"/>
-    <mergeCell ref="C337:C341"/>
-    <mergeCell ref="C342:C346"/>
-    <mergeCell ref="C347:C351"/>
-    <mergeCell ref="C352:C356"/>
-    <mergeCell ref="C357:C361"/>
-    <mergeCell ref="C362:C366"/>
-    <mergeCell ref="C367:C371"/>
-    <mergeCell ref="C372:C376"/>
-    <mergeCell ref="C377:C381"/>
-    <mergeCell ref="C382:C386"/>
-    <mergeCell ref="C387:C391"/>
-    <mergeCell ref="C392:C396"/>
-    <mergeCell ref="C397:C401"/>
-    <mergeCell ref="C402:C406"/>
-    <mergeCell ref="C407:C411"/>
-    <mergeCell ref="C412:C416"/>
-    <mergeCell ref="C417:C421"/>
-    <mergeCell ref="C422:C426"/>
-    <mergeCell ref="C427:C431"/>
-    <mergeCell ref="C432:C436"/>
-    <mergeCell ref="C437:C441"/>
-    <mergeCell ref="C442:C446"/>
-    <mergeCell ref="C447:C451"/>
-    <mergeCell ref="C452:C456"/>
-    <mergeCell ref="C457:C461"/>
-    <mergeCell ref="C462:C466"/>
-    <mergeCell ref="C467:C471"/>
-    <mergeCell ref="C472:C476"/>
-    <mergeCell ref="C477:C481"/>
-    <mergeCell ref="C482:C486"/>
-    <mergeCell ref="C487:C491"/>
-    <mergeCell ref="C492:C496"/>
-    <mergeCell ref="C497:C501"/>
-    <mergeCell ref="C502:C506"/>
-    <mergeCell ref="C507:C511"/>
-    <mergeCell ref="C512:C516"/>
-    <mergeCell ref="C517:C521"/>
-    <mergeCell ref="C522:C526"/>
-    <mergeCell ref="C527:C531"/>
-    <mergeCell ref="C532:C536"/>
-    <mergeCell ref="C537:C541"/>
-    <mergeCell ref="C542:C546"/>
-    <mergeCell ref="C547:C551"/>
-    <mergeCell ref="C552:C556"/>
-    <mergeCell ref="C557:C561"/>
-    <mergeCell ref="C562:C566"/>
-    <mergeCell ref="C567:C571"/>
-    <mergeCell ref="C572:C576"/>
-    <mergeCell ref="C577:C581"/>
-    <mergeCell ref="C582:C586"/>
-    <mergeCell ref="C587:C591"/>
-    <mergeCell ref="C592:C596"/>
-    <mergeCell ref="C597:C601"/>
-    <mergeCell ref="C602:C606"/>
-    <mergeCell ref="C607:C611"/>
-    <mergeCell ref="C612:C616"/>
-    <mergeCell ref="C617:C621"/>
-    <mergeCell ref="C622:C626"/>
-    <mergeCell ref="C627:C631"/>
-    <mergeCell ref="C632:C636"/>
-    <mergeCell ref="C637:C641"/>
-    <mergeCell ref="C642:C646"/>
-    <mergeCell ref="C647:C651"/>
-    <mergeCell ref="C652:C656"/>
-    <mergeCell ref="C657:C661"/>
-    <mergeCell ref="C662:C666"/>
-    <mergeCell ref="C667:C671"/>
-    <mergeCell ref="C672:C676"/>
-    <mergeCell ref="C677:C681"/>
-    <mergeCell ref="C682:C686"/>
-    <mergeCell ref="C687:C691"/>
-    <mergeCell ref="C692:C696"/>
-    <mergeCell ref="C697:C701"/>
-    <mergeCell ref="C702:C706"/>
-    <mergeCell ref="C707:C711"/>
-    <mergeCell ref="C712:C716"/>
-    <mergeCell ref="C717:C721"/>
-    <mergeCell ref="C722:C726"/>
-    <mergeCell ref="C727:C731"/>
-    <mergeCell ref="C732:C736"/>
-    <mergeCell ref="C737:C741"/>
-    <mergeCell ref="C742:C746"/>
-    <mergeCell ref="C747:C751"/>
-    <mergeCell ref="C752:C756"/>
-    <mergeCell ref="C757:C761"/>
-    <mergeCell ref="C762:C766"/>
-    <mergeCell ref="C767:C771"/>
-    <mergeCell ref="C772:C776"/>
-    <mergeCell ref="C777:C781"/>
-    <mergeCell ref="C782:C786"/>
-    <mergeCell ref="C787:C791"/>
-    <mergeCell ref="C792:C796"/>
-    <mergeCell ref="C797:C801"/>
-    <mergeCell ref="C802:C806"/>
-    <mergeCell ref="C807:C811"/>
-    <mergeCell ref="C812:C816"/>
-    <mergeCell ref="C817:C821"/>
-    <mergeCell ref="C822:C826"/>
-    <mergeCell ref="C827:C831"/>
-    <mergeCell ref="C832:C836"/>
-    <mergeCell ref="C837:C841"/>
-    <mergeCell ref="C842:C846"/>
-    <mergeCell ref="C847:C851"/>
-    <mergeCell ref="C852:C856"/>
-    <mergeCell ref="C857:C861"/>
-    <mergeCell ref="C862:C866"/>
-    <mergeCell ref="C867:C871"/>
-    <mergeCell ref="C872:C876"/>
-    <mergeCell ref="C877:C881"/>
-    <mergeCell ref="C882:C886"/>
-    <mergeCell ref="C887:C891"/>
-    <mergeCell ref="C892:C896"/>
-    <mergeCell ref="C897:C901"/>
-    <mergeCell ref="C902:C906"/>
-    <mergeCell ref="C907:C911"/>
-    <mergeCell ref="C912:C916"/>
-    <mergeCell ref="C917:C921"/>
-    <mergeCell ref="C922:C926"/>
-    <mergeCell ref="C927:C931"/>
-    <mergeCell ref="C932:C936"/>
-    <mergeCell ref="C937:C941"/>
-    <mergeCell ref="C942:C946"/>
-    <mergeCell ref="C947:C951"/>
-    <mergeCell ref="C952:C956"/>
-    <mergeCell ref="C957:C961"/>
-    <mergeCell ref="C962:C966"/>
-    <mergeCell ref="C967:C971"/>
-    <mergeCell ref="C972:C976"/>
-    <mergeCell ref="C977:C981"/>
-    <mergeCell ref="C982:C986"/>
-    <mergeCell ref="C987:C991"/>
-    <mergeCell ref="C992:C996"/>
-    <mergeCell ref="C997:C1001"/>
-    <mergeCell ref="C1002:C1006"/>
-    <mergeCell ref="C1007:C1011"/>
-    <mergeCell ref="C1012:C1016"/>
-    <mergeCell ref="C1017:C1021"/>
-    <mergeCell ref="C1022:C1026"/>
-    <mergeCell ref="C1027:C1031"/>
-    <mergeCell ref="C1032:C1036"/>
+    <mergeCell ref="B977:B1001"/>
+    <mergeCell ref="B1002:B1026"/>
+    <mergeCell ref="B1027:B1051"/>
+    <mergeCell ref="B752:B776"/>
+    <mergeCell ref="B777:B801"/>
+    <mergeCell ref="B802:B826"/>
+    <mergeCell ref="B827:B851"/>
+    <mergeCell ref="B852:B876"/>
+    <mergeCell ref="B877:B901"/>
+    <mergeCell ref="B902:B926"/>
+    <mergeCell ref="B927:B951"/>
+    <mergeCell ref="B952:B976"/>
+    <mergeCell ref="B527:B551"/>
+    <mergeCell ref="B552:B576"/>
+    <mergeCell ref="B577:B601"/>
+    <mergeCell ref="B602:B626"/>
+    <mergeCell ref="B627:B651"/>
+    <mergeCell ref="B652:B676"/>
+    <mergeCell ref="B677:B701"/>
+    <mergeCell ref="B702:B726"/>
+    <mergeCell ref="B727:B751"/>
     <mergeCell ref="C1037:C1041"/>
     <mergeCell ref="C1042:C1046"/>
     <mergeCell ref="C1047:C1051"/>
@@ -20651,27 +20468,213 @@
     <mergeCell ref="B452:B476"/>
     <mergeCell ref="B477:B501"/>
     <mergeCell ref="B502:B526"/>
-    <mergeCell ref="B527:B551"/>
-    <mergeCell ref="B552:B576"/>
-    <mergeCell ref="B577:B601"/>
-    <mergeCell ref="B602:B626"/>
-    <mergeCell ref="B627:B651"/>
-    <mergeCell ref="B652:B676"/>
-    <mergeCell ref="B677:B701"/>
-    <mergeCell ref="B702:B726"/>
-    <mergeCell ref="B727:B751"/>
-    <mergeCell ref="B977:B1001"/>
-    <mergeCell ref="B1002:B1026"/>
-    <mergeCell ref="B1027:B1051"/>
-    <mergeCell ref="B752:B776"/>
-    <mergeCell ref="B777:B801"/>
-    <mergeCell ref="B802:B826"/>
-    <mergeCell ref="B827:B851"/>
-    <mergeCell ref="B852:B876"/>
-    <mergeCell ref="B877:B901"/>
-    <mergeCell ref="B902:B926"/>
-    <mergeCell ref="B927:B951"/>
-    <mergeCell ref="B952:B976"/>
+    <mergeCell ref="C992:C996"/>
+    <mergeCell ref="C997:C1001"/>
+    <mergeCell ref="C1002:C1006"/>
+    <mergeCell ref="C1007:C1011"/>
+    <mergeCell ref="C1012:C1016"/>
+    <mergeCell ref="C1017:C1021"/>
+    <mergeCell ref="C1022:C1026"/>
+    <mergeCell ref="C1027:C1031"/>
+    <mergeCell ref="C1032:C1036"/>
+    <mergeCell ref="C947:C951"/>
+    <mergeCell ref="C952:C956"/>
+    <mergeCell ref="C957:C961"/>
+    <mergeCell ref="C962:C966"/>
+    <mergeCell ref="C967:C971"/>
+    <mergeCell ref="C972:C976"/>
+    <mergeCell ref="C977:C981"/>
+    <mergeCell ref="C982:C986"/>
+    <mergeCell ref="C987:C991"/>
+    <mergeCell ref="C902:C906"/>
+    <mergeCell ref="C907:C911"/>
+    <mergeCell ref="C912:C916"/>
+    <mergeCell ref="C917:C921"/>
+    <mergeCell ref="C922:C926"/>
+    <mergeCell ref="C927:C931"/>
+    <mergeCell ref="C932:C936"/>
+    <mergeCell ref="C937:C941"/>
+    <mergeCell ref="C942:C946"/>
+    <mergeCell ref="C857:C861"/>
+    <mergeCell ref="C862:C866"/>
+    <mergeCell ref="C867:C871"/>
+    <mergeCell ref="C872:C876"/>
+    <mergeCell ref="C877:C881"/>
+    <mergeCell ref="C882:C886"/>
+    <mergeCell ref="C887:C891"/>
+    <mergeCell ref="C892:C896"/>
+    <mergeCell ref="C897:C901"/>
+    <mergeCell ref="C812:C816"/>
+    <mergeCell ref="C817:C821"/>
+    <mergeCell ref="C822:C826"/>
+    <mergeCell ref="C827:C831"/>
+    <mergeCell ref="C832:C836"/>
+    <mergeCell ref="C837:C841"/>
+    <mergeCell ref="C842:C846"/>
+    <mergeCell ref="C847:C851"/>
+    <mergeCell ref="C852:C856"/>
+    <mergeCell ref="C767:C771"/>
+    <mergeCell ref="C772:C776"/>
+    <mergeCell ref="C777:C781"/>
+    <mergeCell ref="C782:C786"/>
+    <mergeCell ref="C787:C791"/>
+    <mergeCell ref="C792:C796"/>
+    <mergeCell ref="C797:C801"/>
+    <mergeCell ref="C802:C806"/>
+    <mergeCell ref="C807:C811"/>
+    <mergeCell ref="C722:C726"/>
+    <mergeCell ref="C727:C731"/>
+    <mergeCell ref="C732:C736"/>
+    <mergeCell ref="C737:C741"/>
+    <mergeCell ref="C742:C746"/>
+    <mergeCell ref="C747:C751"/>
+    <mergeCell ref="C752:C756"/>
+    <mergeCell ref="C757:C761"/>
+    <mergeCell ref="C762:C766"/>
+    <mergeCell ref="C677:C681"/>
+    <mergeCell ref="C682:C686"/>
+    <mergeCell ref="C687:C691"/>
+    <mergeCell ref="C692:C696"/>
+    <mergeCell ref="C697:C701"/>
+    <mergeCell ref="C702:C706"/>
+    <mergeCell ref="C707:C711"/>
+    <mergeCell ref="C712:C716"/>
+    <mergeCell ref="C717:C721"/>
+    <mergeCell ref="C632:C636"/>
+    <mergeCell ref="C637:C641"/>
+    <mergeCell ref="C642:C646"/>
+    <mergeCell ref="C647:C651"/>
+    <mergeCell ref="C652:C656"/>
+    <mergeCell ref="C657:C661"/>
+    <mergeCell ref="C662:C666"/>
+    <mergeCell ref="C667:C671"/>
+    <mergeCell ref="C672:C676"/>
+    <mergeCell ref="C587:C591"/>
+    <mergeCell ref="C592:C596"/>
+    <mergeCell ref="C597:C601"/>
+    <mergeCell ref="C602:C606"/>
+    <mergeCell ref="C607:C611"/>
+    <mergeCell ref="C612:C616"/>
+    <mergeCell ref="C617:C621"/>
+    <mergeCell ref="C622:C626"/>
+    <mergeCell ref="C627:C631"/>
+    <mergeCell ref="C542:C546"/>
+    <mergeCell ref="C547:C551"/>
+    <mergeCell ref="C552:C556"/>
+    <mergeCell ref="C557:C561"/>
+    <mergeCell ref="C562:C566"/>
+    <mergeCell ref="C567:C571"/>
+    <mergeCell ref="C572:C576"/>
+    <mergeCell ref="C577:C581"/>
+    <mergeCell ref="C582:C586"/>
+    <mergeCell ref="C497:C501"/>
+    <mergeCell ref="C502:C506"/>
+    <mergeCell ref="C507:C511"/>
+    <mergeCell ref="C512:C516"/>
+    <mergeCell ref="C517:C521"/>
+    <mergeCell ref="C522:C526"/>
+    <mergeCell ref="C527:C531"/>
+    <mergeCell ref="C532:C536"/>
+    <mergeCell ref="C537:C541"/>
+    <mergeCell ref="C452:C456"/>
+    <mergeCell ref="C457:C461"/>
+    <mergeCell ref="C462:C466"/>
+    <mergeCell ref="C467:C471"/>
+    <mergeCell ref="C472:C476"/>
+    <mergeCell ref="C477:C481"/>
+    <mergeCell ref="C482:C486"/>
+    <mergeCell ref="C487:C491"/>
+    <mergeCell ref="C492:C496"/>
+    <mergeCell ref="C407:C411"/>
+    <mergeCell ref="C412:C416"/>
+    <mergeCell ref="C417:C421"/>
+    <mergeCell ref="C422:C426"/>
+    <mergeCell ref="C427:C431"/>
+    <mergeCell ref="C432:C436"/>
+    <mergeCell ref="C437:C441"/>
+    <mergeCell ref="C442:C446"/>
+    <mergeCell ref="C447:C451"/>
+    <mergeCell ref="C362:C366"/>
+    <mergeCell ref="C367:C371"/>
+    <mergeCell ref="C372:C376"/>
+    <mergeCell ref="C377:C381"/>
+    <mergeCell ref="C382:C386"/>
+    <mergeCell ref="C387:C391"/>
+    <mergeCell ref="C392:C396"/>
+    <mergeCell ref="C397:C401"/>
+    <mergeCell ref="C402:C406"/>
+    <mergeCell ref="C317:C321"/>
+    <mergeCell ref="C322:C326"/>
+    <mergeCell ref="C327:C331"/>
+    <mergeCell ref="C332:C336"/>
+    <mergeCell ref="C337:C341"/>
+    <mergeCell ref="C342:C346"/>
+    <mergeCell ref="C347:C351"/>
+    <mergeCell ref="C352:C356"/>
+    <mergeCell ref="C357:C361"/>
+    <mergeCell ref="C272:C276"/>
+    <mergeCell ref="C277:C281"/>
+    <mergeCell ref="C282:C286"/>
+    <mergeCell ref="C287:C291"/>
+    <mergeCell ref="C292:C296"/>
+    <mergeCell ref="C297:C301"/>
+    <mergeCell ref="C302:C306"/>
+    <mergeCell ref="C307:C311"/>
+    <mergeCell ref="C312:C316"/>
+    <mergeCell ref="C227:C231"/>
+    <mergeCell ref="C232:C236"/>
+    <mergeCell ref="C237:C241"/>
+    <mergeCell ref="C242:C246"/>
+    <mergeCell ref="C247:C251"/>
+    <mergeCell ref="C252:C256"/>
+    <mergeCell ref="C257:C261"/>
+    <mergeCell ref="C262:C266"/>
+    <mergeCell ref="C267:C271"/>
+    <mergeCell ref="C182:C186"/>
+    <mergeCell ref="C187:C191"/>
+    <mergeCell ref="C192:C196"/>
+    <mergeCell ref="C197:C201"/>
+    <mergeCell ref="C202:C206"/>
+    <mergeCell ref="C207:C211"/>
+    <mergeCell ref="C212:C216"/>
+    <mergeCell ref="C217:C221"/>
+    <mergeCell ref="C222:C226"/>
+    <mergeCell ref="C137:C141"/>
+    <mergeCell ref="C142:C146"/>
+    <mergeCell ref="C147:C151"/>
+    <mergeCell ref="C152:C156"/>
+    <mergeCell ref="C157:C161"/>
+    <mergeCell ref="C162:C166"/>
+    <mergeCell ref="C167:C171"/>
+    <mergeCell ref="C172:C176"/>
+    <mergeCell ref="C177:C181"/>
+    <mergeCell ref="C92:C96"/>
+    <mergeCell ref="C97:C101"/>
+    <mergeCell ref="C102:C106"/>
+    <mergeCell ref="C107:C111"/>
+    <mergeCell ref="C112:C116"/>
+    <mergeCell ref="C117:C121"/>
+    <mergeCell ref="C122:C126"/>
+    <mergeCell ref="C127:C131"/>
+    <mergeCell ref="C132:C136"/>
+    <mergeCell ref="C47:C51"/>
+    <mergeCell ref="C52:C56"/>
+    <mergeCell ref="C57:C61"/>
+    <mergeCell ref="C62:C66"/>
+    <mergeCell ref="C67:C71"/>
+    <mergeCell ref="C72:C76"/>
+    <mergeCell ref="C77:C81"/>
+    <mergeCell ref="C82:C86"/>
+    <mergeCell ref="C87:C91"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="C42:C46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -20684,7 +20687,7 @@
   <dimension ref="A1:R47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22611,11 +22614,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="D1:R1"/>
     <mergeCell ref="A3:A17"/>
     <mergeCell ref="A18:A32"/>
     <mergeCell ref="A33:A47"/>
@@ -22630,6 +22628,11 @@
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B30:B32"/>
     <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="D1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -22640,8 +22643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22651,7 +22654,7 @@
     <col min="16" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -22661,48 +22664,49 @@
       <c r="C1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="128">
+        <v>-1</v>
+      </c>
+      <c r="E1" s="128">
+        <v>0</v>
+      </c>
+      <c r="F1" s="128">
+        <v>1</v>
+      </c>
+      <c r="G1" s="128">
+        <v>2</v>
+      </c>
+      <c r="H1" s="128">
+        <v>3</v>
+      </c>
+      <c r="I1" s="128">
+        <v>4</v>
+      </c>
+      <c r="J1" s="128">
+        <v>5</v>
+      </c>
+      <c r="K1" s="128">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="L1" s="128">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="M1" s="128">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="N1" s="128">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="O1" s="128">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="P1" s="128">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="Q1" s="128">
         <v>12</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="R1" s="128"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="119" t="s">
@@ -24828,6 +24832,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="B2:B4"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="B32:B34"/>
@@ -24840,12 +24850,6 @@
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="B2:B4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -24856,7 +24860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:CV70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>

--- a/inst/Example/Mouse_Experiment_Example.xlsx
+++ b/inst/Example/Mouse_Experiment_Example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtcoll06\Box\Lab Docs\R projects\mouseR\inst\Example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EAADF46-661F-4435-8719-2B13C9F9CB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E156B40-5ED5-4E4F-8F0E-3119265A0E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3608" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3607" uniqueCount="63">
   <si>
     <t>Mouse Weight</t>
   </si>
@@ -20687,15 +20687,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:R47"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="R2" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D1" s="124" t="s">
         <v>50</v>
       </c>
@@ -20712,9 +20712,8 @@
       <c r="O1" s="125"/>
       <c r="P1" s="125"/>
       <c r="Q1" s="125"/>
-      <c r="R1" s="125"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -20766,11 +20765,8 @@
       <c r="Q2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="121" t="s">
         <v>20</v>
       </c>
@@ -20822,11 +20818,8 @@
       <c r="Q3" s="103">
         <v>500</v>
       </c>
-      <c r="R3" s="103">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="121" t="s">
         <v>20</v>
       </c>
@@ -20838,66 +20831,62 @@
       </c>
       <c r="D4" s="103">
         <f ca="1">RANDBETWEEN(20,60)+D3</f>
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="E4" s="119">
-        <f t="shared" ref="E4:R4" ca="1" si="0">RANDBETWEEN(20,60)+E3</f>
-        <v>546</v>
+        <f t="shared" ref="E4:Q4" ca="1" si="0">RANDBETWEEN(20,60)+E3</f>
+        <v>552</v>
       </c>
       <c r="F4" s="119">
         <f t="shared" ca="1" si="0"/>
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="G4" s="119">
         <f t="shared" ca="1" si="0"/>
-        <v>538</v>
+        <v>559</v>
       </c>
       <c r="H4" s="119">
         <f t="shared" ca="1" si="0"/>
-        <v>522</v>
+        <v>545</v>
       </c>
       <c r="I4" s="119">
         <f t="shared" ca="1" si="0"/>
-        <v>534</v>
+        <v>558</v>
       </c>
       <c r="J4" s="119">
         <f t="shared" ca="1" si="0"/>
-        <v>531</v>
+        <v>551</v>
       </c>
       <c r="K4" s="119">
         <f t="shared" ca="1" si="0"/>
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="L4" s="119">
         <f t="shared" ca="1" si="0"/>
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="M4" s="119">
         <f t="shared" ca="1" si="0"/>
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="N4" s="119">
         <f t="shared" ca="1" si="0"/>
-        <v>522</v>
+        <v>550</v>
       </c>
       <c r="O4" s="119">
         <f t="shared" ca="1" si="0"/>
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="P4" s="119">
         <f t="shared" ca="1" si="0"/>
-        <v>520</v>
+        <v>544</v>
       </c>
       <c r="Q4" s="119">
         <f t="shared" ca="1" si="0"/>
-        <v>525</v>
-      </c>
-      <c r="R4" s="119">
-        <f t="shared" ca="1" si="0"/>
-        <v>528</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="121" t="s">
         <v>20</v>
       </c>
@@ -20908,67 +20897,63 @@
         <v>53</v>
       </c>
       <c r="D5" s="103">
-        <f t="shared" ref="D5:R5" ca="1" si="1">D4-D3</f>
-        <v>41</v>
+        <f t="shared" ref="D5:Q5" ca="1" si="1">D4-D3</f>
+        <v>52</v>
       </c>
       <c r="E5" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F5" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="G5" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="H5" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I5" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="J5" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="K5" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L5" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M5" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="N5" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="O5" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="P5" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="Q5" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="R5" s="103">
-        <f t="shared" ca="1" si="1"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="121" t="s">
         <v>20</v>
       </c>
@@ -21020,11 +21005,8 @@
       <c r="Q6" s="103">
         <v>500</v>
       </c>
-      <c r="R6" s="103">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="121" t="s">
         <v>20</v>
       </c>
@@ -21036,66 +21018,62 @@
       </c>
       <c r="D7" s="119">
         <f ca="1">RANDBETWEEN(20,60)+D6</f>
-        <v>526</v>
+        <v>549</v>
       </c>
       <c r="E7" s="119">
-        <f t="shared" ref="E7:R7" ca="1" si="2">RANDBETWEEN(20,60)+E6</f>
-        <v>547</v>
+        <f t="shared" ref="E7:Q7" ca="1" si="2">RANDBETWEEN(20,60)+E6</f>
+        <v>542</v>
       </c>
       <c r="F7" s="119">
         <f t="shared" ca="1" si="2"/>
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="G7" s="119">
         <f t="shared" ca="1" si="2"/>
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="H7" s="119">
         <f t="shared" ca="1" si="2"/>
-        <v>524</v>
+        <v>554</v>
       </c>
       <c r="I7" s="119">
         <f t="shared" ca="1" si="2"/>
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="J7" s="119">
         <f t="shared" ca="1" si="2"/>
-        <v>532</v>
+        <v>547</v>
       </c>
       <c r="K7" s="119">
         <f t="shared" ca="1" si="2"/>
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="L7" s="119">
         <f t="shared" ca="1" si="2"/>
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="M7" s="119">
         <f t="shared" ca="1" si="2"/>
-        <v>553</v>
+        <v>520</v>
       </c>
       <c r="N7" s="119">
         <f t="shared" ca="1" si="2"/>
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="O7" s="119">
         <f t="shared" ca="1" si="2"/>
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="P7" s="119">
         <f t="shared" ca="1" si="2"/>
-        <v>539</v>
+        <v>553</v>
       </c>
       <c r="Q7" s="119">
         <f t="shared" ca="1" si="2"/>
-        <v>530</v>
-      </c>
-      <c r="R7" s="119">
-        <f t="shared" ca="1" si="2"/>
-        <v>546</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="121" t="s">
         <v>20</v>
       </c>
@@ -21106,67 +21084,63 @@
         <v>53</v>
       </c>
       <c r="D8" s="103">
-        <f t="shared" ref="D8:R8" ca="1" si="3">D7-D6</f>
-        <v>26</v>
+        <f t="shared" ref="D8:Q8" ca="1" si="3">D7-D6</f>
+        <v>49</v>
       </c>
       <c r="E8" s="103">
         <f t="shared" ca="1" si="3"/>
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F8" s="103">
         <f t="shared" ca="1" si="3"/>
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G8" s="103">
         <f t="shared" ca="1" si="3"/>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="H8" s="103">
         <f t="shared" ca="1" si="3"/>
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="I8" s="103">
         <f t="shared" ca="1" si="3"/>
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J8" s="103">
         <f t="shared" ca="1" si="3"/>
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="K8" s="103">
         <f t="shared" ca="1" si="3"/>
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="L8" s="103">
         <f t="shared" ca="1" si="3"/>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M8" s="103">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="N8" s="103">
         <f t="shared" ca="1" si="3"/>
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="O8" s="103">
         <f t="shared" ca="1" si="3"/>
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="P8" s="103">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="Q8" s="103">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="R8" s="103">
-        <f t="shared" ca="1" si="3"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="121" t="s">
         <v>20</v>
       </c>
@@ -21218,11 +21192,8 @@
       <c r="Q9" s="103">
         <v>500</v>
       </c>
-      <c r="R9" s="103">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="121" t="s">
         <v>20</v>
       </c>
@@ -21234,66 +21205,62 @@
       </c>
       <c r="D10" s="103">
         <f ca="1">RANDBETWEEN(20,60)+D9</f>
-        <v>527</v>
+        <v>550</v>
       </c>
       <c r="E10" s="119">
-        <f t="shared" ref="E10:R10" ca="1" si="4">RANDBETWEEN(20,60)+E9</f>
-        <v>528</v>
+        <f t="shared" ref="E10:Q10" ca="1" si="4">RANDBETWEEN(20,60)+E9</f>
+        <v>546</v>
       </c>
       <c r="F10" s="119">
         <f t="shared" ca="1" si="4"/>
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G10" s="119">
         <f t="shared" ca="1" si="4"/>
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="H10" s="119">
         <f t="shared" ca="1" si="4"/>
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="I10" s="119">
         <f t="shared" ca="1" si="4"/>
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="J10" s="119">
         <f t="shared" ca="1" si="4"/>
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="K10" s="119">
         <f t="shared" ca="1" si="4"/>
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="L10" s="119">
         <f t="shared" ca="1" si="4"/>
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="M10" s="119">
         <f t="shared" ca="1" si="4"/>
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="N10" s="119">
         <f t="shared" ca="1" si="4"/>
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="O10" s="119">
         <f t="shared" ca="1" si="4"/>
-        <v>520</v>
+        <v>556</v>
       </c>
       <c r="P10" s="119">
         <f t="shared" ca="1" si="4"/>
-        <v>559</v>
+        <v>520</v>
       </c>
       <c r="Q10" s="119">
         <f t="shared" ca="1" si="4"/>
-        <v>529</v>
-      </c>
-      <c r="R10" s="119">
-        <f t="shared" ca="1" si="4"/>
-        <v>531</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="121" t="s">
         <v>20</v>
       </c>
@@ -21304,67 +21271,63 @@
         <v>53</v>
       </c>
       <c r="D11" s="103">
-        <f t="shared" ref="D11:R11" ca="1" si="5">D10-D9</f>
-        <v>27</v>
+        <f t="shared" ref="D11:Q11" ca="1" si="5">D10-D9</f>
+        <v>50</v>
       </c>
       <c r="E11" s="103">
         <f t="shared" ca="1" si="5"/>
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="F11" s="103">
         <f t="shared" ca="1" si="5"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G11" s="103">
         <f t="shared" ca="1" si="5"/>
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H11" s="103">
         <f t="shared" ca="1" si="5"/>
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I11" s="103">
         <f t="shared" ca="1" si="5"/>
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="J11" s="103">
         <f t="shared" ca="1" si="5"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K11" s="103">
         <f t="shared" ca="1" si="5"/>
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="L11" s="103">
         <f t="shared" ca="1" si="5"/>
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="M11" s="103">
         <f t="shared" ca="1" si="5"/>
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="N11" s="103">
         <f t="shared" ca="1" si="5"/>
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="O11" s="103">
         <f t="shared" ca="1" si="5"/>
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="P11" s="103">
         <f t="shared" ca="1" si="5"/>
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="Q11" s="103">
         <f t="shared" ca="1" si="5"/>
-        <v>29</v>
-      </c>
-      <c r="R11" s="103">
-        <f t="shared" ca="1" si="5"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="121" t="s">
         <v>20</v>
       </c>
@@ -21416,11 +21379,8 @@
       <c r="Q12" s="103">
         <v>500</v>
       </c>
-      <c r="R12" s="103">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="121" t="s">
         <v>20</v>
       </c>
@@ -21432,66 +21392,62 @@
       </c>
       <c r="D13" s="119">
         <f ca="1">RANDBETWEEN(20,60)+D12</f>
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E13" s="119">
         <f t="shared" ref="E13" ca="1" si="6">RANDBETWEEN(20,60)+E12</f>
-        <v>528</v>
+        <v>558</v>
       </c>
       <c r="F13" s="119">
         <f t="shared" ref="F13" ca="1" si="7">RANDBETWEEN(20,60)+F12</f>
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="G13" s="119">
         <f t="shared" ref="G13" ca="1" si="8">RANDBETWEEN(20,60)+G12</f>
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="H13" s="119">
         <f t="shared" ref="H13" ca="1" si="9">RANDBETWEEN(20,60)+H12</f>
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I13" s="119">
         <f t="shared" ref="I13" ca="1" si="10">RANDBETWEEN(20,60)+I12</f>
-        <v>556</v>
+        <v>525</v>
       </c>
       <c r="J13" s="119">
         <f t="shared" ref="J13" ca="1" si="11">RANDBETWEEN(20,60)+J12</f>
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="K13" s="119">
         <f t="shared" ref="K13" ca="1" si="12">RANDBETWEEN(20,60)+K12</f>
-        <v>523</v>
+        <v>547</v>
       </c>
       <c r="L13" s="119">
         <f t="shared" ref="L13" ca="1" si="13">RANDBETWEEN(20,60)+L12</f>
-        <v>532</v>
+        <v>547</v>
       </c>
       <c r="M13" s="119">
         <f t="shared" ref="M13" ca="1" si="14">RANDBETWEEN(20,60)+M12</f>
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="N13" s="119">
         <f t="shared" ref="N13" ca="1" si="15">RANDBETWEEN(20,60)+N12</f>
-        <v>525</v>
+        <v>546</v>
       </c>
       <c r="O13" s="119">
         <f t="shared" ref="O13" ca="1" si="16">RANDBETWEEN(20,60)+O12</f>
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="P13" s="119">
         <f t="shared" ref="P13" ca="1" si="17">RANDBETWEEN(20,60)+P12</f>
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="Q13" s="119">
         <f t="shared" ref="Q13" ca="1" si="18">RANDBETWEEN(20,60)+Q12</f>
-        <v>559</v>
-      </c>
-      <c r="R13" s="119">
-        <f t="shared" ref="R13" ca="1" si="19">RANDBETWEEN(20,60)+R12</f>
-        <v>541</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="121" t="s">
         <v>20</v>
       </c>
@@ -21502,67 +21458,63 @@
         <v>53</v>
       </c>
       <c r="D14" s="103">
-        <f t="shared" ref="D14:R14" ca="1" si="20">D13-D12</f>
-        <v>54</v>
+        <f t="shared" ref="D14:Q14" ca="1" si="19">D13-D12</f>
+        <v>50</v>
       </c>
       <c r="E14" s="103">
-        <f t="shared" ca="1" si="20"/>
-        <v>28</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>58</v>
       </c>
       <c r="F14" s="103">
-        <f t="shared" ca="1" si="20"/>
-        <v>55</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>46</v>
       </c>
       <c r="G14" s="103">
-        <f t="shared" ca="1" si="20"/>
-        <v>33</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>46</v>
       </c>
       <c r="H14" s="103">
-        <f t="shared" ca="1" si="20"/>
-        <v>52</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>49</v>
       </c>
       <c r="I14" s="103">
-        <f t="shared" ca="1" si="20"/>
-        <v>56</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>25</v>
       </c>
       <c r="J14" s="103">
-        <f t="shared" ca="1" si="20"/>
-        <v>35</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>25</v>
       </c>
       <c r="K14" s="103">
-        <f t="shared" ca="1" si="20"/>
-        <v>23</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>47</v>
       </c>
       <c r="L14" s="103">
-        <f t="shared" ca="1" si="20"/>
-        <v>32</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>47</v>
       </c>
       <c r="M14" s="103">
-        <f t="shared" ca="1" si="20"/>
-        <v>32</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>37</v>
       </c>
       <c r="N14" s="103">
-        <f t="shared" ca="1" si="20"/>
-        <v>25</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>46</v>
       </c>
       <c r="O14" s="103">
-        <f t="shared" ca="1" si="20"/>
-        <v>31</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>37</v>
       </c>
       <c r="P14" s="103">
-        <f t="shared" ca="1" si="20"/>
-        <v>53</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>38</v>
       </c>
       <c r="Q14" s="103">
-        <f t="shared" ca="1" si="20"/>
-        <v>59</v>
-      </c>
-      <c r="R14" s="103">
-        <f t="shared" ca="1" si="20"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="19"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="121" t="s">
         <v>20</v>
       </c>
@@ -21614,11 +21566,8 @@
       <c r="Q15" s="103">
         <v>500</v>
       </c>
-      <c r="R15" s="103">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="121" t="s">
         <v>20</v>
       </c>
@@ -21630,66 +21579,62 @@
       </c>
       <c r="D16" s="119">
         <f ca="1">RANDBETWEEN(20,60)+D15</f>
-        <v>531</v>
+        <v>558</v>
       </c>
       <c r="E16" s="119">
-        <f t="shared" ref="E16" ca="1" si="21">RANDBETWEEN(20,60)+E15</f>
-        <v>527</v>
+        <f t="shared" ref="E16" ca="1" si="20">RANDBETWEEN(20,60)+E15</f>
+        <v>548</v>
       </c>
       <c r="F16" s="119">
-        <f t="shared" ref="F16" ca="1" si="22">RANDBETWEEN(20,60)+F15</f>
-        <v>530</v>
+        <f t="shared" ref="F16" ca="1" si="21">RANDBETWEEN(20,60)+F15</f>
+        <v>524</v>
       </c>
       <c r="G16" s="119">
-        <f t="shared" ref="G16" ca="1" si="23">RANDBETWEEN(20,60)+G15</f>
-        <v>532</v>
+        <f t="shared" ref="G16" ca="1" si="22">RANDBETWEEN(20,60)+G15</f>
+        <v>541</v>
       </c>
       <c r="H16" s="119">
-        <f t="shared" ref="H16" ca="1" si="24">RANDBETWEEN(20,60)+H15</f>
-        <v>538</v>
+        <f t="shared" ref="H16" ca="1" si="23">RANDBETWEEN(20,60)+H15</f>
+        <v>537</v>
       </c>
       <c r="I16" s="119">
-        <f t="shared" ref="I16" ca="1" si="25">RANDBETWEEN(20,60)+I15</f>
+        <f t="shared" ref="I16" ca="1" si="24">RANDBETWEEN(20,60)+I15</f>
+        <v>521</v>
+      </c>
+      <c r="J16" s="119">
+        <f t="shared" ref="J16" ca="1" si="25">RANDBETWEEN(20,60)+J15</f>
+        <v>558</v>
+      </c>
+      <c r="K16" s="119">
+        <f t="shared" ref="K16" ca="1" si="26">RANDBETWEEN(20,60)+K15</f>
+        <v>533</v>
+      </c>
+      <c r="L16" s="119">
+        <f t="shared" ref="L16" ca="1" si="27">RANDBETWEEN(20,60)+L15</f>
+        <v>537</v>
+      </c>
+      <c r="M16" s="119">
+        <f t="shared" ref="M16" ca="1" si="28">RANDBETWEEN(20,60)+M15</f>
+        <v>540</v>
+      </c>
+      <c r="N16" s="119">
+        <f t="shared" ref="N16" ca="1" si="29">RANDBETWEEN(20,60)+N15</f>
+        <v>555</v>
+      </c>
+      <c r="O16" s="119">
+        <f t="shared" ref="O16" ca="1" si="30">RANDBETWEEN(20,60)+O15</f>
+        <v>549</v>
+      </c>
+      <c r="P16" s="119">
+        <f t="shared" ref="P16" ca="1" si="31">RANDBETWEEN(20,60)+P15</f>
+        <v>554</v>
+      </c>
+      <c r="Q16" s="119">
+        <f t="shared" ref="Q16" ca="1" si="32">RANDBETWEEN(20,60)+Q15</f>
         <v>559</v>
       </c>
-      <c r="J16" s="119">
-        <f t="shared" ref="J16" ca="1" si="26">RANDBETWEEN(20,60)+J15</f>
-        <v>542</v>
-      </c>
-      <c r="K16" s="119">
-        <f t="shared" ref="K16" ca="1" si="27">RANDBETWEEN(20,60)+K15</f>
-        <v>527</v>
-      </c>
-      <c r="L16" s="119">
-        <f t="shared" ref="L16" ca="1" si="28">RANDBETWEEN(20,60)+L15</f>
-        <v>557</v>
-      </c>
-      <c r="M16" s="119">
-        <f t="shared" ref="M16" ca="1" si="29">RANDBETWEEN(20,60)+M15</f>
-        <v>547</v>
-      </c>
-      <c r="N16" s="119">
-        <f t="shared" ref="N16" ca="1" si="30">RANDBETWEEN(20,60)+N15</f>
-        <v>543</v>
-      </c>
-      <c r="O16" s="119">
-        <f t="shared" ref="O16" ca="1" si="31">RANDBETWEEN(20,60)+O15</f>
-        <v>540</v>
-      </c>
-      <c r="P16" s="119">
-        <f t="shared" ref="P16" ca="1" si="32">RANDBETWEEN(20,60)+P15</f>
-        <v>556</v>
-      </c>
-      <c r="Q16" s="119">
-        <f t="shared" ref="Q16" ca="1" si="33">RANDBETWEEN(20,60)+Q15</f>
-        <v>534</v>
-      </c>
-      <c r="R16" s="119">
-        <f t="shared" ref="R16" ca="1" si="34">RANDBETWEEN(20,60)+R15</f>
-        <v>534</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="121" t="s">
         <v>20</v>
       </c>
@@ -21700,67 +21645,63 @@
         <v>53</v>
       </c>
       <c r="D17" s="103">
-        <f t="shared" ref="D17:R17" ca="1" si="35">D16-D15</f>
-        <v>31</v>
+        <f t="shared" ref="D17:Q17" ca="1" si="33">D16-D15</f>
+        <v>58</v>
       </c>
       <c r="E17" s="103">
-        <f t="shared" ca="1" si="35"/>
-        <v>27</v>
+        <f t="shared" ca="1" si="33"/>
+        <v>48</v>
       </c>
       <c r="F17" s="103">
-        <f t="shared" ca="1" si="35"/>
-        <v>30</v>
+        <f t="shared" ca="1" si="33"/>
+        <v>24</v>
       </c>
       <c r="G17" s="103">
-        <f t="shared" ca="1" si="35"/>
-        <v>32</v>
+        <f t="shared" ca="1" si="33"/>
+        <v>41</v>
       </c>
       <c r="H17" s="103">
-        <f t="shared" ca="1" si="35"/>
-        <v>38</v>
+        <f t="shared" ca="1" si="33"/>
+        <v>37</v>
       </c>
       <c r="I17" s="103">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="33"/>
+        <v>21</v>
+      </c>
+      <c r="J17" s="103">
+        <f t="shared" ca="1" si="33"/>
+        <v>58</v>
+      </c>
+      <c r="K17" s="103">
+        <f t="shared" ca="1" si="33"/>
+        <v>33</v>
+      </c>
+      <c r="L17" s="103">
+        <f t="shared" ca="1" si="33"/>
+        <v>37</v>
+      </c>
+      <c r="M17" s="103">
+        <f t="shared" ca="1" si="33"/>
+        <v>40</v>
+      </c>
+      <c r="N17" s="103">
+        <f t="shared" ca="1" si="33"/>
+        <v>55</v>
+      </c>
+      <c r="O17" s="103">
+        <f t="shared" ca="1" si="33"/>
+        <v>49</v>
+      </c>
+      <c r="P17" s="103">
+        <f t="shared" ca="1" si="33"/>
+        <v>54</v>
+      </c>
+      <c r="Q17" s="103">
+        <f t="shared" ca="1" si="33"/>
         <v>59</v>
       </c>
-      <c r="J17" s="103">
-        <f t="shared" ca="1" si="35"/>
-        <v>42</v>
-      </c>
-      <c r="K17" s="103">
-        <f t="shared" ca="1" si="35"/>
-        <v>27</v>
-      </c>
-      <c r="L17" s="103">
-        <f t="shared" ca="1" si="35"/>
-        <v>57</v>
-      </c>
-      <c r="M17" s="103">
-        <f t="shared" ca="1" si="35"/>
-        <v>47</v>
-      </c>
-      <c r="N17" s="103">
-        <f t="shared" ca="1" si="35"/>
-        <v>43</v>
-      </c>
-      <c r="O17" s="103">
-        <f t="shared" ca="1" si="35"/>
-        <v>40</v>
-      </c>
-      <c r="P17" s="103">
-        <f t="shared" ca="1" si="35"/>
-        <v>56</v>
-      </c>
-      <c r="Q17" s="103">
-        <f t="shared" ca="1" si="35"/>
-        <v>34</v>
-      </c>
-      <c r="R17" s="103">
-        <f t="shared" ca="1" si="35"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="122" t="s">
         <v>26</v>
       </c>
@@ -21812,11 +21753,8 @@
       <c r="Q18" s="104">
         <v>500</v>
       </c>
-      <c r="R18" s="104">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="122" t="s">
         <v>26</v>
       </c>
@@ -21828,66 +21766,62 @@
       </c>
       <c r="D19" s="104">
         <f ca="1">RANDBETWEEN(20,60)+D18</f>
-        <v>520</v>
+        <v>542</v>
       </c>
       <c r="E19" s="104">
-        <f t="shared" ref="E19" ca="1" si="36">RANDBETWEEN(20,60)+E18</f>
-        <v>536</v>
+        <f t="shared" ref="E19" ca="1" si="34">RANDBETWEEN(20,60)+E18</f>
+        <v>523</v>
       </c>
       <c r="F19" s="104">
-        <f t="shared" ref="F19" ca="1" si="37">RANDBETWEEN(20,60)+F18</f>
-        <v>520</v>
+        <f t="shared" ref="F19" ca="1" si="35">RANDBETWEEN(20,60)+F18</f>
+        <v>547</v>
       </c>
       <c r="G19" s="104">
-        <f t="shared" ref="G19" ca="1" si="38">RANDBETWEEN(20,60)+G18</f>
-        <v>532</v>
+        <f t="shared" ref="G19" ca="1" si="36">RANDBETWEEN(20,60)+G18</f>
+        <v>544</v>
       </c>
       <c r="H19" s="104">
-        <f t="shared" ref="H19" ca="1" si="39">RANDBETWEEN(20,60)+H18</f>
+        <f t="shared" ref="H19" ca="1" si="37">RANDBETWEEN(20,60)+H18</f>
+        <v>528</v>
+      </c>
+      <c r="I19" s="104">
+        <f t="shared" ref="I19" ca="1" si="38">RANDBETWEEN(20,60)+I18</f>
+        <v>525</v>
+      </c>
+      <c r="J19" s="104">
+        <f t="shared" ref="J19" ca="1" si="39">RANDBETWEEN(20,60)+J18</f>
+        <v>560</v>
+      </c>
+      <c r="K19" s="104">
+        <f t="shared" ref="K19" ca="1" si="40">RANDBETWEEN(20,60)+K18</f>
+        <v>556</v>
+      </c>
+      <c r="L19" s="104">
+        <f t="shared" ref="L19" ca="1" si="41">RANDBETWEEN(20,60)+L18</f>
+        <v>545</v>
+      </c>
+      <c r="M19" s="104">
+        <f t="shared" ref="M19" ca="1" si="42">RANDBETWEEN(20,60)+M18</f>
+        <v>545</v>
+      </c>
+      <c r="N19" s="104">
+        <f t="shared" ref="N19" ca="1" si="43">RANDBETWEEN(20,60)+N18</f>
+        <v>524</v>
+      </c>
+      <c r="O19" s="104">
+        <f t="shared" ref="O19" ca="1" si="44">RANDBETWEEN(20,60)+O18</f>
+        <v>541</v>
+      </c>
+      <c r="P19" s="104">
+        <f t="shared" ref="P19" ca="1" si="45">RANDBETWEEN(20,60)+P18</f>
         <v>531</v>
       </c>
-      <c r="I19" s="104">
-        <f t="shared" ref="I19" ca="1" si="40">RANDBETWEEN(20,60)+I18</f>
-        <v>527</v>
-      </c>
-      <c r="J19" s="104">
-        <f t="shared" ref="J19" ca="1" si="41">RANDBETWEEN(20,60)+J18</f>
-        <v>554</v>
-      </c>
-      <c r="K19" s="104">
-        <f t="shared" ref="K19" ca="1" si="42">RANDBETWEEN(20,60)+K18</f>
-        <v>534</v>
-      </c>
-      <c r="L19" s="104">
-        <f t="shared" ref="L19" ca="1" si="43">RANDBETWEEN(20,60)+L18</f>
-        <v>536</v>
-      </c>
-      <c r="M19" s="104">
-        <f t="shared" ref="M19" ca="1" si="44">RANDBETWEEN(20,60)+M18</f>
-        <v>533</v>
-      </c>
-      <c r="N19" s="104">
-        <f t="shared" ref="N19" ca="1" si="45">RANDBETWEEN(20,60)+N18</f>
-        <v>542</v>
-      </c>
-      <c r="O19" s="104">
-        <f t="shared" ref="O19" ca="1" si="46">RANDBETWEEN(20,60)+O18</f>
-        <v>540</v>
-      </c>
-      <c r="P19" s="104">
-        <f t="shared" ref="P19" ca="1" si="47">RANDBETWEEN(20,60)+P18</f>
-        <v>559</v>
-      </c>
       <c r="Q19" s="104">
-        <f t="shared" ref="Q19" ca="1" si="48">RANDBETWEEN(20,60)+Q18</f>
-        <v>527</v>
-      </c>
-      <c r="R19" s="104">
-        <f t="shared" ref="R19" ca="1" si="49">RANDBETWEEN(20,60)+R18</f>
-        <v>558</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" ref="Q19" ca="1" si="46">RANDBETWEEN(20,60)+Q18</f>
+        <v>548</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="122" t="s">
         <v>26</v>
       </c>
@@ -21898,67 +21832,63 @@
         <v>53</v>
       </c>
       <c r="D20" s="104">
-        <f t="shared" ref="D20:R20" ca="1" si="50">D19-D18</f>
-        <v>20</v>
+        <f t="shared" ref="D20:Q20" ca="1" si="47">D19-D18</f>
+        <v>42</v>
       </c>
       <c r="E20" s="104">
-        <f t="shared" ca="1" si="50"/>
-        <v>36</v>
+        <f t="shared" ca="1" si="47"/>
+        <v>23</v>
       </c>
       <c r="F20" s="104">
-        <f t="shared" ca="1" si="50"/>
-        <v>20</v>
+        <f t="shared" ca="1" si="47"/>
+        <v>47</v>
       </c>
       <c r="G20" s="104">
-        <f t="shared" ca="1" si="50"/>
-        <v>32</v>
+        <f t="shared" ca="1" si="47"/>
+        <v>44</v>
       </c>
       <c r="H20" s="104">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="47"/>
+        <v>28</v>
+      </c>
+      <c r="I20" s="104">
+        <f t="shared" ca="1" si="47"/>
+        <v>25</v>
+      </c>
+      <c r="J20" s="104">
+        <f t="shared" ca="1" si="47"/>
+        <v>60</v>
+      </c>
+      <c r="K20" s="104">
+        <f t="shared" ca="1" si="47"/>
+        <v>56</v>
+      </c>
+      <c r="L20" s="104">
+        <f t="shared" ca="1" si="47"/>
+        <v>45</v>
+      </c>
+      <c r="M20" s="104">
+        <f t="shared" ca="1" si="47"/>
+        <v>45</v>
+      </c>
+      <c r="N20" s="104">
+        <f t="shared" ca="1" si="47"/>
+        <v>24</v>
+      </c>
+      <c r="O20" s="104">
+        <f t="shared" ca="1" si="47"/>
+        <v>41</v>
+      </c>
+      <c r="P20" s="104">
+        <f t="shared" ca="1" si="47"/>
         <v>31</v>
       </c>
-      <c r="I20" s="104">
-        <f t="shared" ca="1" si="50"/>
-        <v>27</v>
-      </c>
-      <c r="J20" s="104">
-        <f t="shared" ca="1" si="50"/>
-        <v>54</v>
-      </c>
-      <c r="K20" s="104">
-        <f t="shared" ca="1" si="50"/>
-        <v>34</v>
-      </c>
-      <c r="L20" s="104">
-        <f t="shared" ca="1" si="50"/>
-        <v>36</v>
-      </c>
-      <c r="M20" s="104">
-        <f t="shared" ca="1" si="50"/>
-        <v>33</v>
-      </c>
-      <c r="N20" s="104">
-        <f t="shared" ca="1" si="50"/>
-        <v>42</v>
-      </c>
-      <c r="O20" s="104">
-        <f t="shared" ca="1" si="50"/>
-        <v>40</v>
-      </c>
-      <c r="P20" s="104">
-        <f t="shared" ca="1" si="50"/>
-        <v>59</v>
-      </c>
       <c r="Q20" s="104">
-        <f t="shared" ca="1" si="50"/>
-        <v>27</v>
-      </c>
-      <c r="R20" s="104">
-        <f t="shared" ca="1" si="50"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="47"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="122" t="s">
         <v>26</v>
       </c>
@@ -22010,11 +21940,8 @@
       <c r="Q21" s="104">
         <v>500</v>
       </c>
-      <c r="R21" s="104">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="122" t="s">
         <v>26</v>
       </c>
@@ -22026,66 +21953,62 @@
       </c>
       <c r="D22" s="104">
         <f ca="1">RANDBETWEEN(20,60)+D21</f>
-        <v>554</v>
+        <v>528</v>
       </c>
       <c r="E22" s="104">
-        <f t="shared" ref="E22" ca="1" si="51">RANDBETWEEN(20,60)+E21</f>
-        <v>544</v>
+        <f t="shared" ref="E22" ca="1" si="48">RANDBETWEEN(20,60)+E21</f>
+        <v>535</v>
       </c>
       <c r="F22" s="104">
-        <f t="shared" ref="F22" ca="1" si="52">RANDBETWEEN(20,60)+F21</f>
-        <v>548</v>
+        <f t="shared" ref="F22" ca="1" si="49">RANDBETWEEN(20,60)+F21</f>
+        <v>532</v>
       </c>
       <c r="G22" s="104">
-        <f t="shared" ref="G22" ca="1" si="53">RANDBETWEEN(20,60)+G21</f>
-        <v>521</v>
+        <f t="shared" ref="G22" ca="1" si="50">RANDBETWEEN(20,60)+G21</f>
+        <v>545</v>
       </c>
       <c r="H22" s="104">
-        <f t="shared" ref="H22" ca="1" si="54">RANDBETWEEN(20,60)+H21</f>
-        <v>541</v>
+        <f t="shared" ref="H22" ca="1" si="51">RANDBETWEEN(20,60)+H21</f>
+        <v>560</v>
       </c>
       <c r="I22" s="104">
-        <f t="shared" ref="I22" ca="1" si="55">RANDBETWEEN(20,60)+I21</f>
-        <v>542</v>
+        <f t="shared" ref="I22" ca="1" si="52">RANDBETWEEN(20,60)+I21</f>
+        <v>520</v>
       </c>
       <c r="J22" s="104">
-        <f t="shared" ref="J22" ca="1" si="56">RANDBETWEEN(20,60)+J21</f>
-        <v>532</v>
+        <f t="shared" ref="J22" ca="1" si="53">RANDBETWEEN(20,60)+J21</f>
+        <v>535</v>
       </c>
       <c r="K22" s="104">
-        <f t="shared" ref="K22" ca="1" si="57">RANDBETWEEN(20,60)+K21</f>
-        <v>542</v>
+        <f t="shared" ref="K22" ca="1" si="54">RANDBETWEEN(20,60)+K21</f>
+        <v>556</v>
       </c>
       <c r="L22" s="104">
-        <f t="shared" ref="L22" ca="1" si="58">RANDBETWEEN(20,60)+L21</f>
-        <v>521</v>
+        <f t="shared" ref="L22" ca="1" si="55">RANDBETWEEN(20,60)+L21</f>
+        <v>539</v>
       </c>
       <c r="M22" s="104">
-        <f t="shared" ref="M22" ca="1" si="59">RANDBETWEEN(20,60)+M21</f>
-        <v>556</v>
+        <f t="shared" ref="M22" ca="1" si="56">RANDBETWEEN(20,60)+M21</f>
+        <v>522</v>
       </c>
       <c r="N22" s="104">
-        <f t="shared" ref="N22" ca="1" si="60">RANDBETWEEN(20,60)+N21</f>
-        <v>532</v>
+        <f t="shared" ref="N22" ca="1" si="57">RANDBETWEEN(20,60)+N21</f>
+        <v>528</v>
       </c>
       <c r="O22" s="104">
-        <f t="shared" ref="O22" ca="1" si="61">RANDBETWEEN(20,60)+O21</f>
-        <v>537</v>
+        <f t="shared" ref="O22" ca="1" si="58">RANDBETWEEN(20,60)+O21</f>
+        <v>523</v>
       </c>
       <c r="P22" s="104">
-        <f t="shared" ref="P22" ca="1" si="62">RANDBETWEEN(20,60)+P21</f>
-        <v>531</v>
+        <f t="shared" ref="P22" ca="1" si="59">RANDBETWEEN(20,60)+P21</f>
+        <v>540</v>
       </c>
       <c r="Q22" s="104">
-        <f t="shared" ref="Q22" ca="1" si="63">RANDBETWEEN(20,60)+Q21</f>
-        <v>524</v>
-      </c>
-      <c r="R22" s="104">
-        <f t="shared" ref="R22" ca="1" si="64">RANDBETWEEN(20,60)+R21</f>
-        <v>527</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" ref="Q22" ca="1" si="60">RANDBETWEEN(20,60)+Q21</f>
+        <v>545</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="122" t="s">
         <v>26</v>
       </c>
@@ -22096,67 +22019,63 @@
         <v>53</v>
       </c>
       <c r="D23" s="104">
-        <f t="shared" ref="D23:R23" ca="1" si="65">D22-D21</f>
-        <v>54</v>
+        <f t="shared" ref="D23:Q23" ca="1" si="61">D22-D21</f>
+        <v>28</v>
       </c>
       <c r="E23" s="104">
-        <f t="shared" ca="1" si="65"/>
-        <v>44</v>
+        <f t="shared" ca="1" si="61"/>
+        <v>35</v>
       </c>
       <c r="F23" s="104">
-        <f t="shared" ca="1" si="65"/>
-        <v>48</v>
+        <f t="shared" ca="1" si="61"/>
+        <v>32</v>
       </c>
       <c r="G23" s="104">
-        <f t="shared" ca="1" si="65"/>
-        <v>21</v>
+        <f t="shared" ca="1" si="61"/>
+        <v>45</v>
       </c>
       <c r="H23" s="104">
-        <f t="shared" ca="1" si="65"/>
-        <v>41</v>
+        <f t="shared" ca="1" si="61"/>
+        <v>60</v>
       </c>
       <c r="I23" s="104">
-        <f t="shared" ca="1" si="65"/>
-        <v>42</v>
+        <f t="shared" ca="1" si="61"/>
+        <v>20</v>
       </c>
       <c r="J23" s="104">
-        <f t="shared" ca="1" si="65"/>
-        <v>32</v>
+        <f t="shared" ca="1" si="61"/>
+        <v>35</v>
       </c>
       <c r="K23" s="104">
-        <f t="shared" ca="1" si="65"/>
-        <v>42</v>
+        <f t="shared" ca="1" si="61"/>
+        <v>56</v>
       </c>
       <c r="L23" s="104">
-        <f t="shared" ca="1" si="65"/>
-        <v>21</v>
+        <f t="shared" ca="1" si="61"/>
+        <v>39</v>
       </c>
       <c r="M23" s="104">
-        <f t="shared" ca="1" si="65"/>
-        <v>56</v>
+        <f t="shared" ca="1" si="61"/>
+        <v>22</v>
       </c>
       <c r="N23" s="104">
-        <f t="shared" ca="1" si="65"/>
-        <v>32</v>
+        <f t="shared" ca="1" si="61"/>
+        <v>28</v>
       </c>
       <c r="O23" s="104">
-        <f t="shared" ca="1" si="65"/>
-        <v>37</v>
+        <f t="shared" ca="1" si="61"/>
+        <v>23</v>
       </c>
       <c r="P23" s="104">
-        <f t="shared" ca="1" si="65"/>
-        <v>31</v>
+        <f t="shared" ca="1" si="61"/>
+        <v>40</v>
       </c>
       <c r="Q23" s="104">
-        <f t="shared" ca="1" si="65"/>
-        <v>24</v>
-      </c>
-      <c r="R23" s="104">
-        <f t="shared" ca="1" si="65"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="61"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="122" t="s">
         <v>26</v>
       </c>
@@ -22208,11 +22127,8 @@
       <c r="Q24" s="104">
         <v>500</v>
       </c>
-      <c r="R24" s="104">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="122" t="s">
         <v>26</v>
       </c>
@@ -22224,66 +22140,62 @@
       </c>
       <c r="D25" s="104">
         <f ca="1">RANDBETWEEN(20,60)+D24</f>
+        <v>524</v>
+      </c>
+      <c r="E25" s="104">
+        <f t="shared" ref="E25" ca="1" si="62">RANDBETWEEN(20,60)+E24</f>
+        <v>530</v>
+      </c>
+      <c r="F25" s="104">
+        <f t="shared" ref="F25" ca="1" si="63">RANDBETWEEN(20,60)+F24</f>
+        <v>553</v>
+      </c>
+      <c r="G25" s="104">
+        <f t="shared" ref="G25" ca="1" si="64">RANDBETWEEN(20,60)+G24</f>
+        <v>560</v>
+      </c>
+      <c r="H25" s="104">
+        <f t="shared" ref="H25" ca="1" si="65">RANDBETWEEN(20,60)+H24</f>
+        <v>552</v>
+      </c>
+      <c r="I25" s="104">
+        <f t="shared" ref="I25" ca="1" si="66">RANDBETWEEN(20,60)+I24</f>
+        <v>526</v>
+      </c>
+      <c r="J25" s="104">
+        <f t="shared" ref="J25" ca="1" si="67">RANDBETWEEN(20,60)+J24</f>
+        <v>546</v>
+      </c>
+      <c r="K25" s="104">
+        <f t="shared" ref="K25" ca="1" si="68">RANDBETWEEN(20,60)+K24</f>
+        <v>555</v>
+      </c>
+      <c r="L25" s="104">
+        <f t="shared" ref="L25" ca="1" si="69">RANDBETWEEN(20,60)+L24</f>
+        <v>549</v>
+      </c>
+      <c r="M25" s="104">
+        <f t="shared" ref="M25" ca="1" si="70">RANDBETWEEN(20,60)+M24</f>
+        <v>532</v>
+      </c>
+      <c r="N25" s="104">
+        <f t="shared" ref="N25" ca="1" si="71">RANDBETWEEN(20,60)+N24</f>
         <v>551</v>
       </c>
-      <c r="E25" s="104">
-        <f t="shared" ref="E25" ca="1" si="66">RANDBETWEEN(20,60)+E24</f>
-        <v>538</v>
-      </c>
-      <c r="F25" s="104">
-        <f t="shared" ref="F25" ca="1" si="67">RANDBETWEEN(20,60)+F24</f>
-        <v>537</v>
-      </c>
-      <c r="G25" s="104">
-        <f t="shared" ref="G25" ca="1" si="68">RANDBETWEEN(20,60)+G24</f>
-        <v>521</v>
-      </c>
-      <c r="H25" s="104">
-        <f t="shared" ref="H25" ca="1" si="69">RANDBETWEEN(20,60)+H24</f>
-        <v>547</v>
-      </c>
-      <c r="I25" s="104">
-        <f t="shared" ref="I25" ca="1" si="70">RANDBETWEEN(20,60)+I24</f>
-        <v>524</v>
-      </c>
-      <c r="J25" s="104">
-        <f t="shared" ref="J25" ca="1" si="71">RANDBETWEEN(20,60)+J24</f>
-        <v>554</v>
-      </c>
-      <c r="K25" s="104">
-        <f t="shared" ref="K25" ca="1" si="72">RANDBETWEEN(20,60)+K24</f>
-        <v>535</v>
-      </c>
-      <c r="L25" s="104">
-        <f t="shared" ref="L25" ca="1" si="73">RANDBETWEEN(20,60)+L24</f>
-        <v>552</v>
-      </c>
-      <c r="M25" s="104">
-        <f t="shared" ref="M25" ca="1" si="74">RANDBETWEEN(20,60)+M24</f>
-        <v>533</v>
-      </c>
-      <c r="N25" s="104">
-        <f t="shared" ref="N25" ca="1" si="75">RANDBETWEEN(20,60)+N24</f>
-        <v>532</v>
-      </c>
       <c r="O25" s="104">
-        <f t="shared" ref="O25" ca="1" si="76">RANDBETWEEN(20,60)+O24</f>
-        <v>560</v>
+        <f t="shared" ref="O25" ca="1" si="72">RANDBETWEEN(20,60)+O24</f>
+        <v>531</v>
       </c>
       <c r="P25" s="104">
-        <f t="shared" ref="P25" ca="1" si="77">RANDBETWEEN(20,60)+P24</f>
-        <v>530</v>
+        <f t="shared" ref="P25" ca="1" si="73">RANDBETWEEN(20,60)+P24</f>
+        <v>556</v>
       </c>
       <c r="Q25" s="104">
-        <f t="shared" ref="Q25" ca="1" si="78">RANDBETWEEN(20,60)+Q24</f>
-        <v>556</v>
-      </c>
-      <c r="R25" s="104">
-        <f t="shared" ref="R25" ca="1" si="79">RANDBETWEEN(20,60)+R24</f>
-        <v>525</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" ref="Q25" ca="1" si="74">RANDBETWEEN(20,60)+Q24</f>
+        <v>546</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="122" t="s">
         <v>26</v>
       </c>
@@ -22294,67 +22206,63 @@
         <v>53</v>
       </c>
       <c r="D26" s="104">
-        <f t="shared" ref="D26:R26" ca="1" si="80">D25-D24</f>
+        <f t="shared" ref="D26:Q26" ca="1" si="75">D25-D24</f>
+        <v>24</v>
+      </c>
+      <c r="E26" s="104">
+        <f t="shared" ca="1" si="75"/>
+        <v>30</v>
+      </c>
+      <c r="F26" s="104">
+        <f t="shared" ca="1" si="75"/>
+        <v>53</v>
+      </c>
+      <c r="G26" s="104">
+        <f t="shared" ca="1" si="75"/>
+        <v>60</v>
+      </c>
+      <c r="H26" s="104">
+        <f t="shared" ca="1" si="75"/>
+        <v>52</v>
+      </c>
+      <c r="I26" s="104">
+        <f t="shared" ca="1" si="75"/>
+        <v>26</v>
+      </c>
+      <c r="J26" s="104">
+        <f t="shared" ca="1" si="75"/>
+        <v>46</v>
+      </c>
+      <c r="K26" s="104">
+        <f t="shared" ca="1" si="75"/>
+        <v>55</v>
+      </c>
+      <c r="L26" s="104">
+        <f t="shared" ca="1" si="75"/>
+        <v>49</v>
+      </c>
+      <c r="M26" s="104">
+        <f t="shared" ca="1" si="75"/>
+        <v>32</v>
+      </c>
+      <c r="N26" s="104">
+        <f t="shared" ca="1" si="75"/>
         <v>51</v>
       </c>
-      <c r="E26" s="104">
-        <f t="shared" ca="1" si="80"/>
-        <v>38</v>
-      </c>
-      <c r="F26" s="104">
-        <f t="shared" ca="1" si="80"/>
-        <v>37</v>
-      </c>
-      <c r="G26" s="104">
-        <f t="shared" ca="1" si="80"/>
-        <v>21</v>
-      </c>
-      <c r="H26" s="104">
-        <f t="shared" ca="1" si="80"/>
-        <v>47</v>
-      </c>
-      <c r="I26" s="104">
-        <f t="shared" ca="1" si="80"/>
-        <v>24</v>
-      </c>
-      <c r="J26" s="104">
-        <f t="shared" ca="1" si="80"/>
-        <v>54</v>
-      </c>
-      <c r="K26" s="104">
-        <f t="shared" ca="1" si="80"/>
-        <v>35</v>
-      </c>
-      <c r="L26" s="104">
-        <f t="shared" ca="1" si="80"/>
-        <v>52</v>
-      </c>
-      <c r="M26" s="104">
-        <f t="shared" ca="1" si="80"/>
-        <v>33</v>
-      </c>
-      <c r="N26" s="104">
-        <f t="shared" ca="1" si="80"/>
-        <v>32</v>
-      </c>
       <c r="O26" s="104">
-        <f t="shared" ca="1" si="80"/>
-        <v>60</v>
+        <f t="shared" ca="1" si="75"/>
+        <v>31</v>
       </c>
       <c r="P26" s="104">
-        <f t="shared" ca="1" si="80"/>
-        <v>30</v>
+        <f t="shared" ca="1" si="75"/>
+        <v>56</v>
       </c>
       <c r="Q26" s="104">
-        <f t="shared" ca="1" si="80"/>
-        <v>56</v>
-      </c>
-      <c r="R26" s="104">
-        <f t="shared" ca="1" si="80"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="75"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="122" t="s">
         <v>26</v>
       </c>
@@ -22406,11 +22314,8 @@
       <c r="Q27" s="104">
         <v>500</v>
       </c>
-      <c r="R27" s="104">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="122" t="s">
         <v>26</v>
       </c>
@@ -22425,63 +22330,59 @@
         <v>542</v>
       </c>
       <c r="E28" s="104">
-        <f t="shared" ref="E28" ca="1" si="81">RANDBETWEEN(20,60)+E27</f>
-        <v>526</v>
+        <f t="shared" ref="E28" ca="1" si="76">RANDBETWEEN(20,60)+E27</f>
+        <v>547</v>
       </c>
       <c r="F28" s="104">
-        <f t="shared" ref="F28" ca="1" si="82">RANDBETWEEN(20,60)+F27</f>
-        <v>532</v>
+        <f t="shared" ref="F28" ca="1" si="77">RANDBETWEEN(20,60)+F27</f>
+        <v>539</v>
       </c>
       <c r="G28" s="104">
-        <f t="shared" ref="G28" ca="1" si="83">RANDBETWEEN(20,60)+G27</f>
-        <v>556</v>
+        <f t="shared" ref="G28" ca="1" si="78">RANDBETWEEN(20,60)+G27</f>
+        <v>528</v>
       </c>
       <c r="H28" s="104">
-        <f t="shared" ref="H28" ca="1" si="84">RANDBETWEEN(20,60)+H27</f>
+        <f t="shared" ref="H28" ca="1" si="79">RANDBETWEEN(20,60)+H27</f>
+        <v>540</v>
+      </c>
+      <c r="I28" s="104">
+        <f t="shared" ref="I28" ca="1" si="80">RANDBETWEEN(20,60)+I27</f>
+        <v>543</v>
+      </c>
+      <c r="J28" s="104">
+        <f t="shared" ref="J28" ca="1" si="81">RANDBETWEEN(20,60)+J27</f>
+        <v>529</v>
+      </c>
+      <c r="K28" s="104">
+        <f t="shared" ref="K28" ca="1" si="82">RANDBETWEEN(20,60)+K27</f>
+        <v>539</v>
+      </c>
+      <c r="L28" s="104">
+        <f t="shared" ref="L28" ca="1" si="83">RANDBETWEEN(20,60)+L27</f>
+        <v>553</v>
+      </c>
+      <c r="M28" s="104">
+        <f t="shared" ref="M28" ca="1" si="84">RANDBETWEEN(20,60)+M27</f>
+        <v>552</v>
+      </c>
+      <c r="N28" s="104">
+        <f t="shared" ref="N28" ca="1" si="85">RANDBETWEEN(20,60)+N27</f>
+        <v>521</v>
+      </c>
+      <c r="O28" s="104">
+        <f t="shared" ref="O28" ca="1" si="86">RANDBETWEEN(20,60)+O27</f>
+        <v>547</v>
+      </c>
+      <c r="P28" s="104">
+        <f t="shared" ref="P28" ca="1" si="87">RANDBETWEEN(20,60)+P27</f>
+        <v>547</v>
+      </c>
+      <c r="Q28" s="104">
+        <f t="shared" ref="Q28" ca="1" si="88">RANDBETWEEN(20,60)+Q27</f>
         <v>531</v>
       </c>
-      <c r="I28" s="104">
-        <f t="shared" ref="I28" ca="1" si="85">RANDBETWEEN(20,60)+I27</f>
-        <v>522</v>
-      </c>
-      <c r="J28" s="104">
-        <f t="shared" ref="J28" ca="1" si="86">RANDBETWEEN(20,60)+J27</f>
-        <v>529</v>
-      </c>
-      <c r="K28" s="104">
-        <f t="shared" ref="K28" ca="1" si="87">RANDBETWEEN(20,60)+K27</f>
-        <v>535</v>
-      </c>
-      <c r="L28" s="104">
-        <f t="shared" ref="L28" ca="1" si="88">RANDBETWEEN(20,60)+L27</f>
-        <v>527</v>
-      </c>
-      <c r="M28" s="104">
-        <f t="shared" ref="M28" ca="1" si="89">RANDBETWEEN(20,60)+M27</f>
-        <v>534</v>
-      </c>
-      <c r="N28" s="104">
-        <f t="shared" ref="N28" ca="1" si="90">RANDBETWEEN(20,60)+N27</f>
-        <v>538</v>
-      </c>
-      <c r="O28" s="104">
-        <f t="shared" ref="O28" ca="1" si="91">RANDBETWEEN(20,60)+O27</f>
-        <v>523</v>
-      </c>
-      <c r="P28" s="104">
-        <f t="shared" ref="P28" ca="1" si="92">RANDBETWEEN(20,60)+P27</f>
-        <v>554</v>
-      </c>
-      <c r="Q28" s="104">
-        <f t="shared" ref="Q28" ca="1" si="93">RANDBETWEEN(20,60)+Q27</f>
-        <v>529</v>
-      </c>
-      <c r="R28" s="104">
-        <f t="shared" ref="R28" ca="1" si="94">RANDBETWEEN(20,60)+R27</f>
-        <v>521</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="122" t="s">
         <v>26</v>
       </c>
@@ -22492,67 +22393,63 @@
         <v>53</v>
       </c>
       <c r="D29" s="104">
-        <f t="shared" ref="D29:R29" ca="1" si="95">D28-D27</f>
+        <f t="shared" ref="D29:Q29" ca="1" si="89">D28-D27</f>
         <v>42</v>
       </c>
       <c r="E29" s="104">
-        <f t="shared" ca="1" si="95"/>
-        <v>26</v>
+        <f t="shared" ca="1" si="89"/>
+        <v>47</v>
       </c>
       <c r="F29" s="104">
-        <f t="shared" ca="1" si="95"/>
-        <v>32</v>
+        <f t="shared" ca="1" si="89"/>
+        <v>39</v>
       </c>
       <c r="G29" s="104">
-        <f t="shared" ca="1" si="95"/>
-        <v>56</v>
+        <f t="shared" ca="1" si="89"/>
+        <v>28</v>
       </c>
       <c r="H29" s="104">
-        <f t="shared" ca="1" si="95"/>
+        <f t="shared" ca="1" si="89"/>
+        <v>40</v>
+      </c>
+      <c r="I29" s="104">
+        <f t="shared" ca="1" si="89"/>
+        <v>43</v>
+      </c>
+      <c r="J29" s="104">
+        <f t="shared" ca="1" si="89"/>
+        <v>29</v>
+      </c>
+      <c r="K29" s="104">
+        <f t="shared" ca="1" si="89"/>
+        <v>39</v>
+      </c>
+      <c r="L29" s="104">
+        <f t="shared" ca="1" si="89"/>
+        <v>53</v>
+      </c>
+      <c r="M29" s="104">
+        <f t="shared" ca="1" si="89"/>
+        <v>52</v>
+      </c>
+      <c r="N29" s="104">
+        <f t="shared" ca="1" si="89"/>
+        <v>21</v>
+      </c>
+      <c r="O29" s="104">
+        <f t="shared" ca="1" si="89"/>
+        <v>47</v>
+      </c>
+      <c r="P29" s="104">
+        <f t="shared" ca="1" si="89"/>
+        <v>47</v>
+      </c>
+      <c r="Q29" s="104">
+        <f t="shared" ca="1" si="89"/>
         <v>31</v>
       </c>
-      <c r="I29" s="104">
-        <f t="shared" ca="1" si="95"/>
-        <v>22</v>
-      </c>
-      <c r="J29" s="104">
-        <f t="shared" ca="1" si="95"/>
-        <v>29</v>
-      </c>
-      <c r="K29" s="104">
-        <f t="shared" ca="1" si="95"/>
-        <v>35</v>
-      </c>
-      <c r="L29" s="104">
-        <f t="shared" ca="1" si="95"/>
-        <v>27</v>
-      </c>
-      <c r="M29" s="104">
-        <f t="shared" ca="1" si="95"/>
-        <v>34</v>
-      </c>
-      <c r="N29" s="104">
-        <f t="shared" ca="1" si="95"/>
-        <v>38</v>
-      </c>
-      <c r="O29" s="104">
-        <f t="shared" ca="1" si="95"/>
-        <v>23</v>
-      </c>
-      <c r="P29" s="104">
-        <f t="shared" ca="1" si="95"/>
-        <v>54</v>
-      </c>
-      <c r="Q29" s="104">
-        <f t="shared" ca="1" si="95"/>
-        <v>29</v>
-      </c>
-      <c r="R29" s="104">
-        <f t="shared" ca="1" si="95"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="122" t="s">
         <v>26</v>
       </c>
@@ -22604,11 +22501,8 @@
       <c r="Q30" s="104">
         <v>500</v>
       </c>
-      <c r="R30" s="104">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="122" t="s">
         <v>26</v>
       </c>
@@ -22620,66 +22514,62 @@
       </c>
       <c r="D31" s="104">
         <f ca="1">RANDBETWEEN(20,60)+D30</f>
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="E31" s="104">
-        <f t="shared" ref="E31" ca="1" si="96">RANDBETWEEN(20,60)+E30</f>
-        <v>559</v>
+        <f t="shared" ref="E31" ca="1" si="90">RANDBETWEEN(20,60)+E30</f>
+        <v>541</v>
       </c>
       <c r="F31" s="104">
-        <f t="shared" ref="F31" ca="1" si="97">RANDBETWEEN(20,60)+F30</f>
-        <v>554</v>
+        <f t="shared" ref="F31" ca="1" si="91">RANDBETWEEN(20,60)+F30</f>
+        <v>541</v>
       </c>
       <c r="G31" s="104">
-        <f t="shared" ref="G31" ca="1" si="98">RANDBETWEEN(20,60)+G30</f>
+        <f t="shared" ref="G31" ca="1" si="92">RANDBETWEEN(20,60)+G30</f>
+        <v>538</v>
+      </c>
+      <c r="H31" s="104">
+        <f t="shared" ref="H31" ca="1" si="93">RANDBETWEEN(20,60)+H30</f>
+        <v>560</v>
+      </c>
+      <c r="I31" s="104">
+        <f t="shared" ref="I31" ca="1" si="94">RANDBETWEEN(20,60)+I30</f>
+        <v>541</v>
+      </c>
+      <c r="J31" s="104">
+        <f t="shared" ref="J31" ca="1" si="95">RANDBETWEEN(20,60)+J30</f>
+        <v>542</v>
+      </c>
+      <c r="K31" s="104">
+        <f t="shared" ref="K31" ca="1" si="96">RANDBETWEEN(20,60)+K30</f>
+        <v>534</v>
+      </c>
+      <c r="L31" s="104">
+        <f t="shared" ref="L31" ca="1" si="97">RANDBETWEEN(20,60)+L30</f>
+        <v>530</v>
+      </c>
+      <c r="M31" s="104">
+        <f t="shared" ref="M31" ca="1" si="98">RANDBETWEEN(20,60)+M30</f>
+        <v>546</v>
+      </c>
+      <c r="N31" s="104">
+        <f t="shared" ref="N31" ca="1" si="99">RANDBETWEEN(20,60)+N30</f>
         <v>536</v>
       </c>
-      <c r="H31" s="104">
-        <f t="shared" ref="H31" ca="1" si="99">RANDBETWEEN(20,60)+H30</f>
-        <v>522</v>
-      </c>
-      <c r="I31" s="104">
-        <f t="shared" ref="I31" ca="1" si="100">RANDBETWEEN(20,60)+I30</f>
-        <v>531</v>
-      </c>
-      <c r="J31" s="104">
-        <f t="shared" ref="J31" ca="1" si="101">RANDBETWEEN(20,60)+J30</f>
-        <v>543</v>
-      </c>
-      <c r="K31" s="104">
-        <f t="shared" ref="K31" ca="1" si="102">RANDBETWEEN(20,60)+K30</f>
-        <v>536</v>
-      </c>
-      <c r="L31" s="104">
-        <f t="shared" ref="L31" ca="1" si="103">RANDBETWEEN(20,60)+L30</f>
-        <v>541</v>
-      </c>
-      <c r="M31" s="104">
-        <f t="shared" ref="M31" ca="1" si="104">RANDBETWEEN(20,60)+M30</f>
-        <v>520</v>
-      </c>
-      <c r="N31" s="104">
-        <f t="shared" ref="N31" ca="1" si="105">RANDBETWEEN(20,60)+N30</f>
-        <v>552</v>
-      </c>
       <c r="O31" s="104">
-        <f t="shared" ref="O31" ca="1" si="106">RANDBETWEEN(20,60)+O30</f>
-        <v>556</v>
+        <f t="shared" ref="O31" ca="1" si="100">RANDBETWEEN(20,60)+O30</f>
+        <v>538</v>
       </c>
       <c r="P31" s="104">
-        <f t="shared" ref="P31" ca="1" si="107">RANDBETWEEN(20,60)+P30</f>
-        <v>526</v>
+        <f t="shared" ref="P31" ca="1" si="101">RANDBETWEEN(20,60)+P30</f>
+        <v>530</v>
       </c>
       <c r="Q31" s="104">
-        <f t="shared" ref="Q31" ca="1" si="108">RANDBETWEEN(20,60)+Q30</f>
-        <v>553</v>
-      </c>
-      <c r="R31" s="104">
-        <f t="shared" ref="R31" ca="1" si="109">RANDBETWEEN(20,60)+R30</f>
-        <v>533</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" ref="Q31" ca="1" si="102">RANDBETWEEN(20,60)+Q30</f>
+        <v>523</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="122" t="s">
         <v>26</v>
       </c>
@@ -22690,67 +22580,63 @@
         <v>53</v>
       </c>
       <c r="D32" s="104">
-        <f t="shared" ref="D32:R32" ca="1" si="110">D31-D30</f>
-        <v>55</v>
+        <f t="shared" ref="D32:Q32" ca="1" si="103">D31-D30</f>
+        <v>40</v>
       </c>
       <c r="E32" s="104">
-        <f t="shared" ca="1" si="110"/>
-        <v>59</v>
+        <f t="shared" ca="1" si="103"/>
+        <v>41</v>
       </c>
       <c r="F32" s="104">
-        <f t="shared" ca="1" si="110"/>
-        <v>54</v>
+        <f t="shared" ca="1" si="103"/>
+        <v>41</v>
       </c>
       <c r="G32" s="104">
-        <f t="shared" ca="1" si="110"/>
+        <f t="shared" ca="1" si="103"/>
+        <v>38</v>
+      </c>
+      <c r="H32" s="104">
+        <f t="shared" ca="1" si="103"/>
+        <v>60</v>
+      </c>
+      <c r="I32" s="104">
+        <f t="shared" ca="1" si="103"/>
+        <v>41</v>
+      </c>
+      <c r="J32" s="104">
+        <f t="shared" ca="1" si="103"/>
+        <v>42</v>
+      </c>
+      <c r="K32" s="104">
+        <f t="shared" ca="1" si="103"/>
+        <v>34</v>
+      </c>
+      <c r="L32" s="104">
+        <f t="shared" ca="1" si="103"/>
+        <v>30</v>
+      </c>
+      <c r="M32" s="104">
+        <f t="shared" ca="1" si="103"/>
+        <v>46</v>
+      </c>
+      <c r="N32" s="104">
+        <f t="shared" ca="1" si="103"/>
         <v>36</v>
       </c>
-      <c r="H32" s="104">
-        <f t="shared" ca="1" si="110"/>
-        <v>22</v>
-      </c>
-      <c r="I32" s="104">
-        <f t="shared" ca="1" si="110"/>
-        <v>31</v>
-      </c>
-      <c r="J32" s="104">
-        <f t="shared" ca="1" si="110"/>
-        <v>43</v>
-      </c>
-      <c r="K32" s="104">
-        <f t="shared" ca="1" si="110"/>
-        <v>36</v>
-      </c>
-      <c r="L32" s="104">
-        <f t="shared" ca="1" si="110"/>
-        <v>41</v>
-      </c>
-      <c r="M32" s="104">
-        <f t="shared" ca="1" si="110"/>
-        <v>20</v>
-      </c>
-      <c r="N32" s="104">
-        <f t="shared" ca="1" si="110"/>
-        <v>52</v>
-      </c>
       <c r="O32" s="104">
-        <f t="shared" ca="1" si="110"/>
-        <v>56</v>
+        <f t="shared" ca="1" si="103"/>
+        <v>38</v>
       </c>
       <c r="P32" s="104">
-        <f t="shared" ca="1" si="110"/>
-        <v>26</v>
+        <f t="shared" ca="1" si="103"/>
+        <v>30</v>
       </c>
       <c r="Q32" s="104">
-        <f t="shared" ca="1" si="110"/>
-        <v>53</v>
-      </c>
-      <c r="R32" s="104">
-        <f t="shared" ca="1" si="110"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="103"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="123" t="s">
         <v>32</v>
       </c>
@@ -22802,11 +22688,8 @@
       <c r="Q33" s="105">
         <v>500</v>
       </c>
-      <c r="R33" s="105">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="123" t="s">
         <v>32</v>
       </c>
@@ -22818,66 +22701,62 @@
       </c>
       <c r="D34" s="105">
         <f ca="1">RANDBETWEEN(20,60)+D33</f>
+        <v>549</v>
+      </c>
+      <c r="E34" s="105">
+        <f t="shared" ref="E34" ca="1" si="104">RANDBETWEEN(20,60)+E33</f>
+        <v>534</v>
+      </c>
+      <c r="F34" s="105">
+        <f t="shared" ref="F34" ca="1" si="105">RANDBETWEEN(20,60)+F33</f>
+        <v>529</v>
+      </c>
+      <c r="G34" s="105">
+        <f t="shared" ref="G34" ca="1" si="106">RANDBETWEEN(20,60)+G33</f>
+        <v>553</v>
+      </c>
+      <c r="H34" s="105">
+        <f t="shared" ref="H34" ca="1" si="107">RANDBETWEEN(20,60)+H33</f>
+        <v>538</v>
+      </c>
+      <c r="I34" s="105">
+        <f t="shared" ref="I34" ca="1" si="108">RANDBETWEEN(20,60)+I33</f>
+        <v>529</v>
+      </c>
+      <c r="J34" s="105">
+        <f t="shared" ref="J34" ca="1" si="109">RANDBETWEEN(20,60)+J33</f>
+        <v>536</v>
+      </c>
+      <c r="K34" s="105">
+        <f t="shared" ref="K34" ca="1" si="110">RANDBETWEEN(20,60)+K33</f>
+        <v>542</v>
+      </c>
+      <c r="L34" s="105">
+        <f t="shared" ref="L34" ca="1" si="111">RANDBETWEEN(20,60)+L33</f>
         <v>544</v>
       </c>
-      <c r="E34" s="105">
-        <f t="shared" ref="E34" ca="1" si="111">RANDBETWEEN(20,60)+E33</f>
-        <v>523</v>
-      </c>
-      <c r="F34" s="105">
-        <f t="shared" ref="F34" ca="1" si="112">RANDBETWEEN(20,60)+F33</f>
-        <v>557</v>
-      </c>
-      <c r="G34" s="105">
-        <f t="shared" ref="G34" ca="1" si="113">RANDBETWEEN(20,60)+G33</f>
-        <v>532</v>
-      </c>
-      <c r="H34" s="105">
-        <f t="shared" ref="H34" ca="1" si="114">RANDBETWEEN(20,60)+H33</f>
-        <v>530</v>
-      </c>
-      <c r="I34" s="105">
-        <f t="shared" ref="I34" ca="1" si="115">RANDBETWEEN(20,60)+I33</f>
-        <v>560</v>
-      </c>
-      <c r="J34" s="105">
-        <f t="shared" ref="J34" ca="1" si="116">RANDBETWEEN(20,60)+J33</f>
-        <v>557</v>
-      </c>
-      <c r="K34" s="105">
-        <f t="shared" ref="K34" ca="1" si="117">RANDBETWEEN(20,60)+K33</f>
-        <v>546</v>
-      </c>
-      <c r="L34" s="105">
-        <f t="shared" ref="L34" ca="1" si="118">RANDBETWEEN(20,60)+L33</f>
-        <v>530</v>
-      </c>
       <c r="M34" s="105">
-        <f t="shared" ref="M34" ca="1" si="119">RANDBETWEEN(20,60)+M33</f>
+        <f t="shared" ref="M34" ca="1" si="112">RANDBETWEEN(20,60)+M33</f>
+        <v>550</v>
+      </c>
+      <c r="N34" s="105">
+        <f t="shared" ref="N34" ca="1" si="113">RANDBETWEEN(20,60)+N33</f>
+        <v>531</v>
+      </c>
+      <c r="O34" s="105">
+        <f t="shared" ref="O34" ca="1" si="114">RANDBETWEEN(20,60)+O33</f>
+        <v>547</v>
+      </c>
+      <c r="P34" s="105">
+        <f t="shared" ref="P34" ca="1" si="115">RANDBETWEEN(20,60)+P33</f>
         <v>558</v>
       </c>
-      <c r="N34" s="105">
-        <f t="shared" ref="N34" ca="1" si="120">RANDBETWEEN(20,60)+N33</f>
-        <v>539</v>
-      </c>
-      <c r="O34" s="105">
-        <f t="shared" ref="O34" ca="1" si="121">RANDBETWEEN(20,60)+O33</f>
+      <c r="Q34" s="105">
+        <f t="shared" ref="Q34" ca="1" si="116">RANDBETWEEN(20,60)+Q33</f>
         <v>529</v>
       </c>
-      <c r="P34" s="105">
-        <f t="shared" ref="P34" ca="1" si="122">RANDBETWEEN(20,60)+P33</f>
-        <v>535</v>
-      </c>
-      <c r="Q34" s="105">
-        <f t="shared" ref="Q34" ca="1" si="123">RANDBETWEEN(20,60)+Q33</f>
-        <v>535</v>
-      </c>
-      <c r="R34" s="105">
-        <f t="shared" ref="R34" ca="1" si="124">RANDBETWEEN(20,60)+R33</f>
-        <v>544</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="123" t="s">
         <v>32</v>
       </c>
@@ -22888,67 +22767,63 @@
         <v>53</v>
       </c>
       <c r="D35" s="105">
-        <f t="shared" ref="D35:R35" ca="1" si="125">D34-D33</f>
+        <f t="shared" ref="D35:Q35" ca="1" si="117">D34-D33</f>
+        <v>49</v>
+      </c>
+      <c r="E35" s="105">
+        <f t="shared" ca="1" si="117"/>
+        <v>34</v>
+      </c>
+      <c r="F35" s="105">
+        <f t="shared" ca="1" si="117"/>
+        <v>29</v>
+      </c>
+      <c r="G35" s="105">
+        <f t="shared" ca="1" si="117"/>
+        <v>53</v>
+      </c>
+      <c r="H35" s="105">
+        <f t="shared" ca="1" si="117"/>
+        <v>38</v>
+      </c>
+      <c r="I35" s="105">
+        <f t="shared" ca="1" si="117"/>
+        <v>29</v>
+      </c>
+      <c r="J35" s="105">
+        <f t="shared" ca="1" si="117"/>
+        <v>36</v>
+      </c>
+      <c r="K35" s="105">
+        <f t="shared" ca="1" si="117"/>
+        <v>42</v>
+      </c>
+      <c r="L35" s="105">
+        <f t="shared" ca="1" si="117"/>
         <v>44</v>
       </c>
-      <c r="E35" s="105">
-        <f t="shared" ca="1" si="125"/>
-        <v>23</v>
-      </c>
-      <c r="F35" s="105">
-        <f t="shared" ca="1" si="125"/>
-        <v>57</v>
-      </c>
-      <c r="G35" s="105">
-        <f t="shared" ca="1" si="125"/>
-        <v>32</v>
-      </c>
-      <c r="H35" s="105">
-        <f t="shared" ca="1" si="125"/>
-        <v>30</v>
-      </c>
-      <c r="I35" s="105">
-        <f t="shared" ca="1" si="125"/>
-        <v>60</v>
-      </c>
-      <c r="J35" s="105">
-        <f t="shared" ca="1" si="125"/>
-        <v>57</v>
-      </c>
-      <c r="K35" s="105">
-        <f t="shared" ca="1" si="125"/>
-        <v>46</v>
-      </c>
-      <c r="L35" s="105">
-        <f t="shared" ca="1" si="125"/>
-        <v>30</v>
-      </c>
       <c r="M35" s="105">
-        <f t="shared" ca="1" si="125"/>
+        <f t="shared" ca="1" si="117"/>
+        <v>50</v>
+      </c>
+      <c r="N35" s="105">
+        <f t="shared" ca="1" si="117"/>
+        <v>31</v>
+      </c>
+      <c r="O35" s="105">
+        <f t="shared" ca="1" si="117"/>
+        <v>47</v>
+      </c>
+      <c r="P35" s="105">
+        <f t="shared" ca="1" si="117"/>
         <v>58</v>
       </c>
-      <c r="N35" s="105">
-        <f t="shared" ca="1" si="125"/>
-        <v>39</v>
-      </c>
-      <c r="O35" s="105">
-        <f t="shared" ca="1" si="125"/>
+      <c r="Q35" s="105">
+        <f t="shared" ca="1" si="117"/>
         <v>29</v>
       </c>
-      <c r="P35" s="105">
-        <f t="shared" ca="1" si="125"/>
-        <v>35</v>
-      </c>
-      <c r="Q35" s="105">
-        <f t="shared" ca="1" si="125"/>
-        <v>35</v>
-      </c>
-      <c r="R35" s="105">
-        <f t="shared" ca="1" si="125"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="123" t="s">
         <v>32</v>
       </c>
@@ -23000,11 +22875,8 @@
       <c r="Q36" s="105">
         <v>500</v>
       </c>
-      <c r="R36" s="105">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="123" t="s">
         <v>32</v>
       </c>
@@ -23016,66 +22888,62 @@
       </c>
       <c r="D37" s="105">
         <f ca="1">RANDBETWEEN(20,60)+D36</f>
-        <v>550</v>
+        <v>526</v>
       </c>
       <c r="E37" s="105">
-        <f t="shared" ref="E37" ca="1" si="126">RANDBETWEEN(20,60)+E36</f>
-        <v>547</v>
+        <f t="shared" ref="E37" ca="1" si="118">RANDBETWEEN(20,60)+E36</f>
+        <v>557</v>
       </c>
       <c r="F37" s="105">
-        <f t="shared" ref="F37" ca="1" si="127">RANDBETWEEN(20,60)+F36</f>
-        <v>543</v>
+        <f t="shared" ref="F37" ca="1" si="119">RANDBETWEEN(20,60)+F36</f>
+        <v>545</v>
       </c>
       <c r="G37" s="105">
-        <f t="shared" ref="G37" ca="1" si="128">RANDBETWEEN(20,60)+G36</f>
-        <v>537</v>
+        <f t="shared" ref="G37" ca="1" si="120">RANDBETWEEN(20,60)+G36</f>
+        <v>540</v>
       </c>
       <c r="H37" s="105">
-        <f t="shared" ref="H37" ca="1" si="129">RANDBETWEEN(20,60)+H36</f>
+        <f t="shared" ref="H37" ca="1" si="121">RANDBETWEEN(20,60)+H36</f>
+        <v>545</v>
+      </c>
+      <c r="I37" s="105">
+        <f t="shared" ref="I37" ca="1" si="122">RANDBETWEEN(20,60)+I36</f>
+        <v>556</v>
+      </c>
+      <c r="J37" s="105">
+        <f t="shared" ref="J37" ca="1" si="123">RANDBETWEEN(20,60)+J36</f>
+        <v>544</v>
+      </c>
+      <c r="K37" s="105">
+        <f t="shared" ref="K37" ca="1" si="124">RANDBETWEEN(20,60)+K36</f>
+        <v>535</v>
+      </c>
+      <c r="L37" s="105">
+        <f t="shared" ref="L37" ca="1" si="125">RANDBETWEEN(20,60)+L36</f>
+        <v>541</v>
+      </c>
+      <c r="M37" s="105">
+        <f t="shared" ref="M37" ca="1" si="126">RANDBETWEEN(20,60)+M36</f>
+        <v>542</v>
+      </c>
+      <c r="N37" s="105">
+        <f t="shared" ref="N37" ca="1" si="127">RANDBETWEEN(20,60)+N36</f>
+        <v>551</v>
+      </c>
+      <c r="O37" s="105">
+        <f t="shared" ref="O37" ca="1" si="128">RANDBETWEEN(20,60)+O36</f>
+        <v>546</v>
+      </c>
+      <c r="P37" s="105">
+        <f t="shared" ref="P37" ca="1" si="129">RANDBETWEEN(20,60)+P36</f>
+        <v>558</v>
+      </c>
+      <c r="Q37" s="105">
+        <f t="shared" ref="Q37" ca="1" si="130">RANDBETWEEN(20,60)+Q36</f>
         <v>534</v>
       </c>
-      <c r="I37" s="105">
-        <f t="shared" ref="I37" ca="1" si="130">RANDBETWEEN(20,60)+I36</f>
-        <v>548</v>
-      </c>
-      <c r="J37" s="105">
-        <f t="shared" ref="J37" ca="1" si="131">RANDBETWEEN(20,60)+J36</f>
-        <v>540</v>
-      </c>
-      <c r="K37" s="105">
-        <f t="shared" ref="K37" ca="1" si="132">RANDBETWEEN(20,60)+K36</f>
-        <v>531</v>
-      </c>
-      <c r="L37" s="105">
-        <f t="shared" ref="L37" ca="1" si="133">RANDBETWEEN(20,60)+L36</f>
-        <v>540</v>
-      </c>
-      <c r="M37" s="105">
-        <f t="shared" ref="M37" ca="1" si="134">RANDBETWEEN(20,60)+M36</f>
-        <v>547</v>
-      </c>
-      <c r="N37" s="105">
-        <f t="shared" ref="N37" ca="1" si="135">RANDBETWEEN(20,60)+N36</f>
-        <v>541</v>
-      </c>
-      <c r="O37" s="105">
-        <f t="shared" ref="O37" ca="1" si="136">RANDBETWEEN(20,60)+O36</f>
-        <v>528</v>
-      </c>
-      <c r="P37" s="105">
-        <f t="shared" ref="P37" ca="1" si="137">RANDBETWEEN(20,60)+P36</f>
-        <v>535</v>
-      </c>
-      <c r="Q37" s="105">
-        <f t="shared" ref="Q37" ca="1" si="138">RANDBETWEEN(20,60)+Q36</f>
-        <v>543</v>
-      </c>
-      <c r="R37" s="105">
-        <f t="shared" ref="R37" ca="1" si="139">RANDBETWEEN(20,60)+R36</f>
-        <v>543</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="123" t="s">
         <v>32</v>
       </c>
@@ -23086,67 +22954,63 @@
         <v>53</v>
       </c>
       <c r="D38" s="105">
-        <f t="shared" ref="D38:R38" ca="1" si="140">D37-D36</f>
-        <v>50</v>
+        <f t="shared" ref="D38:Q38" ca="1" si="131">D37-D36</f>
+        <v>26</v>
       </c>
       <c r="E38" s="105">
-        <f t="shared" ca="1" si="140"/>
-        <v>47</v>
+        <f t="shared" ca="1" si="131"/>
+        <v>57</v>
       </c>
       <c r="F38" s="105">
-        <f t="shared" ca="1" si="140"/>
-        <v>43</v>
+        <f t="shared" ca="1" si="131"/>
+        <v>45</v>
       </c>
       <c r="G38" s="105">
-        <f t="shared" ca="1" si="140"/>
-        <v>37</v>
+        <f t="shared" ca="1" si="131"/>
+        <v>40</v>
       </c>
       <c r="H38" s="105">
-        <f t="shared" ca="1" si="140"/>
+        <f t="shared" ca="1" si="131"/>
+        <v>45</v>
+      </c>
+      <c r="I38" s="105">
+        <f t="shared" ca="1" si="131"/>
+        <v>56</v>
+      </c>
+      <c r="J38" s="105">
+        <f t="shared" ca="1" si="131"/>
+        <v>44</v>
+      </c>
+      <c r="K38" s="105">
+        <f t="shared" ca="1" si="131"/>
+        <v>35</v>
+      </c>
+      <c r="L38" s="105">
+        <f t="shared" ca="1" si="131"/>
+        <v>41</v>
+      </c>
+      <c r="M38" s="105">
+        <f t="shared" ca="1" si="131"/>
+        <v>42</v>
+      </c>
+      <c r="N38" s="105">
+        <f t="shared" ca="1" si="131"/>
+        <v>51</v>
+      </c>
+      <c r="O38" s="105">
+        <f t="shared" ca="1" si="131"/>
+        <v>46</v>
+      </c>
+      <c r="P38" s="105">
+        <f t="shared" ca="1" si="131"/>
+        <v>58</v>
+      </c>
+      <c r="Q38" s="105">
+        <f t="shared" ca="1" si="131"/>
         <v>34</v>
       </c>
-      <c r="I38" s="105">
-        <f t="shared" ca="1" si="140"/>
-        <v>48</v>
-      </c>
-      <c r="J38" s="105">
-        <f t="shared" ca="1" si="140"/>
-        <v>40</v>
-      </c>
-      <c r="K38" s="105">
-        <f t="shared" ca="1" si="140"/>
-        <v>31</v>
-      </c>
-      <c r="L38" s="105">
-        <f t="shared" ca="1" si="140"/>
-        <v>40</v>
-      </c>
-      <c r="M38" s="105">
-        <f t="shared" ca="1" si="140"/>
-        <v>47</v>
-      </c>
-      <c r="N38" s="105">
-        <f t="shared" ca="1" si="140"/>
-        <v>41</v>
-      </c>
-      <c r="O38" s="105">
-        <f t="shared" ca="1" si="140"/>
-        <v>28</v>
-      </c>
-      <c r="P38" s="105">
-        <f t="shared" ca="1" si="140"/>
-        <v>35</v>
-      </c>
-      <c r="Q38" s="105">
-        <f t="shared" ca="1" si="140"/>
-        <v>43</v>
-      </c>
-      <c r="R38" s="105">
-        <f t="shared" ca="1" si="140"/>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="123" t="s">
         <v>32</v>
       </c>
@@ -23198,11 +23062,8 @@
       <c r="Q39" s="105">
         <v>500</v>
       </c>
-      <c r="R39" s="105">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="123" t="s">
         <v>32</v>
       </c>
@@ -23214,66 +23075,62 @@
       </c>
       <c r="D40" s="105">
         <f ca="1">RANDBETWEEN(20,60)+D39</f>
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E40" s="105">
-        <f t="shared" ref="E40" ca="1" si="141">RANDBETWEEN(20,60)+E39</f>
-        <v>556</v>
+        <f t="shared" ref="E40" ca="1" si="132">RANDBETWEEN(20,60)+E39</f>
+        <v>530</v>
       </c>
       <c r="F40" s="105">
-        <f t="shared" ref="F40" ca="1" si="142">RANDBETWEEN(20,60)+F39</f>
-        <v>532</v>
+        <f t="shared" ref="F40" ca="1" si="133">RANDBETWEEN(20,60)+F39</f>
+        <v>523</v>
       </c>
       <c r="G40" s="105">
-        <f t="shared" ref="G40" ca="1" si="143">RANDBETWEEN(20,60)+G39</f>
+        <f t="shared" ref="G40" ca="1" si="134">RANDBETWEEN(20,60)+G39</f>
         <v>555</v>
       </c>
       <c r="H40" s="105">
-        <f t="shared" ref="H40" ca="1" si="144">RANDBETWEEN(20,60)+H39</f>
-        <v>533</v>
+        <f t="shared" ref="H40" ca="1" si="135">RANDBETWEEN(20,60)+H39</f>
+        <v>548</v>
       </c>
       <c r="I40" s="105">
-        <f t="shared" ref="I40" ca="1" si="145">RANDBETWEEN(20,60)+I39</f>
-        <v>557</v>
+        <f t="shared" ref="I40" ca="1" si="136">RANDBETWEEN(20,60)+I39</f>
+        <v>549</v>
       </c>
       <c r="J40" s="105">
-        <f t="shared" ref="J40" ca="1" si="146">RANDBETWEEN(20,60)+J39</f>
-        <v>533</v>
+        <f t="shared" ref="J40" ca="1" si="137">RANDBETWEEN(20,60)+J39</f>
+        <v>548</v>
       </c>
       <c r="K40" s="105">
-        <f t="shared" ref="K40" ca="1" si="147">RANDBETWEEN(20,60)+K39</f>
-        <v>547</v>
+        <f t="shared" ref="K40" ca="1" si="138">RANDBETWEEN(20,60)+K39</f>
+        <v>536</v>
       </c>
       <c r="L40" s="105">
-        <f t="shared" ref="L40" ca="1" si="148">RANDBETWEEN(20,60)+L39</f>
-        <v>543</v>
+        <f t="shared" ref="L40" ca="1" si="139">RANDBETWEEN(20,60)+L39</f>
+        <v>538</v>
       </c>
       <c r="M40" s="105">
-        <f t="shared" ref="M40" ca="1" si="149">RANDBETWEEN(20,60)+M39</f>
-        <v>521</v>
+        <f t="shared" ref="M40" ca="1" si="140">RANDBETWEEN(20,60)+M39</f>
+        <v>558</v>
       </c>
       <c r="N40" s="105">
-        <f t="shared" ref="N40" ca="1" si="150">RANDBETWEEN(20,60)+N39</f>
-        <v>541</v>
+        <f t="shared" ref="N40" ca="1" si="141">RANDBETWEEN(20,60)+N39</f>
+        <v>529</v>
       </c>
       <c r="O40" s="105">
-        <f t="shared" ref="O40" ca="1" si="151">RANDBETWEEN(20,60)+O39</f>
-        <v>529</v>
+        <f t="shared" ref="O40" ca="1" si="142">RANDBETWEEN(20,60)+O39</f>
+        <v>525</v>
       </c>
       <c r="P40" s="105">
-        <f t="shared" ref="P40" ca="1" si="152">RANDBETWEEN(20,60)+P39</f>
-        <v>557</v>
+        <f t="shared" ref="P40" ca="1" si="143">RANDBETWEEN(20,60)+P39</f>
+        <v>550</v>
       </c>
       <c r="Q40" s="105">
-        <f t="shared" ref="Q40" ca="1" si="153">RANDBETWEEN(20,60)+Q39</f>
-        <v>525</v>
-      </c>
-      <c r="R40" s="105">
-        <f t="shared" ref="R40" ca="1" si="154">RANDBETWEEN(20,60)+R39</f>
-        <v>523</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" ref="Q40" ca="1" si="144">RANDBETWEEN(20,60)+Q39</f>
+        <v>527</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="123" t="s">
         <v>32</v>
       </c>
@@ -23284,67 +23141,63 @@
         <v>53</v>
       </c>
       <c r="D41" s="105">
-        <f t="shared" ref="D41:R41" ca="1" si="155">D40-D39</f>
-        <v>43</v>
+        <f t="shared" ref="D41:Q41" ca="1" si="145">D40-D39</f>
+        <v>42</v>
       </c>
       <c r="E41" s="105">
-        <f t="shared" ca="1" si="155"/>
-        <v>56</v>
+        <f t="shared" ca="1" si="145"/>
+        <v>30</v>
       </c>
       <c r="F41" s="105">
-        <f t="shared" ca="1" si="155"/>
-        <v>32</v>
+        <f t="shared" ca="1" si="145"/>
+        <v>23</v>
       </c>
       <c r="G41" s="105">
-        <f t="shared" ca="1" si="155"/>
+        <f t="shared" ca="1" si="145"/>
         <v>55</v>
       </c>
       <c r="H41" s="105">
-        <f t="shared" ca="1" si="155"/>
-        <v>33</v>
+        <f t="shared" ca="1" si="145"/>
+        <v>48</v>
       </c>
       <c r="I41" s="105">
-        <f t="shared" ca="1" si="155"/>
-        <v>57</v>
+        <f t="shared" ca="1" si="145"/>
+        <v>49</v>
       </c>
       <c r="J41" s="105">
-        <f t="shared" ca="1" si="155"/>
-        <v>33</v>
+        <f t="shared" ca="1" si="145"/>
+        <v>48</v>
       </c>
       <c r="K41" s="105">
-        <f t="shared" ca="1" si="155"/>
-        <v>47</v>
+        <f t="shared" ca="1" si="145"/>
+        <v>36</v>
       </c>
       <c r="L41" s="105">
-        <f t="shared" ca="1" si="155"/>
-        <v>43</v>
+        <f t="shared" ca="1" si="145"/>
+        <v>38</v>
       </c>
       <c r="M41" s="105">
-        <f t="shared" ca="1" si="155"/>
-        <v>21</v>
+        <f t="shared" ca="1" si="145"/>
+        <v>58</v>
       </c>
       <c r="N41" s="105">
-        <f t="shared" ca="1" si="155"/>
-        <v>41</v>
+        <f t="shared" ca="1" si="145"/>
+        <v>29</v>
       </c>
       <c r="O41" s="105">
-        <f t="shared" ca="1" si="155"/>
-        <v>29</v>
+        <f t="shared" ca="1" si="145"/>
+        <v>25</v>
       </c>
       <c r="P41" s="105">
-        <f t="shared" ca="1" si="155"/>
-        <v>57</v>
+        <f t="shared" ca="1" si="145"/>
+        <v>50</v>
       </c>
       <c r="Q41" s="105">
-        <f t="shared" ca="1" si="155"/>
-        <v>25</v>
-      </c>
-      <c r="R41" s="105">
-        <f t="shared" ca="1" si="155"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="145"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="123" t="s">
         <v>32</v>
       </c>
@@ -23396,11 +23249,8 @@
       <c r="Q42" s="105">
         <v>500</v>
       </c>
-      <c r="R42" s="105">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="123" t="s">
         <v>32</v>
       </c>
@@ -23412,66 +23262,62 @@
       </c>
       <c r="D43" s="105">
         <f ca="1">RANDBETWEEN(20,60)+D42</f>
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="E43" s="105">
-        <f t="shared" ref="E43" ca="1" si="156">RANDBETWEEN(20,60)+E42</f>
-        <v>539</v>
+        <f t="shared" ref="E43" ca="1" si="146">RANDBETWEEN(20,60)+E42</f>
+        <v>522</v>
       </c>
       <c r="F43" s="105">
-        <f t="shared" ref="F43" ca="1" si="157">RANDBETWEEN(20,60)+F42</f>
-        <v>545</v>
+        <f t="shared" ref="F43" ca="1" si="147">RANDBETWEEN(20,60)+F42</f>
+        <v>535</v>
       </c>
       <c r="G43" s="105">
-        <f t="shared" ref="G43" ca="1" si="158">RANDBETWEEN(20,60)+G42</f>
-        <v>535</v>
+        <f t="shared" ref="G43" ca="1" si="148">RANDBETWEEN(20,60)+G42</f>
+        <v>548</v>
       </c>
       <c r="H43" s="105">
-        <f t="shared" ref="H43" ca="1" si="159">RANDBETWEEN(20,60)+H42</f>
+        <f t="shared" ref="H43" ca="1" si="149">RANDBETWEEN(20,60)+H42</f>
+        <v>530</v>
+      </c>
+      <c r="I43" s="105">
+        <f t="shared" ref="I43" ca="1" si="150">RANDBETWEEN(20,60)+I42</f>
+        <v>524</v>
+      </c>
+      <c r="J43" s="105">
+        <f t="shared" ref="J43" ca="1" si="151">RANDBETWEEN(20,60)+J42</f>
         <v>538</v>
       </c>
-      <c r="I43" s="105">
-        <f t="shared" ref="I43" ca="1" si="160">RANDBETWEEN(20,60)+I42</f>
-        <v>559</v>
-      </c>
-      <c r="J43" s="105">
-        <f t="shared" ref="J43" ca="1" si="161">RANDBETWEEN(20,60)+J42</f>
-        <v>545</v>
-      </c>
       <c r="K43" s="105">
-        <f t="shared" ref="K43" ca="1" si="162">RANDBETWEEN(20,60)+K42</f>
-        <v>530</v>
+        <f t="shared" ref="K43" ca="1" si="152">RANDBETWEEN(20,60)+K42</f>
+        <v>524</v>
       </c>
       <c r="L43" s="105">
-        <f t="shared" ref="L43" ca="1" si="163">RANDBETWEEN(20,60)+L42</f>
-        <v>529</v>
+        <f t="shared" ref="L43" ca="1" si="153">RANDBETWEEN(20,60)+L42</f>
+        <v>558</v>
       </c>
       <c r="M43" s="105">
-        <f t="shared" ref="M43" ca="1" si="164">RANDBETWEEN(20,60)+M42</f>
-        <v>542</v>
+        <f t="shared" ref="M43" ca="1" si="154">RANDBETWEEN(20,60)+M42</f>
+        <v>551</v>
       </c>
       <c r="N43" s="105">
-        <f t="shared" ref="N43" ca="1" si="165">RANDBETWEEN(20,60)+N42</f>
-        <v>520</v>
+        <f t="shared" ref="N43" ca="1" si="155">RANDBETWEEN(20,60)+N42</f>
+        <v>540</v>
       </c>
       <c r="O43" s="105">
-        <f t="shared" ref="O43" ca="1" si="166">RANDBETWEEN(20,60)+O42</f>
-        <v>552</v>
+        <f t="shared" ref="O43" ca="1" si="156">RANDBETWEEN(20,60)+O42</f>
+        <v>548</v>
       </c>
       <c r="P43" s="105">
-        <f t="shared" ref="P43" ca="1" si="167">RANDBETWEEN(20,60)+P42</f>
-        <v>535</v>
+        <f t="shared" ref="P43" ca="1" si="157">RANDBETWEEN(20,60)+P42</f>
+        <v>560</v>
       </c>
       <c r="Q43" s="105">
-        <f t="shared" ref="Q43" ca="1" si="168">RANDBETWEEN(20,60)+Q42</f>
-        <v>527</v>
-      </c>
-      <c r="R43" s="105">
-        <f t="shared" ref="R43" ca="1" si="169">RANDBETWEEN(20,60)+R42</f>
-        <v>539</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" ref="Q43" ca="1" si="158">RANDBETWEEN(20,60)+Q42</f>
+        <v>547</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="123" t="s">
         <v>32</v>
       </c>
@@ -23482,67 +23328,63 @@
         <v>53</v>
       </c>
       <c r="D44" s="105">
-        <f t="shared" ref="D44:R44" ca="1" si="170">D43-D42</f>
-        <v>26</v>
+        <f t="shared" ref="D44:Q44" ca="1" si="159">D43-D42</f>
+        <v>20</v>
       </c>
       <c r="E44" s="105">
-        <f t="shared" ca="1" si="170"/>
-        <v>39</v>
+        <f t="shared" ca="1" si="159"/>
+        <v>22</v>
       </c>
       <c r="F44" s="105">
-        <f t="shared" ca="1" si="170"/>
-        <v>45</v>
+        <f t="shared" ca="1" si="159"/>
+        <v>35</v>
       </c>
       <c r="G44" s="105">
-        <f t="shared" ca="1" si="170"/>
-        <v>35</v>
+        <f t="shared" ca="1" si="159"/>
+        <v>48</v>
       </c>
       <c r="H44" s="105">
-        <f t="shared" ca="1" si="170"/>
+        <f t="shared" ca="1" si="159"/>
+        <v>30</v>
+      </c>
+      <c r="I44" s="105">
+        <f t="shared" ca="1" si="159"/>
+        <v>24</v>
+      </c>
+      <c r="J44" s="105">
+        <f t="shared" ca="1" si="159"/>
         <v>38</v>
       </c>
-      <c r="I44" s="105">
-        <f t="shared" ca="1" si="170"/>
-        <v>59</v>
-      </c>
-      <c r="J44" s="105">
-        <f t="shared" ca="1" si="170"/>
-        <v>45</v>
-      </c>
       <c r="K44" s="105">
-        <f t="shared" ca="1" si="170"/>
-        <v>30</v>
+        <f t="shared" ca="1" si="159"/>
+        <v>24</v>
       </c>
       <c r="L44" s="105">
-        <f t="shared" ca="1" si="170"/>
-        <v>29</v>
+        <f t="shared" ca="1" si="159"/>
+        <v>58</v>
       </c>
       <c r="M44" s="105">
-        <f t="shared" ca="1" si="170"/>
-        <v>42</v>
+        <f t="shared" ca="1" si="159"/>
+        <v>51</v>
       </c>
       <c r="N44" s="105">
-        <f t="shared" ca="1" si="170"/>
-        <v>20</v>
+        <f t="shared" ca="1" si="159"/>
+        <v>40</v>
       </c>
       <c r="O44" s="105">
-        <f t="shared" ca="1" si="170"/>
-        <v>52</v>
+        <f t="shared" ca="1" si="159"/>
+        <v>48</v>
       </c>
       <c r="P44" s="105">
-        <f t="shared" ca="1" si="170"/>
-        <v>35</v>
+        <f t="shared" ca="1" si="159"/>
+        <v>60</v>
       </c>
       <c r="Q44" s="105">
-        <f t="shared" ca="1" si="170"/>
-        <v>27</v>
-      </c>
-      <c r="R44" s="105">
-        <f t="shared" ca="1" si="170"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="159"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="123" t="s">
         <v>32</v>
       </c>
@@ -23594,11 +23436,8 @@
       <c r="Q45" s="105">
         <v>500</v>
       </c>
-      <c r="R45" s="105">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="123" t="s">
         <v>32</v>
       </c>
@@ -23610,66 +23449,62 @@
       </c>
       <c r="D46" s="105">
         <f ca="1">RANDBETWEEN(20,60)+D45</f>
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="E46" s="105">
-        <f t="shared" ref="E46" ca="1" si="171">RANDBETWEEN(20,60)+E45</f>
+        <f t="shared" ref="E46" ca="1" si="160">RANDBETWEEN(20,60)+E45</f>
+        <v>529</v>
+      </c>
+      <c r="F46" s="105">
+        <f t="shared" ref="F46" ca="1" si="161">RANDBETWEEN(20,60)+F45</f>
+        <v>551</v>
+      </c>
+      <c r="G46" s="105">
+        <f t="shared" ref="G46" ca="1" si="162">RANDBETWEEN(20,60)+G45</f>
+        <v>539</v>
+      </c>
+      <c r="H46" s="105">
+        <f t="shared" ref="H46" ca="1" si="163">RANDBETWEEN(20,60)+H45</f>
+        <v>539</v>
+      </c>
+      <c r="I46" s="105">
+        <f t="shared" ref="I46" ca="1" si="164">RANDBETWEEN(20,60)+I45</f>
+        <v>542</v>
+      </c>
+      <c r="J46" s="105">
+        <f t="shared" ref="J46" ca="1" si="165">RANDBETWEEN(20,60)+J45</f>
+        <v>553</v>
+      </c>
+      <c r="K46" s="105">
+        <f t="shared" ref="K46" ca="1" si="166">RANDBETWEEN(20,60)+K45</f>
+        <v>524</v>
+      </c>
+      <c r="L46" s="105">
+        <f t="shared" ref="L46" ca="1" si="167">RANDBETWEEN(20,60)+L45</f>
+        <v>539</v>
+      </c>
+      <c r="M46" s="105">
+        <f t="shared" ref="M46" ca="1" si="168">RANDBETWEEN(20,60)+M45</f>
+        <v>545</v>
+      </c>
+      <c r="N46" s="105">
+        <f t="shared" ref="N46" ca="1" si="169">RANDBETWEEN(20,60)+N45</f>
+        <v>527</v>
+      </c>
+      <c r="O46" s="105">
+        <f t="shared" ref="O46" ca="1" si="170">RANDBETWEEN(20,60)+O45</f>
         <v>521</v>
       </c>
-      <c r="F46" s="105">
-        <f t="shared" ref="F46" ca="1" si="172">RANDBETWEEN(20,60)+F45</f>
+      <c r="P46" s="105">
+        <f t="shared" ref="P46" ca="1" si="171">RANDBETWEEN(20,60)+P45</f>
+        <v>541</v>
+      </c>
+      <c r="Q46" s="105">
+        <f t="shared" ref="Q46" ca="1" si="172">RANDBETWEEN(20,60)+Q45</f>
         <v>529</v>
       </c>
-      <c r="G46" s="105">
-        <f t="shared" ref="G46" ca="1" si="173">RANDBETWEEN(20,60)+G45</f>
-        <v>526</v>
-      </c>
-      <c r="H46" s="105">
-        <f t="shared" ref="H46" ca="1" si="174">RANDBETWEEN(20,60)+H45</f>
-        <v>545</v>
-      </c>
-      <c r="I46" s="105">
-        <f t="shared" ref="I46" ca="1" si="175">RANDBETWEEN(20,60)+I45</f>
-        <v>531</v>
-      </c>
-      <c r="J46" s="105">
-        <f t="shared" ref="J46" ca="1" si="176">RANDBETWEEN(20,60)+J45</f>
-        <v>553</v>
-      </c>
-      <c r="K46" s="105">
-        <f t="shared" ref="K46" ca="1" si="177">RANDBETWEEN(20,60)+K45</f>
-        <v>521</v>
-      </c>
-      <c r="L46" s="105">
-        <f t="shared" ref="L46" ca="1" si="178">RANDBETWEEN(20,60)+L45</f>
-        <v>544</v>
-      </c>
-      <c r="M46" s="105">
-        <f t="shared" ref="M46" ca="1" si="179">RANDBETWEEN(20,60)+M45</f>
-        <v>526</v>
-      </c>
-      <c r="N46" s="105">
-        <f t="shared" ref="N46" ca="1" si="180">RANDBETWEEN(20,60)+N45</f>
-        <v>535</v>
-      </c>
-      <c r="O46" s="105">
-        <f t="shared" ref="O46" ca="1" si="181">RANDBETWEEN(20,60)+O45</f>
-        <v>542</v>
-      </c>
-      <c r="P46" s="105">
-        <f t="shared" ref="P46" ca="1" si="182">RANDBETWEEN(20,60)+P45</f>
-        <v>532</v>
-      </c>
-      <c r="Q46" s="105">
-        <f t="shared" ref="Q46" ca="1" si="183">RANDBETWEEN(20,60)+Q45</f>
-        <v>526</v>
-      </c>
-      <c r="R46" s="105">
-        <f t="shared" ref="R46" ca="1" si="184">RANDBETWEEN(20,60)+R45</f>
-        <v>555</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="123" t="s">
         <v>32</v>
       </c>
@@ -23680,71 +23515,67 @@
         <v>53</v>
       </c>
       <c r="D47" s="105">
-        <f t="shared" ref="D47:R47" ca="1" si="185">D46-D45</f>
-        <v>47</v>
+        <f t="shared" ref="D47:Q47" ca="1" si="173">D46-D45</f>
+        <v>58</v>
       </c>
       <c r="E47" s="105">
-        <f t="shared" ca="1" si="185"/>
+        <f t="shared" ca="1" si="173"/>
+        <v>29</v>
+      </c>
+      <c r="F47" s="105">
+        <f t="shared" ca="1" si="173"/>
+        <v>51</v>
+      </c>
+      <c r="G47" s="105">
+        <f t="shared" ca="1" si="173"/>
+        <v>39</v>
+      </c>
+      <c r="H47" s="105">
+        <f t="shared" ca="1" si="173"/>
+        <v>39</v>
+      </c>
+      <c r="I47" s="105">
+        <f t="shared" ca="1" si="173"/>
+        <v>42</v>
+      </c>
+      <c r="J47" s="105">
+        <f t="shared" ca="1" si="173"/>
+        <v>53</v>
+      </c>
+      <c r="K47" s="105">
+        <f t="shared" ca="1" si="173"/>
+        <v>24</v>
+      </c>
+      <c r="L47" s="105">
+        <f t="shared" ca="1" si="173"/>
+        <v>39</v>
+      </c>
+      <c r="M47" s="105">
+        <f t="shared" ca="1" si="173"/>
+        <v>45</v>
+      </c>
+      <c r="N47" s="105">
+        <f t="shared" ca="1" si="173"/>
+        <v>27</v>
+      </c>
+      <c r="O47" s="105">
+        <f t="shared" ca="1" si="173"/>
         <v>21</v>
       </c>
-      <c r="F47" s="105">
-        <f t="shared" ca="1" si="185"/>
+      <c r="P47" s="105">
+        <f t="shared" ca="1" si="173"/>
+        <v>41</v>
+      </c>
+      <c r="Q47" s="105">
+        <f t="shared" ca="1" si="173"/>
         <v>29</v>
-      </c>
-      <c r="G47" s="105">
-        <f t="shared" ca="1" si="185"/>
-        <v>26</v>
-      </c>
-      <c r="H47" s="105">
-        <f t="shared" ca="1" si="185"/>
-        <v>45</v>
-      </c>
-      <c r="I47" s="105">
-        <f t="shared" ca="1" si="185"/>
-        <v>31</v>
-      </c>
-      <c r="J47" s="105">
-        <f t="shared" ca="1" si="185"/>
-        <v>53</v>
-      </c>
-      <c r="K47" s="105">
-        <f t="shared" ca="1" si="185"/>
-        <v>21</v>
-      </c>
-      <c r="L47" s="105">
-        <f t="shared" ca="1" si="185"/>
-        <v>44</v>
-      </c>
-      <c r="M47" s="105">
-        <f t="shared" ca="1" si="185"/>
-        <v>26</v>
-      </c>
-      <c r="N47" s="105">
-        <f t="shared" ca="1" si="185"/>
-        <v>35</v>
-      </c>
-      <c r="O47" s="105">
-        <f t="shared" ca="1" si="185"/>
-        <v>42</v>
-      </c>
-      <c r="P47" s="105">
-        <f t="shared" ca="1" si="185"/>
-        <v>32</v>
-      </c>
-      <c r="Q47" s="105">
-        <f t="shared" ca="1" si="185"/>
-        <v>26</v>
-      </c>
-      <c r="R47" s="105">
-        <f t="shared" ca="1" si="185"/>
-        <v>55</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
-    <mergeCell ref="D1:R1"/>
+    <mergeCell ref="D1:Q1"/>
     <mergeCell ref="A3:A17"/>
     <mergeCell ref="A18:A32"/>
     <mergeCell ref="A33:A47"/>
@@ -23771,8 +23602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q46" sqref="Q46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23793,46 +23624,46 @@
         <v>39</v>
       </c>
       <c r="D1" s="120">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E1" s="120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1" s="120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1" s="120">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1" s="120">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I1" s="120">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J1" s="120">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K1" s="120">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L1" s="120">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M1" s="120">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N1" s="120">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O1" s="120">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P1" s="120">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q1" s="120">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R1" s="120"/>
     </row>

--- a/inst/Example/Mouse_Experiment_Example.xlsx
+++ b/inst/Example/Mouse_Experiment_Example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtcoll06\Box\Lab Docs\R projects\mouseR\inst\Example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E156B40-5ED5-4E4F-8F0E-3119265A0E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B4B37F-EFC6-44C0-8C36-A6CC0EA51260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20689,8 +20689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="R2" sqref="R1:R1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q47" sqref="Q47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20831,51 +20831,51 @@
       </c>
       <c r="D4" s="103">
         <f ca="1">RANDBETWEEN(20,60)+D3</f>
-        <v>552</v>
+        <v>520</v>
       </c>
       <c r="E4" s="119">
         <f t="shared" ref="E4:Q4" ca="1" si="0">RANDBETWEEN(20,60)+E3</f>
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="F4" s="119">
         <f t="shared" ca="1" si="0"/>
-        <v>522</v>
+        <v>539</v>
       </c>
       <c r="G4" s="119">
         <f t="shared" ca="1" si="0"/>
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H4" s="119">
         <f t="shared" ca="1" si="0"/>
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="I4" s="119">
         <f t="shared" ca="1" si="0"/>
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="J4" s="119">
         <f t="shared" ca="1" si="0"/>
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="K4" s="119">
         <f t="shared" ca="1" si="0"/>
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="L4" s="119">
         <f t="shared" ca="1" si="0"/>
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="M4" s="119">
         <f t="shared" ca="1" si="0"/>
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="N4" s="119">
         <f t="shared" ca="1" si="0"/>
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="O4" s="119">
         <f t="shared" ca="1" si="0"/>
-        <v>525</v>
+        <v>559</v>
       </c>
       <c r="P4" s="119">
         <f t="shared" ca="1" si="0"/>
@@ -20883,7 +20883,7 @@
       </c>
       <c r="Q4" s="119">
         <f t="shared" ca="1" si="0"/>
-        <v>558</v>
+        <v>545</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -20898,51 +20898,51 @@
       </c>
       <c r="D5" s="103">
         <f t="shared" ref="D5:Q5" ca="1" si="1">D4-D3</f>
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="E5" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F5" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="G5" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H5" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I5" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J5" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="K5" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="L5" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M5" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="N5" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="O5" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="P5" s="103">
         <f t="shared" ca="1" si="1"/>
@@ -20950,7 +20950,7 @@
       </c>
       <c r="Q5" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -21018,59 +21018,59 @@
       </c>
       <c r="D7" s="119">
         <f ca="1">RANDBETWEEN(20,60)+D6</f>
-        <v>549</v>
+        <v>525</v>
       </c>
       <c r="E7" s="119">
         <f t="shared" ref="E7:Q7" ca="1" si="2">RANDBETWEEN(20,60)+E6</f>
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="F7" s="119">
         <f t="shared" ca="1" si="2"/>
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="G7" s="119">
         <f t="shared" ca="1" si="2"/>
-        <v>554</v>
+        <v>521</v>
       </c>
       <c r="H7" s="119">
         <f t="shared" ca="1" si="2"/>
-        <v>554</v>
+        <v>524</v>
       </c>
       <c r="I7" s="119">
         <f t="shared" ca="1" si="2"/>
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="J7" s="119">
         <f t="shared" ca="1" si="2"/>
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="K7" s="119">
         <f t="shared" ca="1" si="2"/>
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="L7" s="119">
         <f t="shared" ca="1" si="2"/>
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="M7" s="119">
         <f t="shared" ca="1" si="2"/>
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="N7" s="119">
         <f t="shared" ca="1" si="2"/>
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="O7" s="119">
         <f t="shared" ca="1" si="2"/>
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="P7" s="119">
         <f t="shared" ca="1" si="2"/>
-        <v>553</v>
+        <v>528</v>
       </c>
       <c r="Q7" s="119">
         <f t="shared" ca="1" si="2"/>
-        <v>539</v>
+        <v>526</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -21085,59 +21085,59 @@
       </c>
       <c r="D8" s="103">
         <f t="shared" ref="D8:Q8" ca="1" si="3">D7-D6</f>
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="E8" s="103">
         <f t="shared" ca="1" si="3"/>
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="F8" s="103">
         <f t="shared" ca="1" si="3"/>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G8" s="103">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="H8" s="103">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="I8" s="103">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J8" s="103">
         <f t="shared" ca="1" si="3"/>
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="K8" s="103">
         <f t="shared" ca="1" si="3"/>
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L8" s="103">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="M8" s="103">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="N8" s="103">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="O8" s="103">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="P8" s="103">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="Q8" s="103">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -21205,59 +21205,59 @@
       </c>
       <c r="D10" s="103">
         <f ca="1">RANDBETWEEN(20,60)+D9</f>
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="E10" s="119">
         <f t="shared" ref="E10:Q10" ca="1" si="4">RANDBETWEEN(20,60)+E9</f>
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="F10" s="119">
         <f t="shared" ca="1" si="4"/>
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="G10" s="119">
         <f t="shared" ca="1" si="4"/>
-        <v>523</v>
+        <v>541</v>
       </c>
       <c r="H10" s="119">
         <f t="shared" ca="1" si="4"/>
-        <v>551</v>
+        <v>528</v>
       </c>
       <c r="I10" s="119">
         <f t="shared" ca="1" si="4"/>
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="J10" s="119">
         <f t="shared" ca="1" si="4"/>
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="K10" s="119">
         <f t="shared" ca="1" si="4"/>
-        <v>533</v>
+        <v>555</v>
       </c>
       <c r="L10" s="119">
         <f t="shared" ca="1" si="4"/>
-        <v>537</v>
+        <v>553</v>
       </c>
       <c r="M10" s="119">
         <f t="shared" ca="1" si="4"/>
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="N10" s="119">
         <f t="shared" ca="1" si="4"/>
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="O10" s="119">
         <f t="shared" ca="1" si="4"/>
-        <v>556</v>
+        <v>523</v>
       </c>
       <c r="P10" s="119">
         <f t="shared" ca="1" si="4"/>
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="Q10" s="119">
         <f t="shared" ca="1" si="4"/>
-        <v>558</v>
+        <v>527</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -21272,59 +21272,59 @@
       </c>
       <c r="D11" s="103">
         <f t="shared" ref="D11:Q11" ca="1" si="5">D10-D9</f>
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E11" s="103">
         <f t="shared" ca="1" si="5"/>
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F11" s="103">
         <f t="shared" ca="1" si="5"/>
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G11" s="103">
         <f t="shared" ca="1" si="5"/>
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="H11" s="103">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="I11" s="103">
         <f t="shared" ca="1" si="5"/>
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="J11" s="103">
         <f t="shared" ca="1" si="5"/>
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="K11" s="103">
         <f t="shared" ca="1" si="5"/>
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="L11" s="103">
         <f t="shared" ca="1" si="5"/>
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="M11" s="103">
         <f t="shared" ca="1" si="5"/>
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="N11" s="103">
         <f t="shared" ca="1" si="5"/>
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="O11" s="103">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="P11" s="103">
         <f t="shared" ca="1" si="5"/>
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="103">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -21392,59 +21392,59 @@
       </c>
       <c r="D13" s="119">
         <f ca="1">RANDBETWEEN(20,60)+D12</f>
-        <v>550</v>
+        <v>521</v>
       </c>
       <c r="E13" s="119">
         <f t="shared" ref="E13" ca="1" si="6">RANDBETWEEN(20,60)+E12</f>
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F13" s="119">
         <f t="shared" ref="F13" ca="1" si="7">RANDBETWEEN(20,60)+F12</f>
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="G13" s="119">
         <f t="shared" ref="G13" ca="1" si="8">RANDBETWEEN(20,60)+G12</f>
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="H13" s="119">
         <f t="shared" ref="H13" ca="1" si="9">RANDBETWEEN(20,60)+H12</f>
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="I13" s="119">
         <f t="shared" ref="I13" ca="1" si="10">RANDBETWEEN(20,60)+I12</f>
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="J13" s="119">
         <f t="shared" ref="J13" ca="1" si="11">RANDBETWEEN(20,60)+J12</f>
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K13" s="119">
         <f t="shared" ref="K13" ca="1" si="12">RANDBETWEEN(20,60)+K12</f>
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L13" s="119">
         <f t="shared" ref="L13" ca="1" si="13">RANDBETWEEN(20,60)+L12</f>
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="M13" s="119">
         <f t="shared" ref="M13" ca="1" si="14">RANDBETWEEN(20,60)+M12</f>
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="N13" s="119">
         <f t="shared" ref="N13" ca="1" si="15">RANDBETWEEN(20,60)+N12</f>
-        <v>546</v>
+        <v>528</v>
       </c>
       <c r="O13" s="119">
         <f t="shared" ref="O13" ca="1" si="16">RANDBETWEEN(20,60)+O12</f>
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="P13" s="119">
         <f t="shared" ref="P13" ca="1" si="17">RANDBETWEEN(20,60)+P12</f>
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="Q13" s="119">
         <f t="shared" ref="Q13" ca="1" si="18">RANDBETWEEN(20,60)+Q12</f>
-        <v>524</v>
+        <v>558</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -21459,59 +21459,59 @@
       </c>
       <c r="D14" s="103">
         <f t="shared" ref="D14:Q14" ca="1" si="19">D13-D12</f>
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="E14" s="103">
         <f t="shared" ca="1" si="19"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F14" s="103">
         <f t="shared" ca="1" si="19"/>
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="G14" s="103">
         <f t="shared" ca="1" si="19"/>
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H14" s="103">
         <f t="shared" ca="1" si="19"/>
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="I14" s="103">
         <f t="shared" ca="1" si="19"/>
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="J14" s="103">
         <f t="shared" ca="1" si="19"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K14" s="103">
         <f t="shared" ca="1" si="19"/>
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="L14" s="103">
         <f t="shared" ca="1" si="19"/>
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M14" s="103">
         <f t="shared" ca="1" si="19"/>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N14" s="103">
         <f t="shared" ca="1" si="19"/>
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="O14" s="103">
         <f t="shared" ca="1" si="19"/>
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="P14" s="103">
         <f t="shared" ca="1" si="19"/>
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="Q14" s="103">
         <f t="shared" ca="1" si="19"/>
-        <v>24</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -21579,7 +21579,7 @@
       </c>
       <c r="D16" s="119">
         <f ca="1">RANDBETWEEN(20,60)+D15</f>
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="E16" s="119">
         <f t="shared" ref="E16" ca="1" si="20">RANDBETWEEN(20,60)+E15</f>
@@ -21587,51 +21587,51 @@
       </c>
       <c r="F16" s="119">
         <f t="shared" ref="F16" ca="1" si="21">RANDBETWEEN(20,60)+F15</f>
-        <v>524</v>
+        <v>537</v>
       </c>
       <c r="G16" s="119">
         <f t="shared" ref="G16" ca="1" si="22">RANDBETWEEN(20,60)+G15</f>
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="H16" s="119">
         <f t="shared" ref="H16" ca="1" si="23">RANDBETWEEN(20,60)+H15</f>
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="I16" s="119">
         <f t="shared" ref="I16" ca="1" si="24">RANDBETWEEN(20,60)+I15</f>
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="J16" s="119">
         <f t="shared" ref="J16" ca="1" si="25">RANDBETWEEN(20,60)+J15</f>
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="K16" s="119">
         <f t="shared" ref="K16" ca="1" si="26">RANDBETWEEN(20,60)+K15</f>
-        <v>533</v>
+        <v>552</v>
       </c>
       <c r="L16" s="119">
         <f t="shared" ref="L16" ca="1" si="27">RANDBETWEEN(20,60)+L15</f>
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="M16" s="119">
         <f t="shared" ref="M16" ca="1" si="28">RANDBETWEEN(20,60)+M15</f>
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="N16" s="119">
         <f t="shared" ref="N16" ca="1" si="29">RANDBETWEEN(20,60)+N15</f>
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="O16" s="119">
         <f t="shared" ref="O16" ca="1" si="30">RANDBETWEEN(20,60)+O15</f>
-        <v>549</v>
+        <v>522</v>
       </c>
       <c r="P16" s="119">
         <f t="shared" ref="P16" ca="1" si="31">RANDBETWEEN(20,60)+P15</f>
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="Q16" s="119">
         <f t="shared" ref="Q16" ca="1" si="32">RANDBETWEEN(20,60)+Q15</f>
-        <v>559</v>
+        <v>539</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -21646,7 +21646,7 @@
       </c>
       <c r="D17" s="103">
         <f t="shared" ref="D17:Q17" ca="1" si="33">D16-D15</f>
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E17" s="103">
         <f t="shared" ca="1" si="33"/>
@@ -21654,51 +21654,51 @@
       </c>
       <c r="F17" s="103">
         <f t="shared" ca="1" si="33"/>
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="G17" s="103">
         <f t="shared" ca="1" si="33"/>
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H17" s="103">
         <f t="shared" ca="1" si="33"/>
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I17" s="103">
         <f t="shared" ca="1" si="33"/>
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="J17" s="103">
         <f t="shared" ca="1" si="33"/>
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="K17" s="103">
         <f t="shared" ca="1" si="33"/>
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="L17" s="103">
         <f t="shared" ca="1" si="33"/>
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="M17" s="103">
         <f t="shared" ca="1" si="33"/>
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="N17" s="103">
         <f t="shared" ca="1" si="33"/>
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="O17" s="103">
         <f t="shared" ca="1" si="33"/>
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="P17" s="103">
         <f t="shared" ca="1" si="33"/>
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Q17" s="103">
         <f t="shared" ca="1" si="33"/>
-        <v>59</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -21766,59 +21766,59 @@
       </c>
       <c r="D19" s="104">
         <f ca="1">RANDBETWEEN(20,60)+D18</f>
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="E19" s="104">
         <f t="shared" ref="E19" ca="1" si="34">RANDBETWEEN(20,60)+E18</f>
-        <v>523</v>
+        <v>546</v>
       </c>
       <c r="F19" s="104">
         <f t="shared" ref="F19" ca="1" si="35">RANDBETWEEN(20,60)+F18</f>
-        <v>547</v>
+        <v>530</v>
       </c>
       <c r="G19" s="104">
         <f t="shared" ref="G19" ca="1" si="36">RANDBETWEEN(20,60)+G18</f>
-        <v>544</v>
+        <v>521</v>
       </c>
       <c r="H19" s="104">
         <f t="shared" ref="H19" ca="1" si="37">RANDBETWEEN(20,60)+H18</f>
-        <v>528</v>
+        <v>553</v>
       </c>
       <c r="I19" s="104">
         <f t="shared" ref="I19" ca="1" si="38">RANDBETWEEN(20,60)+I18</f>
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="J19" s="104">
         <f t="shared" ref="J19" ca="1" si="39">RANDBETWEEN(20,60)+J18</f>
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="K19" s="104">
         <f t="shared" ref="K19" ca="1" si="40">RANDBETWEEN(20,60)+K18</f>
-        <v>556</v>
+        <v>533</v>
       </c>
       <c r="L19" s="104">
         <f t="shared" ref="L19" ca="1" si="41">RANDBETWEEN(20,60)+L18</f>
-        <v>545</v>
+        <v>528</v>
       </c>
       <c r="M19" s="104">
         <f t="shared" ref="M19" ca="1" si="42">RANDBETWEEN(20,60)+M18</f>
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="N19" s="104">
         <f t="shared" ref="N19" ca="1" si="43">RANDBETWEEN(20,60)+N18</f>
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="O19" s="104">
         <f t="shared" ref="O19" ca="1" si="44">RANDBETWEEN(20,60)+O18</f>
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="P19" s="104">
         <f t="shared" ref="P19" ca="1" si="45">RANDBETWEEN(20,60)+P18</f>
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="Q19" s="104">
         <f t="shared" ref="Q19" ca="1" si="46">RANDBETWEEN(20,60)+Q18</f>
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -21833,59 +21833,59 @@
       </c>
       <c r="D20" s="104">
         <f t="shared" ref="D20:Q20" ca="1" si="47">D19-D18</f>
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E20" s="104">
         <f t="shared" ca="1" si="47"/>
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="F20" s="104">
         <f t="shared" ca="1" si="47"/>
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G20" s="104">
         <f t="shared" ca="1" si="47"/>
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="H20" s="104">
         <f t="shared" ca="1" si="47"/>
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="I20" s="104">
         <f t="shared" ca="1" si="47"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J20" s="104">
         <f t="shared" ca="1" si="47"/>
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="K20" s="104">
         <f t="shared" ca="1" si="47"/>
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="L20" s="104">
         <f t="shared" ca="1" si="47"/>
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="M20" s="104">
         <f t="shared" ca="1" si="47"/>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N20" s="104">
         <f t="shared" ca="1" si="47"/>
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="O20" s="104">
         <f t="shared" ca="1" si="47"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P20" s="104">
         <f t="shared" ca="1" si="47"/>
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="Q20" s="104">
         <f t="shared" ca="1" si="47"/>
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -21953,59 +21953,59 @@
       </c>
       <c r="D22" s="104">
         <f ca="1">RANDBETWEEN(20,60)+D21</f>
-        <v>528</v>
+        <v>556</v>
       </c>
       <c r="E22" s="104">
         <f t="shared" ref="E22" ca="1" si="48">RANDBETWEEN(20,60)+E21</f>
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F22" s="104">
         <f t="shared" ref="F22" ca="1" si="49">RANDBETWEEN(20,60)+F21</f>
-        <v>532</v>
+        <v>549</v>
       </c>
       <c r="G22" s="104">
         <f t="shared" ref="G22" ca="1" si="50">RANDBETWEEN(20,60)+G21</f>
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="H22" s="104">
         <f t="shared" ref="H22" ca="1" si="51">RANDBETWEEN(20,60)+H21</f>
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="I22" s="104">
         <f t="shared" ref="I22" ca="1" si="52">RANDBETWEEN(20,60)+I21</f>
-        <v>520</v>
+        <v>559</v>
       </c>
       <c r="J22" s="104">
         <f t="shared" ref="J22" ca="1" si="53">RANDBETWEEN(20,60)+J21</f>
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="K22" s="104">
         <f t="shared" ref="K22" ca="1" si="54">RANDBETWEEN(20,60)+K21</f>
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="L22" s="104">
         <f t="shared" ref="L22" ca="1" si="55">RANDBETWEEN(20,60)+L21</f>
-        <v>539</v>
+        <v>560</v>
       </c>
       <c r="M22" s="104">
         <f t="shared" ref="M22" ca="1" si="56">RANDBETWEEN(20,60)+M21</f>
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="N22" s="104">
         <f t="shared" ref="N22" ca="1" si="57">RANDBETWEEN(20,60)+N21</f>
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="O22" s="104">
         <f t="shared" ref="O22" ca="1" si="58">RANDBETWEEN(20,60)+O21</f>
-        <v>523</v>
+        <v>551</v>
       </c>
       <c r="P22" s="104">
         <f t="shared" ref="P22" ca="1" si="59">RANDBETWEEN(20,60)+P21</f>
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="Q22" s="104">
         <f t="shared" ref="Q22" ca="1" si="60">RANDBETWEEN(20,60)+Q21</f>
-        <v>545</v>
+        <v>534</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -22020,59 +22020,59 @@
       </c>
       <c r="D23" s="104">
         <f t="shared" ref="D23:Q23" ca="1" si="61">D22-D21</f>
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="E23" s="104">
         <f t="shared" ca="1" si="61"/>
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F23" s="104">
         <f t="shared" ca="1" si="61"/>
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="G23" s="104">
         <f t="shared" ca="1" si="61"/>
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H23" s="104">
         <f t="shared" ca="1" si="61"/>
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="I23" s="104">
         <f t="shared" ca="1" si="61"/>
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="J23" s="104">
         <f t="shared" ca="1" si="61"/>
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="K23" s="104">
         <f t="shared" ca="1" si="61"/>
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="L23" s="104">
         <f t="shared" ca="1" si="61"/>
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="M23" s="104">
         <f t="shared" ca="1" si="61"/>
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="N23" s="104">
         <f t="shared" ca="1" si="61"/>
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="O23" s="104">
         <f t="shared" ca="1" si="61"/>
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="P23" s="104">
         <f t="shared" ca="1" si="61"/>
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="Q23" s="104">
         <f t="shared" ca="1" si="61"/>
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -22140,59 +22140,59 @@
       </c>
       <c r="D25" s="104">
         <f ca="1">RANDBETWEEN(20,60)+D24</f>
-        <v>524</v>
+        <v>549</v>
       </c>
       <c r="E25" s="104">
         <f t="shared" ref="E25" ca="1" si="62">RANDBETWEEN(20,60)+E24</f>
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F25" s="104">
         <f t="shared" ref="F25" ca="1" si="63">RANDBETWEEN(20,60)+F24</f>
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="G25" s="104">
         <f t="shared" ref="G25" ca="1" si="64">RANDBETWEEN(20,60)+G24</f>
-        <v>560</v>
+        <v>532</v>
       </c>
       <c r="H25" s="104">
         <f t="shared" ref="H25" ca="1" si="65">RANDBETWEEN(20,60)+H24</f>
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="I25" s="104">
         <f t="shared" ref="I25" ca="1" si="66">RANDBETWEEN(20,60)+I24</f>
-        <v>526</v>
+        <v>542</v>
       </c>
       <c r="J25" s="104">
         <f t="shared" ref="J25" ca="1" si="67">RANDBETWEEN(20,60)+J24</f>
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="K25" s="104">
         <f t="shared" ref="K25" ca="1" si="68">RANDBETWEEN(20,60)+K24</f>
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="L25" s="104">
         <f t="shared" ref="L25" ca="1" si="69">RANDBETWEEN(20,60)+L24</f>
-        <v>549</v>
+        <v>529</v>
       </c>
       <c r="M25" s="104">
         <f t="shared" ref="M25" ca="1" si="70">RANDBETWEEN(20,60)+M24</f>
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="N25" s="104">
         <f t="shared" ref="N25" ca="1" si="71">RANDBETWEEN(20,60)+N24</f>
-        <v>551</v>
+        <v>520</v>
       </c>
       <c r="O25" s="104">
         <f t="shared" ref="O25" ca="1" si="72">RANDBETWEEN(20,60)+O24</f>
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="P25" s="104">
         <f t="shared" ref="P25" ca="1" si="73">RANDBETWEEN(20,60)+P24</f>
-        <v>556</v>
+        <v>539</v>
       </c>
       <c r="Q25" s="104">
         <f t="shared" ref="Q25" ca="1" si="74">RANDBETWEEN(20,60)+Q24</f>
-        <v>546</v>
+        <v>522</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -22207,59 +22207,59 @@
       </c>
       <c r="D26" s="104">
         <f t="shared" ref="D26:Q26" ca="1" si="75">D25-D24</f>
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E26" s="104">
         <f t="shared" ca="1" si="75"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F26" s="104">
         <f t="shared" ca="1" si="75"/>
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G26" s="104">
         <f t="shared" ca="1" si="75"/>
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="H26" s="104">
         <f t="shared" ca="1" si="75"/>
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="I26" s="104">
         <f t="shared" ca="1" si="75"/>
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="J26" s="104">
         <f t="shared" ca="1" si="75"/>
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="K26" s="104">
         <f t="shared" ca="1" si="75"/>
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="L26" s="104">
         <f t="shared" ca="1" si="75"/>
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="M26" s="104">
         <f t="shared" ca="1" si="75"/>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N26" s="104">
         <f t="shared" ca="1" si="75"/>
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="O26" s="104">
         <f t="shared" ca="1" si="75"/>
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P26" s="104">
         <f t="shared" ca="1" si="75"/>
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="Q26" s="104">
         <f t="shared" ca="1" si="75"/>
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -22327,55 +22327,55 @@
       </c>
       <c r="D28" s="104">
         <f ca="1">RANDBETWEEN(20,60)+D27</f>
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E28" s="104">
         <f t="shared" ref="E28" ca="1" si="76">RANDBETWEEN(20,60)+E27</f>
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="F28" s="104">
         <f t="shared" ref="F28" ca="1" si="77">RANDBETWEEN(20,60)+F27</f>
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="G28" s="104">
         <f t="shared" ref="G28" ca="1" si="78">RANDBETWEEN(20,60)+G27</f>
-        <v>528</v>
+        <v>553</v>
       </c>
       <c r="H28" s="104">
         <f t="shared" ref="H28" ca="1" si="79">RANDBETWEEN(20,60)+H27</f>
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I28" s="104">
         <f t="shared" ref="I28" ca="1" si="80">RANDBETWEEN(20,60)+I27</f>
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J28" s="104">
         <f t="shared" ref="J28" ca="1" si="81">RANDBETWEEN(20,60)+J27</f>
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="K28" s="104">
         <f t="shared" ref="K28" ca="1" si="82">RANDBETWEEN(20,60)+K27</f>
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="L28" s="104">
         <f t="shared" ref="L28" ca="1" si="83">RANDBETWEEN(20,60)+L27</f>
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="M28" s="104">
         <f t="shared" ref="M28" ca="1" si="84">RANDBETWEEN(20,60)+M27</f>
-        <v>552</v>
+        <v>526</v>
       </c>
       <c r="N28" s="104">
         <f t="shared" ref="N28" ca="1" si="85">RANDBETWEEN(20,60)+N27</f>
-        <v>521</v>
+        <v>551</v>
       </c>
       <c r="O28" s="104">
         <f t="shared" ref="O28" ca="1" si="86">RANDBETWEEN(20,60)+O27</f>
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="P28" s="104">
         <f t="shared" ref="P28" ca="1" si="87">RANDBETWEEN(20,60)+P27</f>
-        <v>547</v>
+        <v>521</v>
       </c>
       <c r="Q28" s="104">
         <f t="shared" ref="Q28" ca="1" si="88">RANDBETWEEN(20,60)+Q27</f>
@@ -22394,55 +22394,55 @@
       </c>
       <c r="D29" s="104">
         <f t="shared" ref="D29:Q29" ca="1" si="89">D28-D27</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E29" s="104">
         <f t="shared" ca="1" si="89"/>
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F29" s="104">
         <f t="shared" ca="1" si="89"/>
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G29" s="104">
         <f t="shared" ca="1" si="89"/>
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="H29" s="104">
         <f t="shared" ca="1" si="89"/>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I29" s="104">
         <f t="shared" ca="1" si="89"/>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J29" s="104">
         <f t="shared" ca="1" si="89"/>
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K29" s="104">
         <f t="shared" ca="1" si="89"/>
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="L29" s="104">
         <f t="shared" ca="1" si="89"/>
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="M29" s="104">
         <f t="shared" ca="1" si="89"/>
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="N29" s="104">
         <f t="shared" ca="1" si="89"/>
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="O29" s="104">
         <f t="shared" ca="1" si="89"/>
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="P29" s="104">
         <f t="shared" ca="1" si="89"/>
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="Q29" s="104">
         <f t="shared" ca="1" si="89"/>
@@ -22514,23 +22514,23 @@
       </c>
       <c r="D31" s="104">
         <f ca="1">RANDBETWEEN(20,60)+D30</f>
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="E31" s="104">
         <f t="shared" ref="E31" ca="1" si="90">RANDBETWEEN(20,60)+E30</f>
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="F31" s="104">
         <f t="shared" ref="F31" ca="1" si="91">RANDBETWEEN(20,60)+F30</f>
-        <v>541</v>
+        <v>559</v>
       </c>
       <c r="G31" s="104">
         <f t="shared" ref="G31" ca="1" si="92">RANDBETWEEN(20,60)+G30</f>
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="H31" s="104">
         <f t="shared" ref="H31" ca="1" si="93">RANDBETWEEN(20,60)+H30</f>
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="I31" s="104">
         <f t="shared" ref="I31" ca="1" si="94">RANDBETWEEN(20,60)+I30</f>
@@ -22538,35 +22538,35 @@
       </c>
       <c r="J31" s="104">
         <f t="shared" ref="J31" ca="1" si="95">RANDBETWEEN(20,60)+J30</f>
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="K31" s="104">
         <f t="shared" ref="K31" ca="1" si="96">RANDBETWEEN(20,60)+K30</f>
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="L31" s="104">
         <f t="shared" ref="L31" ca="1" si="97">RANDBETWEEN(20,60)+L30</f>
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="M31" s="104">
         <f t="shared" ref="M31" ca="1" si="98">RANDBETWEEN(20,60)+M30</f>
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="N31" s="104">
         <f t="shared" ref="N31" ca="1" si="99">RANDBETWEEN(20,60)+N30</f>
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="O31" s="104">
         <f t="shared" ref="O31" ca="1" si="100">RANDBETWEEN(20,60)+O30</f>
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="P31" s="104">
         <f t="shared" ref="P31" ca="1" si="101">RANDBETWEEN(20,60)+P30</f>
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="Q31" s="104">
         <f t="shared" ref="Q31" ca="1" si="102">RANDBETWEEN(20,60)+Q30</f>
-        <v>523</v>
+        <v>544</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -22581,23 +22581,23 @@
       </c>
       <c r="D32" s="104">
         <f t="shared" ref="D32:Q32" ca="1" si="103">D31-D30</f>
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E32" s="104">
         <f t="shared" ca="1" si="103"/>
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F32" s="104">
         <f t="shared" ca="1" si="103"/>
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="G32" s="104">
         <f t="shared" ca="1" si="103"/>
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H32" s="104">
         <f t="shared" ca="1" si="103"/>
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I32" s="104">
         <f t="shared" ca="1" si="103"/>
@@ -22605,35 +22605,35 @@
       </c>
       <c r="J32" s="104">
         <f t="shared" ca="1" si="103"/>
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="K32" s="104">
         <f t="shared" ca="1" si="103"/>
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="L32" s="104">
         <f t="shared" ca="1" si="103"/>
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M32" s="104">
         <f t="shared" ca="1" si="103"/>
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="N32" s="104">
         <f t="shared" ca="1" si="103"/>
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="O32" s="104">
         <f t="shared" ca="1" si="103"/>
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="P32" s="104">
         <f t="shared" ca="1" si="103"/>
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="Q32" s="104">
         <f t="shared" ca="1" si="103"/>
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
@@ -22701,59 +22701,59 @@
       </c>
       <c r="D34" s="105">
         <f ca="1">RANDBETWEEN(20,60)+D33</f>
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="E34" s="105">
         <f t="shared" ref="E34" ca="1" si="104">RANDBETWEEN(20,60)+E33</f>
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="F34" s="105">
         <f t="shared" ref="F34" ca="1" si="105">RANDBETWEEN(20,60)+F33</f>
-        <v>529</v>
+        <v>544</v>
       </c>
       <c r="G34" s="105">
         <f t="shared" ref="G34" ca="1" si="106">RANDBETWEEN(20,60)+G33</f>
-        <v>553</v>
+        <v>535</v>
       </c>
       <c r="H34" s="105">
         <f t="shared" ref="H34" ca="1" si="107">RANDBETWEEN(20,60)+H33</f>
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="I34" s="105">
         <f t="shared" ref="I34" ca="1" si="108">RANDBETWEEN(20,60)+I33</f>
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="J34" s="105">
         <f t="shared" ref="J34" ca="1" si="109">RANDBETWEEN(20,60)+J33</f>
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="K34" s="105">
         <f t="shared" ref="K34" ca="1" si="110">RANDBETWEEN(20,60)+K33</f>
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="L34" s="105">
         <f t="shared" ref="L34" ca="1" si="111">RANDBETWEEN(20,60)+L33</f>
-        <v>544</v>
+        <v>560</v>
       </c>
       <c r="M34" s="105">
         <f t="shared" ref="M34" ca="1" si="112">RANDBETWEEN(20,60)+M33</f>
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="N34" s="105">
         <f t="shared" ref="N34" ca="1" si="113">RANDBETWEEN(20,60)+N33</f>
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="O34" s="105">
         <f t="shared" ref="O34" ca="1" si="114">RANDBETWEEN(20,60)+O33</f>
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="P34" s="105">
         <f t="shared" ref="P34" ca="1" si="115">RANDBETWEEN(20,60)+P33</f>
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="Q34" s="105">
         <f t="shared" ref="Q34" ca="1" si="116">RANDBETWEEN(20,60)+Q33</f>
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
@@ -22768,59 +22768,59 @@
       </c>
       <c r="D35" s="105">
         <f t="shared" ref="D35:Q35" ca="1" si="117">D34-D33</f>
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E35" s="105">
         <f t="shared" ca="1" si="117"/>
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F35" s="105">
         <f t="shared" ca="1" si="117"/>
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G35" s="105">
         <f t="shared" ca="1" si="117"/>
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="H35" s="105">
         <f t="shared" ca="1" si="117"/>
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I35" s="105">
         <f t="shared" ca="1" si="117"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J35" s="105">
         <f t="shared" ca="1" si="117"/>
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="K35" s="105">
         <f t="shared" ca="1" si="117"/>
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="L35" s="105">
         <f t="shared" ca="1" si="117"/>
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="M35" s="105">
         <f t="shared" ca="1" si="117"/>
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="N35" s="105">
         <f t="shared" ca="1" si="117"/>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="O35" s="105">
         <f t="shared" ca="1" si="117"/>
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="P35" s="105">
         <f t="shared" ca="1" si="117"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q35" s="105">
         <f t="shared" ca="1" si="117"/>
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
@@ -22888,23 +22888,23 @@
       </c>
       <c r="D37" s="105">
         <f ca="1">RANDBETWEEN(20,60)+D36</f>
-        <v>526</v>
+        <v>550</v>
       </c>
       <c r="E37" s="105">
         <f t="shared" ref="E37" ca="1" si="118">RANDBETWEEN(20,60)+E36</f>
-        <v>557</v>
+        <v>540</v>
       </c>
       <c r="F37" s="105">
         <f t="shared" ref="F37" ca="1" si="119">RANDBETWEEN(20,60)+F36</f>
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="G37" s="105">
         <f t="shared" ref="G37" ca="1" si="120">RANDBETWEEN(20,60)+G36</f>
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="H37" s="105">
         <f t="shared" ref="H37" ca="1" si="121">RANDBETWEEN(20,60)+H36</f>
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="I37" s="105">
         <f t="shared" ref="I37" ca="1" si="122">RANDBETWEEN(20,60)+I36</f>
@@ -22916,31 +22916,31 @@
       </c>
       <c r="K37" s="105">
         <f t="shared" ref="K37" ca="1" si="124">RANDBETWEEN(20,60)+K36</f>
-        <v>535</v>
+        <v>558</v>
       </c>
       <c r="L37" s="105">
         <f t="shared" ref="L37" ca="1" si="125">RANDBETWEEN(20,60)+L36</f>
-        <v>541</v>
+        <v>524</v>
       </c>
       <c r="M37" s="105">
         <f t="shared" ref="M37" ca="1" si="126">RANDBETWEEN(20,60)+M36</f>
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="N37" s="105">
         <f t="shared" ref="N37" ca="1" si="127">RANDBETWEEN(20,60)+N36</f>
-        <v>551</v>
+        <v>531</v>
       </c>
       <c r="O37" s="105">
         <f t="shared" ref="O37" ca="1" si="128">RANDBETWEEN(20,60)+O36</f>
-        <v>546</v>
+        <v>523</v>
       </c>
       <c r="P37" s="105">
         <f t="shared" ref="P37" ca="1" si="129">RANDBETWEEN(20,60)+P36</f>
-        <v>558</v>
+        <v>527</v>
       </c>
       <c r="Q37" s="105">
         <f t="shared" ref="Q37" ca="1" si="130">RANDBETWEEN(20,60)+Q36</f>
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
@@ -22955,23 +22955,23 @@
       </c>
       <c r="D38" s="105">
         <f t="shared" ref="D38:Q38" ca="1" si="131">D37-D36</f>
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E38" s="105">
         <f t="shared" ca="1" si="131"/>
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="F38" s="105">
         <f t="shared" ca="1" si="131"/>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G38" s="105">
         <f t="shared" ca="1" si="131"/>
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H38" s="105">
         <f t="shared" ca="1" si="131"/>
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="I38" s="105">
         <f t="shared" ca="1" si="131"/>
@@ -22983,31 +22983,31 @@
       </c>
       <c r="K38" s="105">
         <f t="shared" ca="1" si="131"/>
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="L38" s="105">
         <f t="shared" ca="1" si="131"/>
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M38" s="105">
         <f t="shared" ca="1" si="131"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="N38" s="105">
         <f t="shared" ca="1" si="131"/>
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="O38" s="105">
         <f t="shared" ca="1" si="131"/>
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="P38" s="105">
         <f t="shared" ca="1" si="131"/>
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="Q38" s="105">
         <f t="shared" ca="1" si="131"/>
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
@@ -23075,59 +23075,59 @@
       </c>
       <c r="D40" s="105">
         <f ca="1">RANDBETWEEN(20,60)+D39</f>
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="E40" s="105">
         <f t="shared" ref="E40" ca="1" si="132">RANDBETWEEN(20,60)+E39</f>
-        <v>530</v>
+        <v>548</v>
       </c>
       <c r="F40" s="105">
         <f t="shared" ref="F40" ca="1" si="133">RANDBETWEEN(20,60)+F39</f>
-        <v>523</v>
+        <v>549</v>
       </c>
       <c r="G40" s="105">
         <f t="shared" ref="G40" ca="1" si="134">RANDBETWEEN(20,60)+G39</f>
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="H40" s="105">
         <f t="shared" ref="H40" ca="1" si="135">RANDBETWEEN(20,60)+H39</f>
-        <v>548</v>
+        <v>521</v>
       </c>
       <c r="I40" s="105">
         <f t="shared" ref="I40" ca="1" si="136">RANDBETWEEN(20,60)+I39</f>
-        <v>549</v>
+        <v>525</v>
       </c>
       <c r="J40" s="105">
         <f t="shared" ref="J40" ca="1" si="137">RANDBETWEEN(20,60)+J39</f>
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="K40" s="105">
         <f t="shared" ref="K40" ca="1" si="138">RANDBETWEEN(20,60)+K39</f>
-        <v>536</v>
+        <v>559</v>
       </c>
       <c r="L40" s="105">
         <f t="shared" ref="L40" ca="1" si="139">RANDBETWEEN(20,60)+L39</f>
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="M40" s="105">
         <f t="shared" ref="M40" ca="1" si="140">RANDBETWEEN(20,60)+M39</f>
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="N40" s="105">
         <f t="shared" ref="N40" ca="1" si="141">RANDBETWEEN(20,60)+N39</f>
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="O40" s="105">
         <f t="shared" ref="O40" ca="1" si="142">RANDBETWEEN(20,60)+O39</f>
-        <v>525</v>
+        <v>548</v>
       </c>
       <c r="P40" s="105">
         <f t="shared" ref="P40" ca="1" si="143">RANDBETWEEN(20,60)+P39</f>
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="Q40" s="105">
         <f t="shared" ref="Q40" ca="1" si="144">RANDBETWEEN(20,60)+Q39</f>
-        <v>527</v>
+        <v>545</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
@@ -23142,59 +23142,59 @@
       </c>
       <c r="D41" s="105">
         <f t="shared" ref="D41:Q41" ca="1" si="145">D40-D39</f>
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E41" s="105">
         <f t="shared" ca="1" si="145"/>
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F41" s="105">
         <f t="shared" ca="1" si="145"/>
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="G41" s="105">
         <f t="shared" ca="1" si="145"/>
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H41" s="105">
         <f t="shared" ca="1" si="145"/>
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I41" s="105">
         <f t="shared" ca="1" si="145"/>
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="J41" s="105">
         <f t="shared" ca="1" si="145"/>
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K41" s="105">
         <f t="shared" ca="1" si="145"/>
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L41" s="105">
         <f t="shared" ca="1" si="145"/>
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="M41" s="105">
         <f t="shared" ca="1" si="145"/>
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="N41" s="105">
         <f t="shared" ca="1" si="145"/>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O41" s="105">
         <f t="shared" ca="1" si="145"/>
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="P41" s="105">
         <f t="shared" ca="1" si="145"/>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q41" s="105">
         <f t="shared" ca="1" si="145"/>
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
@@ -23262,11 +23262,11 @@
       </c>
       <c r="D43" s="105">
         <f ca="1">RANDBETWEEN(20,60)+D42</f>
-        <v>520</v>
+        <v>553</v>
       </c>
       <c r="E43" s="105">
         <f t="shared" ref="E43" ca="1" si="146">RANDBETWEEN(20,60)+E42</f>
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="F43" s="105">
         <f t="shared" ref="F43" ca="1" si="147">RANDBETWEEN(20,60)+F42</f>
@@ -23274,47 +23274,47 @@
       </c>
       <c r="G43" s="105">
         <f t="shared" ref="G43" ca="1" si="148">RANDBETWEEN(20,60)+G42</f>
-        <v>548</v>
+        <v>522</v>
       </c>
       <c r="H43" s="105">
         <f t="shared" ref="H43" ca="1" si="149">RANDBETWEEN(20,60)+H42</f>
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="I43" s="105">
         <f t="shared" ref="I43" ca="1" si="150">RANDBETWEEN(20,60)+I42</f>
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="J43" s="105">
         <f t="shared" ref="J43" ca="1" si="151">RANDBETWEEN(20,60)+J42</f>
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="K43" s="105">
         <f t="shared" ref="K43" ca="1" si="152">RANDBETWEEN(20,60)+K42</f>
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="L43" s="105">
         <f t="shared" ref="L43" ca="1" si="153">RANDBETWEEN(20,60)+L42</f>
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="M43" s="105">
         <f t="shared" ref="M43" ca="1" si="154">RANDBETWEEN(20,60)+M42</f>
-        <v>551</v>
+        <v>532</v>
       </c>
       <c r="N43" s="105">
         <f t="shared" ref="N43" ca="1" si="155">RANDBETWEEN(20,60)+N42</f>
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="O43" s="105">
         <f t="shared" ref="O43" ca="1" si="156">RANDBETWEEN(20,60)+O42</f>
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="P43" s="105">
         <f t="shared" ref="P43" ca="1" si="157">RANDBETWEEN(20,60)+P42</f>
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="Q43" s="105">
         <f t="shared" ref="Q43" ca="1" si="158">RANDBETWEEN(20,60)+Q42</f>
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
@@ -23329,11 +23329,11 @@
       </c>
       <c r="D44" s="105">
         <f t="shared" ref="D44:Q44" ca="1" si="159">D43-D42</f>
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="E44" s="105">
         <f t="shared" ca="1" si="159"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F44" s="105">
         <f t="shared" ca="1" si="159"/>
@@ -23341,47 +23341,47 @@
       </c>
       <c r="G44" s="105">
         <f t="shared" ca="1" si="159"/>
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="H44" s="105">
         <f t="shared" ca="1" si="159"/>
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="I44" s="105">
         <f t="shared" ca="1" si="159"/>
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="J44" s="105">
         <f t="shared" ca="1" si="159"/>
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K44" s="105">
         <f t="shared" ca="1" si="159"/>
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="L44" s="105">
         <f t="shared" ca="1" si="159"/>
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M44" s="105">
         <f t="shared" ca="1" si="159"/>
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="N44" s="105">
         <f t="shared" ca="1" si="159"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O44" s="105">
         <f t="shared" ca="1" si="159"/>
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="P44" s="105">
         <f t="shared" ca="1" si="159"/>
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="Q44" s="105">
         <f t="shared" ca="1" si="159"/>
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
@@ -23449,55 +23449,55 @@
       </c>
       <c r="D46" s="105">
         <f ca="1">RANDBETWEEN(20,60)+D45</f>
-        <v>558</v>
+        <v>525</v>
       </c>
       <c r="E46" s="105">
         <f t="shared" ref="E46" ca="1" si="160">RANDBETWEEN(20,60)+E45</f>
-        <v>529</v>
+        <v>555</v>
       </c>
       <c r="F46" s="105">
         <f t="shared" ref="F46" ca="1" si="161">RANDBETWEEN(20,60)+F45</f>
-        <v>551</v>
+        <v>530</v>
       </c>
       <c r="G46" s="105">
         <f t="shared" ref="G46" ca="1" si="162">RANDBETWEEN(20,60)+G45</f>
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="H46" s="105">
         <f t="shared" ref="H46" ca="1" si="163">RANDBETWEEN(20,60)+H45</f>
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="I46" s="105">
         <f t="shared" ref="I46" ca="1" si="164">RANDBETWEEN(20,60)+I45</f>
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="J46" s="105">
         <f t="shared" ref="J46" ca="1" si="165">RANDBETWEEN(20,60)+J45</f>
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="K46" s="105">
         <f t="shared" ref="K46" ca="1" si="166">RANDBETWEEN(20,60)+K45</f>
-        <v>524</v>
+        <v>548</v>
       </c>
       <c r="L46" s="105">
         <f t="shared" ref="L46" ca="1" si="167">RANDBETWEEN(20,60)+L45</f>
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="M46" s="105">
         <f t="shared" ref="M46" ca="1" si="168">RANDBETWEEN(20,60)+M45</f>
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="N46" s="105">
         <f t="shared" ref="N46" ca="1" si="169">RANDBETWEEN(20,60)+N45</f>
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="O46" s="105">
         <f t="shared" ref="O46" ca="1" si="170">RANDBETWEEN(20,60)+O45</f>
-        <v>521</v>
+        <v>558</v>
       </c>
       <c r="P46" s="105">
         <f t="shared" ref="P46" ca="1" si="171">RANDBETWEEN(20,60)+P45</f>
-        <v>541</v>
+        <v>557</v>
       </c>
       <c r="Q46" s="105">
         <f t="shared" ref="Q46" ca="1" si="172">RANDBETWEEN(20,60)+Q45</f>
@@ -23516,55 +23516,55 @@
       </c>
       <c r="D47" s="105">
         <f t="shared" ref="D47:Q47" ca="1" si="173">D46-D45</f>
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="E47" s="105">
         <f t="shared" ca="1" si="173"/>
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="F47" s="105">
         <f t="shared" ca="1" si="173"/>
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G47" s="105">
         <f t="shared" ca="1" si="173"/>
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H47" s="105">
         <f t="shared" ca="1" si="173"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I47" s="105">
         <f t="shared" ca="1" si="173"/>
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="J47" s="105">
         <f t="shared" ca="1" si="173"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K47" s="105">
         <f t="shared" ca="1" si="173"/>
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="L47" s="105">
         <f t="shared" ca="1" si="173"/>
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="M47" s="105">
         <f t="shared" ca="1" si="173"/>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N47" s="105">
         <f t="shared" ca="1" si="173"/>
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="O47" s="105">
         <f t="shared" ca="1" si="173"/>
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="P47" s="105">
         <f t="shared" ca="1" si="173"/>
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="Q47" s="105">
         <f t="shared" ca="1" si="173"/>
